--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,43 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714DE8C-52AC-4FAC-8F23-8AC505FB3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D8737-2A32-4495-A2B5-355383935CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="17" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
     <sheet name="PT" sheetId="2" r:id="rId2"/>
+    <sheet name="ĐB" sheetId="3" r:id="rId3"/>
+    <sheet name="FOB" sheetId="5" r:id="rId4"/>
+    <sheet name="PT09" sheetId="6" r:id="rId5"/>
+    <sheet name="BB DO" sheetId="7" r:id="rId6"/>
+    <sheet name="BB FO" sheetId="8" r:id="rId7"/>
+    <sheet name="PL1" sheetId="4" r:id="rId8"/>
+    <sheet name="PT2" sheetId="9" r:id="rId9"/>
+    <sheet name="PL3" sheetId="10" r:id="rId10"/>
+    <sheet name="PL4" sheetId="11" r:id="rId11"/>
+    <sheet name="VK11 PT" sheetId="12" r:id="rId12"/>
+    <sheet name="VK11 DB" sheetId="13" r:id="rId13"/>
+    <sheet name="VK11-FOB" sheetId="14" r:id="rId14"/>
+    <sheet name="VK11-TNPP" sheetId="15" r:id="rId15"/>
+    <sheet name="VK11-BB" sheetId="16" r:id="rId16"/>
+    <sheet name="PTS" sheetId="17" r:id="rId17"/>
+    <sheet name="Tổng hợp" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="123">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -113,13 +121,344 @@
   </si>
   <si>
     <t>F0 3,5 (Kg)</t>
+  </si>
+  <si>
+    <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ ĐẶC BIỆT</t>
+  </si>
+  <si>
+    <t>KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>Hỗ trợ cước v/c</t>
+  </si>
+  <si>
+    <t>Hỗ trợ theo VB1370/PLX ngày 12/6/2024</t>
+  </si>
+  <si>
+    <t>Mức giảm giá linh hoạt có VAT
+(-/+)</t>
+  </si>
+  <si>
+    <t>CK Vòng 2 đạt được chưa VAT</t>
+  </si>
+  <si>
+    <t>Lãi vay
+NH
+(đ/l)</t>
+  </si>
+  <si>
+    <t>Ron 95 III</t>
+  </si>
+  <si>
+    <t>E5 Ron92 II</t>
+  </si>
+  <si>
+    <t>DO 0.001S</t>
+  </si>
+  <si>
+    <t>DO 0.05S</t>
+  </si>
+  <si>
+    <t>Có thuế</t>
+  </si>
+  <si>
+    <t>Chưa thuế</t>
+  </si>
+  <si>
+    <t>PHỤ LỤC 01</t>
+  </si>
+  <si>
+    <t>MỨC GIẢM GIÁ PHỔ THÔNG HÀNG GIAO TRÊN PHƯƠNG TIỆN BÊN BÁN 
+TẠI KHO BÊN MUA</t>
+  </si>
+  <si>
+    <t>(Lưu hành tại Công ty)</t>
+  </si>
+  <si>
+    <t>MỨC GIẢM GIÁ (Đã có VAT)</t>
+  </si>
+  <si>
+    <t>Vùng thị trường</t>
+  </si>
+  <si>
+    <t>đ/lít tt</t>
+  </si>
+  <si>
+    <t>PHỤ LỤC 02</t>
+  </si>
+  <si>
+    <t>MỨC GIẢM GIÁ ĐẶC BIỆT
+HÀNG GIAO TRÊN PHƯƠNG TIỆN BÊN BÁN TẠI KHO BÊN MUA</t>
+  </si>
+  <si>
+    <t>TÊN KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>Xăng E5 RON-92</t>
+  </si>
+  <si>
+    <t>PHỤ LỤC 03</t>
+  </si>
+  <si>
+    <t>MỨC GIẢM GIÁ GIAO TẠI KHO BÊN BÁN (KHO XĂNG DẦU BẾN THỦY/ NGHI HƯƠNG)</t>
+  </si>
+  <si>
+    <t>PHỤ LỤC 04</t>
+  </si>
+  <si>
+    <t>ÁP DỤNG CHO THƯƠNG NHÂN PHÂN PHỐI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TẬP ĐOÀN XĂNG DẦU VIỆT NAM                         CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY XĂNG DẦU NGHỆ AN                                      ĐỘC LẬP - TỰ DO - HẠNH PHÚC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BẢNG GIÁ BÁN BUÔN FO 3,5S CÁC KHÁCH HÀNG MUA BUÔN TRỰC TIẾP</t>
+  </si>
+  <si>
+    <t>Kèm theo Quyết định số: ……………./PLXNA-QĐ ngày 01/08/2024</t>
+  </si>
+  <si>
+    <t>Tên khách hàng/
+Địa điểm giao hàng</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Mặt hàng</t>
+  </si>
+  <si>
+    <t>Mức lãi gộp TĐ giao (vùng 2)</t>
+  </si>
+  <si>
+    <t>Chi phí tạm tính</t>
+  </si>
+  <si>
+    <t>Bù đắp cước vận chuyển</t>
+  </si>
+  <si>
+    <t>Lợi nhuận</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN CHO KHÁCH HÀNG (đ/kg)</t>
+  </si>
+  <si>
+    <t>Cước vận tải</t>
+  </si>
+  <si>
+    <t>Chưa có VAT&amp;BVMT</t>
+  </si>
+  <si>
+    <t>Có VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>Tổng CP</t>
+  </si>
+  <si>
+    <t>Lãi vay
+NH (đ/l)</t>
+  </si>
+  <si>
+    <t>TẬP ĐOÀN XĂNG DẦU VIỆT NAM                                                                    CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    CÔNG TY XĂNG DẦU NGHỆ AN                                                                                 ĐỘC LẬP - TỰ DO - HẠNH PHÚC</t>
+  </si>
+  <si>
+    <t>BẢNG GIÁ BÁN BUÔN ĐIÊZEN CÁC KHÁCH HÀNG MUA BUÔN TRỰC TIẾP</t>
+  </si>
+  <si>
+    <t>Kèm theo Quyết định số: …………............/PLXNA-QĐ ngày 01/08/2024</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Địa điểm giao hàng</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Mã hàng hóa</t>
+  </si>
+  <si>
+    <t>Đvt</t>
+  </si>
+  <si>
+    <t>T.hanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi phí tạm tính chưa VAT </t>
+  </si>
+  <si>
+    <t>Đề xuất mức giảm giá tại kho bên bán (FOB)</t>
+  </si>
+  <si>
+    <t>Mức giảm giá tại kho bên mua</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN   (Đ/Ltt)</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN CHO KHÁCH HÀNG (Đ/L)</t>
+  </si>
+  <si>
+    <t>Đã có thuế</t>
+  </si>
+  <si>
+    <t>Cước vận chuyển</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lãi vay
+NH, phí bơm rót, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+  </si>
+  <si>
+    <t>Mã khách</t>
+  </si>
+  <si>
+    <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ CHO CÁC KHÁCH HÀNG GIAO TẠI KHO BÊN BÁN CHO TNPP</t>
+  </si>
+  <si>
+    <t>Lãi gộp được hưởng</t>
+  </si>
+  <si>
+    <t>Điều chỉnh mức giảm giá linh hoạt
+(-/+)</t>
+  </si>
+  <si>
+    <t>Đề xuất mức giảm giá tại kho Công ty</t>
+  </si>
+  <si>
+    <t>CK Vòng 2 đạt được có VAT</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
+  </si>
+  <si>
+    <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ CHO CÁC KHÁCH HÀNG GIAO TẠI KHO BÊN BÁN</t>
+  </si>
+  <si>
+    <t>Hỗ trợ
+theo
+VB1370/PLX</t>
+  </si>
+  <si>
+    <t>Distr. Chl</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Sale unit</t>
+  </si>
+  <si>
+    <t>Payt teams</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>Valid from</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Valid to</t>
+  </si>
+  <si>
+    <t>Lower limit</t>
+  </si>
+  <si>
+    <t>Upper limit</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng đại lý</t>
+  </si>
+  <si>
+    <t>Vùng CHXD</t>
+  </si>
+  <si>
+    <t>Cự ly
+V/c km</t>
+  </si>
+  <si>
+    <t>Đơn giá
+Cước đ/l</t>
+  </si>
+  <si>
+    <t>P thức</t>
+  </si>
+  <si>
+    <t>mã khách</t>
+  </si>
+  <si>
+    <t>mã hh</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>thời hạn TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giá chưa 
+VAT&amp;BVMT </t>
+  </si>
+  <si>
+    <t>Hiệu lực từ</t>
+  </si>
+  <si>
+    <t>đến</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="10">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0_);\(#\ ##0\)"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0_);\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00_)"/>
+  </numFmts>
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +477,486 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val=".VnTime"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val=".VnTime"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val=".VnTime"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="24"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -266,34 +1075,578 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="15" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="2" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="55" fillId="15" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="90"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -306,15 +1659,525 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="151">
+    <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="11" xr:uid="{3BA4A5BA-770D-455C-8A3F-607552606B1C}"/>
+    <cellStyle name="20% - Accent1 3" xfId="12" xr:uid="{264DCC2D-C9B8-4FA9-9345-8C7E243BB680}"/>
+    <cellStyle name="20% - Accent1 3 2" xfId="13" xr:uid="{978CA652-0C80-459E-A96E-05DEE9E2B172}"/>
+    <cellStyle name="20% - Accent1 4" xfId="14" xr:uid="{3062489B-42A6-429C-8FB3-6DB24CA1D074}"/>
+    <cellStyle name="20% - Accent2 2" xfId="15" xr:uid="{A862CC6E-35CA-48F9-A96A-32E5B842763B}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="16" xr:uid="{7091591F-EACD-4FB9-B07E-81C8B675312C}"/>
+    <cellStyle name="20% - Accent2 3" xfId="17" xr:uid="{3E3271C2-85A9-45B3-A018-7A5569FF2FC4}"/>
+    <cellStyle name="20% - Accent2 3 2" xfId="18" xr:uid="{58F908E4-C4ED-4AEC-9E8A-820CD6971C04}"/>
+    <cellStyle name="20% - Accent2 4" xfId="19" xr:uid="{738D0E93-C48C-4670-808D-99F90ACB6776}"/>
+    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{3209EC12-0BC6-432B-A6D3-24ABB8958FD4}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{7A9A8610-1406-4277-9200-B9B86D02B076}"/>
+    <cellStyle name="20% - Accent3 3" xfId="22" xr:uid="{23F88A7C-566A-416D-A5BD-D32ADE212B4D}"/>
+    <cellStyle name="20% - Accent3 3 2" xfId="23" xr:uid="{0416513D-CCC2-4999-B184-CB39798E8506}"/>
+    <cellStyle name="20% - Accent3 4" xfId="24" xr:uid="{736938DD-A01E-48D0-978F-849E823BFD57}"/>
+    <cellStyle name="20% - Accent4 2" xfId="25" xr:uid="{978660AA-4A91-4F11-829E-B8C507ED52ED}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="26" xr:uid="{F2DECE42-A997-455B-8F4F-4675066B65E3}"/>
+    <cellStyle name="20% - Accent4 3" xfId="27" xr:uid="{98DA8421-D2C2-4FCF-87FA-C614F4EDBB36}"/>
+    <cellStyle name="20% - Accent4 3 2" xfId="28" xr:uid="{B0D36B2F-2206-4584-A35C-AE564CA8987D}"/>
+    <cellStyle name="20% - Accent4 4" xfId="29" xr:uid="{A52A6EB7-1CFD-4200-B929-A8A3D5C0BBDC}"/>
+    <cellStyle name="20% - Accent5 2" xfId="30" xr:uid="{7144F70C-A386-40E0-B6D4-E252EB116862}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9FDC28D7-9000-467C-B9C3-D1554675BED0}"/>
+    <cellStyle name="20% - Accent5 3" xfId="32" xr:uid="{BF3103F5-CF4C-4F02-86B6-8EB5CBFCA880}"/>
+    <cellStyle name="20% - Accent5 3 2" xfId="33" xr:uid="{CDCFAF90-97EB-43F1-9A95-4FD7A90530F1}"/>
+    <cellStyle name="20% - Accent5 4" xfId="34" xr:uid="{B4738F13-9A50-49FB-A615-76D43A2793C5}"/>
+    <cellStyle name="20% - Accent6 2" xfId="35" xr:uid="{20793F92-2FD9-482C-902A-5DF8EA1DF06C}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="36" xr:uid="{F131524D-0CFE-4B43-A73B-89A8AD9BF36C}"/>
+    <cellStyle name="20% - Accent6 3" xfId="37" xr:uid="{5859DC85-70BA-43B4-9B90-CD5C28DCC305}"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="38" xr:uid="{70F0792C-62AD-42C7-873D-3E211757203F}"/>
+    <cellStyle name="20% - Accent6 4" xfId="39" xr:uid="{D1DF5E97-BA17-4F0B-869C-4FFE0CAA550E}"/>
+    <cellStyle name="40% - Accent1 2" xfId="40" xr:uid="{02AEECFB-6577-468F-89EF-5C4623395710}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="41" xr:uid="{376B599D-DA10-469A-B130-C8FDBC04B37E}"/>
+    <cellStyle name="40% - Accent1 3" xfId="42" xr:uid="{DE02CA98-9D30-4DE1-9436-82221A93F021}"/>
+    <cellStyle name="40% - Accent1 3 2" xfId="43" xr:uid="{B1D8D064-024A-4DD0-958D-FE6881909AB1}"/>
+    <cellStyle name="40% - Accent1 4" xfId="44" xr:uid="{F7CA1922-EC8F-402D-9DDD-626BF4E4E82F}"/>
+    <cellStyle name="40% - Accent2 2" xfId="45" xr:uid="{2DFA5F25-3BA5-43DA-9A1F-967BA31A42B7}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="46" xr:uid="{297DDAD0-E508-404B-AA21-9112BD5297E4}"/>
+    <cellStyle name="40% - Accent2 3" xfId="47" xr:uid="{E5E7A924-CB18-410C-B6AE-0874E5049DD4}"/>
+    <cellStyle name="40% - Accent2 3 2" xfId="48" xr:uid="{120241C7-3766-4BF3-A4CF-E2064D5C19E0}"/>
+    <cellStyle name="40% - Accent2 4" xfId="49" xr:uid="{45E6324C-BD6B-4E95-8A52-A6CE43342DC1}"/>
+    <cellStyle name="40% - Accent3 2" xfId="50" xr:uid="{D77FCDA0-B63E-4BD9-AF51-8245DC303FE6}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="51" xr:uid="{44DE4E05-70D1-4D71-A77A-D1120F95A0B8}"/>
+    <cellStyle name="40% - Accent3 3" xfId="52" xr:uid="{151D4256-9FE5-434C-A6BC-34C8D5B1555B}"/>
+    <cellStyle name="40% - Accent3 3 2" xfId="53" xr:uid="{532D4F3B-EFB2-4609-BCBC-79EB43D8ADEE}"/>
+    <cellStyle name="40% - Accent3 4" xfId="54" xr:uid="{751795B4-6595-498A-BB0E-1D20B0A3A64C}"/>
+    <cellStyle name="40% - Accent4 2" xfId="55" xr:uid="{77946E24-10FB-422D-B8E8-9B8E4A909F28}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="56" xr:uid="{76601777-A477-4E12-A80F-0B1D145C29C0}"/>
+    <cellStyle name="40% - Accent4 3" xfId="57" xr:uid="{A3555C70-1E17-465F-A8D3-F8B3BA7D3E77}"/>
+    <cellStyle name="40% - Accent4 3 2" xfId="58" xr:uid="{4D566E52-BCB2-4FB3-B9A0-6E863DF3F6AB}"/>
+    <cellStyle name="40% - Accent4 4" xfId="59" xr:uid="{5D8BF73A-E2D4-47CE-A2DD-D951D96A64C0}"/>
+    <cellStyle name="40% - Accent5 2" xfId="60" xr:uid="{D5EEF361-4C7B-4065-87B3-1C44B9B10B12}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="61" xr:uid="{ECE217A4-7359-4B02-999C-C4789591E983}"/>
+    <cellStyle name="40% - Accent5 3" xfId="62" xr:uid="{819CEF4B-1F39-4AA2-90D6-C3C6B232EA83}"/>
+    <cellStyle name="40% - Accent5 3 2" xfId="63" xr:uid="{F797F4E5-230E-434A-A3C5-4495DFC643F7}"/>
+    <cellStyle name="40% - Accent5 4" xfId="64" xr:uid="{23395229-8E3B-44A8-AF7D-7CED78DE345C}"/>
+    <cellStyle name="40% - Accent6 2" xfId="65" xr:uid="{24826AC2-7A40-4951-8DD7-907AA75EBBB7}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="66" xr:uid="{1D8DAFAB-A83A-41ED-8E79-DD2FE82E0A91}"/>
+    <cellStyle name="40% - Accent6 3" xfId="67" xr:uid="{50F75EF6-162A-40A7-8045-E3B284DB3E06}"/>
+    <cellStyle name="40% - Accent6 3 2" xfId="68" xr:uid="{9E65937A-2511-4A54-B508-D444D0CADFD2}"/>
+    <cellStyle name="40% - Accent6 4" xfId="69" xr:uid="{C992B765-10D0-470C-BA99-1982703CC3F5}"/>
+    <cellStyle name="Calc Currency (0)" xfId="70" xr:uid="{6AA02239-5D42-4107-9310-03F70BC1C10B}"/>
+    <cellStyle name="Calc Percent (0)" xfId="71" xr:uid="{2FAF6097-A3FB-42CD-9E82-8A964A3FCC40}"/>
+    <cellStyle name="Calc Percent (1)" xfId="72" xr:uid="{A2F58AE4-6A80-43DA-A3C9-1FC025BAAA25}"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Comma [0] 2" xfId="8" xr:uid="{764F7A2E-3555-4C88-83E5-76D1C798375E}"/>
+    <cellStyle name="Comma 2" xfId="73" xr:uid="{0D5850BA-3794-4F35-82E9-D468394CCE24}"/>
+    <cellStyle name="Comma 3" xfId="7" xr:uid="{C1DF1589-AF17-455B-8C4A-30538EA39E47}"/>
+    <cellStyle name="Comma 4" xfId="150" xr:uid="{110DB0C9-FA2D-4BB7-AC58-38386FB38E54}"/>
+    <cellStyle name="Comma0" xfId="74" xr:uid="{326CEE79-85A4-46BD-9C31-3FF005FFE31C}"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Currency [0] 2" xfId="9" xr:uid="{12B6BE1F-95C2-4223-A0A4-2F11CE7F2F19}"/>
+    <cellStyle name="Currency0" xfId="75" xr:uid="{B76FB041-C8F4-4793-9535-286FD3A9A2FA}"/>
+    <cellStyle name="Date" xfId="76" xr:uid="{DA6A2E7A-0FCE-4073-B333-5A82FA1840AE}"/>
+    <cellStyle name="Enter Currency (0)" xfId="77" xr:uid="{D79A5E96-A0C1-4B47-8C54-87BA999C2655}"/>
+    <cellStyle name="Fixed" xfId="78" xr:uid="{FA076D32-386E-4F62-8B7B-A56B29DF3AA9}"/>
+    <cellStyle name="Grey" xfId="79" xr:uid="{BB61D12A-417C-488F-B8F5-258C7EC06BB4}"/>
+    <cellStyle name="Header1" xfId="80" xr:uid="{55BEA0CE-47FB-417C-A7C5-B5CED86EB498}"/>
+    <cellStyle name="Header2" xfId="81" xr:uid="{C5334E88-EF0C-44F2-A1F3-B527CF6BB730}"/>
+    <cellStyle name="Hyperlink 2" xfId="82" xr:uid="{E64F0B32-6EF4-4AD4-A7AE-EF8E94FFDD4F}"/>
+    <cellStyle name="Input [yellow]" xfId="83" xr:uid="{0158E1D5-7387-4D73-91B2-979EDD8E730A}"/>
+    <cellStyle name="Link Currency (0)" xfId="84" xr:uid="{B3DC9CD7-3911-475E-9F08-23C45417BB02}"/>
+    <cellStyle name="New Times Roman" xfId="85" xr:uid="{1F083548-B35E-47D9-AAE5-06FCDCFA7A07}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="86" xr:uid="{F3398A24-5E23-4941-8292-31ADDAEBFD74}"/>
+    <cellStyle name="Normal 10_FMGT-GL-Configuration Design-HS-1.3" xfId="87" xr:uid="{57F5F615-99BB-4FD6-98C3-5F806194B0A9}"/>
+    <cellStyle name="Normal 12_FMGT-GL-Configuration Design-HS-1.3" xfId="88" xr:uid="{8EF21D48-E052-4661-BB42-F4FE54F7643C}"/>
+    <cellStyle name="Normal 16_FMGT-GL-Configuration Design-HS-1.3" xfId="89" xr:uid="{B9B7EA48-CE65-405B-A798-871CE5CCD57C}"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{EA042588-2E58-497A-81EC-709C48B1C16A}"/>
+    <cellStyle name="Normal 2 10" xfId="91" xr:uid="{A0C2204D-7A7A-4BFD-B4E1-27944E62AA18}"/>
+    <cellStyle name="Normal 2 11" xfId="92" xr:uid="{597728E0-6AF0-4C97-9743-221D298DA5B5}"/>
+    <cellStyle name="Normal 2 12" xfId="93" xr:uid="{66BAC58B-B287-4A88-B1E2-82B38BD335E9}"/>
+    <cellStyle name="Normal 2 13" xfId="94" xr:uid="{F9F8372D-D10E-4C8B-9B7B-1FEA1ED55E39}"/>
+    <cellStyle name="Normal 2 14" xfId="95" xr:uid="{FC7D5CCC-059D-4221-BB3E-6BEA490510F3}"/>
+    <cellStyle name="Normal 2 15" xfId="96" xr:uid="{AFE17E0B-EF5D-4692-BA15-C78706240C23}"/>
+    <cellStyle name="Normal 2 16" xfId="97" xr:uid="{F18D7FE1-0225-4474-95A9-F2CA8A4A0196}"/>
+    <cellStyle name="Normal 2 17" xfId="98" xr:uid="{A3A4CEB5-A71B-45D9-928C-B98DE0E7FC6A}"/>
+    <cellStyle name="Normal 2 18" xfId="99" xr:uid="{EFA4BDA2-3D8D-4E5B-9390-BCC9249345AA}"/>
+    <cellStyle name="Normal 2 19" xfId="100" xr:uid="{1642592C-C6E7-4216-A0D7-632AEA93569D}"/>
+    <cellStyle name="Normal 2 2" xfId="101" xr:uid="{A9D592C9-BC44-4897-BADF-590D4C0357E7}"/>
+    <cellStyle name="Normal 2 20" xfId="102" xr:uid="{52AC7483-7DAC-4C80-BF9E-F8659295A030}"/>
+    <cellStyle name="Normal 2 21" xfId="103" xr:uid="{68A5E272-E12E-45F5-B1BD-C75F04ACAC66}"/>
+    <cellStyle name="Normal 2 3" xfId="104" xr:uid="{CE48B795-D1BD-430F-AD24-16F02D7978B6}"/>
+    <cellStyle name="Normal 2 4" xfId="105" xr:uid="{08D5CC16-8879-4B21-9DA1-ECD69A723C01}"/>
+    <cellStyle name="Normal 2 5" xfId="106" xr:uid="{962CD320-6828-4605-B58B-9DE5BA30EE95}"/>
+    <cellStyle name="Normal 2 6" xfId="107" xr:uid="{2F71769E-A2F2-4C48-8A14-5E31B94A42FC}"/>
+    <cellStyle name="Normal 2 7" xfId="108" xr:uid="{539420A7-7938-43FF-BEB4-8A520BC870AC}"/>
+    <cellStyle name="Normal 2 8" xfId="109" xr:uid="{E3CA93A2-91ED-474B-A631-550DDCAF7379}"/>
+    <cellStyle name="Normal 2 9" xfId="110" xr:uid="{38228981-99EE-4D99-AC58-D9C4DCC6DA1C}"/>
+    <cellStyle name="Normal 2_FMGT-GL-Configuration Design-02" xfId="111" xr:uid="{D24F93CD-15B7-4DEE-98DC-427FB2C7E935}"/>
+    <cellStyle name="Normal 3" xfId="112" xr:uid="{4EE54CE9-4BA4-4F8A-BF92-AA20715EDB71}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{49D7425A-31D3-4DCC-8317-14850A4232A0}"/>
+    <cellStyle name="Normal 4 10" xfId="114" xr:uid="{0CCEDC35-4350-418A-95CA-EBFEAAAE351C}"/>
+    <cellStyle name="Normal 4 11" xfId="115" xr:uid="{1A032474-A058-4F51-ACDA-E9C22BADFD02}"/>
+    <cellStyle name="Normal 4 12" xfId="116" xr:uid="{1788D28A-37A0-47C6-847F-C7C9A0FCBDB0}"/>
+    <cellStyle name="Normal 4 13" xfId="117" xr:uid="{43D9A0B1-64A1-4129-98BA-186D04568465}"/>
+    <cellStyle name="Normal 4 14" xfId="118" xr:uid="{78DF3716-C466-4FDD-B8AE-77EA775E568D}"/>
+    <cellStyle name="Normal 4 15" xfId="119" xr:uid="{651D9A3E-68F4-44AF-8F05-0A117472A320}"/>
+    <cellStyle name="Normal 4 16" xfId="120" xr:uid="{96C01751-D22E-4DDC-8A34-549B6D48127B}"/>
+    <cellStyle name="Normal 4 17" xfId="121" xr:uid="{546EBB49-12E4-4B61-97C6-C9FB6A311E69}"/>
+    <cellStyle name="Normal 4 18" xfId="122" xr:uid="{9C0AB3C8-6FB5-4A3B-B545-5303944B7831}"/>
+    <cellStyle name="Normal 4 19" xfId="123" xr:uid="{64AE0D6A-0C1C-4141-9226-E54D034EAA24}"/>
+    <cellStyle name="Normal 4 2" xfId="124" xr:uid="{837A7463-6004-415D-AAF0-E0D9EAEB832E}"/>
+    <cellStyle name="Normal 4 20" xfId="125" xr:uid="{7484A6C0-B0A3-452D-84E3-A6B4A4D06F9C}"/>
+    <cellStyle name="Normal 4 21" xfId="126" xr:uid="{36BEC170-F60C-4FF5-89ED-5A7EE7A95C2B}"/>
+    <cellStyle name="Normal 4 3" xfId="127" xr:uid="{B5B0D8FC-ACA9-4EAA-BB14-11B58DD9A80C}"/>
+    <cellStyle name="Normal 4 4" xfId="128" xr:uid="{4FA7A1A7-7A28-4472-865B-E04A09C3B86D}"/>
+    <cellStyle name="Normal 4 5" xfId="129" xr:uid="{80E30EC6-155E-41E9-9296-D111BA4B657B}"/>
+    <cellStyle name="Normal 4 6" xfId="130" xr:uid="{0C0B413D-840E-49A0-BBFC-B80486D6443B}"/>
+    <cellStyle name="Normal 4 7" xfId="131" xr:uid="{3C308074-AA76-4552-BA93-9AE3796573CE}"/>
+    <cellStyle name="Normal 4 8" xfId="132" xr:uid="{8B93955E-0F41-448A-BB27-5E2BC4BE6831}"/>
+    <cellStyle name="Normal 4 9" xfId="133" xr:uid="{6AB4C300-E939-479B-9299-E07A0EAAF814}"/>
+    <cellStyle name="Normal 4_FMGT-GL-Configuration Design-02" xfId="134" xr:uid="{AD0AB3D1-88BB-418B-92E3-C31D601D44C0}"/>
+    <cellStyle name="Normal 5" xfId="135" xr:uid="{21325FAB-70F0-40DD-A728-C531ACCF00C9}"/>
+    <cellStyle name="Normal 5 2" xfId="136" xr:uid="{F26C7515-39D4-4DD6-A9E0-B590A506FE40}"/>
+    <cellStyle name="Normal 6" xfId="137" xr:uid="{83021ACB-2293-43AA-8E39-3FA0B1A7596D}"/>
+    <cellStyle name="Normal 7" xfId="138" xr:uid="{6AAE1896-8E05-4729-A009-76D707F2CD8A}"/>
+    <cellStyle name="Normal 8" xfId="6" xr:uid="{328AAD00-A440-4E78-8FFE-F1486DA0AF23}"/>
+    <cellStyle name="Normal 9" xfId="90" xr:uid="{1B1E23A4-E521-4C88-B3C8-4CC396F2591F}"/>
+    <cellStyle name="Normal_BANG TINH GIA 24.02.2011 2" xfId="3" xr:uid="{CE45D1C2-D90B-46F4-88BB-679169ED01A2}"/>
+    <cellStyle name="Normal_PHU LUC 01 NGAY 12.11" xfId="2" xr:uid="{401AAAE5-EDE2-4256-842C-005A3F92695E}"/>
+    <cellStyle name="Note 2" xfId="139" xr:uid="{3FC17222-661B-47AE-B36C-BDD69F273401}"/>
+    <cellStyle name="Note 2 2" xfId="140" xr:uid="{FFCA9F71-E30D-4CF1-9B69-C5C6B51495B4}"/>
+    <cellStyle name="Note 3" xfId="141" xr:uid="{39AEB646-8A4D-4CA4-875C-670FBFBEA1DB}"/>
+    <cellStyle name="Note 3 2" xfId="142" xr:uid="{4137B05A-AEFA-458A-BA1F-662349E84647}"/>
+    <cellStyle name="Note 4" xfId="143" xr:uid="{27CD98FA-BA53-4374-A233-3B25E2517322}"/>
+    <cellStyle name="Percent [2]" xfId="144" xr:uid="{18B5BFD9-D009-44C3-8498-9E490936EE7B}"/>
+    <cellStyle name="Percent 2" xfId="145" xr:uid="{E5A2642E-9F33-486E-8DC9-8CB3567082AC}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="146" xr:uid="{DAA78722-E962-445B-91A5-C837800AD97D}"/>
+    <cellStyle name="Product" xfId="147" xr:uid="{6D6C8B49-6942-457C-9DBA-0FC7558A2B5E}"/>
+    <cellStyle name="Text Indent A" xfId="148" xr:uid="{13EFFEEA-0CB8-4072-80EA-C667DD1232C1}"/>
+    <cellStyle name="Text Indent B" xfId="149" xr:uid="{0F5393D5-93A3-4972-ADEC-BACA45E0D95F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,6 +2190,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="S.Liệu gốc"/>
+      <sheetName val="PA1"/>
+      <sheetName val="PA2"/>
+      <sheetName val="PT"/>
+      <sheetName val="ĐB"/>
+      <sheetName val="ĐB (2)"/>
+      <sheetName val="FOB"/>
+      <sheetName val="FOB (2)"/>
+      <sheetName val="PT09"/>
+      <sheetName val="BB DO"/>
+      <sheetName val="BB FO"/>
+      <sheetName val="PL1"/>
+      <sheetName val="PL2"/>
+      <sheetName val="PL2B MN"/>
+      <sheetName val="PL3"/>
+      <sheetName val="PL4"/>
+      <sheetName val="VK11 PT"/>
+      <sheetName val="VK11 MN2A"/>
+      <sheetName val="VK11 ĐB"/>
+      <sheetName val="VK11-FOB"/>
+      <sheetName val="VK11-TNPP"/>
+      <sheetName val="PTS"/>
+      <sheetName val="PTS (2)"/>
+      <sheetName val="VK11 BB"/>
+      <sheetName val="Tổng hợp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,8 +2589,1181 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC6FEAC-8DE6-4B20-A269-0E0093737C9C}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999">
+      <c r="A1" s="223" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.8" customHeight="1">
+      <c r="A2" s="232" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A3" s="225" t="str">
+        <f>[1]PL1!A3:G3</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="233" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="236" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="238"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.6">
+      <c r="A6" s="234"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="235"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA740823-4366-4903-B084-C38E30579983}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="223" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="232" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A3" s="232" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A4" s="225" t="str">
+        <f>[1]PL1!A3:G3</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A5" s="229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="231" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A7" s="230"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B7366-B8E3-4E0A-8551-32D5C6538177}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.4" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="26.4" customHeight="1">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="41.4" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979D41B-1386-4F63-94B2-7F0FBFEBC32C}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="27.6">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="41.4">
+      <c r="A2" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="65"/>
+      <c r="N2" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="240"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="58"/>
+      <c r="S2" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B781F7-9248-4E3E-949E-2748ABA6A834}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="31.2" customHeight="1">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30.6" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="72"/>
+      <c r="N2" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="90"/>
+      <c r="P2" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+    </row>
+    <row r="3" spans="1:18" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="88"/>
+      <c r="P3" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE13AD4-5242-40DB-9234-26F05AD0819D}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="6.21875" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="27.6">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.6">
+      <c r="A2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="98"/>
+      <c r="P2" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+    </row>
+    <row r="3" spans="1:20" ht="43.2" customHeight="1">
+      <c r="A3" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="86"/>
+      <c r="P3" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C490802F-3B1F-4B4F-9CF0-122A8585FB71}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" customHeight="1">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="37.200000000000003" customHeight="1">
+      <c r="A2" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="86"/>
+      <c r="O2" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64766C0B-BF0B-4126-9E87-610616990927}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10820A70-D3A1-490F-B4B0-97185A40DDF7}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="27.6">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27.6">
+      <c r="A2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -660,328 +3772,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A15F11-E8E6-427F-BB71-523356BC2BC1}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="16.8">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-    </row>
-    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="Y3" s="6" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="16.8">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+    </row>
+    <row r="3" spans="1:38" ht="16.8">
+      <c r="Y3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-    </row>
-    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.8">
+      <c r="A4" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="107"/>
+      <c r="N4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7" t="s">
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="11" t="s">
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="11" t="s">
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="11" t="s">
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="11" t="s">
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="11" t="s">
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="12"/>
-    </row>
-    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="AL4" s="117"/>
+    </row>
+    <row r="5" spans="1:38" ht="16.8">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="14"/>
-    </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="119"/>
+    </row>
+    <row r="6" spans="1:38" ht="16.8">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
+      <c r="O6" s="107"/>
+      <c r="P6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="15" t="s">
+      <c r="S6" s="107"/>
+      <c r="T6" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="10" t="s">
+      <c r="U6" s="111"/>
+      <c r="V6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7" t="s">
+      <c r="W6" s="107"/>
+      <c r="X6" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AH6" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AI6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="107" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+    <row r="7" spans="1:38" ht="33.6">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1018,21 +4130,21 @@
       <c r="W7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -1051,6 +4163,12 @@
     <mergeCell ref="AG4:AH5"/>
     <mergeCell ref="AI4:AJ5"/>
     <mergeCell ref="AK4:AL5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M5"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="X6:X7"/>
@@ -1062,6 +4180,9 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="AG6:AG7"/>
@@ -1071,17 +4192,2451 @@
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C4A2F-FEFF-4285-A50E-C1999272D349}">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="28.2" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" customWidth="1"/>
+    <col min="23" max="23" width="14.21875" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" customWidth="1"/>
+    <col min="25" max="27" width="12.21875" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="15.88671875" customWidth="1"/>
+    <col min="37" max="37" width="12.88671875" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" customWidth="1"/>
+    <col min="39" max="39" width="13.21875" customWidth="1"/>
+    <col min="40" max="40" width="15.109375" customWidth="1"/>
+    <col min="41" max="41" width="13.21875" customWidth="1"/>
+    <col min="42" max="42" width="14.77734375" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A1" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="149"/>
+      <c r="AM1" s="149"/>
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="149"/>
+    </row>
+    <row r="2" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A2" s="150" t="str">
+        <f>[1]PT!A2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="150"/>
+      <c r="AP2" s="150"/>
+      <c r="AQ2" s="150"/>
+    </row>
+    <row r="3" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+    </row>
+    <row r="4" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A4" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="126" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+    </row>
+    <row r="5" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A5" s="152"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="144"/>
+      <c r="T5" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="144"/>
+      <c r="V5" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="144"/>
+      <c r="X5" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="161" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK5" s="142"/>
+      <c r="AL5" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="142"/>
+    </row>
+    <row r="6" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A6" s="152"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="136"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF6" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG6" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH6" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="147" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP6" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="28.2" customHeight="1">
+      <c r="A7" s="153"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="137"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="133"/>
+      <c r="AO7" s="133"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A1:AQ1"/>
+    <mergeCell ref="A2:AQ2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51211369-2362-46D0-A3BB-A4E21FBB5D29}">
+  <dimension ref="A1:AN7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="31" max="31" width="13.21875" customWidth="1"/>
+    <col min="32" max="32" width="11.21875" customWidth="1"/>
+    <col min="33" max="33" width="13.21875" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="35" max="35" width="12" customWidth="1"/>
+    <col min="36" max="36" width="12.44140625" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="11.44140625" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="177" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+    </row>
+    <row r="2" spans="1:40" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="178" t="str">
+        <f>[1]PT!A2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+    </row>
+    <row r="3" spans="1:40" ht="25.8" customHeight="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:40" ht="22.2" customHeight="1">
+      <c r="A4" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="194" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="184"/>
+      <c r="O4" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="175"/>
+      <c r="AN4" s="175"/>
+    </row>
+    <row r="5" spans="1:40" ht="13.8" customHeight="1">
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="195"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="169"/>
+      <c r="AM5" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN5" s="171"/>
+    </row>
+    <row r="6" spans="1:40" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="165"/>
+      <c r="U6" s="172" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="173"/>
+      <c r="W6" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="31.2" customHeight="1">
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="M4:N6"/>
+    <mergeCell ref="O4:X5"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Z4:AD5"/>
+    <mergeCell ref="AE4:AN4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9DA80-7EC5-4B5B-A6AE-C781D0317D2F}">
+  <dimension ref="A1:AM7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="44" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="45" customWidth="1"/>
+    <col min="12" max="17" width="8.88671875" style="45"/>
+    <col min="18" max="21" width="10.6640625" style="45" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" style="45" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="45" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="45" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="11" style="45" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="45" customWidth="1"/>
+    <col min="28" max="28" width="9.21875" style="45" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" style="45"/>
+    <col min="30" max="30" width="12.77734375" style="45" customWidth="1"/>
+    <col min="31" max="31" width="11.77734375" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" style="45" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" style="45" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" style="45" customWidth="1"/>
+    <col min="35" max="35" width="11.77734375" style="45" customWidth="1"/>
+    <col min="36" max="37" width="12.5546875" style="45" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" style="45" customWidth="1"/>
+    <col min="39" max="39" width="11.77734375" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="21" customHeight="1">
+      <c r="A1" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="196"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+    </row>
+    <row r="2" spans="1:39" ht="21" customHeight="1">
+      <c r="A2" s="197" t="str">
+        <f>[1]PT!A2:X2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="197"/>
+      <c r="AM2" s="197"/>
+    </row>
+    <row r="3" spans="1:39" ht="21" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+    </row>
+    <row r="4" spans="1:39" ht="21" customHeight="1">
+      <c r="A4" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="184"/>
+      <c r="N4" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="174"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="175"/>
+    </row>
+    <row r="5" spans="1:39" ht="21" customHeight="1">
+      <c r="A5" s="180"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="176" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="188"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="169"/>
+      <c r="AL5" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="171"/>
+    </row>
+    <row r="6" spans="1:39" ht="21" customHeight="1">
+      <c r="A6" s="180"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="165"/>
+      <c r="T6" s="172" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="173"/>
+      <c r="V6" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="165"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="163" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="163" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="21" customHeight="1">
+      <c r="A7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="N4:W5"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="Y4:AC5"/>
+    <mergeCell ref="AD4:AM4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C6E81-69CE-4986-A547-B886F9C2D5C5}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="44"/>
+    <col min="2" max="2" width="49.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="45"/>
+    <col min="9" max="9" width="14.33203125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="45" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="45" customWidth="1"/>
+    <col min="19" max="21" width="8.88671875" style="45"/>
+    <col min="22" max="22" width="15.44140625" style="45" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A1" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+    </row>
+    <row r="2" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A2" s="201" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A3" s="202" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+    </row>
+    <row r="4" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A4" s="203" t="str">
+        <f>[1]PT!A2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203"/>
+    </row>
+    <row r="5" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A5" s="203" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203"/>
+    </row>
+    <row r="6" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A6" s="204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="204" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="205" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="211" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="211"/>
+      <c r="L6" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="200"/>
+      <c r="V6" s="206" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="206"/>
+    </row>
+    <row r="7" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A7" s="204"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="206"/>
+      <c r="W7" s="206"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A8" s="204"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="207" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="200" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="208" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="208" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="209" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="22.2" customHeight="1">
+      <c r="A9" s="204"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="208"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="199"/>
+      <c r="T9" s="199"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="209"/>
+      <c r="W9" s="210"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:O7"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D02427-3E4D-457F-B925-F3188B416C26}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A1" s="214" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A2" s="215" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+    </row>
+    <row r="3" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A4" s="216" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+    </row>
+    <row r="5" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A5" s="217" t="str">
+        <f>[1]PT!A2:X2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+    </row>
+    <row r="6" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A6" s="217" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A8" s="218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="218" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="219" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="218" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="212" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="212"/>
+    </row>
+    <row r="9" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A9" s="218"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A10" s="218"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="222" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="222" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="213" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="213" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21.6" customHeight="1">
+      <c r="A11" s="218"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC47B7-0CF8-4A7C-BEBE-696602751C34}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="223" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="224" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="225" t="str">
+        <f>[1]PT!A2</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A4" s="226" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="18.600000000000001" customHeight="1"/>
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A6" s="228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="228" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A7" s="228"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="228"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DFC59-D264-4DC0-8CC3-DC74EF4BA644}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.8" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A1" s="223" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.200000000000003" customHeight="1">
+      <c r="A2" s="224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A3" s="225" t="str">
+        <f>[1]PL1!A3:G3</f>
+        <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
+      </c>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A4" s="229" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A5" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="231" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A6" s="230"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A7" s="230"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638D8737-2A32-4495-A2B5-355383935CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD12EA-4D9D-4442-8A8F-A9265072DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="17" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="17" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="123">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -447,18 +458,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#\ ##0_);\(#\ ##0\)"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0_);\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#\ ##0_);\(#\ ##0\)"/>
+    <numFmt numFmtId="168" formatCode="#\ ##0_);\(#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +867,19 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1212,15 +1236,15 @@
   </borders>
   <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,14 +1305,14 @@
     <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="171" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="15" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="2" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="55" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1302,9 +1326,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="55" fillId="15" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
@@ -1364,13 +1388,13 @@
     <xf numFmtId="0" fontId="51" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="18" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="61" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,17 +1403,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1463,7 +1487,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1471,7 +1495,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1627,21 +1651,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,91 +1668,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1752,7 +1689,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,67 +1704,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1869,7 +1851,10 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,6 +1872,45 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,12 +1920,37 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="31" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1912,36 +1961,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1955,21 +1989,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,6 +2048,13 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="151">
@@ -2589,7 +2620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2606,17 +2637,17 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="223" t="s">
         <v>48</v>
       </c>
@@ -2627,7 +2658,7 @@
       <c r="F1" s="223"/>
       <c r="G1" s="223"/>
     </row>
-    <row r="2" spans="1:7" ht="25.8" customHeight="1">
+    <row r="2" spans="1:7" ht="25.9" customHeight="1">
       <c r="A2" s="232" t="s">
         <v>49</v>
       </c>
@@ -2638,7 +2669,7 @@
       <c r="F2" s="232"/>
       <c r="G2" s="232"/>
     </row>
-    <row r="3" spans="1:7" ht="19.8" customHeight="1">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="225" t="str">
         <f>[1]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
@@ -2650,7 +2681,7 @@
       <c r="F3" s="225"/>
       <c r="G3" s="225"/>
     </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="17.45" customHeight="1">
       <c r="A4" s="229" t="s">
         <v>40</v>
       </c>
@@ -2661,7 +2692,7 @@
       <c r="F4" s="229"/>
       <c r="G4" s="229"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="233" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2707,7 @@
       <c r="F5" s="237"/>
       <c r="G5" s="238"/>
     </row>
-    <row r="6" spans="1:7" ht="27.6">
+    <row r="6" spans="1:7" ht="28.5">
       <c r="A6" s="234"/>
       <c r="B6" s="234"/>
       <c r="C6" s="21" t="s">
@@ -2695,7 +2726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="235"/>
       <c r="B7" s="235"/>
       <c r="C7" s="25" t="s">
@@ -2736,18 +2767,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:7" ht="20.45" customHeight="1">
       <c r="A1" s="223" t="s">
         <v>50</v>
       </c>
@@ -2758,7 +2789,7 @@
       <c r="F1" s="223"/>
       <c r="G1" s="223"/>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:7" ht="20.45" customHeight="1">
       <c r="A2" s="232" t="s">
         <v>49</v>
       </c>
@@ -2769,7 +2800,7 @@
       <c r="F2" s="232"/>
       <c r="G2" s="232"/>
     </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="3" spans="1:7" ht="20.45" customHeight="1">
       <c r="A3" s="232" t="s">
         <v>51</v>
       </c>
@@ -2780,7 +2811,7 @@
       <c r="F3" s="232"/>
       <c r="G3" s="232"/>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="4" spans="1:7" ht="20.45" customHeight="1">
       <c r="A4" s="225" t="str">
         <f>[1]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
@@ -2792,7 +2823,7 @@
       <c r="F4" s="225"/>
       <c r="G4" s="225"/>
     </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="5" spans="1:7" ht="20.45" customHeight="1">
       <c r="A5" s="229" t="s">
         <v>40</v>
       </c>
@@ -2803,7 +2834,7 @@
       <c r="F5" s="229"/>
       <c r="G5" s="229"/>
     </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="6" spans="1:7" ht="20.45" customHeight="1">
       <c r="A6" s="230" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2849,7 @@
       <c r="F6" s="231"/>
       <c r="G6" s="231"/>
     </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:7" ht="20.45" customHeight="1">
       <c r="A7" s="230"/>
       <c r="B7" s="230"/>
       <c r="C7" s="21" t="s">
@@ -2837,7 +2868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1">
+    <row r="8" spans="1:7" ht="20.45" customHeight="1">
       <c r="A8" s="230"/>
       <c r="B8" s="230"/>
       <c r="C8" s="26" t="s">
@@ -2882,24 +2913,24 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.4" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="26.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="3" width="42.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="26.4" customHeight="1">
+    <row r="1" spans="1:21" ht="26.45" customHeight="1">
       <c r="A1" s="56"/>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -2950,7 +2981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="41.4" customHeight="1">
+    <row r="2" spans="1:21" ht="41.45" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
@@ -3019,23 +3050,23 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27.6">
+    <row r="1" spans="1:21" ht="30">
       <c r="A1" s="61"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -3086,7 +3117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="41.4">
+    <row r="2" spans="1:21" ht="45">
       <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
@@ -3160,22 +3191,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.2" customHeight="1">
+    <row r="1" spans="1:18" ht="31.15" customHeight="1">
       <c r="A1" s="71"/>
       <c r="B1" s="71"/>
       <c r="C1" s="72"/>
@@ -3265,7 +3296,7 @@
       <c r="Q2" s="66"/>
       <c r="R2" s="66"/>
     </row>
-    <row r="3" spans="1:18" ht="34.200000000000003" customHeight="1">
+    <row r="3" spans="1:18" ht="34.15" customHeight="1">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
@@ -3325,25 +3356,25 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="6.21875" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.6">
+    <row r="1" spans="1:20" ht="30">
       <c r="A1" s="91"/>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -3393,7 +3424,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6">
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="91"/>
       <c r="B2" s="93"/>
       <c r="C2" s="94"/>
@@ -3437,7 +3468,7 @@
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
     </row>
-    <row r="3" spans="1:20" ht="43.2" customHeight="1">
+    <row r="3" spans="1:20" ht="43.15" customHeight="1">
       <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
@@ -3505,16 +3536,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" customHeight="1">
@@ -3566,7 +3597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="37.200000000000003" customHeight="1">
+    <row r="2" spans="1:19" ht="37.15" customHeight="1">
       <c r="A2" s="99" t="s">
         <v>2</v>
       </c>
@@ -3626,7 +3657,7 @@
       <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3634,134 +3665,85 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10820A70-D3A1-490F-B4B0-97185A40DDF7}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A2:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="3" width="39.44140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="241" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" style="241" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="241" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="241"/>
+    <col min="6" max="6" width="11.28515625" style="241" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="241" customWidth="1"/>
+    <col min="8" max="8" width="18" style="241" customWidth="1"/>
+    <col min="9" max="9" width="17" style="241" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="241"/>
+    <col min="11" max="11" width="11.28515625" style="241" customWidth="1"/>
+    <col min="12" max="12" width="14" style="241" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="241"/>
+    <col min="17" max="17" width="20.140625" style="241" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="241" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="241" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="241"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27.6">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="27.6">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:19" s="243" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A2" s="242" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="242" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="242" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56" t="s">
+      <c r="R2" s="242"/>
+      <c r="S2" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3779,104 +3761,104 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="16.8">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="16.5">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="16.8">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-    </row>
-    <row r="3" spans="1:38" ht="16.8">
-      <c r="Y3" s="115" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="16.5">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+    </row>
+    <row r="3" spans="1:38" ht="16.5">
+      <c r="Y3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-    </row>
-    <row r="4" spans="1:38" ht="16.8">
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+    </row>
+    <row r="4" spans="1:38" ht="16.5">
       <c r="A4" s="107" t="s">
         <v>2</v>
       </c>
@@ -3921,28 +3903,28 @@
       <c r="Z4" s="107"/>
       <c r="AA4" s="107"/>
       <c r="AB4" s="107"/>
-      <c r="AC4" s="116" t="s">
+      <c r="AC4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="116" t="s">
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="116" t="s">
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="116" t="s">
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="116" t="s">
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="117"/>
-    </row>
-    <row r="5" spans="1:38" ht="16.8">
+      <c r="AL4" s="112"/>
+    </row>
+    <row r="5" spans="1:38" ht="16.5">
       <c r="A5" s="107"/>
       <c r="B5" s="107"/>
       <c r="C5" s="107"/>
@@ -3977,18 +3959,18 @@
       <c r="Z5" s="107"/>
       <c r="AA5" s="107"/>
       <c r="AB5" s="107"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="119"/>
-    </row>
-    <row r="6" spans="1:38" ht="16.8">
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="114"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="114"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="114"/>
+    </row>
+    <row r="6" spans="1:38" ht="16.5">
       <c r="A6" s="107"/>
       <c r="B6" s="107"/>
       <c r="C6" s="107"/>
@@ -4001,7 +3983,7 @@
       <c r="F6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="118" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="107" t="s">
@@ -4028,11 +4010,11 @@
         <v>22</v>
       </c>
       <c r="S6" s="107"/>
-      <c r="T6" s="110" t="s">
+      <c r="T6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="111"/>
-      <c r="V6" s="112" t="s">
+      <c r="U6" s="116"/>
+      <c r="V6" s="117" t="s">
         <v>24</v>
       </c>
       <c r="W6" s="107"/>
@@ -4045,7 +4027,7 @@
       <c r="Z6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="108" t="s">
+      <c r="AA6" s="118" t="s">
         <v>23</v>
       </c>
       <c r="AB6" s="107" t="s">
@@ -4082,14 +4064,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="33.6">
+    <row r="7" spans="1:38" ht="33">
       <c r="A7" s="107"/>
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
       <c r="E7" s="107"/>
       <c r="F7" s="107"/>
-      <c r="G7" s="109"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="107"/>
       <c r="I7" s="107"/>
       <c r="J7" s="107"/>
@@ -4133,7 +4115,7 @@
       <c r="X7" s="107"/>
       <c r="Y7" s="107"/>
       <c r="Z7" s="107"/>
-      <c r="AA7" s="109"/>
+      <c r="AA7" s="119"/>
       <c r="AB7" s="107"/>
       <c r="AC7" s="107"/>
       <c r="AD7" s="107"/>
@@ -4148,11 +4130,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:AL2"/>
     <mergeCell ref="Y3:AB3"/>
@@ -4169,29 +4169,11 @@
     <mergeCell ref="D4:H5"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:M5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4209,142 +4191,141 @@
       <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="28.15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="13.21875" customWidth="1"/>
-    <col min="25" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" customWidth="1"/>
-    <col min="36" max="36" width="15.88671875" customWidth="1"/>
-    <col min="37" max="37" width="12.88671875" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" customWidth="1"/>
-    <col min="39" max="39" width="13.21875" customWidth="1"/>
-    <col min="40" max="40" width="15.109375" customWidth="1"/>
-    <col min="41" max="41" width="13.21875" customWidth="1"/>
-    <col min="42" max="42" width="14.77734375" customWidth="1"/>
-    <col min="43" max="43" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" customWidth="1"/>
+    <col min="36" max="36" width="15.85546875" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1"/>
+    <col min="39" max="39" width="13.28515625" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" customWidth="1"/>
+    <col min="42" max="42" width="14.7109375" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A1" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="149"/>
-      <c r="AK1" s="149"/>
-      <c r="AL1" s="149"/>
-      <c r="AM1" s="149"/>
-      <c r="AN1" s="149"/>
-      <c r="AO1" s="149"/>
-      <c r="AP1" s="149"/>
-      <c r="AQ1" s="149"/>
-    </row>
-    <row r="2" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A2" s="150" t="str">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+    </row>
+    <row r="2" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A2" s="121" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="150"/>
-      <c r="AN2" s="150"/>
-      <c r="AO2" s="150"/>
-      <c r="AP2" s="150"/>
-      <c r="AQ2" s="150"/>
-    </row>
-    <row r="3" spans="1:43" ht="28.2" customHeight="1">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+    </row>
+    <row r="3" spans="1:43" ht="28.15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4374,10 +4355,10 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="151"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
@@ -4389,143 +4370,143 @@
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
     </row>
-    <row r="4" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A4" s="152" t="s">
+    <row r="4" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="120" t="s">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="136" t="s">
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="137" t="s">
+      <c r="O4" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="126" t="s">
+      <c r="Q4" s="147"/>
+      <c r="R4" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="136" t="s">
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="152"/>
+      <c r="Y4" s="152"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="138" t="s">
+      <c r="AC4" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-    </row>
-    <row r="5" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="143" t="s">
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+    </row>
+    <row r="5" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A5" s="123"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="144"/>
-      <c r="T5" s="143" t="s">
+      <c r="S5" s="131"/>
+      <c r="T5" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="144"/>
-      <c r="V5" s="143" t="s">
+      <c r="U5" s="131"/>
+      <c r="V5" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="144"/>
-      <c r="X5" s="157" t="s">
+      <c r="W5" s="131"/>
+      <c r="X5" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="143" t="s">
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="136"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="140"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="161" t="s">
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="142" t="s">
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142" t="s">
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="130" t="s">
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="162" t="s">
+      <c r="AO5" s="155"/>
+      <c r="AP5" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="AQ5" s="142"/>
-    </row>
-    <row r="6" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A6" s="152"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="136"/>
+      <c r="AQ5" s="139"/>
+    </row>
+    <row r="6" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A6" s="123"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="107" t="s">
         <v>20</v>
       </c>
@@ -4535,39 +4516,39 @@
       <c r="G6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="118" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="137" t="s">
+      <c r="L6" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="136"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="136"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="133"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="133"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="133"/>
+      <c r="AB6" s="127"/>
       <c r="AC6" s="107" t="s">
         <v>20</v>
       </c>
@@ -4577,59 +4558,59 @@
       <c r="AE6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="108" t="s">
+      <c r="AF6" s="118" t="s">
         <v>23</v>
       </c>
       <c r="AG6" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="136" t="s">
+      <c r="AH6" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="136" t="s">
+      <c r="AI6" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="136" t="s">
+      <c r="AJ6" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="147" t="s">
+      <c r="AK6" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="147" t="s">
+      <c r="AL6" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="147" t="s">
+      <c r="AM6" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="132" t="s">
+      <c r="AN6" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="132" t="s">
+      <c r="AO6" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="147" t="s">
+      <c r="AP6" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="147" t="s">
+      <c r="AQ6" s="143" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="28.2" customHeight="1">
-      <c r="A7" s="153"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="148"/>
+    <row r="7" spans="1:43" ht="28.15" customHeight="1">
+      <c r="A7" s="124"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="140"/>
       <c r="P7" s="10" t="s">
         <v>13</v>
       </c>
@@ -4666,25 +4647,59 @@
       <c r="AA7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="137"/>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="132"/>
-      <c r="AM7" s="132"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="132"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="118"/>
+      <c r="AE7" s="118"/>
+      <c r="AF7" s="142"/>
+      <c r="AG7" s="118"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="128"/>
+      <c r="AJ7" s="128"/>
+      <c r="AK7" s="144"/>
+      <c r="AL7" s="144"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="144"/>
+      <c r="AQ7" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A2:AQ2"/>
     <mergeCell ref="AD3:AG3"/>
@@ -4701,40 +4716,6 @@
     <mergeCell ref="AJ5:AK5"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4751,108 +4732,108 @@
       <selection pane="bottomRight" activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" customWidth="1"/>
-    <col min="31" max="31" width="13.21875" customWidth="1"/>
-    <col min="32" max="32" width="11.21875" customWidth="1"/>
-    <col min="33" max="33" width="13.21875" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" customWidth="1"/>
     <col min="35" max="35" width="12" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" customWidth="1"/>
-    <col min="38" max="38" width="11.44140625" customWidth="1"/>
-    <col min="39" max="39" width="11.88671875" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" customWidth="1"/>
+    <col min="39" max="39" width="11.85546875" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="177" t="s">
+    <row r="1" spans="1:40" ht="20.45" customHeight="1">
+      <c r="A1" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="177"/>
-      <c r="AG1" s="177"/>
-      <c r="AH1" s="177"/>
-      <c r="AI1" s="177"/>
-    </row>
-    <row r="2" spans="1:40" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="178" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+    </row>
+    <row r="2" spans="1:40" ht="20.45" customHeight="1">
+      <c r="A2" s="164" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-    </row>
-    <row r="3" spans="1:40" ht="25.8" customHeight="1">
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+    </row>
+    <row r="3" spans="1:40" ht="25.9" customHeight="1">
       <c r="A3" s="53"/>
       <c r="B3" s="1"/>
       <c r="C3" s="53"/>
@@ -4877,11 +4858,11 @@
       <c r="V3" s="55"/>
       <c r="W3" s="55"/>
       <c r="X3" s="55"/>
-      <c r="Y3" s="179" t="s">
+      <c r="Y3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -4891,233 +4872,233 @@
       <c r="AH3" s="52"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:40" ht="22.2" customHeight="1">
-      <c r="A4" s="180" t="s">
+    <row r="4" spans="1:40" ht="22.15" customHeight="1">
+      <c r="A4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="191" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="194" t="s">
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="182" t="s">
+      <c r="M4" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="184"/>
-      <c r="O4" s="174" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="190" t="s">
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="174" t="s">
+      <c r="Z4" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="175" t="s">
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="175"/>
-    </row>
-    <row r="5" spans="1:40" ht="13.8" customHeight="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="176" t="s">
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="194"/>
+      <c r="AH4" s="194"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="194"/>
+      <c r="AK4" s="194"/>
+      <c r="AL4" s="194"/>
+      <c r="AM4" s="194"/>
+      <c r="AN4" s="194"/>
+    </row>
+    <row r="5" spans="1:40" ht="13.9" customHeight="1">
+      <c r="A5" s="166"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="176" t="s">
+      <c r="I5" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="176" t="s">
+      <c r="J5" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="176" t="s">
+      <c r="K5" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="190"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="171" t="s">
+      <c r="L5" s="182"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="176"/>
+      <c r="AE5" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171" t="s">
+      <c r="AF5" s="184"/>
+      <c r="AG5" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171" t="s">
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="168" t="s">
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="170" t="s">
+      <c r="AL5" s="186"/>
+      <c r="AM5" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="171"/>
-    </row>
-    <row r="6" spans="1:40" ht="20.399999999999999" customHeight="1">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="163" t="s">
+      <c r="AN5" s="184"/>
+    </row>
+    <row r="6" spans="1:40" ht="20.45" customHeight="1">
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="165" t="s">
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="173"/>
+      <c r="O6" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165" t="s">
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165" t="s">
+      <c r="R6" s="191"/>
+      <c r="S6" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="165"/>
-      <c r="U6" s="172" t="s">
+      <c r="T6" s="191"/>
+      <c r="U6" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="173"/>
-      <c r="W6" s="164" t="s">
+      <c r="V6" s="193"/>
+      <c r="W6" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="190"/>
-      <c r="Z6" s="163" t="s">
+      <c r="X6" s="191"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="163" t="s">
+      <c r="AA6" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="163" t="s">
+      <c r="AB6" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="166" t="s">
+      <c r="AC6" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="163" t="s">
+      <c r="AD6" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="163" t="s">
+      <c r="AE6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="163" t="s">
+      <c r="AF6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="163" t="s">
+      <c r="AG6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="163" t="s">
+      <c r="AH6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="163" t="s">
+      <c r="AI6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="163" t="s">
+      <c r="AJ6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="163" t="s">
+      <c r="AK6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="163" t="s">
+      <c r="AL6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="163" t="s">
+      <c r="AM6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="163" t="s">
+      <c r="AN6" s="187" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="31.2" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="195"/>
+    <row r="7" spans="1:40" ht="31.15" customHeight="1">
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="182"/>
       <c r="M7" s="42" t="s">
         <v>13</v>
       </c>
@@ -5154,25 +5135,56 @@
       <c r="X7" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="187"/>
+      <c r="AJ7" s="187"/>
+      <c r="AK7" s="187"/>
+      <c r="AL7" s="187"/>
+      <c r="AM7" s="187"/>
+      <c r="AN7" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Z4:AD5"/>
+    <mergeCell ref="AE4:AN4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:AI2"/>
     <mergeCell ref="Y3:AA3"/>
@@ -5189,37 +5201,6 @@
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z4:AD5"/>
-    <mergeCell ref="AE4:AN4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5239,31 +5220,31 @@
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="44" customWidth="1"/>
-    <col min="3" max="7" width="11.5546875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="45" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="45" customWidth="1"/>
-    <col min="12" max="17" width="8.88671875" style="45"/>
-    <col min="18" max="21" width="10.6640625" style="45" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" style="45" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" style="45" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="45" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="44" customWidth="1"/>
+    <col min="3" max="7" width="11.5703125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="45" customWidth="1"/>
+    <col min="12" max="17" width="8.85546875" style="45"/>
+    <col min="18" max="21" width="10.7109375" style="45" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="45" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="45" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="45" customWidth="1"/>
     <col min="26" max="26" width="11" style="45" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" style="45" customWidth="1"/>
-    <col min="28" max="28" width="9.21875" style="45" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="45"/>
-    <col min="30" max="30" width="12.77734375" style="45" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" style="45" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" style="45" customWidth="1"/>
-    <col min="33" max="33" width="12.88671875" style="45" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" style="45" customWidth="1"/>
-    <col min="35" max="35" width="11.77734375" style="45" customWidth="1"/>
-    <col min="36" max="37" width="12.5546875" style="45" customWidth="1"/>
-    <col min="38" max="38" width="14.109375" style="45" customWidth="1"/>
-    <col min="39" max="39" width="11.77734375" style="45" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="45" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="45" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="45"/>
+    <col min="30" max="30" width="12.7109375" style="45" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="45" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="45" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="45" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" style="45" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="45" customWidth="1"/>
+    <col min="36" max="37" width="12.5703125" style="45" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" style="45" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="21" customHeight="1">
@@ -5397,226 +5378,226 @@
       <c r="AM3" s="51"/>
     </row>
     <row r="4" spans="1:39" ht="21" customHeight="1">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="174" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="182" t="s">
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="184"/>
-      <c r="N4" s="174" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="190" t="s">
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" s="174" t="s">
+      <c r="Y4" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="175" t="s">
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="194"/>
+      <c r="AH4" s="194"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="194"/>
+      <c r="AK4" s="194"/>
+      <c r="AL4" s="194"/>
+      <c r="AM4" s="194"/>
     </row>
     <row r="5" spans="1:39" ht="21" customHeight="1">
-      <c r="A5" s="180"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="176" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="176" t="s">
+      <c r="I5" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="176" t="s">
+      <c r="J5" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="176" t="s">
+      <c r="K5" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="188"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="190"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="171" t="s">
+      <c r="L5" s="174"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171" t="s">
+      <c r="AE5" s="184"/>
+      <c r="AF5" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171" t="s">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="168" t="s">
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="170" t="s">
+      <c r="AK5" s="186"/>
+      <c r="AL5" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="171"/>
+      <c r="AM5" s="184"/>
     </row>
     <row r="6" spans="1:39" ht="21" customHeight="1">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="163" t="s">
+      <c r="A6" s="166"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="163" t="s">
+      <c r="G6" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="165" t="s">
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165" t="s">
+      <c r="O6" s="191"/>
+      <c r="P6" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165" t="s">
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="165"/>
-      <c r="T6" s="172" t="s">
+      <c r="S6" s="191"/>
+      <c r="T6" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="173"/>
-      <c r="V6" s="164" t="s">
+      <c r="U6" s="193"/>
+      <c r="V6" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="165"/>
-      <c r="X6" s="190"/>
-      <c r="Y6" s="163" t="s">
+      <c r="W6" s="191"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="163" t="s">
+      <c r="Z6" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="163" t="s">
+      <c r="AA6" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="166" t="s">
+      <c r="AB6" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="163" t="s">
+      <c r="AC6" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="163" t="s">
+      <c r="AD6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="163" t="s">
+      <c r="AE6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="163" t="s">
+      <c r="AF6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="163" t="s">
+      <c r="AG6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="163" t="s">
+      <c r="AH6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="163" t="s">
+      <c r="AI6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="163" t="s">
+      <c r="AJ6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="163" t="s">
+      <c r="AK6" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="163" t="s">
+      <c r="AL6" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="163" t="s">
+      <c r="AM6" s="187" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="21" customHeight="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
       <c r="L7" s="42" t="s">
         <v>13</v>
       </c>
@@ -5653,25 +5634,55 @@
       <c r="W7" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="187"/>
+      <c r="AE7" s="187"/>
+      <c r="AF7" s="187"/>
+      <c r="AG7" s="187"/>
+      <c r="AH7" s="187"/>
+      <c r="AI7" s="187"/>
+      <c r="AJ7" s="187"/>
+      <c r="AK7" s="187"/>
+      <c r="AL7" s="187"/>
+      <c r="AM7" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="Y4:AC5"/>
+    <mergeCell ref="AD4:AM4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:AM2"/>
     <mergeCell ref="Z3:AC3"/>
@@ -5688,36 +5699,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="Y4:AC5"/>
-    <mergeCell ref="AD4:AM4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5734,32 +5715,32 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="22.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="44"/>
-    <col min="2" max="2" width="49.88671875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="45"/>
-    <col min="9" max="9" width="14.33203125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="45" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.77734375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="45" customWidth="1"/>
-    <col min="19" max="21" width="8.88671875" style="45"/>
-    <col min="22" max="22" width="15.44140625" style="45" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="44"/>
+    <col min="2" max="2" width="49.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="45"/>
+    <col min="9" max="9" width="14.28515625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="45" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="45" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="45" customWidth="1"/>
+    <col min="19" max="21" width="8.85546875" style="45"/>
+    <col min="22" max="22" width="15.42578125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.2" customHeight="1">
+    <row r="1" spans="1:23" ht="22.15" customHeight="1">
       <c r="A1" s="197" t="s">
         <v>69</v>
       </c>
@@ -5786,126 +5767,126 @@
       <c r="V1" s="197"/>
       <c r="W1" s="197"/>
     </row>
-    <row r="2" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A2" s="201" t="s">
+    <row r="2" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A2" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-    </row>
-    <row r="3" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A3" s="202" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="U2" s="209"/>
+      <c r="V2" s="209"/>
+      <c r="W2" s="209"/>
+    </row>
+    <row r="3" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-    </row>
-    <row r="4" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A4" s="203" t="str">
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="210"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="210"/>
+    </row>
+    <row r="4" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A4" s="211" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="203"/>
-      <c r="V4" s="203"/>
-      <c r="W4" s="203"/>
-    </row>
-    <row r="5" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A5" s="203" t="s">
+      <c r="B4" s="211"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="211"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="211"/>
+    </row>
+    <row r="5" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A5" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203"/>
-    </row>
-    <row r="6" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="211"/>
+    </row>
+    <row r="6" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A6" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="205" t="s">
+      <c r="D6" s="208" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="107" t="s">
@@ -5923,138 +5904,156 @@
       <c r="I6" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="211" t="s">
+      <c r="J6" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="211"/>
-      <c r="L6" s="200" t="s">
+      <c r="K6" s="206"/>
+      <c r="L6" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200" t="s">
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200" t="s">
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200" t="s">
+      <c r="S6" s="202"/>
+      <c r="T6" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="200"/>
-      <c r="V6" s="206" t="s">
+      <c r="U6" s="202"/>
+      <c r="V6" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="W6" s="206"/>
-    </row>
-    <row r="7" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="205"/>
+      <c r="W6" s="199"/>
+    </row>
+    <row r="7" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A7" s="207"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="107"/>
       <c r="F7" s="107"/>
       <c r="G7" s="107"/>
       <c r="H7" s="107"/>
       <c r="I7" s="107"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="206"/>
-      <c r="W7" s="206"/>
-    </row>
-    <row r="8" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+    </row>
+    <row r="8" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A8" s="207"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="107"/>
       <c r="F8" s="107"/>
       <c r="G8" s="107"/>
       <c r="H8" s="107"/>
       <c r="I8" s="107"/>
-      <c r="J8" s="199" t="s">
+      <c r="J8" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="207" t="s">
+      <c r="K8" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="200" t="s">
+      <c r="L8" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="200" t="s">
+      <c r="M8" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="208" t="s">
+      <c r="N8" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="208" t="s">
+      <c r="O8" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="199" t="s">
+      <c r="P8" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="199" t="s">
+      <c r="Q8" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="199" t="s">
+      <c r="R8" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="S8" s="199" t="s">
+      <c r="S8" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="199" t="s">
+      <c r="T8" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="199" t="s">
+      <c r="U8" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="209" t="s">
+      <c r="V8" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="210" t="s">
+      <c r="W8" s="205" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="22.2" customHeight="1">
-      <c r="A9" s="204"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
+    <row r="9" spans="1:23" ht="22.15" customHeight="1">
+      <c r="A9" s="207"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="208"/>
       <c r="E9" s="107"/>
       <c r="F9" s="107"/>
       <c r="G9" s="107"/>
       <c r="H9" s="107"/>
       <c r="I9" s="107"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="210"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
@@ -6071,24 +6070,6 @@
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:O7"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="T6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6104,56 +6085,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="28"/>
@@ -6172,59 +6152,59 @@
       <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
-      <c r="N4" s="216"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="219"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="217" t="str">
+      <c r="A5" s="220" t="str">
         <f>[1]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="217"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="37"/>
@@ -6243,16 +6223,16 @@
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="212" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="107" t="s">
@@ -6271,16 +6251,16 @@
       <c r="L8" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="212" t="s">
+      <c r="M8" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="212"/>
+      <c r="N8" s="221"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="218"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="218"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="107"/>
       <c r="F9" s="107"/>
       <c r="G9" s="107"/>
@@ -6289,18 +6269,18 @@
       <c r="J9" s="107"/>
       <c r="K9" s="107"/>
       <c r="L9" s="107"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="218"/>
-      <c r="B10" s="218"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="222" t="s">
+      <c r="A10" s="212"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="222" t="s">
+      <c r="F10" s="216" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="107" t="s">
@@ -6317,43 +6297,31 @@
       </c>
       <c r="K10" s="107"/>
       <c r="L10" s="107"/>
-      <c r="M10" s="213" t="s">
+      <c r="M10" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="213" t="s">
+      <c r="N10" s="222" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="218"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
       <c r="G11" s="107"/>
       <c r="H11" s="107"/>
       <c r="I11" s="107"/>
       <c r="J11" s="107"/>
       <c r="K11" s="107"/>
       <c r="L11" s="107"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="213"/>
+      <c r="M11" s="222"/>
+      <c r="N11" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -6364,6 +6332,18 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6380,15 +6360,15 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -6429,7 +6409,7 @@
       <c r="G3" s="225"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="19.2" customHeight="1">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="226" t="s">
         <v>40</v>
       </c>
@@ -6442,7 +6422,7 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1" ht="18.600000000000001" customHeight="1"/>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="38.4" customHeight="1">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A6" s="228" t="s">
         <v>2</v>
       </c>
@@ -6519,17 +6499,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1">
+    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A1" s="223" t="s">
         <v>44</v>
       </c>
@@ -6540,7 +6520,7 @@
       <c r="F1" s="223"/>
       <c r="G1" s="223"/>
     </row>
-    <row r="2" spans="1:7" ht="40.200000000000003" customHeight="1">
+    <row r="2" spans="1:7" ht="40.15" customHeight="1">
       <c r="A2" s="224" t="s">
         <v>45</v>
       </c>
@@ -6551,7 +6531,7 @@
       <c r="F2" s="224"/>
       <c r="G2" s="224"/>
     </row>
-    <row r="3" spans="1:7" ht="16.8" customHeight="1">
+    <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="225" t="str">
         <f>[1]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
@@ -6563,7 +6543,7 @@
       <c r="F3" s="225"/>
       <c r="G3" s="225"/>
     </row>
-    <row r="4" spans="1:7" ht="16.8" customHeight="1">
+    <row r="4" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="229" t="s">
         <v>40</v>
       </c>
@@ -6574,7 +6554,7 @@
       <c r="F4" s="229"/>
       <c r="G4" s="229"/>
     </row>
-    <row r="5" spans="1:7" ht="16.8" customHeight="1">
+    <row r="5" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A5" s="230" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6569,7 @@
       <c r="F5" s="231"/>
       <c r="G5" s="231"/>
     </row>
-    <row r="6" spans="1:7" ht="16.8" customHeight="1">
+    <row r="6" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="230"/>
       <c r="B6" s="230"/>
       <c r="C6" s="21" t="s">
@@ -6608,7 +6588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.8" customHeight="1">
+    <row r="7" spans="1:7" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="230"/>
       <c r="B7" s="230"/>
       <c r="C7" s="23" t="s">

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\New folder (2)\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88265038-E770-4F07-870B-06F8FF43E558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFFE9A-E700-41C8-B5F5-AC299A00E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" activeTab="1" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" tabRatio="659" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -40,23 +40,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="196">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -413,24 +402,291 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>1. Thị trường Thành phố Vinh, TX Cửa Lò (áp dụng từ 15h00 ngày 01/8/2024)</t>
+  </si>
+  <si>
+    <t>MĂT HÀNG</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ CƠ SỞ (Giá vùng 1 TĐ công bố)</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ VÙNG 2            (TĐ công bố)</t>
+  </si>
+  <si>
+    <t>CHỆNH LỆCH GIÁ V2-V1</t>
+  </si>
+  <si>
+    <t>ĐỀ XUẤT GIÁ BÁN LẺ VÙNG TT TRUNG TÂM</t>
+  </si>
+  <si>
+    <t>CHÊNH LỆCH GIÁ BÁN LẺ VÙNG TT VÀ CÒN LẠI</t>
+  </si>
+  <si>
+    <t>ĐÁNH GIÁ</t>
+  </si>
+  <si>
+    <t>Mức tăng so VÙNG 1</t>
+  </si>
+  <si>
+    <t>Giá niêm yết</t>
+  </si>
+  <si>
+    <t>Xăng RON95-III</t>
+  </si>
+  <si>
+    <t>Giá bán lẻ trên vùng tăng không vượt quá mức 2% V1</t>
+  </si>
+  <si>
+    <t>Xăng E5 RON 92-II</t>
+  </si>
+  <si>
+    <t>DO 0,001S-V</t>
+  </si>
+  <si>
+    <t>DO 0,05S-II</t>
+  </si>
+  <si>
+    <t>2. Các huyện thị còn lại trên địa bàn Nghệ An + địa bàn tỉnh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ             
+(Bằng giá bán lẻ vùng 2 TĐ công bố)</t>
+  </si>
+  <si>
+    <t>Ghi chú:</t>
+  </si>
+  <si>
+    <t>- Bôi vàng có thay đổi</t>
+  </si>
+  <si>
+    <t>- Các CHXD vùng trung tâm bao gồm: CH01/02/03/04/05/06/07/08/09/10/11/12/15/16/17/20/21/22</t>
+  </si>
+  <si>
+    <t>- Các CHXD còn lại bán theo giá vùng 2 Tập đoàn công bố cùng thời điểm</t>
+  </si>
+  <si>
+    <t>TẬP ĐOÀN XĂNG DẦU VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>CÔNG TY XĂNG DẦU NGHỆ AN</t>
+  </si>
+  <si>
+    <t>ĐỘC LẬP - TỰ DO - HẠNH PHÚC</t>
+  </si>
+  <si>
+    <t>BIỂU TỔNG HỢP CÁC CHỈ TIÊU DẦU SÁNG (PT bán lẻ - V2)</t>
+  </si>
+  <si>
+    <t>Tính từ 15h00 ngày 01/08/2024 theo CĐ số 1814/PLX-KD ngày 01/08/2024; QĐ giá bán lẻ số 682/PLX-TGĐ ngày 01/08/2024 và theo VCF Hè Thu</t>
+  </si>
+  <si>
+    <t>LOẠI HÀNG</t>
+  </si>
+  <si>
+    <t>H.SỐ VCF BQ MÙA MIỀN</t>
+  </si>
+  <si>
+    <t>THUẾ BVMT</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN NỘI BỘ TẬP ĐOÀN</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ CƠ SỞ (VÙNG 1) CÓ VAT &amp;BVMT</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ VÙNG 2</t>
+  </si>
+  <si>
+    <t>LÃI GỘP (Đ/LTT)</t>
+  </si>
+  <si>
+    <t>Thay đổi giá bán lẻ 15h00 ngày 01/08/2024 (Tp Vinh, TX Cửa Lò)</t>
+  </si>
+  <si>
+    <t>Thay đổi giá bán lẻ 15h00 ngày 01/08/2024 (Vùng còn lại)</t>
+  </si>
+  <si>
+    <t>L15 CHƯA VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>LTT CHƯA VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>LTT CÓ VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>GIÁ CÔNG BỐ</t>
+  </si>
+  <si>
+    <t>CHƯA VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>CÓ VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>Giá cũ</t>
+  </si>
+  <si>
+    <t>Giá mới</t>
+  </si>
+  <si>
+    <t>Tăng/Giảm</t>
+  </si>
+  <si>
+    <t>Vinh, ngày 01 tháng 08 năm 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thay đổi giá giao phương thức bán lẻ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         LẬP BIỂU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.KINH DOANH XDẦU </t>
+  </si>
+  <si>
+    <t>P. TÀI CHÍNH - KẾ TOÁN</t>
+  </si>
+  <si>
+    <t>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</t>
+  </si>
+  <si>
+    <t>PHÓ GIÁM ĐỐC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Valid from</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Valid to</t>
+  </si>
+  <si>
+    <t>BIỂU TỔNG HỢP CÁC CHỈ TIÊU DẦU SÁNG (ngoài bán lẻ)</t>
+  </si>
+  <si>
+    <t>01.08.2024</t>
+  </si>
+  <si>
+    <t>31.12.9999</t>
+  </si>
+  <si>
+    <t>Tính từ 15h00 ngày 01/08/2024 theo CĐ số 1813/PLX-KD ngày 01/08/2024; QĐ giá bán lẻ số 682/PLX-TGĐ ngày 01/08/2024 và theo VCF Hè Thu</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN LẺ (Lít tt)</t>
+  </si>
+  <si>
+    <t>LÃI GỘP THEO GIÁ TĐ GIAO (Lít tt)</t>
+  </si>
+  <si>
+    <t>LÃI GỘP ĐIỀU TIẾT</t>
+  </si>
+  <si>
+    <t>LÃI GỘP LINH HOẠT (Đ/Lít tt)</t>
+  </si>
+  <si>
+    <t>GIẢM GIÁ FOB CÓ VAT &amp;BVMT</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN CÓ THUẾ L15</t>
+  </si>
+  <si>
+    <t>LỢI NHUẬN CÓ THUẾ Ltt</t>
+  </si>
+  <si>
+    <t>1. Lãi gộp từ 15h00 ngày 01/08/2024 và tính theo VCF Hè Thu từ tháng 5-10 hàng năm</t>
+  </si>
+  <si>
+    <t>GIÁ NIÊM YẾT</t>
+  </si>
+  <si>
+    <t>So sánh lãi gộp giữa hai kỳ</t>
+  </si>
+  <si>
+    <t>LG cũ</t>
+  </si>
+  <si>
+    <t>LG mới</t>
+  </si>
+  <si>
+    <t>Vùng thị trường trung tâm</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Các vùng thị trường còn lại</t>
+  </si>
+  <si>
+    <t>2. Đề xuất mức giảm giá từ 15h00 ngày 01/08/2024</t>
+  </si>
+  <si>
+    <t>So sánh chiết khấu giữa hai kỳ</t>
+  </si>
+  <si>
+    <t>CK cũ</t>
+  </si>
+  <si>
+    <t>CK mới</t>
+  </si>
+  <si>
+    <t>BIỂU TÍNH GIÁ XUẤT NỘI DỤNG</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN NỘI BỘ TĐ</t>
+  </si>
+  <si>
+    <t>GIA XUẤT NỘI DỤNG
+(Bao gồm VAT&amp;BVMT)</t>
+  </si>
+  <si>
+    <t>L15 CHƯA THUẾ VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t>LTT CHƯA THUẾ VAT &amp; BVMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Địa điểm giao hàng: Các mặt hàng Xăng, Điêzen giao tại kho Xăng dầu Bến Thuỷ; Nghi Hương </t>
+  </si>
+  <si>
+    <t>* Dầu FO giao tại Hà Nam Ninh hoặc các kho khác không thuộc Công ty xăng dầu Nghệ An</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0_);\(#\ ##0\)"/>
-    <numFmt numFmtId="168" formatCode="#\ ##0_);\(#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0.00_)"/>
+  <numFmts count="17">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0_);\(#\ ##0\)"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0_);\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00_)"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-1000000]h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +941,134 @@
       <name val=".VnTime"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -772,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -988,18 +1372,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1060,14 +1515,14 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="15" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1081,9 +1536,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="14" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1143,13 +1598,15 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1219,14 +1676,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1278,7 +1735,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1286,28 +1743,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,83 +1766,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,28 +1787,103 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,6 +1901,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,9 +1925,22 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1481,24 +1951,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,21 +1979,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,8 +2033,799 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="56" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="52" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="52" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="56" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="60" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="60" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="2" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="2" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="52" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="52" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="12" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="12" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="56" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="56" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="56" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
     <cellStyle name="20% - Accent1 2 2" xfId="11" xr:uid="{3BA4A5BA-770D-455C-8A3F-607552606B1C}"/>
     <cellStyle name="20% - Accent1 3" xfId="12" xr:uid="{264DCC2D-C9B8-4FA9-9345-8C7E243BB680}"/>
@@ -1641,11 +2889,13 @@
     <cellStyle name="Calc Currency (0)" xfId="70" xr:uid="{6AA02239-5D42-4107-9310-03F70BC1C10B}"/>
     <cellStyle name="Calc Percent (0)" xfId="71" xr:uid="{2FAF6097-A3FB-42CD-9E82-8A964A3FCC40}"/>
     <cellStyle name="Calc Percent (1)" xfId="72" xr:uid="{A2F58AE4-6A80-43DA-A3C9-1FC025BAAA25}"/>
+    <cellStyle name="Comma" xfId="151" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Comma [0] 2" xfId="8" xr:uid="{764F7A2E-3555-4C88-83E5-76D1C798375E}"/>
     <cellStyle name="Comma 2" xfId="73" xr:uid="{0D5850BA-3794-4F35-82E9-D468394CCE24}"/>
     <cellStyle name="Comma 3" xfId="7" xr:uid="{C1DF1589-AF17-455B-8C4A-30538EA39E47}"/>
     <cellStyle name="Comma 4" xfId="150" xr:uid="{110DB0C9-FA2D-4BB7-AC58-38386FB38E54}"/>
+    <cellStyle name="Comma_BANG TINH GIA 24.02.2011" xfId="152" xr:uid="{B06353B9-2EA7-4416-91C5-B8F564E3AC97}"/>
     <cellStyle name="Comma0" xfId="74" xr:uid="{326CEE79-85A4-46BD-9C31-3FF005FFE31C}"/>
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Currency [0] 2" xfId="9" xr:uid="{12B6BE1F-95C2-4223-A0A4-2F11CE7F2F19}"/>
@@ -1730,7 +2980,14 @@
     <cellStyle name="Text Indent A" xfId="148" xr:uid="{13EFFEEA-0CB8-4072-80EA-C667DD1232C1}"/>
     <cellStyle name="Text Indent B" xfId="149" xr:uid="{0F5393D5-93A3-4972-ADEC-BACA45E0D95F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2136,12 +3393,4614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+    </row>
+    <row r="2" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+    </row>
+    <row r="3" spans="1:27" ht="40.5" customHeight="1">
+      <c r="A3" s="151"/>
+      <c r="B3" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="157" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="158"/>
+      <c r="J3" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="160"/>
+      <c r="L3" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="151"/>
+    </row>
+    <row r="4" spans="1:27" ht="43.5" customHeight="1">
+      <c r="A4" s="151"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="165" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A5" s="151"/>
+      <c r="B5" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+    </row>
+    <row r="6" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A6" s="151"/>
+      <c r="B6" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A7" s="151"/>
+      <c r="B7" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+    </row>
+    <row r="8" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A8" s="151"/>
+      <c r="B8" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+    </row>
+    <row r="9" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A9" s="151"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A10" s="151"/>
+      <c r="B10" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+    </row>
+    <row r="11" spans="1:27" ht="68.25" customHeight="1">
+      <c r="A11" s="151"/>
+      <c r="B11" s="180" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="181" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="181"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+    </row>
+    <row r="12" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A12" s="151"/>
+      <c r="B12" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+    </row>
+    <row r="13" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A13" s="151"/>
+      <c r="B13" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+    </row>
+    <row r="14" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A14" s="151"/>
+      <c r="B14" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+    </row>
+    <row r="15" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A15" s="151"/>
+      <c r="B15" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+    </row>
+    <row r="16" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A16" s="151"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+    </row>
+    <row r="17" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A17" s="151"/>
+      <c r="B17" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+    </row>
+    <row r="18" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A18" s="151"/>
+      <c r="B18" s="184" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+    </row>
+    <row r="19" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A19" s="185"/>
+      <c r="B19" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="185"/>
+      <c r="N19" s="185"/>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="185"/>
+      <c r="S19" s="185"/>
+      <c r="T19" s="185"/>
+      <c r="U19" s="185"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="185"/>
+      <c r="X19" s="185"/>
+      <c r="Y19" s="185"/>
+      <c r="Z19" s="185"/>
+      <c r="AA19" s="185"/>
+    </row>
+    <row r="20" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A20" s="185"/>
+      <c r="B20" s="184" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="185"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="185"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="185"/>
+      <c r="U20" s="185"/>
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="185"/>
+      <c r="Y20" s="185"/>
+      <c r="Z20" s="185"/>
+      <c r="AA20" s="185"/>
+    </row>
+    <row r="21" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A21" s="186"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+    </row>
+    <row r="22" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A22" s="186"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
+      <c r="AA22" s="186"/>
+    </row>
+    <row r="23" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A23" s="186"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+    </row>
+    <row r="24" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="189"/>
+      <c r="V24" s="186"/>
+      <c r="W24" s="186"/>
+      <c r="X24" s="186"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
+      <c r="AA24" s="186"/>
+    </row>
+    <row r="25" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A25" s="186"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+    </row>
+    <row r="26" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A26" s="186"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="187"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+    </row>
+    <row r="27" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A27" s="186"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="187"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+    </row>
+    <row r="28" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A28" s="186"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="187"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="186"/>
+      <c r="AA28" s="186"/>
+    </row>
+    <row r="29" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A29" s="186"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+    </row>
+    <row r="30" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+    </row>
+    <row r="31" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="187"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="186"/>
+      <c r="Y31" s="186"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="186"/>
+    </row>
+    <row r="32" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A32" s="186"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="187"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="186"/>
+      <c r="W32" s="186"/>
+      <c r="X32" s="186"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="186"/>
+    </row>
+    <row r="33" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A33" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="192"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
+      <c r="Y33" s="195"/>
+      <c r="Z33" s="195"/>
+      <c r="AA33" s="195"/>
+    </row>
+    <row r="34" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A34" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="198" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198"/>
+      <c r="O34" s="198"/>
+      <c r="P34" s="198"/>
+      <c r="Q34" s="193"/>
+      <c r="R34" s="193"/>
+      <c r="S34" s="193"/>
+      <c r="T34" s="193"/>
+      <c r="U34" s="193"/>
+      <c r="V34" s="199"/>
+      <c r="W34" s="199"/>
+      <c r="X34" s="199"/>
+      <c r="Y34" s="195"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="195"/>
+    </row>
+    <row r="35" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A35" s="200"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="187"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="186"/>
+      <c r="X35" s="186"/>
+      <c r="Y35" s="186"/>
+      <c r="Z35" s="186"/>
+      <c r="AA35" s="186"/>
+    </row>
+    <row r="36" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A36" s="202" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="202"/>
+      <c r="M36" s="202"/>
+      <c r="N36" s="202"/>
+      <c r="O36" s="202"/>
+      <c r="P36" s="202"/>
+      <c r="Q36" s="203"/>
+      <c r="R36" s="203"/>
+      <c r="S36" s="203"/>
+      <c r="T36" s="203"/>
+      <c r="U36" s="203"/>
+      <c r="V36" s="204"/>
+      <c r="W36" s="204"/>
+      <c r="X36" s="204"/>
+      <c r="Y36" s="186"/>
+      <c r="Z36" s="186"/>
+      <c r="AA36" s="186"/>
+    </row>
+    <row r="37" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A37" s="205" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="205"/>
+      <c r="Q37" s="206"/>
+      <c r="R37" s="206"/>
+      <c r="S37" s="206"/>
+      <c r="T37" s="206"/>
+      <c r="U37" s="206"/>
+      <c r="V37" s="207"/>
+      <c r="W37" s="207"/>
+      <c r="X37" s="207"/>
+      <c r="Y37" s="186"/>
+      <c r="Z37" s="186"/>
+      <c r="AA37" s="186"/>
+    </row>
+    <row r="38" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A38" s="208"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="209"/>
+      <c r="M38" s="209"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="187"/>
+      <c r="V38" s="186"/>
+      <c r="W38" s="186"/>
+      <c r="X38" s="186"/>
+      <c r="Y38" s="186"/>
+      <c r="Z38" s="186"/>
+      <c r="AA38" s="186"/>
+    </row>
+    <row r="39" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A39" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="210" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="210" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="211" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="212" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="213"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="212" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="213"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="212" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" s="213"/>
+      <c r="O39" s="213"/>
+      <c r="P39" s="214"/>
+      <c r="Q39" s="215"/>
+      <c r="R39" s="215"/>
+      <c r="S39" s="215"/>
+      <c r="T39" s="215"/>
+      <c r="U39" s="216" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" s="216" t="s">
+        <v>144</v>
+      </c>
+      <c r="W39" s="216"/>
+      <c r="X39" s="216"/>
+      <c r="Y39" s="217" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z39" s="218"/>
+      <c r="AA39" s="219"/>
+    </row>
+    <row r="40" spans="1:27" ht="9.75" customHeight="1">
+      <c r="A40" s="220"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="223"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="223"/>
+      <c r="O40" s="223"/>
+      <c r="P40" s="224"/>
+      <c r="Q40" s="215"/>
+      <c r="R40" s="215"/>
+      <c r="S40" s="215"/>
+      <c r="T40" s="215"/>
+      <c r="U40" s="216"/>
+      <c r="V40" s="216"/>
+      <c r="W40" s="216"/>
+      <c r="X40" s="216"/>
+      <c r="Y40" s="225"/>
+      <c r="Z40" s="226"/>
+      <c r="AA40" s="227"/>
+    </row>
+    <row r="41" spans="1:27" ht="45" customHeight="1">
+      <c r="A41" s="228"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="228"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="230" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="230" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="230" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="229"/>
+      <c r="I41" s="231" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="232"/>
+      <c r="K41" s="231" t="s">
+        <v>150</v>
+      </c>
+      <c r="L41" s="232"/>
+      <c r="M41" s="231" t="s">
+        <v>151</v>
+      </c>
+      <c r="N41" s="232"/>
+      <c r="O41" s="231" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="232"/>
+      <c r="Q41" s="215"/>
+      <c r="R41" s="215"/>
+      <c r="S41" s="215"/>
+      <c r="T41" s="215"/>
+      <c r="U41" s="216"/>
+      <c r="V41" s="233" t="s">
+        <v>152</v>
+      </c>
+      <c r="W41" s="233" t="s">
+        <v>153</v>
+      </c>
+      <c r="X41" s="233" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y41" s="233" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z41" s="233" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA41" s="233" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A42" s="234">
+        <v>1</v>
+      </c>
+      <c r="B42" s="235"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="238"/>
+      <c r="G42" s="238"/>
+      <c r="H42" s="239"/>
+      <c r="I42" s="240"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="240"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="240"/>
+      <c r="N42" s="241"/>
+      <c r="O42" s="240"/>
+      <c r="P42" s="241"/>
+      <c r="Q42" s="242"/>
+      <c r="R42" s="242"/>
+      <c r="S42" s="242"/>
+      <c r="T42" s="242"/>
+      <c r="U42" s="243"/>
+      <c r="V42" s="244"/>
+      <c r="W42" s="244"/>
+      <c r="X42" s="245"/>
+      <c r="Y42" s="244"/>
+      <c r="Z42" s="244"/>
+      <c r="AA42" s="245"/>
+    </row>
+    <row r="43" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A43" s="234">
+        <v>1</v>
+      </c>
+      <c r="B43" s="235"/>
+      <c r="C43" s="236"/>
+      <c r="D43" s="237"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="239"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="240"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="240"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="240"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="242"/>
+      <c r="R43" s="242"/>
+      <c r="S43" s="242"/>
+      <c r="T43" s="242"/>
+      <c r="U43" s="243"/>
+      <c r="V43" s="244"/>
+      <c r="W43" s="244"/>
+      <c r="X43" s="245"/>
+      <c r="Y43" s="244"/>
+      <c r="Z43" s="244"/>
+      <c r="AA43" s="245"/>
+    </row>
+    <row r="44" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A44" s="234">
+        <v>2</v>
+      </c>
+      <c r="B44" s="235"/>
+      <c r="C44" s="236"/>
+      <c r="D44" s="237"/>
+      <c r="E44" s="246"/>
+      <c r="F44" s="238"/>
+      <c r="G44" s="238"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="240"/>
+      <c r="N44" s="241"/>
+      <c r="O44" s="240"/>
+      <c r="P44" s="241"/>
+      <c r="Q44" s="242"/>
+      <c r="R44" s="242"/>
+      <c r="S44" s="242"/>
+      <c r="T44" s="242"/>
+      <c r="U44" s="243"/>
+      <c r="V44" s="244"/>
+      <c r="W44" s="244"/>
+      <c r="X44" s="245"/>
+      <c r="Y44" s="244"/>
+      <c r="Z44" s="244"/>
+      <c r="AA44" s="245"/>
+    </row>
+    <row r="45" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A45" s="234">
+        <v>3</v>
+      </c>
+      <c r="B45" s="235"/>
+      <c r="C45" s="236"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="246"/>
+      <c r="F45" s="238"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="240"/>
+      <c r="N45" s="241"/>
+      <c r="O45" s="240"/>
+      <c r="P45" s="241"/>
+      <c r="Q45" s="242"/>
+      <c r="R45" s="242"/>
+      <c r="S45" s="242"/>
+      <c r="T45" s="242"/>
+      <c r="U45" s="243"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="245"/>
+      <c r="Y45" s="244"/>
+      <c r="Z45" s="244"/>
+      <c r="AA45" s="245"/>
+    </row>
+    <row r="46" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A46" s="234">
+        <v>4</v>
+      </c>
+      <c r="B46" s="235"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="238"/>
+      <c r="G46" s="238"/>
+      <c r="H46" s="239"/>
+      <c r="I46" s="240"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="240"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="240"/>
+      <c r="N46" s="241"/>
+      <c r="O46" s="240"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="242"/>
+      <c r="R46" s="242"/>
+      <c r="S46" s="242"/>
+      <c r="T46" s="242"/>
+      <c r="U46" s="243"/>
+      <c r="V46" s="244"/>
+      <c r="W46" s="244"/>
+      <c r="X46" s="245"/>
+      <c r="Y46" s="244"/>
+      <c r="Z46" s="244"/>
+      <c r="AA46" s="245"/>
+    </row>
+    <row r="47" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A47" s="234">
+        <v>6</v>
+      </c>
+      <c r="B47" s="235"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="238"/>
+      <c r="G47" s="238"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="240"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="240"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="240"/>
+      <c r="N47" s="241"/>
+      <c r="O47" s="240"/>
+      <c r="P47" s="241"/>
+      <c r="Q47" s="242"/>
+      <c r="R47" s="242"/>
+      <c r="S47" s="242"/>
+      <c r="T47" s="242"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="247"/>
+      <c r="W47" s="247"/>
+      <c r="X47" s="248"/>
+      <c r="Y47" s="248"/>
+      <c r="Z47" s="248"/>
+      <c r="AA47" s="249"/>
+    </row>
+    <row r="48" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A48" s="208"/>
+      <c r="B48" s="208"/>
+      <c r="C48" s="208"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="209"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="209"/>
+      <c r="M48" s="209"/>
+      <c r="N48" s="187"/>
+      <c r="O48" s="187"/>
+      <c r="P48" s="187"/>
+      <c r="Q48" s="187"/>
+      <c r="R48" s="187"/>
+      <c r="S48" s="187"/>
+      <c r="T48" s="187"/>
+      <c r="U48" s="187"/>
+      <c r="V48" s="186"/>
+      <c r="W48" s="186"/>
+      <c r="X48" s="186"/>
+      <c r="Y48" s="186"/>
+      <c r="Z48" s="186"/>
+      <c r="AA48" s="186"/>
+    </row>
+    <row r="49" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A49" s="250"/>
+      <c r="B49" s="250"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="252"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="253" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="253"/>
+      <c r="L49" s="253"/>
+      <c r="M49" s="253"/>
+      <c r="N49" s="253"/>
+      <c r="O49" s="253"/>
+      <c r="P49" s="253"/>
+      <c r="Q49" s="252"/>
+      <c r="R49" s="252"/>
+      <c r="S49" s="252"/>
+      <c r="T49" s="252"/>
+      <c r="U49" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="V49" s="255" t="s">
+        <v>156</v>
+      </c>
+      <c r="W49" s="256"/>
+      <c r="X49" s="257"/>
+      <c r="Y49" s="258"/>
+      <c r="Z49" s="258"/>
+      <c r="AA49" s="258"/>
+    </row>
+    <row r="50" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A50" s="259" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="259"/>
+      <c r="C50" s="260" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="260"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="260"/>
+      <c r="G50" s="261" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="261"/>
+      <c r="I50" s="261"/>
+      <c r="J50" s="261" t="s">
+        <v>160</v>
+      </c>
+      <c r="K50" s="261"/>
+      <c r="L50" s="261"/>
+      <c r="M50" s="261"/>
+      <c r="N50" s="261"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
+      <c r="Q50" s="262"/>
+      <c r="R50" s="262"/>
+      <c r="S50" s="262"/>
+      <c r="T50" s="262"/>
+      <c r="U50" s="263"/>
+      <c r="V50" s="264"/>
+      <c r="W50" s="265"/>
+      <c r="X50" s="266"/>
+      <c r="Y50" s="258"/>
+      <c r="Z50" s="258"/>
+      <c r="AA50" s="258"/>
+    </row>
+    <row r="51" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="262"/>
+      <c r="H51" s="262"/>
+      <c r="I51" s="262"/>
+      <c r="J51" s="261" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" s="261"/>
+      <c r="L51" s="261"/>
+      <c r="M51" s="261"/>
+      <c r="N51" s="261"/>
+      <c r="O51" s="261"/>
+      <c r="P51" s="261"/>
+      <c r="Q51" s="262"/>
+      <c r="R51" s="262"/>
+      <c r="S51" s="262"/>
+      <c r="T51" s="262"/>
+      <c r="U51" s="267"/>
+      <c r="V51" s="233" t="s">
+        <v>152</v>
+      </c>
+      <c r="W51" s="233" t="s">
+        <v>153</v>
+      </c>
+      <c r="X51" s="245" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y51" s="258"/>
+      <c r="Z51" s="258"/>
+      <c r="AA51" s="258"/>
+    </row>
+    <row r="52" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A52" s="186"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="268"/>
+      <c r="G52" s="262"/>
+      <c r="H52" s="262"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="262"/>
+      <c r="O52" s="187"/>
+      <c r="P52" s="187"/>
+      <c r="Q52" s="187"/>
+      <c r="R52" s="187"/>
+      <c r="S52" s="187"/>
+      <c r="T52" s="187"/>
+      <c r="U52" s="269"/>
+      <c r="V52" s="244"/>
+      <c r="W52" s="244"/>
+      <c r="X52" s="245"/>
+      <c r="Y52" s="186"/>
+      <c r="Z52" s="186"/>
+      <c r="AA52" s="186"/>
+    </row>
+    <row r="53" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="262"/>
+      <c r="H53" s="262"/>
+      <c r="I53" s="187"/>
+      <c r="J53" s="187"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="262"/>
+      <c r="O53" s="187"/>
+      <c r="P53" s="187"/>
+      <c r="Q53" s="187"/>
+      <c r="R53" s="187"/>
+      <c r="S53" s="187"/>
+      <c r="T53" s="187"/>
+      <c r="U53" s="269"/>
+      <c r="V53" s="244"/>
+      <c r="W53" s="244"/>
+      <c r="X53" s="245"/>
+      <c r="Y53" s="186"/>
+      <c r="Z53" s="186"/>
+      <c r="AA53" s="186"/>
+    </row>
+    <row r="54" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A54" s="186"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="262"/>
+      <c r="H54" s="262"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="188"/>
+      <c r="M54" s="188"/>
+      <c r="N54" s="262"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="269"/>
+      <c r="V54" s="244"/>
+      <c r="W54" s="244"/>
+      <c r="X54" s="245"/>
+      <c r="Y54" s="186"/>
+      <c r="Z54" s="186"/>
+      <c r="AA54" s="186"/>
+    </row>
+    <row r="55" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A55" s="186"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="187"/>
+      <c r="E55" s="187"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="262"/>
+      <c r="H55" s="262"/>
+      <c r="I55" s="187"/>
+      <c r="J55" s="187"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="188"/>
+      <c r="N55" s="262"/>
+      <c r="O55" s="187"/>
+      <c r="P55" s="187"/>
+      <c r="Q55" s="187"/>
+      <c r="R55" s="187"/>
+      <c r="S55" s="187"/>
+      <c r="T55" s="187"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="244"/>
+      <c r="W55" s="244"/>
+      <c r="X55" s="245"/>
+      <c r="Y55" s="186"/>
+      <c r="Z55" s="186"/>
+      <c r="AA55" s="186"/>
+    </row>
+    <row r="56" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A56" s="186"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="187"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="271" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" s="271"/>
+      <c r="L56" s="271"/>
+      <c r="M56" s="271"/>
+      <c r="N56" s="271"/>
+      <c r="O56" s="271"/>
+      <c r="P56" s="271"/>
+      <c r="Q56" s="270"/>
+      <c r="R56" s="270"/>
+      <c r="S56" s="270"/>
+      <c r="T56" s="270"/>
+      <c r="U56" s="187"/>
+      <c r="V56" s="186"/>
+      <c r="W56" s="186"/>
+      <c r="X56" s="186"/>
+      <c r="Y56" s="186"/>
+      <c r="Z56" s="186"/>
+      <c r="AA56" s="186"/>
+    </row>
+    <row r="57" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A57" s="186"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="270"/>
+      <c r="H57" s="270"/>
+      <c r="I57" s="270"/>
+      <c r="J57" s="272"/>
+      <c r="K57" s="272"/>
+      <c r="L57" s="272"/>
+      <c r="M57" s="272"/>
+      <c r="N57" s="272"/>
+      <c r="O57" s="272"/>
+      <c r="P57" s="272"/>
+      <c r="Q57" s="272"/>
+      <c r="R57" s="272"/>
+      <c r="S57" s="272"/>
+      <c r="T57" s="272"/>
+      <c r="U57" s="272"/>
+      <c r="V57" s="273"/>
+      <c r="W57" s="273"/>
+      <c r="X57" s="273"/>
+      <c r="Y57" s="186"/>
+      <c r="Z57" s="186"/>
+      <c r="AA57" s="186"/>
+    </row>
+    <row r="58" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A58" s="186"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="186"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="270"/>
+      <c r="H58" s="270"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="272"/>
+      <c r="K58" s="272"/>
+      <c r="L58" s="272"/>
+      <c r="M58" s="272"/>
+      <c r="N58" s="272"/>
+      <c r="O58" s="272"/>
+      <c r="P58" s="272"/>
+      <c r="Q58" s="272"/>
+      <c r="R58" s="272"/>
+      <c r="S58" s="272"/>
+      <c r="T58" s="272"/>
+      <c r="U58" s="272"/>
+      <c r="V58" s="273"/>
+      <c r="W58" s="273"/>
+      <c r="X58" s="273"/>
+      <c r="Y58" s="186"/>
+      <c r="Z58" s="186"/>
+      <c r="AA58" s="186"/>
+    </row>
+    <row r="59" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A59" s="186"/>
+      <c r="B59" s="186"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
+      <c r="F59" s="187"/>
+      <c r="G59" s="270"/>
+      <c r="H59" s="270"/>
+      <c r="I59" s="270"/>
+      <c r="J59" s="272"/>
+      <c r="K59" s="272"/>
+      <c r="L59" s="272"/>
+      <c r="M59" s="272"/>
+      <c r="N59" s="272"/>
+      <c r="O59" s="272"/>
+      <c r="P59" s="272"/>
+      <c r="Q59" s="272"/>
+      <c r="R59" s="272"/>
+      <c r="S59" s="272"/>
+      <c r="T59" s="272"/>
+      <c r="U59" s="272"/>
+      <c r="V59" s="273"/>
+      <c r="W59" s="273"/>
+      <c r="X59" s="273"/>
+      <c r="Y59" s="186"/>
+      <c r="Z59" s="186"/>
+      <c r="AA59" s="186"/>
+    </row>
+    <row r="60" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A60" s="186"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="270"/>
+      <c r="H60" s="270"/>
+      <c r="I60" s="270"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="272"/>
+      <c r="L60" s="272"/>
+      <c r="M60" s="272"/>
+      <c r="N60" s="272"/>
+      <c r="O60" s="272"/>
+      <c r="P60" s="272"/>
+      <c r="Q60" s="272"/>
+      <c r="R60" s="272"/>
+      <c r="S60" s="272"/>
+      <c r="T60" s="272"/>
+      <c r="U60" s="272"/>
+      <c r="V60" s="273"/>
+      <c r="W60" s="273"/>
+      <c r="X60" s="273"/>
+      <c r="Y60" s="186"/>
+      <c r="Z60" s="186"/>
+      <c r="AA60" s="186"/>
+    </row>
+    <row r="61" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A61" s="186"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="187"/>
+      <c r="E61" s="187"/>
+      <c r="F61" s="187"/>
+      <c r="G61" s="270"/>
+      <c r="H61" s="270"/>
+      <c r="I61" s="270"/>
+      <c r="J61" s="272"/>
+      <c r="K61" s="272"/>
+      <c r="L61" s="272"/>
+      <c r="M61" s="272"/>
+      <c r="N61" s="272"/>
+      <c r="O61" s="272"/>
+      <c r="P61" s="272"/>
+      <c r="Q61" s="272"/>
+      <c r="R61" s="272"/>
+      <c r="S61" s="272"/>
+      <c r="T61" s="272"/>
+      <c r="U61" s="272"/>
+      <c r="V61" s="273"/>
+      <c r="W61" s="273"/>
+      <c r="X61" s="273"/>
+      <c r="Y61" s="186"/>
+      <c r="Z61" s="186"/>
+      <c r="AA61" s="186"/>
+    </row>
+    <row r="62" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A62" s="186"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="270"/>
+      <c r="H62" s="270"/>
+      <c r="I62" s="270"/>
+      <c r="J62" s="272"/>
+      <c r="K62" s="272"/>
+      <c r="L62" s="272"/>
+      <c r="M62" s="272"/>
+      <c r="N62" s="272"/>
+      <c r="O62" s="272"/>
+      <c r="P62" s="272"/>
+      <c r="Q62" s="272"/>
+      <c r="R62" s="272"/>
+      <c r="S62" s="272"/>
+      <c r="T62" s="272"/>
+      <c r="U62" s="272"/>
+      <c r="V62" s="273"/>
+      <c r="W62" s="273"/>
+      <c r="X62" s="273"/>
+      <c r="Y62" s="186"/>
+      <c r="Z62" s="186"/>
+      <c r="AA62" s="186"/>
+    </row>
+    <row r="63" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A63" s="186"/>
+      <c r="B63" s="186"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="187"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="270"/>
+      <c r="H63" s="270"/>
+      <c r="I63" s="270"/>
+      <c r="J63" s="272"/>
+      <c r="K63" s="272"/>
+      <c r="L63" s="272"/>
+      <c r="M63" s="272"/>
+      <c r="N63" s="272"/>
+      <c r="O63" s="272"/>
+      <c r="P63" s="272"/>
+      <c r="Q63" s="272"/>
+      <c r="R63" s="272"/>
+      <c r="S63" s="272"/>
+      <c r="T63" s="272"/>
+      <c r="U63" s="272"/>
+      <c r="V63" s="273"/>
+      <c r="W63" s="273"/>
+      <c r="X63" s="273"/>
+      <c r="Y63" s="186"/>
+      <c r="Z63" s="186"/>
+      <c r="AA63" s="186"/>
+    </row>
+    <row r="64" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A64" s="186"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="187"/>
+      <c r="E64" s="187"/>
+      <c r="F64" s="187"/>
+      <c r="G64" s="270"/>
+      <c r="H64" s="270"/>
+      <c r="I64" s="270"/>
+      <c r="J64" s="272"/>
+      <c r="K64" s="272"/>
+      <c r="L64" s="272"/>
+      <c r="M64" s="272"/>
+      <c r="N64" s="272"/>
+      <c r="O64" s="272"/>
+      <c r="P64" s="272"/>
+      <c r="Q64" s="272"/>
+      <c r="R64" s="272"/>
+      <c r="S64" s="272"/>
+      <c r="T64" s="272"/>
+      <c r="U64" s="272"/>
+      <c r="V64" s="273"/>
+      <c r="W64" s="273"/>
+      <c r="X64" s="273"/>
+      <c r="Y64" s="186"/>
+      <c r="Z64" s="186"/>
+      <c r="AA64" s="186"/>
+    </row>
+    <row r="65" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A65" s="186"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="187"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="187"/>
+      <c r="G65" s="270"/>
+      <c r="H65" s="270"/>
+      <c r="I65" s="270"/>
+      <c r="J65" s="272"/>
+      <c r="K65" s="272"/>
+      <c r="L65" s="272"/>
+      <c r="M65" s="272"/>
+      <c r="N65" s="272"/>
+      <c r="O65" s="272"/>
+      <c r="P65" s="272"/>
+      <c r="Q65" s="272"/>
+      <c r="R65" s="272"/>
+      <c r="S65" s="272"/>
+      <c r="T65" s="272"/>
+      <c r="U65" s="272"/>
+      <c r="V65" s="273"/>
+      <c r="W65" s="273"/>
+      <c r="X65" s="273"/>
+      <c r="Y65" s="186"/>
+      <c r="Z65" s="186"/>
+      <c r="AA65" s="186"/>
+    </row>
+    <row r="66" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A66" s="186"/>
+      <c r="B66" s="186"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="270"/>
+      <c r="H66" s="270"/>
+      <c r="I66" s="270"/>
+      <c r="J66" s="272"/>
+      <c r="K66" s="272"/>
+      <c r="L66" s="272"/>
+      <c r="M66" s="272"/>
+      <c r="N66" s="272"/>
+      <c r="O66" s="272"/>
+      <c r="P66" s="272"/>
+      <c r="Q66" s="272"/>
+      <c r="R66" s="272"/>
+      <c r="S66" s="272"/>
+      <c r="T66" s="272"/>
+      <c r="U66" s="272"/>
+      <c r="V66" s="273"/>
+      <c r="W66" s="273"/>
+      <c r="X66" s="273"/>
+      <c r="Y66" s="186"/>
+      <c r="Z66" s="186"/>
+      <c r="AA66" s="186"/>
+    </row>
+    <row r="67" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A67" s="186"/>
+      <c r="B67" s="186"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="270"/>
+      <c r="H67" s="270"/>
+      <c r="I67" s="270"/>
+      <c r="J67" s="272"/>
+      <c r="K67" s="272"/>
+      <c r="L67" s="272"/>
+      <c r="M67" s="272"/>
+      <c r="N67" s="272"/>
+      <c r="O67" s="272"/>
+      <c r="P67" s="272"/>
+      <c r="Q67" s="272"/>
+      <c r="R67" s="272"/>
+      <c r="S67" s="272"/>
+      <c r="T67" s="272"/>
+      <c r="U67" s="272"/>
+      <c r="V67" s="273"/>
+      <c r="W67" s="273"/>
+      <c r="X67" s="273"/>
+      <c r="Y67" s="186"/>
+      <c r="Z67" s="186"/>
+      <c r="AA67" s="186"/>
+    </row>
+    <row r="68" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A68" s="186"/>
+      <c r="B68" s="186"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="187"/>
+      <c r="G68" s="270"/>
+      <c r="H68" s="270"/>
+      <c r="I68" s="270"/>
+      <c r="J68" s="272"/>
+      <c r="K68" s="272"/>
+      <c r="L68" s="272"/>
+      <c r="M68" s="272"/>
+      <c r="N68" s="272"/>
+      <c r="O68" s="272"/>
+      <c r="P68" s="272"/>
+      <c r="Q68" s="272"/>
+      <c r="R68" s="272"/>
+      <c r="S68" s="272"/>
+      <c r="T68" s="272"/>
+      <c r="U68" s="272"/>
+      <c r="V68" s="273"/>
+      <c r="W68" s="273"/>
+      <c r="X68" s="273"/>
+      <c r="Y68" s="186"/>
+      <c r="Z68" s="186"/>
+      <c r="AA68" s="186"/>
+    </row>
+    <row r="69" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A69" s="186"/>
+      <c r="B69" s="186"/>
+      <c r="C69" s="186"/>
+      <c r="D69" s="187"/>
+      <c r="E69" s="187"/>
+      <c r="F69" s="187"/>
+      <c r="G69" s="270"/>
+      <c r="H69" s="270"/>
+      <c r="I69" s="270"/>
+      <c r="J69" s="272"/>
+      <c r="K69" s="272"/>
+      <c r="L69" s="272"/>
+      <c r="M69" s="272"/>
+      <c r="N69" s="272"/>
+      <c r="O69" s="272"/>
+      <c r="P69" s="272"/>
+      <c r="Q69" s="272"/>
+      <c r="R69" s="272"/>
+      <c r="S69" s="272"/>
+      <c r="T69" s="272"/>
+      <c r="U69" s="272"/>
+      <c r="V69" s="273"/>
+      <c r="W69" s="273"/>
+      <c r="X69" s="273"/>
+      <c r="Y69" s="186"/>
+      <c r="Z69" s="186"/>
+      <c r="AA69" s="186"/>
+    </row>
+    <row r="70" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A70" s="186"/>
+      <c r="B70" s="186"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="187"/>
+      <c r="E70" s="187"/>
+      <c r="F70" s="187"/>
+      <c r="G70" s="270"/>
+      <c r="H70" s="270"/>
+      <c r="I70" s="270"/>
+      <c r="J70" s="272"/>
+      <c r="K70" s="272"/>
+      <c r="L70" s="272"/>
+      <c r="M70" s="272"/>
+      <c r="N70" s="272"/>
+      <c r="O70" s="272"/>
+      <c r="P70" s="272"/>
+      <c r="Q70" s="272"/>
+      <c r="R70" s="272"/>
+      <c r="S70" s="272"/>
+      <c r="T70" s="272"/>
+      <c r="U70" s="272"/>
+      <c r="V70" s="273"/>
+      <c r="W70" s="273"/>
+      <c r="X70" s="273"/>
+      <c r="Y70" s="186"/>
+      <c r="Z70" s="186"/>
+      <c r="AA70" s="186"/>
+    </row>
+    <row r="71" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A71" s="186"/>
+      <c r="B71" s="186"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="187"/>
+      <c r="E71" s="187"/>
+      <c r="F71" s="187"/>
+      <c r="G71" s="270"/>
+      <c r="H71" s="270"/>
+      <c r="I71" s="270"/>
+      <c r="J71" s="272"/>
+      <c r="K71" s="272"/>
+      <c r="L71" s="272"/>
+      <c r="M71" s="272"/>
+      <c r="N71" s="272"/>
+      <c r="O71" s="272"/>
+      <c r="P71" s="272"/>
+      <c r="Q71" s="272"/>
+      <c r="R71" s="272"/>
+      <c r="S71" s="272"/>
+      <c r="T71" s="272"/>
+      <c r="U71" s="272"/>
+      <c r="V71" s="273"/>
+      <c r="W71" s="273"/>
+      <c r="X71" s="273"/>
+      <c r="Y71" s="186"/>
+      <c r="Z71" s="186"/>
+      <c r="AA71" s="186"/>
+    </row>
+    <row r="72" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A72" s="186"/>
+      <c r="B72" s="186"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="187"/>
+      <c r="E72" s="187"/>
+      <c r="F72" s="187"/>
+      <c r="G72" s="270"/>
+      <c r="H72" s="270"/>
+      <c r="I72" s="270"/>
+      <c r="J72" s="272"/>
+      <c r="K72" s="272"/>
+      <c r="L72" s="272"/>
+      <c r="M72" s="272"/>
+      <c r="N72" s="272"/>
+      <c r="O72" s="272"/>
+      <c r="P72" s="272"/>
+      <c r="Q72" s="272"/>
+      <c r="R72" s="272"/>
+      <c r="S72" s="272"/>
+      <c r="T72" s="272"/>
+      <c r="U72" s="272"/>
+      <c r="V72" s="273"/>
+      <c r="W72" s="273"/>
+      <c r="X72" s="273"/>
+      <c r="Y72" s="186"/>
+      <c r="Z72" s="186"/>
+      <c r="AA72" s="186"/>
+    </row>
+    <row r="73" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A73" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="191"/>
+      <c r="C73" s="191"/>
+      <c r="D73" s="191"/>
+      <c r="E73" s="192"/>
+      <c r="F73" s="193"/>
+      <c r="G73" s="193"/>
+      <c r="H73" s="193"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" s="194"/>
+      <c r="L73" s="194"/>
+      <c r="M73" s="194"/>
+      <c r="N73" s="194"/>
+      <c r="O73" s="194"/>
+      <c r="P73" s="194"/>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="192"/>
+      <c r="S73" s="192"/>
+      <c r="T73" s="192"/>
+      <c r="U73" s="195"/>
+      <c r="V73" s="195"/>
+      <c r="W73" s="195"/>
+      <c r="X73" s="195"/>
+      <c r="Y73" s="195"/>
+      <c r="Z73" s="195"/>
+      <c r="AA73" s="195"/>
+    </row>
+    <row r="74" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A74" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="196"/>
+      <c r="C74" s="196"/>
+      <c r="D74" s="196"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="197"/>
+      <c r="G74" s="197"/>
+      <c r="H74" s="197"/>
+      <c r="I74" s="192"/>
+      <c r="J74" s="198" t="s">
+        <v>134</v>
+      </c>
+      <c r="K74" s="198"/>
+      <c r="L74" s="198"/>
+      <c r="M74" s="198"/>
+      <c r="N74" s="198"/>
+      <c r="O74" s="198"/>
+      <c r="P74" s="198"/>
+      <c r="Q74" s="193"/>
+      <c r="R74" s="193"/>
+      <c r="S74" s="193"/>
+      <c r="T74" s="193"/>
+      <c r="U74" s="274" t="s">
+        <v>163</v>
+      </c>
+      <c r="V74" s="274" t="s">
+        <v>164</v>
+      </c>
+      <c r="W74" s="274" t="s">
+        <v>165</v>
+      </c>
+      <c r="X74" s="199"/>
+      <c r="Y74" s="195"/>
+      <c r="Z74" s="195"/>
+      <c r="AA74" s="195"/>
+    </row>
+    <row r="75" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A75" s="200"/>
+      <c r="B75" s="200"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="187"/>
+      <c r="F75" s="188"/>
+      <c r="G75" s="187"/>
+      <c r="H75" s="187"/>
+      <c r="I75" s="187"/>
+      <c r="J75" s="187"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="187"/>
+      <c r="M75" s="187"/>
+      <c r="N75" s="187"/>
+      <c r="O75" s="187"/>
+      <c r="P75" s="187"/>
+      <c r="Q75" s="187"/>
+      <c r="R75" s="187"/>
+      <c r="S75" s="187"/>
+      <c r="T75" s="187"/>
+      <c r="U75" s="274" t="s">
+        <v>105</v>
+      </c>
+      <c r="V75" s="274"/>
+      <c r="W75" s="274" t="s">
+        <v>106</v>
+      </c>
+      <c r="X75" s="186"/>
+      <c r="Y75" s="186"/>
+      <c r="Z75" s="186"/>
+      <c r="AA75" s="186"/>
+    </row>
+    <row r="76" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A76" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="202"/>
+      <c r="C76" s="202"/>
+      <c r="D76" s="202"/>
+      <c r="E76" s="202"/>
+      <c r="F76" s="202"/>
+      <c r="G76" s="202"/>
+      <c r="H76" s="202"/>
+      <c r="I76" s="202"/>
+      <c r="J76" s="202"/>
+      <c r="K76" s="202"/>
+      <c r="L76" s="202"/>
+      <c r="M76" s="202"/>
+      <c r="N76" s="202"/>
+      <c r="O76" s="202"/>
+      <c r="P76" s="202"/>
+      <c r="Q76" s="203"/>
+      <c r="R76" s="203"/>
+      <c r="S76" s="203"/>
+      <c r="T76" s="203"/>
+      <c r="U76" s="275" t="s">
+        <v>167</v>
+      </c>
+      <c r="V76" s="276">
+        <v>0.625</v>
+      </c>
+      <c r="W76" s="277" t="s">
+        <v>168</v>
+      </c>
+      <c r="X76" s="204"/>
+      <c r="Y76" s="186"/>
+      <c r="Z76" s="186"/>
+      <c r="AA76" s="186"/>
+    </row>
+    <row r="77" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A77" s="205" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="205"/>
+      <c r="C77" s="205"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="205"/>
+      <c r="F77" s="205"/>
+      <c r="G77" s="205"/>
+      <c r="H77" s="205"/>
+      <c r="I77" s="205"/>
+      <c r="J77" s="205"/>
+      <c r="K77" s="205"/>
+      <c r="L77" s="205"/>
+      <c r="M77" s="205"/>
+      <c r="N77" s="205"/>
+      <c r="O77" s="205"/>
+      <c r="P77" s="205"/>
+      <c r="Q77" s="206"/>
+      <c r="R77" s="206"/>
+      <c r="S77" s="206"/>
+      <c r="T77" s="206"/>
+      <c r="U77" s="206"/>
+      <c r="V77" s="207"/>
+      <c r="W77" s="207"/>
+      <c r="X77" s="207"/>
+      <c r="Y77" s="186"/>
+      <c r="Z77" s="186"/>
+      <c r="AA77" s="186"/>
+    </row>
+    <row r="78" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A78" s="186" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="186"/>
+      <c r="C78" s="186"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
+      <c r="J78" s="187"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="187"/>
+      <c r="M78" s="187"/>
+      <c r="N78" s="187"/>
+      <c r="O78" s="187"/>
+      <c r="P78" s="187"/>
+      <c r="Q78" s="187"/>
+      <c r="R78" s="187"/>
+      <c r="S78" s="187"/>
+      <c r="T78" s="187"/>
+      <c r="U78" s="187"/>
+      <c r="V78" s="186"/>
+      <c r="W78" s="186"/>
+      <c r="X78" s="186"/>
+      <c r="Y78" s="186"/>
+      <c r="Z78" s="186"/>
+      <c r="AA78" s="186"/>
+    </row>
+    <row r="79" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A79" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="210" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="210" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="211" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="212" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="213"/>
+      <c r="G79" s="214"/>
+      <c r="H79" s="212" t="s">
+        <v>170</v>
+      </c>
+      <c r="I79" s="214"/>
+      <c r="J79" s="212" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" s="214"/>
+      <c r="L79" s="212" t="s">
+        <v>172</v>
+      </c>
+      <c r="M79" s="214"/>
+      <c r="N79" s="212" t="s">
+        <v>173</v>
+      </c>
+      <c r="O79" s="214"/>
+      <c r="P79" s="278" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q79" s="278" t="s">
+        <v>175</v>
+      </c>
+      <c r="R79" s="278" t="s">
+        <v>176</v>
+      </c>
+      <c r="S79" s="279"/>
+      <c r="T79" s="280"/>
+      <c r="U79" s="281" t="s">
+        <v>177</v>
+      </c>
+      <c r="V79" s="281"/>
+      <c r="W79" s="281"/>
+      <c r="X79" s="281"/>
+      <c r="Y79" s="186"/>
+      <c r="Z79" s="186"/>
+      <c r="AA79" s="186"/>
+    </row>
+    <row r="80" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A80" s="220"/>
+      <c r="B80" s="220"/>
+      <c r="C80" s="220"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="222"/>
+      <c r="F80" s="223"/>
+      <c r="G80" s="224"/>
+      <c r="H80" s="222"/>
+      <c r="I80" s="224"/>
+      <c r="J80" s="222"/>
+      <c r="K80" s="224"/>
+      <c r="L80" s="222"/>
+      <c r="M80" s="224"/>
+      <c r="N80" s="222"/>
+      <c r="O80" s="224"/>
+      <c r="P80" s="282"/>
+      <c r="Q80" s="282"/>
+      <c r="R80" s="282"/>
+      <c r="S80" s="186"/>
+      <c r="T80" s="280"/>
+      <c r="U80" s="283"/>
+      <c r="V80" s="283"/>
+      <c r="W80" s="283"/>
+      <c r="X80" s="283"/>
+      <c r="Y80" s="186"/>
+      <c r="Z80" s="186"/>
+      <c r="AA80" s="186"/>
+    </row>
+    <row r="81" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A81" s="220"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="220"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="284" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="284" t="s">
+        <v>147</v>
+      </c>
+      <c r="G81" s="284" t="s">
+        <v>148</v>
+      </c>
+      <c r="H81" s="284" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81" s="284" t="s">
+        <v>150</v>
+      </c>
+      <c r="J81" s="284" t="s">
+        <v>151</v>
+      </c>
+      <c r="K81" s="284" t="s">
+        <v>150</v>
+      </c>
+      <c r="L81" s="284" t="s">
+        <v>146</v>
+      </c>
+      <c r="M81" s="284" t="s">
+        <v>148</v>
+      </c>
+      <c r="N81" s="284" t="s">
+        <v>151</v>
+      </c>
+      <c r="O81" s="284" t="s">
+        <v>150</v>
+      </c>
+      <c r="P81" s="282"/>
+      <c r="Q81" s="282"/>
+      <c r="R81" s="282"/>
+      <c r="S81" s="186"/>
+      <c r="T81" s="280"/>
+      <c r="U81" s="285" t="s">
+        <v>58</v>
+      </c>
+      <c r="V81" s="216" t="s">
+        <v>179</v>
+      </c>
+      <c r="W81" s="216"/>
+      <c r="X81" s="216"/>
+      <c r="Y81" s="286"/>
+      <c r="Z81" s="286"/>
+      <c r="AA81" s="286"/>
+    </row>
+    <row r="82" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A82" s="228"/>
+      <c r="B82" s="228"/>
+      <c r="C82" s="228"/>
+      <c r="D82" s="229"/>
+      <c r="E82" s="287"/>
+      <c r="F82" s="287"/>
+      <c r="G82" s="287"/>
+      <c r="H82" s="287"/>
+      <c r="I82" s="287"/>
+      <c r="J82" s="287"/>
+      <c r="K82" s="287"/>
+      <c r="L82" s="287"/>
+      <c r="M82" s="287"/>
+      <c r="N82" s="287"/>
+      <c r="O82" s="287"/>
+      <c r="P82" s="288"/>
+      <c r="Q82" s="288"/>
+      <c r="R82" s="288"/>
+      <c r="S82" s="289"/>
+      <c r="T82" s="280"/>
+      <c r="U82" s="290"/>
+      <c r="V82" s="233" t="s">
+        <v>180</v>
+      </c>
+      <c r="W82" s="233" t="s">
+        <v>181</v>
+      </c>
+      <c r="X82" s="233" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y82" s="291"/>
+      <c r="Z82" s="291"/>
+      <c r="AA82" s="291"/>
+    </row>
+    <row r="83" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A83" s="292"/>
+      <c r="B83" s="293"/>
+      <c r="C83" s="294"/>
+      <c r="D83" s="294"/>
+      <c r="E83" s="294"/>
+      <c r="F83" s="294"/>
+      <c r="G83" s="294"/>
+      <c r="H83" s="294"/>
+      <c r="I83" s="294"/>
+      <c r="J83" s="294"/>
+      <c r="K83" s="294"/>
+      <c r="L83" s="294"/>
+      <c r="M83" s="294"/>
+      <c r="N83" s="294"/>
+      <c r="O83" s="294"/>
+      <c r="P83" s="294"/>
+      <c r="Q83" s="294"/>
+      <c r="R83" s="295"/>
+      <c r="S83" s="296"/>
+      <c r="T83" s="297"/>
+      <c r="U83" s="298" t="s">
+        <v>182</v>
+      </c>
+      <c r="V83" s="299"/>
+      <c r="W83" s="299"/>
+      <c r="X83" s="300"/>
+      <c r="Y83" s="301"/>
+      <c r="Z83" s="301"/>
+      <c r="AA83" s="301"/>
+    </row>
+    <row r="84" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A84" s="302" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="303" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="304"/>
+      <c r="D84" s="305"/>
+      <c r="E84" s="306"/>
+      <c r="F84" s="305"/>
+      <c r="G84" s="305"/>
+      <c r="H84" s="305"/>
+      <c r="I84" s="305"/>
+      <c r="J84" s="305"/>
+      <c r="K84" s="305"/>
+      <c r="L84" s="305"/>
+      <c r="M84" s="305"/>
+      <c r="N84" s="305"/>
+      <c r="O84" s="305"/>
+      <c r="P84" s="307"/>
+      <c r="Q84" s="305"/>
+      <c r="R84" s="305"/>
+      <c r="S84" s="308"/>
+      <c r="T84" s="309"/>
+      <c r="U84" s="243"/>
+      <c r="V84" s="243"/>
+      <c r="W84" s="243"/>
+      <c r="X84" s="243"/>
+      <c r="Y84" s="308"/>
+      <c r="Z84" s="308"/>
+      <c r="AA84" s="310"/>
+    </row>
+    <row r="85" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A85" s="311">
+        <v>1</v>
+      </c>
+      <c r="B85" s="236"/>
+      <c r="C85" s="236"/>
+      <c r="D85" s="236"/>
+      <c r="E85" s="236"/>
+      <c r="F85" s="236"/>
+      <c r="G85" s="236"/>
+      <c r="H85" s="236"/>
+      <c r="I85" s="236"/>
+      <c r="J85" s="236"/>
+      <c r="K85" s="236"/>
+      <c r="L85" s="236"/>
+      <c r="M85" s="236"/>
+      <c r="N85" s="236"/>
+      <c r="O85" s="236"/>
+      <c r="P85" s="236"/>
+      <c r="Q85" s="236"/>
+      <c r="R85" s="236"/>
+      <c r="S85" s="308"/>
+      <c r="T85" s="309"/>
+      <c r="U85" s="243"/>
+      <c r="V85" s="243"/>
+      <c r="W85" s="243"/>
+      <c r="X85" s="243"/>
+      <c r="Y85" s="312"/>
+      <c r="Z85" s="312"/>
+      <c r="AA85" s="313"/>
+    </row>
+    <row r="86" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A86" s="311">
+        <v>2</v>
+      </c>
+      <c r="B86" s="236"/>
+      <c r="C86" s="236"/>
+      <c r="D86" s="236"/>
+      <c r="E86" s="236"/>
+      <c r="F86" s="236"/>
+      <c r="G86" s="236"/>
+      <c r="H86" s="236"/>
+      <c r="I86" s="236"/>
+      <c r="J86" s="236"/>
+      <c r="K86" s="236"/>
+      <c r="L86" s="236"/>
+      <c r="M86" s="236"/>
+      <c r="N86" s="236"/>
+      <c r="O86" s="236"/>
+      <c r="P86" s="236"/>
+      <c r="Q86" s="236"/>
+      <c r="R86" s="236"/>
+      <c r="S86" s="314"/>
+      <c r="T86" s="309"/>
+      <c r="U86" s="243"/>
+      <c r="V86" s="243"/>
+      <c r="W86" s="243"/>
+      <c r="X86" s="243"/>
+      <c r="Y86" s="312"/>
+      <c r="Z86" s="312"/>
+      <c r="AA86" s="313"/>
+    </row>
+    <row r="87" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A87" s="311">
+        <v>3</v>
+      </c>
+      <c r="B87" s="236"/>
+      <c r="C87" s="236"/>
+      <c r="D87" s="236"/>
+      <c r="E87" s="236"/>
+      <c r="F87" s="236"/>
+      <c r="G87" s="236"/>
+      <c r="H87" s="236"/>
+      <c r="I87" s="236"/>
+      <c r="J87" s="236"/>
+      <c r="K87" s="236"/>
+      <c r="L87" s="236"/>
+      <c r="M87" s="236"/>
+      <c r="N87" s="236"/>
+      <c r="O87" s="236"/>
+      <c r="P87" s="236"/>
+      <c r="Q87" s="236"/>
+      <c r="R87" s="236"/>
+      <c r="S87" s="308"/>
+      <c r="T87" s="309"/>
+      <c r="U87" s="243"/>
+      <c r="V87" s="243"/>
+      <c r="W87" s="243"/>
+      <c r="X87" s="243"/>
+      <c r="Y87" s="312"/>
+      <c r="Z87" s="312"/>
+      <c r="AA87" s="313"/>
+    </row>
+    <row r="88" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A88" s="311">
+        <v>4</v>
+      </c>
+      <c r="B88" s="236"/>
+      <c r="C88" s="236"/>
+      <c r="D88" s="236"/>
+      <c r="E88" s="236"/>
+      <c r="F88" s="236"/>
+      <c r="G88" s="236"/>
+      <c r="H88" s="236"/>
+      <c r="I88" s="236"/>
+      <c r="J88" s="236"/>
+      <c r="K88" s="236"/>
+      <c r="L88" s="236"/>
+      <c r="M88" s="236"/>
+      <c r="N88" s="236"/>
+      <c r="O88" s="236"/>
+      <c r="P88" s="236"/>
+      <c r="Q88" s="236"/>
+      <c r="R88" s="236"/>
+      <c r="S88" s="308"/>
+      <c r="T88" s="309"/>
+      <c r="U88" s="315" t="s">
+        <v>184</v>
+      </c>
+      <c r="V88" s="316"/>
+      <c r="W88" s="316"/>
+      <c r="X88" s="317"/>
+      <c r="Y88" s="312"/>
+      <c r="Z88" s="312"/>
+      <c r="AA88" s="313"/>
+    </row>
+    <row r="89" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A89" s="311">
+        <v>5</v>
+      </c>
+      <c r="B89" s="236"/>
+      <c r="C89" s="236"/>
+      <c r="D89" s="236"/>
+      <c r="E89" s="236"/>
+      <c r="F89" s="236"/>
+      <c r="G89" s="236"/>
+      <c r="H89" s="236"/>
+      <c r="I89" s="236"/>
+      <c r="J89" s="236"/>
+      <c r="K89" s="236"/>
+      <c r="L89" s="236"/>
+      <c r="M89" s="236"/>
+      <c r="N89" s="236"/>
+      <c r="O89" s="236"/>
+      <c r="P89" s="236"/>
+      <c r="Q89" s="236"/>
+      <c r="R89" s="236"/>
+      <c r="S89" s="308"/>
+      <c r="T89" s="309"/>
+      <c r="U89" s="243"/>
+      <c r="V89" s="243"/>
+      <c r="W89" s="243"/>
+      <c r="X89" s="243"/>
+      <c r="Y89" s="318"/>
+      <c r="Z89" s="318"/>
+      <c r="AA89" s="319"/>
+    </row>
+    <row r="90" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A90" s="320" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="321" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="322"/>
+      <c r="D90" s="323"/>
+      <c r="E90" s="324"/>
+      <c r="F90" s="323"/>
+      <c r="G90" s="323"/>
+      <c r="H90" s="323"/>
+      <c r="I90" s="323"/>
+      <c r="J90" s="323"/>
+      <c r="K90" s="323"/>
+      <c r="L90" s="323"/>
+      <c r="M90" s="323"/>
+      <c r="N90" s="323"/>
+      <c r="O90" s="323"/>
+      <c r="P90" s="325"/>
+      <c r="Q90" s="323"/>
+      <c r="R90" s="323"/>
+      <c r="S90" s="308"/>
+      <c r="T90" s="309"/>
+      <c r="U90" s="243"/>
+      <c r="V90" s="243"/>
+      <c r="W90" s="243"/>
+      <c r="X90" s="243"/>
+      <c r="Y90" s="318"/>
+      <c r="Z90" s="318"/>
+      <c r="AA90" s="319"/>
+    </row>
+    <row r="91" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A91" s="326">
+        <v>1</v>
+      </c>
+      <c r="B91" s="327"/>
+      <c r="C91" s="328"/>
+      <c r="D91" s="328"/>
+      <c r="E91" s="328"/>
+      <c r="F91" s="328"/>
+      <c r="G91" s="328"/>
+      <c r="H91" s="328"/>
+      <c r="I91" s="328"/>
+      <c r="J91" s="328"/>
+      <c r="K91" s="328"/>
+      <c r="L91" s="328"/>
+      <c r="M91" s="328"/>
+      <c r="N91" s="328"/>
+      <c r="O91" s="328"/>
+      <c r="P91" s="328"/>
+      <c r="Q91" s="328"/>
+      <c r="R91" s="328"/>
+      <c r="S91" s="308"/>
+      <c r="T91" s="309"/>
+      <c r="U91" s="243"/>
+      <c r="V91" s="243"/>
+      <c r="W91" s="243"/>
+      <c r="X91" s="243"/>
+      <c r="Y91" s="318"/>
+      <c r="Z91" s="318"/>
+      <c r="AA91" s="319"/>
+    </row>
+    <row r="92" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A92" s="326">
+        <v>2</v>
+      </c>
+      <c r="B92" s="327"/>
+      <c r="C92" s="328"/>
+      <c r="D92" s="328"/>
+      <c r="E92" s="328"/>
+      <c r="F92" s="328"/>
+      <c r="G92" s="328"/>
+      <c r="H92" s="328"/>
+      <c r="I92" s="328"/>
+      <c r="J92" s="328"/>
+      <c r="K92" s="328"/>
+      <c r="L92" s="328"/>
+      <c r="M92" s="328"/>
+      <c r="N92" s="328"/>
+      <c r="O92" s="328"/>
+      <c r="P92" s="328"/>
+      <c r="Q92" s="328"/>
+      <c r="R92" s="328"/>
+      <c r="S92" s="308"/>
+      <c r="T92" s="309"/>
+      <c r="U92" s="243"/>
+      <c r="V92" s="243"/>
+      <c r="W92" s="243"/>
+      <c r="X92" s="243"/>
+      <c r="Y92" s="318"/>
+      <c r="Z92" s="318"/>
+      <c r="AA92" s="319"/>
+    </row>
+    <row r="93" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A93" s="326">
+        <v>3</v>
+      </c>
+      <c r="B93" s="327"/>
+      <c r="C93" s="328"/>
+      <c r="D93" s="328"/>
+      <c r="E93" s="328"/>
+      <c r="F93" s="328"/>
+      <c r="G93" s="328"/>
+      <c r="H93" s="328"/>
+      <c r="I93" s="328"/>
+      <c r="J93" s="328"/>
+      <c r="K93" s="328"/>
+      <c r="L93" s="328"/>
+      <c r="M93" s="328"/>
+      <c r="N93" s="328"/>
+      <c r="O93" s="328"/>
+      <c r="P93" s="328"/>
+      <c r="Q93" s="328"/>
+      <c r="R93" s="328"/>
+      <c r="S93" s="308"/>
+      <c r="T93" s="309"/>
+      <c r="U93" s="308"/>
+      <c r="V93" s="308"/>
+      <c r="W93" s="308"/>
+      <c r="X93" s="308"/>
+      <c r="Y93" s="318"/>
+      <c r="Z93" s="318"/>
+      <c r="AA93" s="319"/>
+    </row>
+    <row r="94" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A94" s="326">
+        <v>4</v>
+      </c>
+      <c r="B94" s="327"/>
+      <c r="C94" s="328"/>
+      <c r="D94" s="328"/>
+      <c r="E94" s="328"/>
+      <c r="F94" s="328"/>
+      <c r="G94" s="328"/>
+      <c r="H94" s="328"/>
+      <c r="I94" s="328"/>
+      <c r="J94" s="328"/>
+      <c r="K94" s="328"/>
+      <c r="L94" s="328"/>
+      <c r="M94" s="328"/>
+      <c r="N94" s="328"/>
+      <c r="O94" s="328"/>
+      <c r="P94" s="328"/>
+      <c r="Q94" s="328"/>
+      <c r="R94" s="328"/>
+      <c r="S94" s="308"/>
+      <c r="T94" s="309"/>
+      <c r="U94" s="308"/>
+      <c r="V94" s="308"/>
+      <c r="W94" s="308"/>
+      <c r="X94" s="308"/>
+      <c r="Y94" s="318"/>
+      <c r="Z94" s="318"/>
+      <c r="AA94" s="319"/>
+    </row>
+    <row r="95" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A95" s="329">
+        <v>5</v>
+      </c>
+      <c r="B95" s="330"/>
+      <c r="C95" s="328"/>
+      <c r="D95" s="328"/>
+      <c r="E95" s="328"/>
+      <c r="F95" s="328"/>
+      <c r="G95" s="328"/>
+      <c r="H95" s="328"/>
+      <c r="I95" s="328"/>
+      <c r="J95" s="328"/>
+      <c r="K95" s="328"/>
+      <c r="L95" s="328"/>
+      <c r="M95" s="328"/>
+      <c r="N95" s="328"/>
+      <c r="O95" s="328"/>
+      <c r="P95" s="328"/>
+      <c r="Q95" s="328"/>
+      <c r="R95" s="328"/>
+      <c r="S95" s="308"/>
+      <c r="T95" s="309"/>
+      <c r="U95" s="331" t="s">
+        <v>185</v>
+      </c>
+      <c r="V95" s="332"/>
+      <c r="W95" s="332"/>
+      <c r="X95" s="332"/>
+      <c r="Y95" s="318"/>
+      <c r="Z95" s="318"/>
+      <c r="AA95" s="319"/>
+    </row>
+    <row r="96" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A96" s="186"/>
+      <c r="B96" s="186"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="187"/>
+      <c r="F96" s="187"/>
+      <c r="G96" s="187"/>
+      <c r="H96" s="187"/>
+      <c r="I96" s="187"/>
+      <c r="J96" s="187"/>
+      <c r="K96" s="187"/>
+      <c r="L96" s="187"/>
+      <c r="M96" s="188"/>
+      <c r="N96" s="187"/>
+      <c r="O96" s="187"/>
+      <c r="P96" s="187"/>
+      <c r="Q96" s="187"/>
+      <c r="R96" s="187"/>
+      <c r="S96" s="187"/>
+      <c r="T96" s="187"/>
+      <c r="U96" s="333" t="s">
+        <v>58</v>
+      </c>
+      <c r="V96" s="334" t="s">
+        <v>186</v>
+      </c>
+      <c r="W96" s="335"/>
+      <c r="X96" s="336"/>
+      <c r="Y96" s="195"/>
+      <c r="Z96" s="195"/>
+      <c r="AA96" s="195"/>
+    </row>
+    <row r="97" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A97" s="250"/>
+      <c r="B97" s="250"/>
+      <c r="C97" s="250"/>
+      <c r="D97" s="251"/>
+      <c r="E97" s="251"/>
+      <c r="F97" s="252"/>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187"/>
+      <c r="I97" s="187"/>
+      <c r="J97" s="253" t="str">
+        <f>J49</f>
+        <v>Vinh, ngày 01 tháng 08 năm 2024</v>
+      </c>
+      <c r="K97" s="253"/>
+      <c r="L97" s="253"/>
+      <c r="M97" s="253"/>
+      <c r="N97" s="253"/>
+      <c r="O97" s="253"/>
+      <c r="P97" s="253"/>
+      <c r="Q97" s="252"/>
+      <c r="R97" s="252"/>
+      <c r="S97" s="252"/>
+      <c r="T97" s="252"/>
+      <c r="U97" s="337"/>
+      <c r="V97" s="233" t="s">
+        <v>187</v>
+      </c>
+      <c r="W97" s="233" t="s">
+        <v>188</v>
+      </c>
+      <c r="X97" s="338" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y97" s="258"/>
+      <c r="Z97" s="258"/>
+      <c r="AA97" s="258"/>
+    </row>
+    <row r="98" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A98" s="259" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="259"/>
+      <c r="C98" s="260" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="260"/>
+      <c r="E98" s="260"/>
+      <c r="F98" s="260"/>
+      <c r="G98" s="261" t="s">
+        <v>159</v>
+      </c>
+      <c r="H98" s="261"/>
+      <c r="I98" s="261"/>
+      <c r="J98" s="261" t="str">
+        <f>J50</f>
+        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
+      </c>
+      <c r="K98" s="261"/>
+      <c r="L98" s="261"/>
+      <c r="M98" s="261"/>
+      <c r="N98" s="261"/>
+      <c r="O98" s="261"/>
+      <c r="P98" s="261"/>
+      <c r="Q98" s="339"/>
+      <c r="R98" s="339"/>
+      <c r="S98" s="339"/>
+      <c r="T98" s="339"/>
+      <c r="U98" s="340"/>
+      <c r="V98" s="340"/>
+      <c r="W98" s="340"/>
+      <c r="X98" s="340"/>
+      <c r="Y98" s="258"/>
+      <c r="Z98" s="258"/>
+      <c r="AA98" s="258"/>
+    </row>
+    <row r="99" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A99" s="186"/>
+      <c r="B99" s="186"/>
+      <c r="C99" s="186"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="187"/>
+      <c r="G99" s="262"/>
+      <c r="H99" s="262"/>
+      <c r="I99" s="262"/>
+      <c r="J99" s="261" t="s">
+        <v>161</v>
+      </c>
+      <c r="K99" s="261"/>
+      <c r="L99" s="261"/>
+      <c r="M99" s="261"/>
+      <c r="N99" s="261"/>
+      <c r="O99" s="261"/>
+      <c r="P99" s="261"/>
+      <c r="Q99" s="339"/>
+      <c r="R99" s="339"/>
+      <c r="S99" s="339"/>
+      <c r="T99" s="339"/>
+      <c r="U99" s="340"/>
+      <c r="V99" s="340"/>
+      <c r="W99" s="340"/>
+      <c r="X99" s="340"/>
+      <c r="Y99" s="258"/>
+      <c r="Z99" s="258"/>
+      <c r="AA99" s="258"/>
+    </row>
+    <row r="100" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A100" s="186"/>
+      <c r="B100" s="186"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="187"/>
+      <c r="E100" s="187"/>
+      <c r="F100" s="188"/>
+      <c r="G100" s="262"/>
+      <c r="H100" s="262"/>
+      <c r="I100" s="187"/>
+      <c r="J100" s="187"/>
+      <c r="K100" s="187"/>
+      <c r="L100" s="188"/>
+      <c r="M100" s="188"/>
+      <c r="N100" s="262"/>
+      <c r="O100" s="187"/>
+      <c r="P100" s="187"/>
+      <c r="Q100" s="187"/>
+      <c r="R100" s="187"/>
+      <c r="S100" s="187"/>
+      <c r="T100" s="187"/>
+      <c r="U100" s="340"/>
+      <c r="V100" s="340"/>
+      <c r="W100" s="340"/>
+      <c r="X100" s="340"/>
+      <c r="Y100" s="186"/>
+      <c r="Z100" s="186"/>
+      <c r="AA100" s="186"/>
+    </row>
+    <row r="101" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A101" s="186"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="187"/>
+      <c r="E101" s="187"/>
+      <c r="F101" s="188"/>
+      <c r="G101" s="262"/>
+      <c r="H101" s="262"/>
+      <c r="I101" s="187"/>
+      <c r="J101" s="187"/>
+      <c r="K101" s="187"/>
+      <c r="L101" s="188"/>
+      <c r="M101" s="188"/>
+      <c r="N101" s="262"/>
+      <c r="O101" s="187"/>
+      <c r="P101" s="187"/>
+      <c r="Q101" s="187"/>
+      <c r="R101" s="187"/>
+      <c r="S101" s="187"/>
+      <c r="T101" s="187"/>
+      <c r="U101" s="340"/>
+      <c r="V101" s="340"/>
+      <c r="W101" s="340"/>
+      <c r="X101" s="340"/>
+      <c r="Y101" s="186"/>
+      <c r="Z101" s="186"/>
+      <c r="AA101" s="186"/>
+    </row>
+    <row r="102" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A102" s="186"/>
+      <c r="B102" s="186"/>
+      <c r="C102" s="186"/>
+      <c r="D102" s="187"/>
+      <c r="E102" s="187"/>
+      <c r="F102" s="188"/>
+      <c r="G102" s="262"/>
+      <c r="H102" s="262"/>
+      <c r="I102" s="187"/>
+      <c r="J102" s="187"/>
+      <c r="K102" s="187"/>
+      <c r="L102" s="188"/>
+      <c r="M102" s="188"/>
+      <c r="N102" s="262"/>
+      <c r="O102" s="187"/>
+      <c r="P102" s="187"/>
+      <c r="Q102" s="187"/>
+      <c r="R102" s="187"/>
+      <c r="S102" s="187"/>
+      <c r="T102" s="187"/>
+      <c r="U102" s="187"/>
+      <c r="V102" s="186"/>
+      <c r="W102" s="186"/>
+      <c r="X102" s="186"/>
+      <c r="Y102" s="186"/>
+      <c r="Z102" s="186"/>
+      <c r="AA102" s="186"/>
+    </row>
+    <row r="103" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A103" s="186"/>
+      <c r="B103" s="186"/>
+      <c r="C103" s="186"/>
+      <c r="D103" s="187"/>
+      <c r="E103" s="187"/>
+      <c r="F103" s="188"/>
+      <c r="G103" s="262"/>
+      <c r="H103" s="262"/>
+      <c r="I103" s="187"/>
+      <c r="J103" s="187"/>
+      <c r="K103" s="187"/>
+      <c r="L103" s="188"/>
+      <c r="M103" s="188"/>
+      <c r="N103" s="262"/>
+      <c r="O103" s="187"/>
+      <c r="P103" s="187"/>
+      <c r="Q103" s="187"/>
+      <c r="R103" s="187"/>
+      <c r="S103" s="187"/>
+      <c r="T103" s="187"/>
+      <c r="U103" s="187"/>
+      <c r="V103" s="186"/>
+      <c r="W103" s="186"/>
+      <c r="X103" s="186"/>
+      <c r="Y103" s="186"/>
+      <c r="Z103" s="186"/>
+      <c r="AA103" s="186"/>
+    </row>
+    <row r="104" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A104" s="186"/>
+      <c r="B104" s="186"/>
+      <c r="C104" s="186"/>
+      <c r="D104" s="187"/>
+      <c r="E104" s="187"/>
+      <c r="F104" s="187"/>
+      <c r="G104" s="270"/>
+      <c r="H104" s="270"/>
+      <c r="I104" s="270"/>
+      <c r="J104" s="271" t="str">
+        <f>J56</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K104" s="271"/>
+      <c r="L104" s="271"/>
+      <c r="M104" s="271"/>
+      <c r="N104" s="271"/>
+      <c r="O104" s="271"/>
+      <c r="P104" s="271"/>
+      <c r="Q104" s="270"/>
+      <c r="R104" s="270"/>
+      <c r="S104" s="270"/>
+      <c r="T104" s="270"/>
+      <c r="U104" s="187"/>
+      <c r="V104" s="186"/>
+      <c r="W104" s="186"/>
+      <c r="X104" s="186"/>
+      <c r="Y104" s="186"/>
+      <c r="Z104" s="186"/>
+      <c r="AA104" s="186"/>
+    </row>
+    <row r="105" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A105" s="186"/>
+      <c r="B105" s="279"/>
+      <c r="C105" s="186"/>
+      <c r="D105" s="187"/>
+      <c r="E105" s="187"/>
+      <c r="F105" s="188"/>
+      <c r="G105" s="187"/>
+      <c r="H105" s="187"/>
+      <c r="I105" s="187"/>
+      <c r="J105" s="187"/>
+      <c r="K105" s="187"/>
+      <c r="L105" s="187"/>
+      <c r="M105" s="187"/>
+      <c r="N105" s="187"/>
+      <c r="O105" s="187"/>
+      <c r="P105" s="187"/>
+      <c r="Q105" s="187"/>
+      <c r="R105" s="187"/>
+      <c r="S105" s="187"/>
+      <c r="T105" s="187"/>
+      <c r="U105" s="187"/>
+      <c r="V105" s="186"/>
+      <c r="W105" s="186"/>
+      <c r="X105" s="186"/>
+      <c r="Y105" s="186"/>
+      <c r="Z105" s="186"/>
+      <c r="AA105" s="186"/>
+    </row>
+    <row r="106" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A106" s="186"/>
+      <c r="B106" s="186"/>
+      <c r="C106" s="186"/>
+      <c r="D106" s="187"/>
+      <c r="E106" s="187"/>
+      <c r="F106" s="188"/>
+      <c r="G106" s="187"/>
+      <c r="H106" s="187"/>
+      <c r="I106" s="187"/>
+      <c r="J106" s="187"/>
+      <c r="K106" s="187"/>
+      <c r="L106" s="187"/>
+      <c r="M106" s="187"/>
+      <c r="N106" s="187"/>
+      <c r="O106" s="187"/>
+      <c r="P106" s="187"/>
+      <c r="Q106" s="187"/>
+      <c r="R106" s="187"/>
+      <c r="S106" s="187"/>
+      <c r="T106" s="187"/>
+      <c r="U106" s="187"/>
+      <c r="V106" s="186"/>
+      <c r="W106" s="186"/>
+      <c r="X106" s="186"/>
+      <c r="Y106" s="186"/>
+      <c r="Z106" s="186"/>
+      <c r="AA106" s="186"/>
+    </row>
+    <row r="107" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A107" s="186"/>
+      <c r="B107" s="186"/>
+      <c r="C107" s="186"/>
+      <c r="D107" s="187"/>
+      <c r="E107" s="187"/>
+      <c r="F107" s="188"/>
+      <c r="G107" s="187"/>
+      <c r="H107" s="187"/>
+      <c r="I107" s="187"/>
+      <c r="J107" s="187"/>
+      <c r="K107" s="187"/>
+      <c r="L107" s="187"/>
+      <c r="M107" s="187"/>
+      <c r="N107" s="187"/>
+      <c r="O107" s="187"/>
+      <c r="P107" s="187"/>
+      <c r="Q107" s="187"/>
+      <c r="R107" s="187"/>
+      <c r="S107" s="187"/>
+      <c r="T107" s="187"/>
+      <c r="U107" s="187"/>
+      <c r="V107" s="186"/>
+      <c r="W107" s="186"/>
+      <c r="X107" s="186"/>
+      <c r="Y107" s="186"/>
+      <c r="Z107" s="186"/>
+      <c r="AA107" s="186"/>
+    </row>
+    <row r="108" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A108" s="186"/>
+      <c r="B108" s="186"/>
+      <c r="C108" s="186"/>
+      <c r="D108" s="187"/>
+      <c r="E108" s="187"/>
+      <c r="F108" s="188"/>
+      <c r="G108" s="187"/>
+      <c r="H108" s="187"/>
+      <c r="I108" s="187"/>
+      <c r="J108" s="187"/>
+      <c r="K108" s="187"/>
+      <c r="L108" s="187"/>
+      <c r="M108" s="187"/>
+      <c r="N108" s="187"/>
+      <c r="O108" s="187"/>
+      <c r="P108" s="187"/>
+      <c r="Q108" s="187"/>
+      <c r="R108" s="187"/>
+      <c r="S108" s="187"/>
+      <c r="T108" s="187"/>
+      <c r="U108" s="187"/>
+      <c r="V108" s="186"/>
+      <c r="W108" s="186"/>
+      <c r="X108" s="186"/>
+      <c r="Y108" s="186"/>
+      <c r="Z108" s="186"/>
+      <c r="AA108" s="186"/>
+    </row>
+    <row r="109" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A109" s="186"/>
+      <c r="B109" s="186"/>
+      <c r="C109" s="186"/>
+      <c r="D109" s="187"/>
+      <c r="E109" s="187"/>
+      <c r="F109" s="188"/>
+      <c r="G109" s="187"/>
+      <c r="H109" s="187"/>
+      <c r="I109" s="187"/>
+      <c r="J109" s="187"/>
+      <c r="K109" s="187"/>
+      <c r="L109" s="187"/>
+      <c r="M109" s="187"/>
+      <c r="N109" s="187"/>
+      <c r="O109" s="187"/>
+      <c r="P109" s="187"/>
+      <c r="Q109" s="187"/>
+      <c r="R109" s="187"/>
+      <c r="S109" s="187"/>
+      <c r="T109" s="187"/>
+      <c r="U109" s="187"/>
+      <c r="V109" s="186"/>
+      <c r="W109" s="186"/>
+      <c r="X109" s="186"/>
+      <c r="Y109" s="186"/>
+      <c r="Z109" s="186"/>
+      <c r="AA109" s="186"/>
+    </row>
+    <row r="110" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A110" s="186"/>
+      <c r="B110" s="186"/>
+      <c r="C110" s="186"/>
+      <c r="D110" s="187"/>
+      <c r="E110" s="187"/>
+      <c r="F110" s="188"/>
+      <c r="G110" s="187"/>
+      <c r="H110" s="187"/>
+      <c r="I110" s="187"/>
+      <c r="J110" s="187"/>
+      <c r="K110" s="187"/>
+      <c r="L110" s="187"/>
+      <c r="M110" s="187"/>
+      <c r="N110" s="187"/>
+      <c r="O110" s="187"/>
+      <c r="P110" s="187"/>
+      <c r="Q110" s="187"/>
+      <c r="R110" s="187"/>
+      <c r="S110" s="187"/>
+      <c r="T110" s="187"/>
+      <c r="U110" s="187"/>
+      <c r="V110" s="186"/>
+      <c r="W110" s="186"/>
+      <c r="X110" s="186"/>
+      <c r="Y110" s="186"/>
+      <c r="Z110" s="186"/>
+      <c r="AA110" s="186"/>
+    </row>
+    <row r="111" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A111" s="186"/>
+      <c r="B111" s="186"/>
+      <c r="C111" s="186"/>
+      <c r="D111" s="187"/>
+      <c r="E111" s="187"/>
+      <c r="F111" s="188"/>
+      <c r="G111" s="187"/>
+      <c r="H111" s="187"/>
+      <c r="I111" s="187"/>
+      <c r="J111" s="187"/>
+      <c r="K111" s="187"/>
+      <c r="L111" s="187"/>
+      <c r="M111" s="187"/>
+      <c r="N111" s="187"/>
+      <c r="O111" s="187"/>
+      <c r="P111" s="187"/>
+      <c r="Q111" s="187"/>
+      <c r="R111" s="187"/>
+      <c r="S111" s="187"/>
+      <c r="T111" s="187"/>
+      <c r="U111" s="187"/>
+      <c r="V111" s="186"/>
+      <c r="W111" s="186"/>
+      <c r="X111" s="186"/>
+      <c r="Y111" s="186"/>
+      <c r="Z111" s="186"/>
+      <c r="AA111" s="186"/>
+    </row>
+    <row r="112" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A112" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="191"/>
+      <c r="C112" s="191"/>
+      <c r="D112" s="191"/>
+      <c r="E112" s="192"/>
+      <c r="F112" s="193"/>
+      <c r="G112" s="193"/>
+      <c r="H112" s="193"/>
+      <c r="I112" s="192"/>
+      <c r="J112" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="K112" s="194"/>
+      <c r="L112" s="194"/>
+      <c r="M112" s="194"/>
+      <c r="N112" s="194"/>
+      <c r="O112" s="194"/>
+      <c r="P112" s="194"/>
+      <c r="Q112" s="192"/>
+      <c r="R112" s="192"/>
+      <c r="S112" s="192"/>
+      <c r="T112" s="192"/>
+      <c r="U112" s="192"/>
+      <c r="V112" s="195"/>
+      <c r="W112" s="195"/>
+      <c r="X112" s="195"/>
+      <c r="Y112" s="195"/>
+      <c r="Z112" s="195"/>
+      <c r="AA112" s="195"/>
+    </row>
+    <row r="113" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A113" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="196"/>
+      <c r="C113" s="196"/>
+      <c r="D113" s="196"/>
+      <c r="E113" s="192"/>
+      <c r="F113" s="197"/>
+      <c r="G113" s="197"/>
+      <c r="H113" s="197"/>
+      <c r="I113" s="192"/>
+      <c r="J113" s="198" t="s">
+        <v>134</v>
+      </c>
+      <c r="K113" s="198"/>
+      <c r="L113" s="198"/>
+      <c r="M113" s="198"/>
+      <c r="N113" s="198"/>
+      <c r="O113" s="198"/>
+      <c r="P113" s="198"/>
+      <c r="Q113" s="193"/>
+      <c r="R113" s="193"/>
+      <c r="S113" s="193"/>
+      <c r="T113" s="193"/>
+      <c r="U113" s="193"/>
+      <c r="V113" s="199"/>
+      <c r="W113" s="199"/>
+      <c r="X113" s="199"/>
+      <c r="Y113" s="195"/>
+      <c r="Z113" s="195"/>
+      <c r="AA113" s="195"/>
+    </row>
+    <row r="114" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A114" s="200"/>
+      <c r="B114" s="200"/>
+      <c r="C114" s="200"/>
+      <c r="D114" s="201"/>
+      <c r="E114" s="201"/>
+      <c r="F114" s="341"/>
+      <c r="G114" s="251"/>
+      <c r="H114" s="251"/>
+      <c r="I114" s="201"/>
+      <c r="J114" s="251"/>
+      <c r="K114" s="251"/>
+      <c r="L114" s="187"/>
+      <c r="M114" s="187"/>
+      <c r="N114" s="187"/>
+      <c r="O114" s="187"/>
+      <c r="P114" s="187"/>
+      <c r="Q114" s="187"/>
+      <c r="R114" s="187"/>
+      <c r="S114" s="187"/>
+      <c r="T114" s="187"/>
+      <c r="U114" s="187"/>
+      <c r="V114" s="186"/>
+      <c r="W114" s="186"/>
+      <c r="X114" s="186"/>
+      <c r="Y114" s="186"/>
+      <c r="Z114" s="186"/>
+      <c r="AA114" s="186"/>
+    </row>
+    <row r="115" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A115" s="202" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" s="202"/>
+      <c r="C115" s="202"/>
+      <c r="D115" s="202"/>
+      <c r="E115" s="202"/>
+      <c r="F115" s="202"/>
+      <c r="G115" s="202"/>
+      <c r="H115" s="202"/>
+      <c r="I115" s="202"/>
+      <c r="J115" s="202"/>
+      <c r="K115" s="202"/>
+      <c r="L115" s="202"/>
+      <c r="M115" s="202"/>
+      <c r="N115" s="202"/>
+      <c r="O115" s="202"/>
+      <c r="P115" s="202"/>
+      <c r="Q115" s="203"/>
+      <c r="R115" s="203"/>
+      <c r="S115" s="203"/>
+      <c r="T115" s="203"/>
+      <c r="U115" s="203"/>
+      <c r="V115" s="204"/>
+      <c r="W115" s="204"/>
+      <c r="X115" s="204"/>
+      <c r="Y115" s="186"/>
+      <c r="Z115" s="186"/>
+      <c r="AA115" s="186"/>
+    </row>
+    <row r="116" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A116" s="205" t="str">
+        <f>A37</f>
+        <v>Tính từ 15h00 ngày 01/08/2024 theo CĐ số 1814/PLX-KD ngày 01/08/2024; QĐ giá bán lẻ số 682/PLX-TGĐ ngày 01/08/2024 và theo VCF Hè Thu</v>
+      </c>
+      <c r="B116" s="205"/>
+      <c r="C116" s="205"/>
+      <c r="D116" s="205"/>
+      <c r="E116" s="205"/>
+      <c r="F116" s="205"/>
+      <c r="G116" s="205"/>
+      <c r="H116" s="205"/>
+      <c r="I116" s="205"/>
+      <c r="J116" s="205"/>
+      <c r="K116" s="205"/>
+      <c r="L116" s="205"/>
+      <c r="M116" s="205"/>
+      <c r="N116" s="205"/>
+      <c r="O116" s="205"/>
+      <c r="P116" s="205"/>
+      <c r="Q116" s="206"/>
+      <c r="R116" s="206"/>
+      <c r="S116" s="206"/>
+      <c r="T116" s="206"/>
+      <c r="U116" s="206"/>
+      <c r="V116" s="207"/>
+      <c r="W116" s="207"/>
+      <c r="X116" s="207"/>
+      <c r="Y116" s="186"/>
+      <c r="Z116" s="186"/>
+      <c r="AA116" s="186"/>
+    </row>
+    <row r="117" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A117" s="208"/>
+      <c r="B117" s="208"/>
+      <c r="C117" s="208"/>
+      <c r="D117" s="209"/>
+      <c r="E117" s="209"/>
+      <c r="F117" s="209"/>
+      <c r="G117" s="209"/>
+      <c r="H117" s="209"/>
+      <c r="I117" s="209"/>
+      <c r="J117" s="209"/>
+      <c r="K117" s="209"/>
+      <c r="L117" s="209"/>
+      <c r="M117" s="209"/>
+      <c r="N117" s="187"/>
+      <c r="O117" s="187"/>
+      <c r="P117" s="187"/>
+      <c r="Q117" s="187"/>
+      <c r="R117" s="187"/>
+      <c r="S117" s="187"/>
+      <c r="T117" s="187"/>
+      <c r="U117" s="187"/>
+      <c r="V117" s="186"/>
+      <c r="W117" s="186"/>
+      <c r="X117" s="342"/>
+      <c r="Y117" s="186"/>
+      <c r="Z117" s="186"/>
+      <c r="AA117" s="186"/>
+    </row>
+    <row r="118" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A118" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="343" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="344"/>
+      <c r="D118" s="212" t="s">
+        <v>138</v>
+      </c>
+      <c r="E118" s="214"/>
+      <c r="F118" s="212" t="s">
+        <v>139</v>
+      </c>
+      <c r="G118" s="213"/>
+      <c r="H118" s="214"/>
+      <c r="I118" s="212" t="s">
+        <v>190</v>
+      </c>
+      <c r="J118" s="213"/>
+      <c r="K118" s="213"/>
+      <c r="L118" s="214"/>
+      <c r="M118" s="345" t="s">
+        <v>191</v>
+      </c>
+      <c r="N118" s="346"/>
+      <c r="O118" s="346"/>
+      <c r="P118" s="347"/>
+      <c r="Q118" s="348"/>
+      <c r="R118" s="348"/>
+      <c r="S118" s="348"/>
+      <c r="T118" s="348"/>
+      <c r="U118" s="348"/>
+      <c r="V118" s="349"/>
+      <c r="W118" s="349"/>
+      <c r="X118" s="349"/>
+      <c r="Y118" s="350"/>
+      <c r="Z118" s="350"/>
+      <c r="AA118" s="350"/>
+    </row>
+    <row r="119" spans="1:27" ht="16.5" customHeight="1">
+      <c r="A119" s="220"/>
+      <c r="B119" s="351"/>
+      <c r="C119" s="352"/>
+      <c r="D119" s="353"/>
+      <c r="E119" s="354"/>
+      <c r="F119" s="353"/>
+      <c r="G119" s="355"/>
+      <c r="H119" s="354"/>
+      <c r="I119" s="222"/>
+      <c r="J119" s="223"/>
+      <c r="K119" s="223"/>
+      <c r="L119" s="224"/>
+      <c r="M119" s="356"/>
+      <c r="N119" s="357"/>
+      <c r="O119" s="357"/>
+      <c r="P119" s="358"/>
+      <c r="Q119" s="348"/>
+      <c r="R119" s="348"/>
+      <c r="S119" s="348"/>
+      <c r="T119" s="348"/>
+      <c r="U119" s="348"/>
+      <c r="V119" s="349"/>
+      <c r="W119" s="349"/>
+      <c r="X119" s="349"/>
+      <c r="Y119" s="350"/>
+      <c r="Z119" s="350"/>
+      <c r="AA119" s="350"/>
+    </row>
+    <row r="120" spans="1:27" ht="44.25" customHeight="1">
+      <c r="A120" s="228"/>
+      <c r="B120" s="359"/>
+      <c r="C120" s="360"/>
+      <c r="D120" s="222"/>
+      <c r="E120" s="224"/>
+      <c r="F120" s="222"/>
+      <c r="G120" s="223"/>
+      <c r="H120" s="224"/>
+      <c r="I120" s="231" t="s">
+        <v>192</v>
+      </c>
+      <c r="J120" s="232"/>
+      <c r="K120" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="L120" s="232"/>
+      <c r="M120" s="361"/>
+      <c r="N120" s="362"/>
+      <c r="O120" s="362"/>
+      <c r="P120" s="363"/>
+      <c r="Q120" s="348"/>
+      <c r="R120" s="348"/>
+      <c r="S120" s="348"/>
+      <c r="T120" s="348"/>
+      <c r="U120" s="348"/>
+      <c r="V120" s="349"/>
+      <c r="W120" s="349"/>
+      <c r="X120" s="349"/>
+      <c r="Y120" s="350"/>
+      <c r="Z120" s="350"/>
+      <c r="AA120" s="350"/>
+    </row>
+    <row r="121" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A121" s="292"/>
+      <c r="B121" s="293"/>
+      <c r="C121" s="294"/>
+      <c r="D121" s="294"/>
+      <c r="E121" s="294"/>
+      <c r="F121" s="294"/>
+      <c r="G121" s="294"/>
+      <c r="H121" s="294"/>
+      <c r="I121" s="294"/>
+      <c r="J121" s="294"/>
+      <c r="K121" s="294"/>
+      <c r="L121" s="294"/>
+      <c r="M121" s="294"/>
+      <c r="N121" s="294"/>
+      <c r="O121" s="294"/>
+      <c r="P121" s="295"/>
+      <c r="Q121" s="364"/>
+      <c r="R121" s="364"/>
+      <c r="S121" s="364"/>
+      <c r="T121" s="364"/>
+      <c r="U121" s="364"/>
+      <c r="V121" s="365"/>
+      <c r="W121" s="365"/>
+      <c r="X121" s="365"/>
+      <c r="Y121" s="296"/>
+      <c r="Z121" s="296"/>
+      <c r="AA121" s="296"/>
+    </row>
+    <row r="122" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A122" s="234"/>
+      <c r="B122" s="366" t="s">
+        <v>182</v>
+      </c>
+      <c r="C122" s="367"/>
+      <c r="D122" s="366"/>
+      <c r="E122" s="367"/>
+      <c r="F122" s="368"/>
+      <c r="G122" s="369"/>
+      <c r="H122" s="370"/>
+      <c r="I122" s="368"/>
+      <c r="J122" s="370"/>
+      <c r="K122" s="368"/>
+      <c r="L122" s="370"/>
+      <c r="M122" s="368"/>
+      <c r="N122" s="369"/>
+      <c r="O122" s="369"/>
+      <c r="P122" s="370"/>
+      <c r="Q122" s="371"/>
+      <c r="R122" s="371"/>
+      <c r="S122" s="371"/>
+      <c r="T122" s="371"/>
+      <c r="U122" s="371"/>
+      <c r="V122" s="365"/>
+      <c r="W122" s="365"/>
+      <c r="X122" s="365"/>
+      <c r="Y122" s="372"/>
+      <c r="Z122" s="372"/>
+      <c r="AA122" s="372"/>
+    </row>
+    <row r="123" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A123" s="234">
+        <v>1</v>
+      </c>
+      <c r="B123" s="366"/>
+      <c r="C123" s="367"/>
+      <c r="D123" s="366"/>
+      <c r="E123" s="367"/>
+      <c r="F123" s="373"/>
+      <c r="G123" s="374"/>
+      <c r="H123" s="375"/>
+      <c r="I123" s="368"/>
+      <c r="J123" s="370"/>
+      <c r="K123" s="368"/>
+      <c r="L123" s="370"/>
+      <c r="M123" s="368"/>
+      <c r="N123" s="369"/>
+      <c r="O123" s="369"/>
+      <c r="P123" s="370"/>
+      <c r="Q123" s="371"/>
+      <c r="R123" s="371"/>
+      <c r="S123" s="371"/>
+      <c r="T123" s="371"/>
+      <c r="U123" s="371"/>
+      <c r="V123" s="365"/>
+      <c r="W123" s="365"/>
+      <c r="X123" s="365"/>
+      <c r="Y123" s="372"/>
+      <c r="Z123" s="372"/>
+      <c r="AA123" s="372"/>
+    </row>
+    <row r="124" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A124" s="234">
+        <v>2</v>
+      </c>
+      <c r="B124" s="366"/>
+      <c r="C124" s="367"/>
+      <c r="D124" s="366"/>
+      <c r="E124" s="367"/>
+      <c r="F124" s="373"/>
+      <c r="G124" s="374"/>
+      <c r="H124" s="375"/>
+      <c r="I124" s="368"/>
+      <c r="J124" s="370"/>
+      <c r="K124" s="368"/>
+      <c r="L124" s="370"/>
+      <c r="M124" s="368"/>
+      <c r="N124" s="369"/>
+      <c r="O124" s="369"/>
+      <c r="P124" s="370"/>
+      <c r="Q124" s="371"/>
+      <c r="R124" s="371"/>
+      <c r="S124" s="371"/>
+      <c r="T124" s="371"/>
+      <c r="U124" s="371"/>
+      <c r="V124" s="365"/>
+      <c r="W124" s="365"/>
+      <c r="X124" s="365"/>
+      <c r="Y124" s="372"/>
+      <c r="Z124" s="372"/>
+      <c r="AA124" s="372"/>
+    </row>
+    <row r="125" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A125" s="234">
+        <v>3</v>
+      </c>
+      <c r="B125" s="366"/>
+      <c r="C125" s="367"/>
+      <c r="D125" s="366"/>
+      <c r="E125" s="367"/>
+      <c r="F125" s="373"/>
+      <c r="G125" s="374"/>
+      <c r="H125" s="375"/>
+      <c r="I125" s="368"/>
+      <c r="J125" s="370"/>
+      <c r="K125" s="368"/>
+      <c r="L125" s="370"/>
+      <c r="M125" s="368"/>
+      <c r="N125" s="369"/>
+      <c r="O125" s="369"/>
+      <c r="P125" s="370"/>
+      <c r="Q125" s="371"/>
+      <c r="R125" s="371"/>
+      <c r="S125" s="371"/>
+      <c r="T125" s="371"/>
+      <c r="U125" s="371"/>
+      <c r="V125" s="365"/>
+      <c r="W125" s="365"/>
+      <c r="X125" s="365"/>
+      <c r="Y125" s="372"/>
+      <c r="Z125" s="372"/>
+      <c r="AA125" s="372"/>
+    </row>
+    <row r="126" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A126" s="234">
+        <v>4</v>
+      </c>
+      <c r="B126" s="366"/>
+      <c r="C126" s="367"/>
+      <c r="D126" s="366"/>
+      <c r="E126" s="367"/>
+      <c r="F126" s="373"/>
+      <c r="G126" s="374"/>
+      <c r="H126" s="375"/>
+      <c r="I126" s="368"/>
+      <c r="J126" s="370"/>
+      <c r="K126" s="368"/>
+      <c r="L126" s="370"/>
+      <c r="M126" s="368"/>
+      <c r="N126" s="369"/>
+      <c r="O126" s="369"/>
+      <c r="P126" s="370"/>
+      <c r="Q126" s="371"/>
+      <c r="R126" s="371"/>
+      <c r="S126" s="371"/>
+      <c r="T126" s="371"/>
+      <c r="U126" s="371"/>
+      <c r="V126" s="365"/>
+      <c r="W126" s="365"/>
+      <c r="X126" s="365"/>
+      <c r="Y126" s="372"/>
+      <c r="Z126" s="372"/>
+      <c r="AA126" s="372"/>
+    </row>
+    <row r="127" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A127" s="234">
+        <v>5</v>
+      </c>
+      <c r="B127" s="366"/>
+      <c r="C127" s="367"/>
+      <c r="D127" s="366"/>
+      <c r="E127" s="367"/>
+      <c r="F127" s="376"/>
+      <c r="G127" s="377"/>
+      <c r="H127" s="378"/>
+      <c r="I127" s="368"/>
+      <c r="J127" s="370"/>
+      <c r="K127" s="368"/>
+      <c r="L127" s="370"/>
+      <c r="M127" s="368"/>
+      <c r="N127" s="369"/>
+      <c r="O127" s="369"/>
+      <c r="P127" s="370"/>
+      <c r="Q127" s="371"/>
+      <c r="R127" s="371"/>
+      <c r="S127" s="371"/>
+      <c r="T127" s="371"/>
+      <c r="U127" s="371"/>
+      <c r="V127" s="365"/>
+      <c r="W127" s="365"/>
+      <c r="X127" s="365"/>
+      <c r="Y127" s="372"/>
+      <c r="Z127" s="372"/>
+      <c r="AA127" s="372"/>
+    </row>
+    <row r="128" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A128" s="250"/>
+      <c r="B128" s="250"/>
+      <c r="C128" s="250"/>
+      <c r="D128" s="251"/>
+      <c r="E128" s="251"/>
+      <c r="F128" s="341"/>
+      <c r="G128" s="187"/>
+      <c r="H128" s="187"/>
+      <c r="I128" s="251"/>
+      <c r="J128" s="251"/>
+      <c r="K128" s="251"/>
+      <c r="L128" s="187"/>
+      <c r="M128" s="187"/>
+      <c r="N128" s="187"/>
+      <c r="O128" s="187"/>
+      <c r="P128" s="187"/>
+      <c r="Q128" s="187"/>
+      <c r="R128" s="187"/>
+      <c r="S128" s="187"/>
+      <c r="T128" s="187"/>
+      <c r="U128" s="187"/>
+      <c r="V128" s="186"/>
+      <c r="W128" s="186"/>
+      <c r="X128" s="186"/>
+      <c r="Y128" s="186"/>
+      <c r="Z128" s="186"/>
+      <c r="AA128" s="186"/>
+    </row>
+    <row r="129" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A129" s="379"/>
+      <c r="B129" s="380" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="380"/>
+      <c r="D129" s="381"/>
+      <c r="E129" s="381"/>
+      <c r="F129" s="382"/>
+      <c r="G129" s="381"/>
+      <c r="H129" s="381"/>
+      <c r="I129" s="381"/>
+      <c r="J129" s="381"/>
+      <c r="K129" s="381"/>
+      <c r="L129" s="383"/>
+      <c r="M129" s="383"/>
+      <c r="N129" s="383"/>
+      <c r="O129" s="383"/>
+      <c r="P129" s="383"/>
+      <c r="Q129" s="383"/>
+      <c r="R129" s="383"/>
+      <c r="S129" s="383"/>
+      <c r="T129" s="383"/>
+      <c r="U129" s="383"/>
+      <c r="V129" s="279"/>
+      <c r="W129" s="279"/>
+      <c r="X129" s="186"/>
+      <c r="Y129" s="186"/>
+      <c r="Z129" s="186"/>
+      <c r="AA129" s="186"/>
+    </row>
+    <row r="130" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A130" s="379"/>
+      <c r="B130" s="380" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" s="380"/>
+      <c r="D130" s="381"/>
+      <c r="E130" s="381"/>
+      <c r="F130" s="382"/>
+      <c r="G130" s="381"/>
+      <c r="H130" s="381"/>
+      <c r="I130" s="381"/>
+      <c r="J130" s="381"/>
+      <c r="K130" s="381"/>
+      <c r="L130" s="383"/>
+      <c r="M130" s="383"/>
+      <c r="N130" s="383"/>
+      <c r="O130" s="383"/>
+      <c r="P130" s="383"/>
+      <c r="Q130" s="383"/>
+      <c r="R130" s="383"/>
+      <c r="S130" s="383"/>
+      <c r="T130" s="383"/>
+      <c r="U130" s="383"/>
+      <c r="V130" s="279"/>
+      <c r="W130" s="279"/>
+      <c r="X130" s="186"/>
+      <c r="Y130" s="186"/>
+      <c r="Z130" s="186"/>
+      <c r="AA130" s="186"/>
+    </row>
+    <row r="131" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A131" s="250"/>
+      <c r="B131" s="250"/>
+      <c r="C131" s="250"/>
+      <c r="D131" s="251"/>
+      <c r="E131" s="251"/>
+      <c r="F131" s="252"/>
+      <c r="G131" s="187"/>
+      <c r="H131" s="187"/>
+      <c r="I131" s="187"/>
+      <c r="J131" s="253" t="str">
+        <f>J97</f>
+        <v>Vinh, ngày 01 tháng 08 năm 2024</v>
+      </c>
+      <c r="K131" s="253"/>
+      <c r="L131" s="253"/>
+      <c r="M131" s="253"/>
+      <c r="N131" s="253"/>
+      <c r="O131" s="253"/>
+      <c r="P131" s="253"/>
+      <c r="Q131" s="252"/>
+      <c r="R131" s="252"/>
+      <c r="S131" s="252"/>
+      <c r="T131" s="252"/>
+      <c r="U131" s="252"/>
+      <c r="V131" s="339"/>
+      <c r="W131" s="339"/>
+      <c r="X131" s="339"/>
+      <c r="Y131" s="258"/>
+      <c r="Z131" s="258"/>
+      <c r="AA131" s="258"/>
+    </row>
+    <row r="132" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A132" s="259" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="259"/>
+      <c r="C132" s="260" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="260"/>
+      <c r="E132" s="260"/>
+      <c r="F132" s="260"/>
+      <c r="G132" s="261" t="s">
+        <v>159</v>
+      </c>
+      <c r="H132" s="261"/>
+      <c r="I132" s="261"/>
+      <c r="J132" s="261" t="str">
+        <f>J50</f>
+        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
+      </c>
+      <c r="K132" s="261"/>
+      <c r="L132" s="261"/>
+      <c r="M132" s="261"/>
+      <c r="N132" s="261"/>
+      <c r="O132" s="261"/>
+      <c r="P132" s="261"/>
+      <c r="Q132" s="262"/>
+      <c r="R132" s="262"/>
+      <c r="S132" s="262"/>
+      <c r="T132" s="262"/>
+      <c r="U132" s="262"/>
+      <c r="V132" s="384"/>
+      <c r="W132" s="384"/>
+      <c r="X132" s="384"/>
+      <c r="Y132" s="258"/>
+      <c r="Z132" s="258"/>
+      <c r="AA132" s="258"/>
+    </row>
+    <row r="133" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A133" s="186"/>
+      <c r="B133" s="186"/>
+      <c r="C133" s="186"/>
+      <c r="D133" s="187"/>
+      <c r="E133" s="187"/>
+      <c r="F133" s="187"/>
+      <c r="G133" s="262"/>
+      <c r="H133" s="262"/>
+      <c r="I133" s="262"/>
+      <c r="J133" s="261" t="s">
+        <v>161</v>
+      </c>
+      <c r="K133" s="261"/>
+      <c r="L133" s="261"/>
+      <c r="M133" s="261"/>
+      <c r="N133" s="261"/>
+      <c r="O133" s="261"/>
+      <c r="P133" s="261"/>
+      <c r="Q133" s="262"/>
+      <c r="R133" s="262"/>
+      <c r="S133" s="262"/>
+      <c r="T133" s="262"/>
+      <c r="U133" s="262"/>
+      <c r="V133" s="384"/>
+      <c r="W133" s="384"/>
+      <c r="X133" s="384"/>
+      <c r="Y133" s="258"/>
+      <c r="Z133" s="258"/>
+      <c r="AA133" s="258"/>
+    </row>
+    <row r="134" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A134" s="385"/>
+      <c r="B134" s="385"/>
+      <c r="C134" s="385"/>
+      <c r="D134" s="386"/>
+      <c r="E134" s="386"/>
+      <c r="F134" s="387"/>
+      <c r="G134" s="388"/>
+      <c r="H134" s="388"/>
+      <c r="I134" s="386"/>
+      <c r="J134" s="386"/>
+      <c r="K134" s="386"/>
+      <c r="L134" s="387"/>
+      <c r="M134" s="387"/>
+      <c r="N134" s="388"/>
+      <c r="O134" s="386"/>
+      <c r="P134" s="386"/>
+      <c r="Q134" s="386"/>
+      <c r="R134" s="386"/>
+      <c r="S134" s="386"/>
+      <c r="T134" s="386"/>
+      <c r="U134" s="386"/>
+      <c r="V134" s="385"/>
+      <c r="W134" s="385"/>
+      <c r="X134" s="385"/>
+      <c r="Y134" s="385"/>
+      <c r="Z134" s="385"/>
+      <c r="AA134" s="385"/>
+    </row>
+    <row r="135" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A135" s="385"/>
+      <c r="B135" s="385"/>
+      <c r="C135" s="385"/>
+      <c r="D135" s="386"/>
+      <c r="E135" s="386"/>
+      <c r="F135" s="387"/>
+      <c r="G135" s="388"/>
+      <c r="H135" s="388"/>
+      <c r="I135" s="386"/>
+      <c r="J135" s="386"/>
+      <c r="K135" s="386"/>
+      <c r="L135" s="387"/>
+      <c r="M135" s="387"/>
+      <c r="N135" s="388"/>
+      <c r="O135" s="386"/>
+      <c r="P135" s="386"/>
+      <c r="Q135" s="386"/>
+      <c r="R135" s="386"/>
+      <c r="S135" s="386"/>
+      <c r="T135" s="386"/>
+      <c r="U135" s="386"/>
+      <c r="V135" s="385"/>
+      <c r="W135" s="385"/>
+      <c r="X135" s="385"/>
+      <c r="Y135" s="385"/>
+      <c r="Z135" s="385"/>
+      <c r="AA135" s="385"/>
+    </row>
+    <row r="136" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A136" s="385"/>
+      <c r="B136" s="385"/>
+      <c r="C136" s="385"/>
+      <c r="D136" s="386"/>
+      <c r="E136" s="386"/>
+      <c r="F136" s="387"/>
+      <c r="G136" s="388"/>
+      <c r="H136" s="388"/>
+      <c r="I136" s="386"/>
+      <c r="J136" s="386"/>
+      <c r="K136" s="386"/>
+      <c r="L136" s="387"/>
+      <c r="M136" s="387"/>
+      <c r="N136" s="388"/>
+      <c r="O136" s="386"/>
+      <c r="P136" s="386"/>
+      <c r="Q136" s="386"/>
+      <c r="R136" s="386"/>
+      <c r="S136" s="386"/>
+      <c r="T136" s="386"/>
+      <c r="U136" s="386"/>
+      <c r="V136" s="385"/>
+      <c r="W136" s="385"/>
+      <c r="X136" s="385"/>
+      <c r="Y136" s="385"/>
+      <c r="Z136" s="385"/>
+      <c r="AA136" s="385"/>
+    </row>
+    <row r="137" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A137" s="385"/>
+      <c r="B137" s="385"/>
+      <c r="C137" s="385"/>
+      <c r="D137" s="386"/>
+      <c r="E137" s="386"/>
+      <c r="F137" s="387"/>
+      <c r="G137" s="388"/>
+      <c r="H137" s="388"/>
+      <c r="I137" s="386"/>
+      <c r="J137" s="386"/>
+      <c r="K137" s="386"/>
+      <c r="L137" s="387"/>
+      <c r="M137" s="387"/>
+      <c r="N137" s="388"/>
+      <c r="O137" s="386"/>
+      <c r="P137" s="386"/>
+      <c r="Q137" s="386"/>
+      <c r="R137" s="386"/>
+      <c r="S137" s="386"/>
+      <c r="T137" s="386"/>
+      <c r="U137" s="386"/>
+      <c r="V137" s="385"/>
+      <c r="W137" s="385"/>
+      <c r="X137" s="385"/>
+      <c r="Y137" s="385"/>
+      <c r="Z137" s="385"/>
+      <c r="AA137" s="385"/>
+    </row>
+    <row r="138" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A138" s="385"/>
+      <c r="B138" s="385"/>
+      <c r="C138" s="385"/>
+      <c r="D138" s="386"/>
+      <c r="E138" s="386"/>
+      <c r="F138" s="386"/>
+      <c r="G138" s="389"/>
+      <c r="H138" s="389"/>
+      <c r="I138" s="389"/>
+      <c r="J138" s="390" t="str">
+        <f>J56</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K138" s="390"/>
+      <c r="L138" s="390"/>
+      <c r="M138" s="390"/>
+      <c r="N138" s="390"/>
+      <c r="O138" s="390"/>
+      <c r="P138" s="390"/>
+      <c r="Q138" s="389"/>
+      <c r="R138" s="389"/>
+      <c r="S138" s="389"/>
+      <c r="T138" s="389"/>
+      <c r="U138" s="389"/>
+      <c r="V138" s="391"/>
+      <c r="W138" s="391"/>
+      <c r="X138" s="391"/>
+      <c r="Y138" s="385"/>
+      <c r="Z138" s="385"/>
+      <c r="AA138" s="385"/>
+    </row>
+    <row r="139" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A139" s="392"/>
+      <c r="B139" s="392"/>
+      <c r="C139" s="392"/>
+      <c r="D139" s="393"/>
+      <c r="E139" s="394"/>
+      <c r="F139" s="393"/>
+      <c r="G139" s="393"/>
+      <c r="H139" s="393"/>
+      <c r="I139" s="393"/>
+      <c r="J139" s="393"/>
+      <c r="K139" s="393"/>
+      <c r="L139" s="393"/>
+      <c r="M139" s="393"/>
+      <c r="N139" s="393"/>
+      <c r="O139" s="393"/>
+      <c r="P139" s="393"/>
+      <c r="Q139" s="393"/>
+      <c r="R139" s="393"/>
+      <c r="S139" s="393"/>
+      <c r="T139" s="393"/>
+      <c r="U139" s="393"/>
+      <c r="V139" s="392"/>
+      <c r="W139" s="392"/>
+      <c r="X139" s="385"/>
+      <c r="Y139" s="385"/>
+      <c r="Z139" s="385"/>
+      <c r="AA139" s="385"/>
+    </row>
+  </sheetData>
+  <mergeCells count="185">
+    <mergeCell ref="J138:P138"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J131:P131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="J132:P132"/>
+    <mergeCell ref="J133:P133"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:P127"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:P126"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="B121:P121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:C120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="F118:H120"/>
+    <mergeCell ref="I118:L119"/>
+    <mergeCell ref="M118:P120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="J98:P98"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="B83:R83"/>
+    <mergeCell ref="U83:X83"/>
+    <mergeCell ref="U88:X88"/>
+    <mergeCell ref="U96:U97"/>
+    <mergeCell ref="V96:X96"/>
+    <mergeCell ref="J97:P97"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="U81:U82"/>
+    <mergeCell ref="P79:P82"/>
+    <mergeCell ref="Q79:Q82"/>
+    <mergeCell ref="R79:R82"/>
+    <mergeCell ref="U79:X80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:G80"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="L79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="J73:P73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="J74:P74"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="V49:X50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B9 B16">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A9="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2958,7 +8817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A15F11-E8E6-427F-BB71-523356BC2BC1}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -2975,46 +8834,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="23" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
     </row>
     <row r="2" spans="1:38" s="23" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="55" t="s">
@@ -3022,12 +8881,12 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1">
-      <c r="Y3" s="63" t="s">
+      <c r="Y3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="A4" s="56" t="s">
@@ -3074,26 +8933,26 @@
       <c r="Z4" s="56"/>
       <c r="AA4" s="56"/>
       <c r="AB4" s="56"/>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="64" t="s">
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="64" t="s">
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="64" t="s">
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="64" t="s">
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="65"/>
+      <c r="AL4" s="60"/>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1">
       <c r="A5" s="56"/>
@@ -3130,16 +8989,16 @@
       <c r="Z5" s="56"/>
       <c r="AA5" s="56"/>
       <c r="AB5" s="56"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="67"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="56"/>
@@ -3154,7 +9013,7 @@
       <c r="F6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="56" t="s">
@@ -3181,11 +9040,11 @@
         <v>22</v>
       </c>
       <c r="S6" s="56"/>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="61" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="65" t="s">
         <v>24</v>
       </c>
       <c r="W6" s="56"/>
@@ -3198,7 +9057,7 @@
       <c r="Z6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="57" t="s">
+      <c r="AA6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AB6" s="56" t="s">
@@ -3242,7 +9101,7 @@
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -3286,7 +9145,7 @@
       <c r="X7" s="56"/>
       <c r="Y7" s="56"/>
       <c r="Z7" s="56"/>
-      <c r="AA7" s="58"/>
+      <c r="AA7" s="67"/>
       <c r="AB7" s="56"/>
       <c r="AC7" s="56"/>
       <c r="AD7" s="56"/>
@@ -3301,6 +9160,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AK6:AK7"/>
@@ -3317,33 +9203,6 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3372,99 +9231,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="17.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="94"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
     </row>
     <row r="2" spans="1:43" ht="17.25" customHeight="1">
-      <c r="A2" s="95" t="str">
+      <c r="A2" s="69" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
     </row>
     <row r="3" spans="1:43" ht="17.25" customHeight="1">
       <c r="A3" s="24"/>
@@ -3496,10 +9355,10 @@
       <c r="AA3" s="27"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
       <c r="AH3" s="27"/>
       <c r="AI3" s="29"/>
       <c r="AJ3" s="29"/>
@@ -3521,133 +9380,133 @@
       <c r="C4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="68" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="84" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="74" t="s">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="84" t="s">
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="85" t="s">
+      <c r="AC4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
     </row>
     <row r="5" spans="1:43" ht="17.25" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="90" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="90" t="s">
+      <c r="S5" s="75"/>
+      <c r="T5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="90" t="s">
+      <c r="U5" s="75"/>
+      <c r="V5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="91"/>
-      <c r="X5" s="98" t="s">
+      <c r="W5" s="75"/>
+      <c r="X5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="90" t="s">
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="89" t="s">
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89" t="s">
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89" t="s">
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="78" t="s">
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="102" t="s">
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AQ5" s="89"/>
+      <c r="AQ5" s="82"/>
     </row>
     <row r="6" spans="1:43" ht="17.25" customHeight="1">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
-      <c r="D6" s="84"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="56" t="s">
         <v>20</v>
       </c>
@@ -3657,39 +9516,39 @@
       <c r="G6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="84"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="71"/>
       <c r="AC6" s="56" t="s">
         <v>20</v>
       </c>
@@ -3699,59 +9558,59 @@
       <c r="AE6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="57" t="s">
+      <c r="AF6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AG6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="84" t="s">
+      <c r="AH6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="84" t="s">
+      <c r="AI6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="84" t="s">
+      <c r="AJ6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="84" t="s">
+      <c r="AK6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="84" t="s">
+      <c r="AL6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="84" t="s">
+      <c r="AM6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="80" t="s">
+      <c r="AN6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="80" t="s">
+      <c r="AO6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="84" t="s">
+      <c r="AP6" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="84" t="s">
+      <c r="AQ6" s="71" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="17.25" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="30" t="s">
         <v>13</v>
       </c>
@@ -3788,25 +9647,59 @@
       <c r="AA7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="80"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A2:AQ2"/>
     <mergeCell ref="AD3:AG3"/>
@@ -3823,40 +9716,6 @@
     <mergeCell ref="AJ5:AK5"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3882,83 +9741,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
     </row>
     <row r="2" spans="1:40" ht="17.25" customHeight="1">
-      <c r="A2" s="95" t="str">
+      <c r="A2" s="69" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:40" ht="17.25" customHeight="1">
       <c r="A3" s="31"/>
@@ -3985,11 +9844,11 @@
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
       <c r="X3" s="33"/>
-      <c r="Y3" s="104" t="s">
+      <c r="Y3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
       <c r="AB3" s="24"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
@@ -4006,13 +9865,13 @@
       <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="109" t="s">
         <v>6</v>
       </c>
@@ -4022,104 +9881,104 @@
       <c r="L4" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="103" t="s">
+      <c r="N4" s="100"/>
+      <c r="O4" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="97" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="Z4" s="103" t="s">
+      <c r="Z4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103" t="s">
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
     </row>
     <row r="5" spans="1:40" ht="17.25" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="103" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="108" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="113"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="89" t="s">
+      <c r="M5" s="106"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89" t="s">
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89" t="s">
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="78" t="s">
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="102" t="s">
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="89"/>
+      <c r="AN5" s="82"/>
     </row>
     <row r="6" spans="1:40" ht="17.25" customHeight="1">
       <c r="A6" s="56"/>
@@ -4133,40 +9992,40 @@
       <c r="E6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="113"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="89" t="s">
+      <c r="M6" s="105"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89" t="s">
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89" t="s">
+      <c r="R6" s="82"/>
+      <c r="S6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="89"/>
-      <c r="U6" s="78" t="s">
+      <c r="T6" s="82"/>
+      <c r="U6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="79"/>
-      <c r="W6" s="102" t="s">
+      <c r="V6" s="96"/>
+      <c r="W6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="97"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="73"/>
       <c r="Z6" s="56" t="s">
         <v>20</v>
       </c>
@@ -4176,7 +10035,7 @@
       <c r="AB6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AC6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AD6" s="56" t="s">
@@ -4216,15 +10075,15 @@
     <row r="7" spans="1:40" ht="27" customHeight="1">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="113"/>
       <c r="M7" s="34" t="s">
         <v>13</v>
@@ -4262,12 +10121,12 @@
       <c r="X7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="57"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="66"/>
       <c r="AE7" s="56"/>
       <c r="AF7" s="56"/>
       <c r="AG7" s="56"/>
@@ -4281,6 +10140,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Z4:AD5"/>
+    <mergeCell ref="AE4:AN4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:AI2"/>
     <mergeCell ref="Y3:AA3"/>
@@ -4297,37 +10187,6 @@
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z4:AD5"/>
-    <mergeCell ref="AE4:AN4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4353,47 +10212,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
     </row>
     <row r="2" spans="1:39" ht="20.25" customHeight="1">
       <c r="A2" s="114" t="str">
@@ -4489,116 +10348,116 @@
       <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="103" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="105" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="103" t="s">
+      <c r="M4" s="100"/>
+      <c r="N4" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="97" t="s">
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="103" t="s">
+      <c r="Y4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103" t="s">
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
     </row>
     <row r="5" spans="1:39" ht="20.25" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="103" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="89" t="s">
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89" t="s">
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89" t="s">
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="78" t="s">
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="102" t="s">
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="89"/>
+      <c r="AM5" s="82"/>
     </row>
     <row r="6" spans="1:39" ht="20.25" customHeight="1">
       <c r="A6" s="56"/>
@@ -4612,39 +10471,39 @@
       <c r="E6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="89" t="s">
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89" t="s">
+      <c r="O6" s="82"/>
+      <c r="P6" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89" t="s">
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="89"/>
-      <c r="T6" s="78" t="s">
+      <c r="S6" s="82"/>
+      <c r="T6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="79"/>
-      <c r="V6" s="102" t="s">
+      <c r="U6" s="96"/>
+      <c r="V6" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="89"/>
-      <c r="X6" s="97"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="73"/>
       <c r="Y6" s="56" t="s">
         <v>20</v>
       </c>
@@ -4654,7 +10513,7 @@
       <c r="AA6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AB6" s="66" t="s">
         <v>23</v>
       </c>
       <c r="AC6" s="56" t="s">
@@ -4694,15 +10553,15 @@
     <row r="7" spans="1:39" ht="20.25" customHeight="1">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
       <c r="L7" s="34" t="s">
         <v>13</v>
       </c>
@@ -4739,12 +10598,12 @@
       <c r="W7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="57"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="66"/>
       <c r="AD7" s="56"/>
       <c r="AE7" s="56"/>
       <c r="AF7" s="56"/>
@@ -4758,6 +10617,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="Y4:AC5"/>
+    <mergeCell ref="AD4:AM4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:AM2"/>
     <mergeCell ref="Z3:AC3"/>
@@ -4774,36 +10663,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="Y4:AC5"/>
-    <mergeCell ref="AD4:AM4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4863,113 +10722,113 @@
       <c r="W1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="119" t="str">
+      <c r="A4" s="123" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
       <c r="A6" s="120" t="s">
@@ -4999,32 +10858,32 @@
       <c r="I6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="123"/>
-      <c r="L6" s="84" t="s">
+      <c r="K6" s="119"/>
+      <c r="L6" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84" t="s">
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84" t="s">
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84" t="s">
+      <c r="S6" s="71"/>
+      <c r="T6" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84" t="s">
+      <c r="U6" s="71"/>
+      <c r="V6" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="W6" s="84"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
       <c r="A7" s="120"/>
@@ -5036,20 +10895,20 @@
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
       <c r="A8" s="120"/>
@@ -5064,19 +10923,19 @@
       <c r="J8" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K8" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="84" t="s">
+      <c r="M8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="84" t="s">
+      <c r="O8" s="71" t="s">
         <v>108</v>
       </c>
       <c r="P8" s="116" t="s">
@@ -5097,10 +10956,10 @@
       <c r="U8" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="122" t="s">
+      <c r="V8" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="97" t="s">
+      <c r="W8" s="73" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5115,22 +10974,40 @@
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="116"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
       <c r="P9" s="116"/>
       <c r="Q9" s="116"/>
       <c r="R9" s="116"/>
       <c r="S9" s="116"/>
       <c r="T9" s="116"/>
       <c r="U9" s="116"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="97"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
@@ -5147,24 +11024,6 @@
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:O7"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="T6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5197,40 +11056,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="42"/>
@@ -5249,59 +11108,59 @@
       <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="129" t="str">
+      <c r="A5" s="132" t="str">
         <f>[1]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="51"/>
@@ -5320,16 +11179,16 @@
       <c r="N7" s="54"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="124" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="56" t="s">
@@ -5348,16 +11207,16 @@
       <c r="L8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="124" t="s">
+      <c r="M8" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="124"/>
+      <c r="N8" s="133"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="130"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -5366,18 +11225,18 @@
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="134" t="s">
+      <c r="A10" s="124"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="128" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="56" t="s">
@@ -5394,43 +11253,31 @@
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
-      <c r="M10" s="125" t="s">
+      <c r="M10" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="125" t="s">
+      <c r="N10" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -5441,6 +11288,18 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\New folder (2)\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3CD55E-278E-44BD-B890-4540617D9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49746830-B6B6-4408-8E85-8004BB461E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" tabRatio="659" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="659" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -634,24 +634,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="18">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#\ ##0_);\(#\ ##0\)"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0_);\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.00_)"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="\+0;\-0;0"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="176" formatCode="[$-1000000]h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#\ ##0_);\(#\ ##0\)"/>
+    <numFmt numFmtId="168" formatCode="#\ ##0_);\(#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="0.00_)"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="179" formatCode="[$-1000000]h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="70">
     <font>
@@ -1428,15 +1428,15 @@
   </borders>
   <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1497,14 +1497,14 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="15" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1518,9 +1518,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="14" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1580,15 +1580,15 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1657,14 +1657,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1716,7 +1716,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1724,21 +1724,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="43" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="43" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1752,14 +1752,14 @@
     <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1767,11 +1767,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
@@ -1781,21 +1781,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="167" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1810,23 +1810,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1834,38 +1834,38 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1873,7 +1873,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1888,18 +1888,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="51" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="51" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1907,34 +1907,34 @@
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="180" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1945,31 +1945,31 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1983,13 +1983,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2004,16 +2004,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2027,13 +2027,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="66" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2051,29 +2051,281 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="66" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="66" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="15" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="56" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2084,397 +2336,261 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2483,181 +2599,110 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2671,21 +2716,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="168" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2735,53 +2770,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="15" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
@@ -3421,35 +3410,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
-  <dimension ref="A1:AD135"/>
+  <dimension ref="A1:AD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="52" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="18" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="18" width="13.5546875" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="24" max="24" width="21.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24.75" customHeight="1">
@@ -3483,13 +3472,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="54"/>
-      <c r="B2" s="380"/>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
@@ -3512,29 +3501,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="54"/>
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="264"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="175" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="269" t="s">
+      <c r="H3" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="270"/>
-      <c r="J3" s="271" t="s">
+      <c r="I3" s="197"/>
+      <c r="J3" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="272"/>
-      <c r="L3" s="175" t="s">
+      <c r="K3" s="199"/>
+      <c r="L3" s="194" t="s">
         <v>115</v>
       </c>
       <c r="M3" s="54"/>
@@ -3548,7 +3537,7 @@
       <c r="U3" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="255" t="s">
+      <c r="V3" s="178" t="s">
         <v>153</v>
       </c>
       <c r="W3" s="104" t="s">
@@ -3561,21 +3550,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="54"/>
-      <c r="B4" s="266"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
       <c r="H4" s="55" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="273"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="176"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="195"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
@@ -3587,7 +3576,7 @@
       <c r="U4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="256"/>
+      <c r="V4" s="179"/>
       <c r="W4" s="104" t="s">
         <v>105</v>
       </c>
@@ -3598,17 +3587,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="54"/>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="57"/>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="276"/>
-      <c r="L5" s="277" t="s">
+      <c r="J5" s="203"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="205" t="s">
         <v>118</v>
       </c>
       <c r="M5" s="54"/>
@@ -3619,8 +3608,8 @@
       <c r="R5" s="54"/>
       <c r="S5" s="67"/>
       <c r="T5" s="74"/>
-      <c r="U5" s="382"/>
-      <c r="V5" s="383"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="175"/>
       <c r="W5" s="153" t="s">
         <v>156</v>
       </c>
@@ -3631,17 +3620,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="54"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="57"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
-      <c r="J6" s="275"/>
-      <c r="K6" s="276"/>
-      <c r="L6" s="278"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="206"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -3660,17 +3649,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="57"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="278"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="206"/>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="54"/>
@@ -3689,17 +3678,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="57"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="279"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="207"/>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
       <c r="O8" s="54"/>
@@ -3737,23 +3726,23 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="151"/>
-      <c r="U9" s="384"/>
-      <c r="V9" s="384"/>
-      <c r="W9" s="384"/>
-      <c r="X9" s="384"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="186"/>
       <c r="Y9" s="64"/>
       <c r="Z9" s="64"/>
       <c r="AA9" s="64"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="380"/>
-      <c r="D10" s="380"/>
-      <c r="E10" s="380"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="381"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
@@ -3766,29 +3755,29 @@
       <c r="R10" s="54"/>
       <c r="S10" s="54"/>
       <c r="T10" s="151"/>
-      <c r="U10" s="261" t="s">
+      <c r="U10" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="257" t="s">
+      <c r="V10" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="W10" s="258"/>
-      <c r="X10" s="259"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="182"/>
       <c r="Y10" s="106"/>
       <c r="Z10" s="106"/>
       <c r="AA10" s="106"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="54"/>
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254" t="s">
+      <c r="C11" s="212"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="254"/>
+      <c r="F11" s="213"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
@@ -3803,7 +3792,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
       <c r="T11" s="151"/>
-      <c r="U11" s="262"/>
+      <c r="U11" s="185"/>
       <c r="V11" s="82" t="s">
         <v>166</v>
       </c>
@@ -3819,11 +3808,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="251"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
@@ -3850,11 +3839,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
@@ -3879,11 +3868,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="251"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
@@ -3908,11 +3897,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -4198,10 +4187,10 @@
       <c r="R24" s="65"/>
       <c r="S24" s="65"/>
       <c r="T24" s="112"/>
-      <c r="U24" s="385"/>
-      <c r="V24" s="385"/>
-      <c r="W24" s="385"/>
-      <c r="X24" s="385"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
       <c r="Y24" s="117"/>
       <c r="Z24" s="117"/>
       <c r="AA24" s="118"/>
@@ -4227,14 +4216,14 @@
       <c r="R25" s="65"/>
       <c r="S25" s="65"/>
       <c r="T25" s="65"/>
-      <c r="U25" s="260" t="s">
+      <c r="U25" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="260" t="s">
+      <c r="V25" s="183" t="s">
         <v>171</v>
       </c>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
       <c r="Y25" s="69"/>
       <c r="Z25" s="69"/>
       <c r="AA25" s="69"/>
@@ -4260,7 +4249,7 @@
       <c r="R26" s="65"/>
       <c r="S26" s="65"/>
       <c r="T26" s="96"/>
-      <c r="U26" s="260"/>
+      <c r="U26" s="183"/>
       <c r="V26" s="82" t="s">
         <v>172</v>
       </c>
@@ -4410,6 +4399,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
       <c r="S31" s="65"/>
+      <c r="T31" s="390"/>
+      <c r="U31" s="390"/>
+      <c r="V31" s="390"/>
+      <c r="W31" s="390"/>
+      <c r="X31" s="390"/>
+      <c r="Y31" s="390"/>
       <c r="AA31" s="64"/>
     </row>
     <row r="32" spans="1:27" ht="24.75" customHeight="1">
@@ -4442,26 +4437,26 @@
       <c r="AA32" s="64"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="226" t="s">
+      <c r="A33" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
       <c r="E33" s="67"/>
       <c r="F33" s="68"/>
       <c r="G33" s="68"/>
       <c r="H33" s="68"/>
       <c r="I33" s="67"/>
-      <c r="J33" s="227" t="s">
+      <c r="J33" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227"/>
-      <c r="P33" s="227"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="210"/>
+      <c r="N33" s="210"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
       <c r="S33" s="65"/>
@@ -4475,26 +4470,26 @@
       <c r="AA33" s="69"/>
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A34" s="228" t="s">
+      <c r="A34" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="228"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
       <c r="E34" s="67"/>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
       <c r="H34" s="70"/>
       <c r="I34" s="67"/>
-      <c r="J34" s="229" t="s">
+      <c r="J34" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="229"/>
-      <c r="L34" s="229"/>
-      <c r="M34" s="229"/>
-      <c r="N34" s="229"/>
-      <c r="O34" s="229"/>
-      <c r="P34" s="229"/>
+      <c r="K34" s="225"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="225"/>
+      <c r="P34" s="225"/>
       <c r="Q34" s="65"/>
       <c r="R34" s="65"/>
       <c r="S34" s="65"/>
@@ -4537,24 +4532,24 @@
       <c r="AA35" s="64"/>
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A36" s="230" t="s">
+      <c r="A36" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="230"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="230"/>
-      <c r="K36" s="230"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="230"/>
-      <c r="N36" s="230"/>
-      <c r="O36" s="230"/>
-      <c r="P36" s="230"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="226"/>
+      <c r="K36" s="226"/>
+      <c r="L36" s="226"/>
+      <c r="M36" s="226"/>
+      <c r="N36" s="226"/>
+      <c r="O36" s="226"/>
+      <c r="P36" s="226"/>
       <c r="Q36" s="74"/>
       <c r="R36" s="74"/>
       <c r="S36" s="74"/>
@@ -4568,22 +4563,22 @@
       <c r="AA36" s="64"/>
     </row>
     <row r="37" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A37" s="378"/>
-      <c r="B37" s="378"/>
-      <c r="C37" s="378"/>
-      <c r="D37" s="378"/>
-      <c r="E37" s="378"/>
-      <c r="F37" s="378"/>
-      <c r="G37" s="378"/>
-      <c r="H37" s="378"/>
-      <c r="I37" s="378"/>
-      <c r="J37" s="378"/>
-      <c r="K37" s="378"/>
-      <c r="L37" s="378"/>
-      <c r="M37" s="378"/>
-      <c r="N37" s="378"/>
-      <c r="O37" s="378"/>
-      <c r="P37" s="378"/>
+      <c r="A37" s="227"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="227"/>
+      <c r="G37" s="227"/>
+      <c r="H37" s="227"/>
+      <c r="I37" s="227"/>
+      <c r="J37" s="227"/>
+      <c r="K37" s="227"/>
+      <c r="L37" s="227"/>
+      <c r="M37" s="227"/>
+      <c r="N37" s="227"/>
+      <c r="O37" s="227"/>
+      <c r="P37" s="227"/>
       <c r="Q37" s="77"/>
       <c r="R37" s="77"/>
       <c r="S37" s="77"/>
@@ -4626,86 +4621,86 @@
       <c r="AA38" s="64"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="236" t="s">
+      <c r="D39" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="206" t="s">
+      <c r="E39" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="212"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="236" t="s">
+      <c r="F39" s="235"/>
+      <c r="G39" s="236"/>
+      <c r="H39" s="231" t="s">
         <v>133</v>
       </c>
-      <c r="I39" s="206" t="s">
+      <c r="I39" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="206" t="s">
+      <c r="J39" s="235"/>
+      <c r="K39" s="235"/>
+      <c r="L39" s="236"/>
+      <c r="M39" s="234" t="s">
         <v>135</v>
       </c>
-      <c r="N39" s="212"/>
-      <c r="O39" s="212"/>
-      <c r="P39" s="207"/>
+      <c r="N39" s="235"/>
+      <c r="O39" s="235"/>
+      <c r="P39" s="236"/>
       <c r="Q39" s="80"/>
       <c r="R39" s="80"/>
       <c r="S39" s="80"/>
       <c r="T39" s="80"/>
-      <c r="U39" s="250" t="s">
+      <c r="U39" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="V39" s="386"/>
-      <c r="W39" s="386"/>
-      <c r="X39" s="386"/>
-      <c r="Y39" s="387"/>
-      <c r="Z39" s="388"/>
-      <c r="AA39" s="389"/>
+      <c r="V39" s="215"/>
+      <c r="W39" s="215"/>
+      <c r="X39" s="215"/>
+      <c r="Y39" s="216"/>
+      <c r="Z39" s="217"/>
+      <c r="AA39" s="218"/>
     </row>
     <row r="40" spans="1:27" ht="9.75" customHeight="1">
-      <c r="A40" s="198"/>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="237"/>
-      <c r="E40" s="210"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="210"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="210"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="214"/>
-      <c r="P40" s="211"/>
+      <c r="A40" s="229"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="232"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="232"/>
+      <c r="I40" s="237"/>
+      <c r="J40" s="238"/>
+      <c r="K40" s="238"/>
+      <c r="L40" s="239"/>
+      <c r="M40" s="237"/>
+      <c r="N40" s="238"/>
+      <c r="O40" s="238"/>
+      <c r="P40" s="239"/>
       <c r="Q40" s="80"/>
       <c r="R40" s="80"/>
       <c r="S40" s="80"/>
       <c r="T40" s="80"/>
-      <c r="U40" s="250"/>
-      <c r="V40" s="386"/>
-      <c r="W40" s="386"/>
-      <c r="X40" s="386"/>
-      <c r="Y40" s="390"/>
-      <c r="Z40" s="391"/>
-      <c r="AA40" s="392"/>
+      <c r="U40" s="214"/>
+      <c r="V40" s="215"/>
+      <c r="W40" s="215"/>
+      <c r="X40" s="215"/>
+      <c r="Y40" s="219"/>
+      <c r="Z40" s="220"/>
+      <c r="AA40" s="221"/>
     </row>
     <row r="41" spans="1:27" ht="45" customHeight="1">
-      <c r="A41" s="199"/>
-      <c r="B41" s="199"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="238"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="81" t="s">
         <v>136</v>
       </c>
@@ -4715,28 +4710,28 @@
       <c r="G41" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="238"/>
-      <c r="I41" s="224" t="s">
+      <c r="H41" s="233"/>
+      <c r="I41" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="225"/>
-      <c r="K41" s="224" t="s">
+      <c r="J41" s="223"/>
+      <c r="K41" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="L41" s="225"/>
-      <c r="M41" s="224" t="s">
+      <c r="L41" s="223"/>
+      <c r="M41" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="N41" s="225"/>
-      <c r="O41" s="224" t="s">
+      <c r="N41" s="223"/>
+      <c r="O41" s="222" t="s">
         <v>140</v>
       </c>
-      <c r="P41" s="225"/>
+      <c r="P41" s="223"/>
       <c r="Q41" s="80"/>
       <c r="R41" s="80"/>
       <c r="S41" s="80"/>
       <c r="T41" s="80"/>
-      <c r="U41" s="250"/>
+      <c r="U41" s="214"/>
       <c r="V41" s="82" t="s">
         <v>142</v>
       </c>
@@ -4765,14 +4760,14 @@
       <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="88"/>
-      <c r="I42" s="248"/>
-      <c r="J42" s="249"/>
-      <c r="K42" s="248"/>
-      <c r="L42" s="249"/>
-      <c r="M42" s="248"/>
-      <c r="N42" s="249"/>
-      <c r="O42" s="248"/>
-      <c r="P42" s="249"/>
+      <c r="I42" s="240"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="240"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="240"/>
+      <c r="N42" s="241"/>
+      <c r="O42" s="240"/>
+      <c r="P42" s="241"/>
       <c r="Q42" s="89"/>
       <c r="R42" s="89"/>
       <c r="S42" s="89"/>
@@ -4794,14 +4789,14 @@
       <c r="F43" s="87"/>
       <c r="G43" s="87"/>
       <c r="H43" s="88"/>
-      <c r="I43" s="248"/>
-      <c r="J43" s="249"/>
-      <c r="K43" s="248"/>
-      <c r="L43" s="249"/>
-      <c r="M43" s="248"/>
-      <c r="N43" s="249"/>
-      <c r="O43" s="248"/>
-      <c r="P43" s="249"/>
+      <c r="I43" s="240"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="240"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="240"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="240"/>
+      <c r="P43" s="241"/>
       <c r="Q43" s="89"/>
       <c r="R43" s="89"/>
       <c r="S43" s="89"/>
@@ -4823,14 +4818,14 @@
       <c r="F44" s="87"/>
       <c r="G44" s="87"/>
       <c r="H44" s="88"/>
-      <c r="I44" s="248"/>
-      <c r="J44" s="249"/>
-      <c r="K44" s="248"/>
-      <c r="L44" s="249"/>
-      <c r="M44" s="248"/>
-      <c r="N44" s="249"/>
-      <c r="O44" s="248"/>
-      <c r="P44" s="249"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="240"/>
+      <c r="N44" s="241"/>
+      <c r="O44" s="240"/>
+      <c r="P44" s="241"/>
       <c r="Q44" s="89"/>
       <c r="R44" s="89"/>
       <c r="S44" s="89"/>
@@ -4852,14 +4847,14 @@
       <c r="F45" s="87"/>
       <c r="G45" s="87"/>
       <c r="H45" s="88"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="248"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="248"/>
-      <c r="P45" s="249"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="240"/>
+      <c r="N45" s="241"/>
+      <c r="O45" s="240"/>
+      <c r="P45" s="241"/>
       <c r="Q45" s="89"/>
       <c r="R45" s="89"/>
       <c r="S45" s="89"/>
@@ -4911,62 +4906,62 @@
       <c r="G47" s="65"/>
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
-      <c r="J47" s="379"/>
-      <c r="K47" s="379"/>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
-      <c r="P47" s="379"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="242"/>
+      <c r="L47" s="242"/>
+      <c r="M47" s="242"/>
+      <c r="N47" s="242"/>
+      <c r="O47" s="242"/>
+      <c r="P47" s="242"/>
       <c r="Q47" s="96"/>
       <c r="R47" s="96"/>
       <c r="S47" s="96"/>
       <c r="T47" s="96"/>
-      <c r="U47" s="239" t="s">
+      <c r="U47" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="242" t="s">
+      <c r="V47" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="W47" s="243"/>
-      <c r="X47" s="244"/>
+      <c r="W47" s="247"/>
+      <c r="X47" s="248"/>
       <c r="Y47" s="97"/>
       <c r="Z47" s="97"/>
       <c r="AA47" s="97"/>
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A48" s="178" t="s">
+      <c r="A48" s="252" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="178"/>
-      <c r="C48" s="179" t="s">
+      <c r="B48" s="252"/>
+      <c r="C48" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="179"/>
-      <c r="E48" s="179"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="180" t="s">
+      <c r="D48" s="253"/>
+      <c r="E48" s="253"/>
+      <c r="F48" s="253"/>
+      <c r="G48" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180" t="s">
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254" t="s">
         <v>149</v>
       </c>
-      <c r="K48" s="180"/>
-      <c r="L48" s="180"/>
-      <c r="M48" s="180"/>
-      <c r="N48" s="180"/>
-      <c r="O48" s="180"/>
-      <c r="P48" s="180"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="254"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="254"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="254"/>
       <c r="Q48" s="98"/>
       <c r="R48" s="98"/>
       <c r="S48" s="98"/>
       <c r="T48" s="98"/>
-      <c r="U48" s="240"/>
-      <c r="V48" s="245"/>
-      <c r="W48" s="246"/>
-      <c r="X48" s="247"/>
+      <c r="U48" s="244"/>
+      <c r="V48" s="249"/>
+      <c r="W48" s="250"/>
+      <c r="X48" s="251"/>
       <c r="Y48" s="97"/>
       <c r="Z48" s="97"/>
       <c r="AA48" s="97"/>
@@ -4981,20 +4976,20 @@
       <c r="G49" s="98"/>
       <c r="H49" s="98"/>
       <c r="I49" s="98"/>
-      <c r="J49" s="180" t="s">
+      <c r="J49" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
-      <c r="O49" s="180"/>
-      <c r="P49" s="180"/>
+      <c r="K49" s="254"/>
+      <c r="L49" s="254"/>
+      <c r="M49" s="254"/>
+      <c r="N49" s="254"/>
+      <c r="O49" s="254"/>
+      <c r="P49" s="254"/>
       <c r="Q49" s="98"/>
       <c r="R49" s="98"/>
       <c r="S49" s="98"/>
       <c r="T49" s="98"/>
-      <c r="U49" s="241"/>
+      <c r="U49" s="245"/>
       <c r="V49" s="82" t="s">
         <v>142</v>
       </c>
@@ -5134,15 +5129,15 @@
       <c r="G54" s="101"/>
       <c r="H54" s="101"/>
       <c r="I54" s="101"/>
-      <c r="J54" s="235" t="s">
+      <c r="J54" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="K54" s="235"/>
-      <c r="L54" s="235"/>
-      <c r="M54" s="235"/>
-      <c r="N54" s="235"/>
-      <c r="O54" s="235"/>
-      <c r="P54" s="235"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="176"/>
+      <c r="P54" s="176"/>
       <c r="Q54" s="101"/>
       <c r="R54" s="101"/>
       <c r="S54" s="101"/>
@@ -5626,26 +5621,26 @@
       <c r="AD70" s="65"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="226" t="s">
+      <c r="A71" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="226"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="226"/>
+      <c r="B71" s="209"/>
+      <c r="C71" s="209"/>
+      <c r="D71" s="209"/>
       <c r="E71" s="67"/>
       <c r="F71" s="68"/>
       <c r="G71" s="68"/>
       <c r="H71" s="68"/>
       <c r="I71" s="67"/>
-      <c r="J71" s="227" t="s">
+      <c r="J71" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="K71" s="227"/>
-      <c r="L71" s="227"/>
-      <c r="M71" s="227"/>
-      <c r="N71" s="227"/>
-      <c r="O71" s="227"/>
-      <c r="P71" s="227"/>
+      <c r="K71" s="210"/>
+      <c r="L71" s="210"/>
+      <c r="M71" s="210"/>
+      <c r="N71" s="210"/>
+      <c r="O71" s="210"/>
+      <c r="P71" s="210"/>
       <c r="Q71" s="67"/>
       <c r="R71" s="67"/>
       <c r="S71" s="67"/>
@@ -5662,26 +5657,26 @@
       <c r="AD71" s="65"/>
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A72" s="228" t="s">
+      <c r="A72" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="228"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="224"/>
+      <c r="D72" s="224"/>
       <c r="E72" s="67"/>
       <c r="F72" s="70"/>
       <c r="G72" s="70"/>
       <c r="H72" s="70"/>
       <c r="I72" s="67"/>
-      <c r="J72" s="229" t="s">
+      <c r="J72" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="K72" s="229"/>
-      <c r="L72" s="229"/>
-      <c r="M72" s="229"/>
-      <c r="N72" s="229"/>
-      <c r="O72" s="229"/>
-      <c r="P72" s="229"/>
+      <c r="K72" s="225"/>
+      <c r="L72" s="225"/>
+      <c r="M72" s="225"/>
+      <c r="N72" s="225"/>
+      <c r="O72" s="225"/>
+      <c r="P72" s="225"/>
       <c r="Q72" s="68"/>
       <c r="R72" s="68"/>
       <c r="S72" s="68"/>
@@ -5717,39 +5712,39 @@
       <c r="Q73" s="65"/>
       <c r="R73" s="65"/>
       <c r="S73" s="65"/>
-      <c r="T73" s="235" t="s">
+      <c r="T73" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="U73" s="235"/>
-      <c r="V73" s="235"/>
-      <c r="W73" s="235"/>
-      <c r="X73" s="235"/>
-      <c r="Y73" s="235"/>
-      <c r="Z73" s="235"/>
+      <c r="U73" s="176"/>
+      <c r="V73" s="176"/>
+      <c r="W73" s="176"/>
+      <c r="X73" s="176"/>
+      <c r="Y73" s="176"/>
+      <c r="Z73" s="176"/>
       <c r="AA73" s="101"/>
       <c r="AB73" s="101"/>
       <c r="AC73" s="101"/>
       <c r="AD73" s="101"/>
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A74" s="230" t="s">
+      <c r="A74" s="226" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="230"/>
-      <c r="C74" s="230"/>
-      <c r="D74" s="230"/>
-      <c r="E74" s="230"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="230"/>
-      <c r="I74" s="230"/>
-      <c r="J74" s="230"/>
-      <c r="K74" s="230"/>
-      <c r="L74" s="230"/>
-      <c r="M74" s="230"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230"/>
+      <c r="B74" s="226"/>
+      <c r="C74" s="226"/>
+      <c r="D74" s="226"/>
+      <c r="E74" s="226"/>
+      <c r="F74" s="226"/>
+      <c r="G74" s="226"/>
+      <c r="H74" s="226"/>
+      <c r="I74" s="226"/>
+      <c r="J74" s="226"/>
+      <c r="K74" s="226"/>
+      <c r="L74" s="226"/>
+      <c r="M74" s="226"/>
+      <c r="N74" s="226"/>
+      <c r="O74" s="226"/>
+      <c r="P74" s="226"/>
       <c r="Q74" s="74"/>
       <c r="R74" s="74"/>
       <c r="S74" s="74"/>
@@ -5766,22 +5761,22 @@
       <c r="AD74" s="102"/>
     </row>
     <row r="75" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A75" s="378"/>
-      <c r="B75" s="378"/>
-      <c r="C75" s="378"/>
-      <c r="D75" s="378"/>
-      <c r="E75" s="378"/>
-      <c r="F75" s="378"/>
-      <c r="G75" s="378"/>
-      <c r="H75" s="378"/>
-      <c r="I75" s="378"/>
-      <c r="J75" s="378"/>
-      <c r="K75" s="378"/>
-      <c r="L75" s="378"/>
-      <c r="M75" s="378"/>
-      <c r="N75" s="378"/>
-      <c r="O75" s="378"/>
-      <c r="P75" s="378"/>
+      <c r="A75" s="227"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="227"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="227"/>
+      <c r="G75" s="227"/>
+      <c r="H75" s="227"/>
+      <c r="I75" s="227"/>
+      <c r="J75" s="227"/>
+      <c r="K75" s="227"/>
+      <c r="L75" s="227"/>
+      <c r="M75" s="227"/>
+      <c r="N75" s="227"/>
+      <c r="O75" s="227"/>
+      <c r="P75" s="227"/>
       <c r="Q75" s="77"/>
       <c r="R75" s="77"/>
       <c r="S75" s="77"/>
@@ -5832,46 +5827,46 @@
       <c r="AD76" s="102"/>
     </row>
     <row r="77" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A77" s="197" t="s">
+      <c r="A77" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="197" t="s">
+      <c r="B77" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="197" t="s">
+      <c r="C77" s="228" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="236" t="s">
+      <c r="D77" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="206" t="s">
+      <c r="E77" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="F77" s="212"/>
-      <c r="G77" s="207"/>
-      <c r="H77" s="206" t="s">
+      <c r="F77" s="235"/>
+      <c r="G77" s="236"/>
+      <c r="H77" s="234" t="s">
         <v>157</v>
       </c>
-      <c r="I77" s="207"/>
-      <c r="J77" s="206" t="s">
+      <c r="I77" s="236"/>
+      <c r="J77" s="234" t="s">
         <v>158</v>
       </c>
-      <c r="K77" s="207"/>
-      <c r="L77" s="206" t="s">
+      <c r="K77" s="236"/>
+      <c r="L77" s="234" t="s">
         <v>159</v>
       </c>
-      <c r="M77" s="207"/>
-      <c r="N77" s="206" t="s">
+      <c r="M77" s="236"/>
+      <c r="N77" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="O77" s="207"/>
-      <c r="P77" s="192" t="s">
+      <c r="O77" s="236"/>
+      <c r="P77" s="257" t="s">
         <v>161</v>
       </c>
-      <c r="Q77" s="192" t="s">
+      <c r="Q77" s="257" t="s">
         <v>162</v>
       </c>
-      <c r="R77" s="192" t="s">
+      <c r="R77" s="257" t="s">
         <v>163</v>
       </c>
       <c r="S77" s="105"/>
@@ -5888,24 +5883,24 @@
       <c r="AD77" s="102"/>
     </row>
     <row r="78" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A78" s="198"/>
-      <c r="B78" s="198"/>
-      <c r="C78" s="198"/>
-      <c r="D78" s="237"/>
-      <c r="E78" s="210"/>
-      <c r="F78" s="214"/>
-      <c r="G78" s="211"/>
-      <c r="H78" s="210"/>
-      <c r="I78" s="211"/>
-      <c r="J78" s="210"/>
-      <c r="K78" s="211"/>
-      <c r="L78" s="210"/>
-      <c r="M78" s="211"/>
-      <c r="N78" s="210"/>
-      <c r="O78" s="211"/>
-      <c r="P78" s="193"/>
-      <c r="Q78" s="193"/>
-      <c r="R78" s="193"/>
+      <c r="A78" s="229"/>
+      <c r="B78" s="229"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="232"/>
+      <c r="E78" s="237"/>
+      <c r="F78" s="238"/>
+      <c r="G78" s="239"/>
+      <c r="H78" s="237"/>
+      <c r="I78" s="239"/>
+      <c r="J78" s="237"/>
+      <c r="K78" s="239"/>
+      <c r="L78" s="237"/>
+      <c r="M78" s="239"/>
+      <c r="N78" s="237"/>
+      <c r="O78" s="239"/>
+      <c r="P78" s="258"/>
+      <c r="Q78" s="258"/>
+      <c r="R78" s="258"/>
       <c r="S78" s="64"/>
       <c r="T78" s="102"/>
       <c r="U78" s="102"/>
@@ -5920,46 +5915,46 @@
       <c r="AD78" s="102"/>
     </row>
     <row r="79" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A79" s="198"/>
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="237"/>
-      <c r="E79" s="195" t="s">
+      <c r="A79" s="229"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="232"/>
+      <c r="E79" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="195" t="s">
+      <c r="F79" s="255" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="195" t="s">
+      <c r="G79" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="H79" s="195" t="s">
+      <c r="H79" s="255" t="s">
         <v>164</v>
       </c>
-      <c r="I79" s="195" t="s">
+      <c r="I79" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="J79" s="195" t="s">
+      <c r="J79" s="255" t="s">
         <v>141</v>
       </c>
-      <c r="K79" s="195" t="s">
+      <c r="K79" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="L79" s="195" t="s">
+      <c r="L79" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="M79" s="195" t="s">
+      <c r="M79" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="N79" s="195" t="s">
+      <c r="N79" s="255" t="s">
         <v>141</v>
       </c>
-      <c r="O79" s="195" t="s">
+      <c r="O79" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="P79" s="193"/>
-      <c r="Q79" s="193"/>
-      <c r="R79" s="193"/>
+      <c r="P79" s="258"/>
+      <c r="Q79" s="258"/>
+      <c r="R79" s="258"/>
       <c r="S79" s="64"/>
       <c r="T79" s="102"/>
       <c r="U79" s="102"/>
@@ -5974,24 +5969,24 @@
       <c r="AD79" s="102"/>
     </row>
     <row r="80" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A80" s="199"/>
-      <c r="B80" s="199"/>
-      <c r="C80" s="199"/>
-      <c r="D80" s="238"/>
-      <c r="E80" s="196"/>
-      <c r="F80" s="196"/>
-      <c r="G80" s="196"/>
-      <c r="H80" s="196"/>
-      <c r="I80" s="196"/>
-      <c r="J80" s="196"/>
-      <c r="K80" s="196"/>
-      <c r="L80" s="196"/>
-      <c r="M80" s="196"/>
-      <c r="N80" s="196"/>
-      <c r="O80" s="196"/>
-      <c r="P80" s="194"/>
-      <c r="Q80" s="194"/>
-      <c r="R80" s="194"/>
+      <c r="A80" s="230"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="230"/>
+      <c r="D80" s="233"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="256"/>
+      <c r="G80" s="256"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="256"/>
+      <c r="J80" s="256"/>
+      <c r="K80" s="256"/>
+      <c r="L80" s="256"/>
+      <c r="M80" s="256"/>
+      <c r="N80" s="256"/>
+      <c r="O80" s="256"/>
+      <c r="P80" s="259"/>
+      <c r="Q80" s="259"/>
+      <c r="R80" s="259"/>
       <c r="S80" s="107"/>
       <c r="T80" s="102"/>
       <c r="U80" s="102"/>
@@ -6012,22 +6007,22 @@
       <c r="B81" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="232"/>
-      <c r="D81" s="233"/>
-      <c r="E81" s="233"/>
-      <c r="F81" s="233"/>
-      <c r="G81" s="233"/>
-      <c r="H81" s="233"/>
-      <c r="I81" s="233"/>
-      <c r="J81" s="233"/>
-      <c r="K81" s="233"/>
-      <c r="L81" s="233"/>
-      <c r="M81" s="233"/>
-      <c r="N81" s="233"/>
-      <c r="O81" s="233"/>
-      <c r="P81" s="233"/>
-      <c r="Q81" s="233"/>
-      <c r="R81" s="234"/>
+      <c r="C81" s="279"/>
+      <c r="D81" s="280"/>
+      <c r="E81" s="280"/>
+      <c r="F81" s="280"/>
+      <c r="G81" s="280"/>
+      <c r="H81" s="280"/>
+      <c r="I81" s="280"/>
+      <c r="J81" s="280"/>
+      <c r="K81" s="280"/>
+      <c r="L81" s="280"/>
+      <c r="M81" s="280"/>
+      <c r="N81" s="280"/>
+      <c r="O81" s="280"/>
+      <c r="P81" s="280"/>
+      <c r="Q81" s="280"/>
+      <c r="R81" s="281"/>
       <c r="S81" s="108"/>
       <c r="T81" s="102"/>
       <c r="U81" s="102"/>
@@ -6176,22 +6171,22 @@
       <c r="B86" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="232"/>
-      <c r="D86" s="233"/>
-      <c r="E86" s="233"/>
-      <c r="F86" s="233"/>
-      <c r="G86" s="233"/>
-      <c r="H86" s="233"/>
-      <c r="I86" s="233"/>
-      <c r="J86" s="233"/>
-      <c r="K86" s="233"/>
-      <c r="L86" s="233"/>
-      <c r="M86" s="233"/>
-      <c r="N86" s="233"/>
-      <c r="O86" s="233"/>
-      <c r="P86" s="233"/>
-      <c r="Q86" s="233"/>
-      <c r="R86" s="234"/>
+      <c r="C86" s="279"/>
+      <c r="D86" s="280"/>
+      <c r="E86" s="280"/>
+      <c r="F86" s="280"/>
+      <c r="G86" s="280"/>
+      <c r="H86" s="280"/>
+      <c r="I86" s="280"/>
+      <c r="J86" s="280"/>
+      <c r="K86" s="280"/>
+      <c r="L86" s="280"/>
+      <c r="M86" s="280"/>
+      <c r="N86" s="280"/>
+      <c r="O86" s="280"/>
+      <c r="P86" s="280"/>
+      <c r="Q86" s="280"/>
+      <c r="R86" s="281"/>
       <c r="S86" s="111"/>
       <c r="T86" s="102"/>
       <c r="U86" s="102"/>
@@ -6365,13 +6360,13 @@
       <c r="G92" s="65"/>
       <c r="H92" s="65"/>
       <c r="I92" s="65"/>
-      <c r="J92" s="379"/>
-      <c r="K92" s="379"/>
-      <c r="L92" s="379"/>
-      <c r="M92" s="379"/>
-      <c r="N92" s="379"/>
-      <c r="O92" s="379"/>
-      <c r="P92" s="379"/>
+      <c r="J92" s="242"/>
+      <c r="K92" s="242"/>
+      <c r="L92" s="242"/>
+      <c r="M92" s="242"/>
+      <c r="N92" s="242"/>
+      <c r="O92" s="242"/>
+      <c r="P92" s="242"/>
       <c r="Q92" s="96"/>
       <c r="R92" s="96"/>
       <c r="S92" s="111"/>
@@ -6385,31 +6380,31 @@
       <c r="AA92" s="64"/>
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A93" s="178" t="s">
+      <c r="A93" s="252" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="178"/>
-      <c r="C93" s="179" t="s">
+      <c r="B93" s="252"/>
+      <c r="C93" s="253" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="179"/>
-      <c r="E93" s="179"/>
-      <c r="F93" s="179"/>
-      <c r="G93" s="180" t="s">
+      <c r="D93" s="253"/>
+      <c r="E93" s="253"/>
+      <c r="F93" s="253"/>
+      <c r="G93" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="H93" s="180"/>
-      <c r="I93" s="180"/>
-      <c r="J93" s="180" t="str">
+      <c r="H93" s="254"/>
+      <c r="I93" s="254"/>
+      <c r="J93" s="254" t="str">
         <f>J48</f>
         <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
       </c>
-      <c r="K93" s="180"/>
-      <c r="L93" s="180"/>
-      <c r="M93" s="180"/>
-      <c r="N93" s="180"/>
-      <c r="O93" s="180"/>
-      <c r="P93" s="180"/>
+      <c r="K93" s="254"/>
+      <c r="L93" s="254"/>
+      <c r="M93" s="254"/>
+      <c r="N93" s="254"/>
+      <c r="O93" s="254"/>
+      <c r="P93" s="254"/>
       <c r="Q93" s="121"/>
       <c r="R93" s="121"/>
       <c r="S93" s="111"/>
@@ -6432,15 +6427,15 @@
       <c r="G94" s="98"/>
       <c r="H94" s="98"/>
       <c r="I94" s="98"/>
-      <c r="J94" s="180" t="s">
+      <c r="J94" s="254" t="s">
         <v>150</v>
       </c>
-      <c r="K94" s="180"/>
-      <c r="L94" s="180"/>
-      <c r="M94" s="180"/>
-      <c r="N94" s="180"/>
-      <c r="O94" s="180"/>
-      <c r="P94" s="180"/>
+      <c r="K94" s="254"/>
+      <c r="L94" s="254"/>
+      <c r="M94" s="254"/>
+      <c r="N94" s="254"/>
+      <c r="O94" s="254"/>
+      <c r="P94" s="254"/>
       <c r="Q94" s="121"/>
       <c r="R94" s="121"/>
       <c r="S94" s="65"/>
@@ -6579,16 +6574,16 @@
       <c r="G99" s="101"/>
       <c r="H99" s="101"/>
       <c r="I99" s="101"/>
-      <c r="J99" s="235" t="str">
+      <c r="J99" s="176" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="235"/>
-      <c r="L99" s="235"/>
-      <c r="M99" s="235"/>
-      <c r="N99" s="235"/>
-      <c r="O99" s="235"/>
-      <c r="P99" s="235"/>
+      <c r="K99" s="176"/>
+      <c r="L99" s="176"/>
+      <c r="M99" s="176"/>
+      <c r="N99" s="176"/>
+      <c r="O99" s="176"/>
+      <c r="P99" s="176"/>
       <c r="Q99" s="101"/>
       <c r="R99" s="101"/>
       <c r="S99" s="65"/>
@@ -6805,26 +6800,26 @@
       <c r="AA106" s="65"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="226" t="s">
+      <c r="A107" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="226"/>
-      <c r="C107" s="226"/>
-      <c r="D107" s="226"/>
+      <c r="B107" s="209"/>
+      <c r="C107" s="209"/>
+      <c r="D107" s="209"/>
       <c r="E107" s="67"/>
       <c r="F107" s="68"/>
       <c r="G107" s="68"/>
       <c r="H107" s="68"/>
       <c r="I107" s="67"/>
-      <c r="J107" s="227" t="s">
+      <c r="J107" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="K107" s="227"/>
-      <c r="L107" s="227"/>
-      <c r="M107" s="227"/>
-      <c r="N107" s="227"/>
-      <c r="O107" s="227"/>
-      <c r="P107" s="227"/>
+      <c r="K107" s="210"/>
+      <c r="L107" s="210"/>
+      <c r="M107" s="210"/>
+      <c r="N107" s="210"/>
+      <c r="O107" s="210"/>
+      <c r="P107" s="210"/>
       <c r="Q107" s="67"/>
       <c r="R107" s="67"/>
       <c r="S107" s="65"/>
@@ -6838,38 +6833,38 @@
       <c r="AA107" s="65"/>
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A108" s="228" t="s">
+      <c r="A108" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="228"/>
-      <c r="C108" s="228"/>
-      <c r="D108" s="228"/>
+      <c r="B108" s="224"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="224"/>
       <c r="E108" s="67"/>
       <c r="F108" s="70"/>
       <c r="G108" s="70"/>
       <c r="H108" s="70"/>
       <c r="I108" s="67"/>
-      <c r="J108" s="229" t="s">
+      <c r="J108" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="K108" s="229"/>
-      <c r="L108" s="229"/>
-      <c r="M108" s="229"/>
-      <c r="N108" s="229"/>
-      <c r="O108" s="229"/>
-      <c r="P108" s="229"/>
+      <c r="K108" s="225"/>
+      <c r="L108" s="225"/>
+      <c r="M108" s="225"/>
+      <c r="N108" s="225"/>
+      <c r="O108" s="225"/>
+      <c r="P108" s="225"/>
       <c r="Q108" s="68"/>
       <c r="R108" s="68"/>
       <c r="S108" s="65"/>
-      <c r="T108" s="235" t="s">
+      <c r="T108" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="U108" s="235"/>
-      <c r="V108" s="235"/>
-      <c r="W108" s="235"/>
-      <c r="X108" s="235"/>
-      <c r="Y108" s="235"/>
-      <c r="Z108" s="235"/>
+      <c r="U108" s="176"/>
+      <c r="V108" s="176"/>
+      <c r="W108" s="176"/>
+      <c r="X108" s="176"/>
+      <c r="Y108" s="176"/>
+      <c r="Z108" s="176"/>
       <c r="AA108" s="101"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6902,24 +6897,24 @@
       <c r="AA109" s="102"/>
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A110" s="230" t="s">
+      <c r="A110" s="226" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="230"/>
-      <c r="C110" s="230"/>
-      <c r="D110" s="230"/>
-      <c r="E110" s="230"/>
-      <c r="F110" s="230"/>
-      <c r="G110" s="230"/>
-      <c r="H110" s="230"/>
-      <c r="I110" s="230"/>
-      <c r="J110" s="230"/>
-      <c r="K110" s="230"/>
-      <c r="L110" s="230"/>
-      <c r="M110" s="230"/>
-      <c r="N110" s="230"/>
-      <c r="O110" s="230"/>
-      <c r="P110" s="230"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="226"/>
+      <c r="D110" s="226"/>
+      <c r="E110" s="226"/>
+      <c r="F110" s="226"/>
+      <c r="G110" s="226"/>
+      <c r="H110" s="226"/>
+      <c r="I110" s="226"/>
+      <c r="J110" s="226"/>
+      <c r="K110" s="226"/>
+      <c r="L110" s="226"/>
+      <c r="M110" s="226"/>
+      <c r="N110" s="226"/>
+      <c r="O110" s="226"/>
+      <c r="P110" s="226"/>
       <c r="Q110" s="74"/>
       <c r="R110" s="74"/>
       <c r="S110" s="67"/>
@@ -6933,25 +6928,25 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="231">
+      <c r="A111" s="278">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="231"/>
-      <c r="C111" s="231"/>
-      <c r="D111" s="231"/>
-      <c r="E111" s="231"/>
-      <c r="F111" s="231"/>
-      <c r="G111" s="231"/>
-      <c r="H111" s="231"/>
-      <c r="I111" s="231"/>
-      <c r="J111" s="231"/>
-      <c r="K111" s="231"/>
-      <c r="L111" s="231"/>
-      <c r="M111" s="231"/>
-      <c r="N111" s="231"/>
-      <c r="O111" s="231"/>
-      <c r="P111" s="231"/>
+      <c r="B111" s="278"/>
+      <c r="C111" s="278"/>
+      <c r="D111" s="278"/>
+      <c r="E111" s="278"/>
+      <c r="F111" s="278"/>
+      <c r="G111" s="278"/>
+      <c r="H111" s="278"/>
+      <c r="I111" s="278"/>
+      <c r="J111" s="278"/>
+      <c r="K111" s="278"/>
+      <c r="L111" s="278"/>
+      <c r="M111" s="278"/>
+      <c r="N111" s="278"/>
+      <c r="O111" s="278"/>
+      <c r="P111" s="278"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="68"/>
@@ -6994,34 +6989,34 @@
       <c r="AA112" s="102"/>
     </row>
     <row r="113" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A113" s="197" t="s">
+      <c r="A113" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="200" t="s">
+      <c r="B113" s="260" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="201"/>
-      <c r="D113" s="206" t="s">
+      <c r="C113" s="261"/>
+      <c r="D113" s="234" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="207"/>
-      <c r="F113" s="206" t="s">
+      <c r="E113" s="236"/>
+      <c r="F113" s="234" t="s">
         <v>131</v>
       </c>
-      <c r="G113" s="212"/>
-      <c r="H113" s="207"/>
-      <c r="I113" s="206" t="s">
+      <c r="G113" s="235"/>
+      <c r="H113" s="236"/>
+      <c r="I113" s="234" t="s">
         <v>175</v>
       </c>
-      <c r="J113" s="212"/>
-      <c r="K113" s="212"/>
-      <c r="L113" s="207"/>
-      <c r="M113" s="215" t="s">
+      <c r="J113" s="235"/>
+      <c r="K113" s="235"/>
+      <c r="L113" s="236"/>
+      <c r="M113" s="269" t="s">
         <v>176</v>
       </c>
-      <c r="N113" s="216"/>
-      <c r="O113" s="216"/>
-      <c r="P113" s="217"/>
+      <c r="N113" s="270"/>
+      <c r="O113" s="270"/>
+      <c r="P113" s="271"/>
       <c r="Q113" s="124"/>
       <c r="R113" s="124"/>
       <c r="S113" s="74"/>
@@ -7035,22 +7030,22 @@
       <c r="AA113" s="102"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="198"/>
-      <c r="B114" s="202"/>
-      <c r="C114" s="203"/>
-      <c r="D114" s="208"/>
-      <c r="E114" s="209"/>
-      <c r="F114" s="208"/>
-      <c r="G114" s="213"/>
-      <c r="H114" s="209"/>
-      <c r="I114" s="210"/>
-      <c r="J114" s="214"/>
-      <c r="K114" s="214"/>
-      <c r="L114" s="211"/>
-      <c r="M114" s="218"/>
-      <c r="N114" s="219"/>
-      <c r="O114" s="219"/>
-      <c r="P114" s="220"/>
+      <c r="A114" s="229"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="266"/>
+      <c r="E114" s="267"/>
+      <c r="F114" s="266"/>
+      <c r="G114" s="268"/>
+      <c r="H114" s="267"/>
+      <c r="I114" s="237"/>
+      <c r="J114" s="238"/>
+      <c r="K114" s="238"/>
+      <c r="L114" s="239"/>
+      <c r="M114" s="272"/>
+      <c r="N114" s="273"/>
+      <c r="O114" s="273"/>
+      <c r="P114" s="274"/>
       <c r="Q114" s="124"/>
       <c r="R114" s="124"/>
       <c r="S114" s="77"/>
@@ -7064,26 +7059,26 @@
       <c r="AA114" s="102"/>
     </row>
     <row r="115" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A115" s="199"/>
-      <c r="B115" s="204"/>
-      <c r="C115" s="205"/>
-      <c r="D115" s="210"/>
-      <c r="E115" s="211"/>
-      <c r="F115" s="210"/>
-      <c r="G115" s="214"/>
-      <c r="H115" s="211"/>
-      <c r="I115" s="224" t="s">
+      <c r="A115" s="230"/>
+      <c r="B115" s="264"/>
+      <c r="C115" s="265"/>
+      <c r="D115" s="237"/>
+      <c r="E115" s="239"/>
+      <c r="F115" s="237"/>
+      <c r="G115" s="238"/>
+      <c r="H115" s="239"/>
+      <c r="I115" s="222" t="s">
         <v>177</v>
       </c>
-      <c r="J115" s="225"/>
-      <c r="K115" s="224" t="s">
+      <c r="J115" s="223"/>
+      <c r="K115" s="222" t="s">
         <v>178</v>
       </c>
-      <c r="L115" s="225"/>
-      <c r="M115" s="221"/>
-      <c r="N115" s="222"/>
-      <c r="O115" s="222"/>
-      <c r="P115" s="223"/>
+      <c r="L115" s="223"/>
+      <c r="M115" s="275"/>
+      <c r="N115" s="276"/>
+      <c r="O115" s="276"/>
+      <c r="P115" s="277"/>
       <c r="Q115" s="124"/>
       <c r="R115" s="124"/>
       <c r="S115" s="65"/>
@@ -7100,21 +7095,21 @@
       <c r="A116" s="83">
         <v>1</v>
       </c>
-      <c r="B116" s="181"/>
-      <c r="C116" s="182"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="182"/>
-      <c r="F116" s="189"/>
-      <c r="G116" s="190"/>
-      <c r="H116" s="191"/>
-      <c r="I116" s="186"/>
-      <c r="J116" s="187"/>
-      <c r="K116" s="186"/>
-      <c r="L116" s="187"/>
-      <c r="M116" s="186"/>
-      <c r="N116" s="188"/>
-      <c r="O116" s="188"/>
-      <c r="P116" s="187"/>
+      <c r="B116" s="288"/>
+      <c r="C116" s="289"/>
+      <c r="D116" s="288"/>
+      <c r="E116" s="289"/>
+      <c r="F116" s="282"/>
+      <c r="G116" s="283"/>
+      <c r="H116" s="284"/>
+      <c r="I116" s="285"/>
+      <c r="J116" s="286"/>
+      <c r="K116" s="285"/>
+      <c r="L116" s="286"/>
+      <c r="M116" s="285"/>
+      <c r="N116" s="287"/>
+      <c r="O116" s="287"/>
+      <c r="P116" s="286"/>
       <c r="Q116" s="126"/>
       <c r="R116" s="126"/>
       <c r="S116" s="124"/>
@@ -7131,21 +7126,21 @@
       <c r="A117" s="83">
         <v>2</v>
       </c>
-      <c r="B117" s="181"/>
-      <c r="C117" s="182"/>
-      <c r="D117" s="181"/>
-      <c r="E117" s="182"/>
-      <c r="F117" s="189"/>
-      <c r="G117" s="190"/>
-      <c r="H117" s="191"/>
-      <c r="I117" s="186"/>
-      <c r="J117" s="187"/>
-      <c r="K117" s="186"/>
-      <c r="L117" s="187"/>
-      <c r="M117" s="186"/>
-      <c r="N117" s="188"/>
-      <c r="O117" s="188"/>
-      <c r="P117" s="187"/>
+      <c r="B117" s="288"/>
+      <c r="C117" s="289"/>
+      <c r="D117" s="288"/>
+      <c r="E117" s="289"/>
+      <c r="F117" s="282"/>
+      <c r="G117" s="283"/>
+      <c r="H117" s="284"/>
+      <c r="I117" s="285"/>
+      <c r="J117" s="286"/>
+      <c r="K117" s="285"/>
+      <c r="L117" s="286"/>
+      <c r="M117" s="285"/>
+      <c r="N117" s="287"/>
+      <c r="O117" s="287"/>
+      <c r="P117" s="286"/>
       <c r="Q117" s="126"/>
       <c r="R117" s="126"/>
       <c r="S117" s="125"/>
@@ -7162,21 +7157,21 @@
       <c r="A118" s="83">
         <v>3</v>
       </c>
-      <c r="B118" s="181"/>
-      <c r="C118" s="182"/>
-      <c r="D118" s="181"/>
-      <c r="E118" s="182"/>
-      <c r="F118" s="189"/>
-      <c r="G118" s="190"/>
-      <c r="H118" s="191"/>
-      <c r="I118" s="186"/>
-      <c r="J118" s="187"/>
-      <c r="K118" s="186"/>
-      <c r="L118" s="187"/>
-      <c r="M118" s="186"/>
-      <c r="N118" s="188"/>
-      <c r="O118" s="188"/>
-      <c r="P118" s="187"/>
+      <c r="B118" s="288"/>
+      <c r="C118" s="289"/>
+      <c r="D118" s="288"/>
+      <c r="E118" s="289"/>
+      <c r="F118" s="282"/>
+      <c r="G118" s="283"/>
+      <c r="H118" s="284"/>
+      <c r="I118" s="285"/>
+      <c r="J118" s="286"/>
+      <c r="K118" s="285"/>
+      <c r="L118" s="286"/>
+      <c r="M118" s="285"/>
+      <c r="N118" s="287"/>
+      <c r="O118" s="287"/>
+      <c r="P118" s="286"/>
       <c r="Q118" s="126"/>
       <c r="R118" s="126"/>
       <c r="S118" s="126"/>
@@ -7193,21 +7188,21 @@
       <c r="A119" s="83">
         <v>4</v>
       </c>
-      <c r="B119" s="181"/>
-      <c r="C119" s="182"/>
-      <c r="D119" s="181"/>
-      <c r="E119" s="182"/>
-      <c r="F119" s="189"/>
-      <c r="G119" s="190"/>
-      <c r="H119" s="191"/>
-      <c r="I119" s="186"/>
-      <c r="J119" s="187"/>
-      <c r="K119" s="186"/>
-      <c r="L119" s="187"/>
-      <c r="M119" s="186"/>
-      <c r="N119" s="188"/>
-      <c r="O119" s="188"/>
-      <c r="P119" s="187"/>
+      <c r="B119" s="288"/>
+      <c r="C119" s="289"/>
+      <c r="D119" s="288"/>
+      <c r="E119" s="289"/>
+      <c r="F119" s="282"/>
+      <c r="G119" s="283"/>
+      <c r="H119" s="284"/>
+      <c r="I119" s="285"/>
+      <c r="J119" s="286"/>
+      <c r="K119" s="285"/>
+      <c r="L119" s="286"/>
+      <c r="M119" s="285"/>
+      <c r="N119" s="287"/>
+      <c r="O119" s="287"/>
+      <c r="P119" s="286"/>
       <c r="Q119" s="126"/>
       <c r="R119" s="126"/>
       <c r="S119" s="126"/>
@@ -7221,26 +7216,24 @@
       <c r="AA119" s="102"/>
     </row>
     <row r="120" spans="1:27" ht="27.75" customHeight="1">
-      <c r="A120" s="83">
-        <v>5</v>
-      </c>
-      <c r="B120" s="181"/>
-      <c r="C120" s="182"/>
-      <c r="D120" s="181"/>
-      <c r="E120" s="182"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="184"/>
-      <c r="H120" s="185"/>
-      <c r="I120" s="186"/>
-      <c r="J120" s="187"/>
-      <c r="K120" s="186"/>
-      <c r="L120" s="187"/>
-      <c r="M120" s="186"/>
-      <c r="N120" s="188"/>
-      <c r="O120" s="188"/>
-      <c r="P120" s="187"/>
-      <c r="Q120" s="126"/>
-      <c r="R120" s="126"/>
+      <c r="A120" s="94"/>
+      <c r="B120" s="94"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="123"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="95"/>
+      <c r="J120" s="95"/>
+      <c r="K120" s="95"/>
+      <c r="L120" s="65"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="65"/>
+      <c r="P120" s="65"/>
+      <c r="Q120" s="65"/>
+      <c r="R120" s="65"/>
       <c r="S120" s="126"/>
       <c r="T120" s="102"/>
       <c r="U120" s="102"/>
@@ -7252,24 +7245,26 @@
       <c r="AA120" s="102"/>
     </row>
     <row r="121" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A121" s="94"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="94"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="123"/>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="95"/>
-      <c r="J121" s="95"/>
-      <c r="K121" s="95"/>
-      <c r="L121" s="65"/>
-      <c r="M121" s="65"/>
-      <c r="N121" s="65"/>
-      <c r="O121" s="65"/>
-      <c r="P121" s="65"/>
-      <c r="Q121" s="65"/>
-      <c r="R121" s="65"/>
+      <c r="A121" s="127"/>
+      <c r="B121" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="128"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="129"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="129"/>
+      <c r="H121" s="129"/>
+      <c r="I121" s="129"/>
+      <c r="J121" s="129"/>
+      <c r="K121" s="129"/>
+      <c r="L121" s="131"/>
+      <c r="M121" s="131"/>
+      <c r="N121" s="131"/>
+      <c r="O121" s="131"/>
+      <c r="P121" s="131"/>
+      <c r="Q121" s="131"/>
+      <c r="R121" s="131"/>
       <c r="S121" s="126"/>
       <c r="T121" s="102"/>
       <c r="U121" s="102"/>
@@ -7283,7 +7278,7 @@
     <row r="122" spans="1:27" ht="24.75" customHeight="1">
       <c r="A122" s="127"/>
       <c r="B122" s="128" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C122" s="128"/>
       <c r="D122" s="129"/>
@@ -7312,94 +7307,94 @@
       <c r="AA122" s="102"/>
     </row>
     <row r="123" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A123" s="127"/>
-      <c r="B123" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="128"/>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
-      <c r="F123" s="130"/>
-      <c r="G123" s="129"/>
-      <c r="H123" s="129"/>
-      <c r="I123" s="129"/>
-      <c r="J123" s="129"/>
-      <c r="K123" s="129"/>
-      <c r="L123" s="131"/>
-      <c r="M123" s="131"/>
-      <c r="N123" s="131"/>
-      <c r="O123" s="131"/>
-      <c r="P123" s="131"/>
-      <c r="Q123" s="131"/>
-      <c r="R123" s="131"/>
-      <c r="S123" s="126"/>
-      <c r="T123" s="102"/>
-      <c r="U123" s="102"/>
-      <c r="V123" s="102"/>
-      <c r="W123" s="102"/>
-      <c r="X123" s="102"/>
-      <c r="Y123" s="102"/>
-      <c r="Z123" s="102"/>
-      <c r="AA123" s="102"/>
-    </row>
-    <row r="124" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A124" s="94"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="94"/>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="96"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="177">
+      <c r="A123" s="94"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="94"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="291">
         <f>J92</f>
         <v>0</v>
       </c>
-      <c r="K124" s="177"/>
-      <c r="L124" s="177"/>
-      <c r="M124" s="177"/>
-      <c r="N124" s="177"/>
-      <c r="O124" s="177"/>
-      <c r="P124" s="177"/>
-      <c r="Q124" s="96"/>
-      <c r="R124" s="96"/>
-      <c r="S124" s="65"/>
-      <c r="T124" s="65"/>
-      <c r="U124" s="65"/>
-      <c r="V124" s="64"/>
-      <c r="W124" s="64"/>
+      <c r="K123" s="291"/>
+      <c r="L123" s="291"/>
+      <c r="M123" s="291"/>
+      <c r="N123" s="291"/>
+      <c r="O123" s="291"/>
+      <c r="P123" s="291"/>
+      <c r="Q123" s="96"/>
+      <c r="R123" s="96"/>
+      <c r="S123" s="65"/>
+      <c r="T123" s="65"/>
+      <c r="U123" s="65"/>
+      <c r="V123" s="64"/>
+      <c r="W123" s="64"/>
+      <c r="X123" s="64"/>
+      <c r="Y123" s="64"/>
+      <c r="Z123" s="64"/>
+      <c r="AA123" s="64"/>
+    </row>
+    <row r="124" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A124" s="252" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="252"/>
+      <c r="C124" s="253" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="253"/>
+      <c r="E124" s="253"/>
+      <c r="F124" s="253"/>
+      <c r="G124" s="254" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="254"/>
+      <c r="I124" s="254"/>
+      <c r="J124" s="254" t="str">
+        <f>J48</f>
+        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
+      </c>
+      <c r="K124" s="254"/>
+      <c r="L124" s="254"/>
+      <c r="M124" s="254"/>
+      <c r="N124" s="254"/>
+      <c r="O124" s="254"/>
+      <c r="P124" s="254"/>
+      <c r="Q124" s="98"/>
+      <c r="R124" s="98"/>
+      <c r="S124" s="131"/>
+      <c r="T124" s="131"/>
+      <c r="U124" s="131"/>
+      <c r="V124" s="105"/>
+      <c r="W124" s="105"/>
       <c r="X124" s="64"/>
       <c r="Y124" s="64"/>
       <c r="Z124" s="64"/>
       <c r="AA124" s="64"/>
     </row>
     <row r="125" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A125" s="178" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="178"/>
-      <c r="C125" s="179" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="179"/>
-      <c r="E125" s="179"/>
-      <c r="F125" s="179"/>
-      <c r="G125" s="180" t="s">
-        <v>148</v>
-      </c>
-      <c r="H125" s="180"/>
-      <c r="I125" s="180"/>
-      <c r="J125" s="180" t="str">
-        <f>J48</f>
-        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
-      </c>
-      <c r="K125" s="180"/>
-      <c r="L125" s="180"/>
-      <c r="M125" s="180"/>
-      <c r="N125" s="180"/>
-      <c r="O125" s="180"/>
-      <c r="P125" s="180"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="98"/>
+      <c r="I125" s="98"/>
+      <c r="J125" s="254" t="s">
+        <v>150</v>
+      </c>
+      <c r="K125" s="254"/>
+      <c r="L125" s="254"/>
+      <c r="M125" s="254"/>
+      <c r="N125" s="254"/>
+      <c r="O125" s="254"/>
+      <c r="P125" s="254"/>
       <c r="Q125" s="98"/>
       <c r="R125" s="98"/>
       <c r="S125" s="131"/>
@@ -7413,35 +7408,33 @@
       <c r="AA125" s="64"/>
     </row>
     <row r="126" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A126" s="64"/>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-      <c r="G126" s="98"/>
-      <c r="H126" s="98"/>
-      <c r="I126" s="98"/>
-      <c r="J126" s="180" t="s">
-        <v>150</v>
-      </c>
-      <c r="K126" s="180"/>
-      <c r="L126" s="180"/>
-      <c r="M126" s="180"/>
-      <c r="N126" s="180"/>
-      <c r="O126" s="180"/>
-      <c r="P126" s="180"/>
-      <c r="Q126" s="98"/>
-      <c r="R126" s="98"/>
-      <c r="S126" s="131"/>
-      <c r="T126" s="131"/>
-      <c r="U126" s="131"/>
-      <c r="V126" s="105"/>
-      <c r="W126" s="105"/>
-      <c r="X126" s="64"/>
-      <c r="Y126" s="64"/>
-      <c r="Z126" s="64"/>
-      <c r="AA126" s="64"/>
+      <c r="A126" s="133"/>
+      <c r="B126" s="133"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="134"/>
+      <c r="E126" s="134"/>
+      <c r="F126" s="135"/>
+      <c r="G126" s="136"/>
+      <c r="H126" s="136"/>
+      <c r="I126" s="134"/>
+      <c r="J126" s="134"/>
+      <c r="K126" s="134"/>
+      <c r="L126" s="135"/>
+      <c r="M126" s="135"/>
+      <c r="N126" s="136"/>
+      <c r="O126" s="134"/>
+      <c r="P126" s="134"/>
+      <c r="Q126" s="134"/>
+      <c r="R126" s="134"/>
+      <c r="S126" s="96"/>
+      <c r="T126" s="96"/>
+      <c r="U126" s="96"/>
+      <c r="V126" s="121"/>
+      <c r="W126" s="121"/>
+      <c r="X126" s="121"/>
+      <c r="Y126" s="97"/>
+      <c r="Z126" s="97"/>
+      <c r="AA126" s="97"/>
     </row>
     <row r="127" spans="1:27" ht="24.75" customHeight="1">
       <c r="A127" s="133"/>
@@ -7462,12 +7455,12 @@
       <c r="P127" s="134"/>
       <c r="Q127" s="134"/>
       <c r="R127" s="134"/>
-      <c r="S127" s="96"/>
-      <c r="T127" s="96"/>
-      <c r="U127" s="96"/>
-      <c r="V127" s="121"/>
-      <c r="W127" s="121"/>
-      <c r="X127" s="121"/>
+      <c r="S127" s="98"/>
+      <c r="T127" s="98"/>
+      <c r="U127" s="98"/>
+      <c r="V127" s="132"/>
+      <c r="W127" s="132"/>
+      <c r="X127" s="132"/>
       <c r="Y127" s="97"/>
       <c r="Z127" s="97"/>
       <c r="AA127" s="97"/>
@@ -7520,15 +7513,15 @@
       <c r="P129" s="134"/>
       <c r="Q129" s="134"/>
       <c r="R129" s="134"/>
-      <c r="S129" s="98"/>
-      <c r="T129" s="98"/>
-      <c r="U129" s="98"/>
-      <c r="V129" s="132"/>
-      <c r="W129" s="132"/>
-      <c r="X129" s="132"/>
-      <c r="Y129" s="97"/>
-      <c r="Z129" s="97"/>
-      <c r="AA129" s="97"/>
+      <c r="S129" s="134"/>
+      <c r="T129" s="134"/>
+      <c r="U129" s="134"/>
+      <c r="V129" s="133"/>
+      <c r="W129" s="133"/>
+      <c r="X129" s="133"/>
+      <c r="Y129" s="133"/>
+      <c r="Z129" s="133"/>
+      <c r="AA129" s="133"/>
     </row>
     <row r="130" spans="1:27" ht="24.75" customHeight="1">
       <c r="A130" s="133"/>
@@ -7536,19 +7529,22 @@
       <c r="C130" s="133"/>
       <c r="D130" s="134"/>
       <c r="E130" s="134"/>
-      <c r="F130" s="135"/>
-      <c r="G130" s="136"/>
-      <c r="H130" s="136"/>
-      <c r="I130" s="134"/>
-      <c r="J130" s="134"/>
-      <c r="K130" s="134"/>
-      <c r="L130" s="135"/>
-      <c r="M130" s="135"/>
-      <c r="N130" s="136"/>
-      <c r="O130" s="134"/>
-      <c r="P130" s="134"/>
-      <c r="Q130" s="134"/>
-      <c r="R130" s="134"/>
+      <c r="F130" s="134"/>
+      <c r="G130" s="137"/>
+      <c r="H130" s="137"/>
+      <c r="I130" s="137"/>
+      <c r="J130" s="290" t="str">
+        <f>J54</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K130" s="290"/>
+      <c r="L130" s="290"/>
+      <c r="M130" s="290"/>
+      <c r="N130" s="290"/>
+      <c r="O130" s="290"/>
+      <c r="P130" s="290"/>
+      <c r="Q130" s="137"/>
+      <c r="R130" s="137"/>
       <c r="S130" s="134"/>
       <c r="T130" s="134"/>
       <c r="U130" s="134"/>
@@ -7560,27 +7556,24 @@
       <c r="AA130" s="133"/>
     </row>
     <row r="131" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A131" s="133"/>
-      <c r="B131" s="133"/>
-      <c r="C131" s="133"/>
-      <c r="D131" s="134"/>
-      <c r="E131" s="134"/>
-      <c r="F131" s="134"/>
-      <c r="G131" s="137"/>
-      <c r="H131" s="137"/>
-      <c r="I131" s="137"/>
-      <c r="J131" s="174" t="str">
-        <f>J54</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K131" s="174"/>
-      <c r="L131" s="174"/>
-      <c r="M131" s="174"/>
-      <c r="N131" s="174"/>
-      <c r="O131" s="174"/>
-      <c r="P131" s="174"/>
-      <c r="Q131" s="137"/>
-      <c r="R131" s="137"/>
+      <c r="A131" s="139"/>
+      <c r="B131" s="139"/>
+      <c r="C131" s="139"/>
+      <c r="D131" s="140"/>
+      <c r="E131" s="141"/>
+      <c r="F131" s="140"/>
+      <c r="G131" s="140"/>
+      <c r="H131" s="140"/>
+      <c r="I131" s="140"/>
+      <c r="J131" s="140"/>
+      <c r="K131" s="140"/>
+      <c r="L131" s="140"/>
+      <c r="M131" s="140"/>
+      <c r="N131" s="140"/>
+      <c r="O131" s="140"/>
+      <c r="P131" s="140"/>
+      <c r="Q131" s="140"/>
+      <c r="R131" s="140"/>
       <c r="S131" s="134"/>
       <c r="T131" s="134"/>
       <c r="U131" s="134"/>
@@ -7592,24 +7585,6 @@
       <c r="AA131" s="133"/>
     </row>
     <row r="132" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A132" s="139"/>
-      <c r="B132" s="139"/>
-      <c r="C132" s="139"/>
-      <c r="D132" s="140"/>
-      <c r="E132" s="141"/>
-      <c r="F132" s="140"/>
-      <c r="G132" s="140"/>
-      <c r="H132" s="140"/>
-      <c r="I132" s="140"/>
-      <c r="J132" s="140"/>
-      <c r="K132" s="140"/>
-      <c r="L132" s="140"/>
-      <c r="M132" s="140"/>
-      <c r="N132" s="140"/>
-      <c r="O132" s="140"/>
-      <c r="P132" s="140"/>
-      <c r="Q132" s="140"/>
-      <c r="R132" s="140"/>
       <c r="S132" s="134"/>
       <c r="T132" s="134"/>
       <c r="U132" s="134"/>
@@ -7621,40 +7596,171 @@
       <c r="AA132" s="133"/>
     </row>
     <row r="133" spans="1:27" ht="24.75" customHeight="1">
-      <c r="S133" s="134"/>
-      <c r="T133" s="134"/>
-      <c r="U133" s="134"/>
-      <c r="V133" s="133"/>
-      <c r="W133" s="133"/>
-      <c r="X133" s="133"/>
+      <c r="S133" s="137"/>
+      <c r="T133" s="137"/>
+      <c r="U133" s="137"/>
+      <c r="V133" s="138"/>
+      <c r="W133" s="138"/>
+      <c r="X133" s="138"/>
       <c r="Y133" s="133"/>
       <c r="Z133" s="133"/>
       <c r="AA133" s="133"/>
     </row>
     <row r="134" spans="1:27" ht="24.75" customHeight="1">
-      <c r="S134" s="137"/>
-      <c r="T134" s="137"/>
-      <c r="U134" s="137"/>
-      <c r="V134" s="138"/>
-      <c r="W134" s="138"/>
-      <c r="X134" s="138"/>
+      <c r="S134" s="140"/>
+      <c r="T134" s="140"/>
+      <c r="U134" s="140"/>
+      <c r="V134" s="139"/>
+      <c r="W134" s="139"/>
+      <c r="X134" s="133"/>
       <c r="Y134" s="133"/>
       <c r="Z134" s="133"/>
       <c r="AA134" s="133"/>
     </row>
-    <row r="135" spans="1:27" ht="24.75" customHeight="1">
-      <c r="S135" s="140"/>
-      <c r="T135" s="140"/>
-      <c r="U135" s="140"/>
-      <c r="V135" s="139"/>
-      <c r="W135" s="139"/>
-      <c r="X135" s="133"/>
-      <c r="Y135" s="133"/>
-      <c r="Z135" s="133"/>
-      <c r="AA135" s="133"/>
-    </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="166">
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:P124"/>
+    <mergeCell ref="J125:P125"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:P119"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:C115"/>
+    <mergeCell ref="D113:E115"/>
+    <mergeCell ref="F113:H115"/>
+    <mergeCell ref="I113:L114"/>
+    <mergeCell ref="M113:P115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="C81:R81"/>
+    <mergeCell ref="C86:R86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:X48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="T108:Z108"/>
     <mergeCell ref="U24:X24"/>
     <mergeCell ref="V3:V4"/>
@@ -7679,154 +7785,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="Y39:AA40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="M39:P40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:X48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:C115"/>
-    <mergeCell ref="D113:E115"/>
-    <mergeCell ref="F113:H115"/>
-    <mergeCell ref="I113:L114"/>
-    <mergeCell ref="M113:P115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="J107:P107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="C81:R81"/>
-    <mergeCell ref="C86:R86"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="J131:P131"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J124:P124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="J125:P125"/>
-    <mergeCell ref="J126:P126"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="M120:P120"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="M119:P119"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
   </mergeCells>
   <conditionalFormatting sqref="B9 B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -7848,79 +7806,79 @@
       <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="362" t="s">
+    <row r="1" spans="1:7" ht="17.399999999999999">
+      <c r="A1" s="374" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.9" customHeight="1">
-      <c r="A2" s="371" t="s">
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.95" customHeight="1">
+      <c r="A2" s="383" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="364" t="str">
+      <c r="B2" s="383"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="383"/>
+      <c r="G2" s="383"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1">
+      <c r="A3" s="376" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.45" customHeight="1">
-      <c r="A4" s="368" t="s">
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="368"/>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="368"/>
-      <c r="G4" s="368"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="372" t="s">
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="384" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="372" t="s">
+      <c r="B5" s="384" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="375" t="s">
+      <c r="C5" s="387" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="377"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5">
-      <c r="A6" s="373"/>
-      <c r="B6" s="373"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
+      <c r="G5" s="389"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="385"/>
+      <c r="B6" s="385"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -7937,9 +7895,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="374"/>
-      <c r="B7" s="374"/>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="386"/>
+      <c r="B7" s="386"/>
       <c r="C7" s="15" t="s">
         <v>42</v>
       </c>
@@ -7978,91 +7936,91 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.45" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A1" s="362" t="s">
+    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="374" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A2" s="371" t="s">
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="383" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A3" s="371" t="s">
+      <c r="B2" s="383"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="383"/>
+      <c r="G2" s="383"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A3" s="383" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="371"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A4" s="364" t="str">
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A4" s="376" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="364"/>
-      <c r="C4" s="364"/>
-      <c r="D4" s="364"/>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A5" s="368" t="s">
+      <c r="B4" s="376"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A5" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="368"/>
-      <c r="C5" s="368"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A6" s="369" t="s">
+      <c r="B5" s="380"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="369" t="s">
+      <c r="B6" s="381" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="370" t="s">
+      <c r="C6" s="382" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="370"/>
-      <c r="E6" s="370"/>
-      <c r="F6" s="370"/>
-      <c r="G6" s="370"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A7" s="369"/>
-      <c r="B7" s="369"/>
+      <c r="D6" s="382"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A7" s="381"/>
+      <c r="B7" s="381"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -8079,9 +8037,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A8" s="369"/>
-      <c r="B8" s="369"/>
+    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
       <c r="C8" s="16" t="s">
         <v>42</v>
       </c>
@@ -8124,29 +8082,29 @@
       <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="20" customWidth="1"/>
-    <col min="2" max="3" width="42.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="10.5703125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="20" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="20" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="20"/>
-    <col min="17" max="17" width="15.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="20" customWidth="1"/>
+    <col min="2" max="3" width="42.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="10.5546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="20"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="20" customWidth="1"/>
+    <col min="15" max="16" width="9.109375" style="20"/>
+    <col min="17" max="17" width="15.5546875" style="20" customWidth="1"/>
     <col min="18" max="18" width="14" style="20" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="20"/>
+    <col min="19" max="19" width="16.33203125" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:21" ht="39.9" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8215,28 +8173,28 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="10" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="20" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="12.5703125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="20" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="20"/>
-    <col min="17" max="17" width="15.7109375" style="20" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="20"/>
-    <col min="19" max="19" width="17.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="20"/>
+    <col min="7" max="7" width="11.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="20" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="12.5546875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="20" customWidth="1"/>
+    <col min="13" max="16" width="9.109375" style="20"/>
+    <col min="17" max="17" width="15.6640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="20"/>
+    <col min="19" max="19" width="17.88671875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="39.9" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -8274,10 +8232,10 @@
         <v>103</v>
       </c>
       <c r="M2" s="21"/>
-      <c r="N2" s="281" t="s">
+      <c r="N2" s="292" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="281"/>
+      <c r="O2" s="292"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21" t="s">
         <v>104</v>
@@ -8308,27 +8266,27 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="20" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="20"/>
-    <col min="13" max="13" width="6.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="20"/>
+    <col min="6" max="6" width="13.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="20" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="20"/>
+    <col min="13" max="13" width="6.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:18" ht="39.9" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -8388,29 +8346,29 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="20" customWidth="1"/>
     <col min="2" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="20"/>
-    <col min="10" max="10" width="13.85546875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="20" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="20"/>
-    <col min="14" max="14" width="6.28515625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="20"/>
-    <col min="18" max="18" width="20.7109375" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20"/>
+    <col min="5" max="5" width="10.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="20"/>
+    <col min="10" max="10" width="13.88671875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="20" customWidth="1"/>
+    <col min="12" max="13" width="9.109375" style="20"/>
+    <col min="14" max="14" width="6.33203125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="20" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="20"/>
+    <col min="18" max="18" width="20.6640625" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:20" ht="39.9" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -8476,25 +8434,25 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="21.85546875" style="20" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="20"/>
-    <col min="9" max="9" width="15.85546875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" style="20" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="20"/>
-    <col min="15" max="15" width="19.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="21.88671875" style="20" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="20"/>
+    <col min="9" max="9" width="15.88671875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" style="20" customWidth="1"/>
+    <col min="11" max="14" width="9.109375" style="20"/>
+    <col min="15" max="15" width="19.109375" style="20" customWidth="1"/>
     <col min="16" max="16" width="11" style="20" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="20" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="20"/>
+    <col min="17" max="17" width="19.109375" style="20" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:19" ht="39.9" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8552,7 +8510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8569,27 +8527,27 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="20" customWidth="1"/>
-    <col min="2" max="3" width="39.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
+    <col min="2" max="3" width="39.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="11.33203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="20" customWidth="1"/>
     <col min="8" max="8" width="18" style="20" customWidth="1"/>
     <col min="9" max="9" width="17" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="11.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="11.33203125" style="20" customWidth="1"/>
     <col min="12" max="12" width="14" style="20" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="20"/>
-    <col min="17" max="17" width="20.140625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="20"/>
+    <col min="13" max="16" width="9.109375" style="20"/>
+    <col min="17" max="17" width="20.109375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="19" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:19" s="19" customFormat="1" ht="39.9" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8656,515 +8614,27 @@
       <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="23"/>
-    <col min="4" max="6" width="16.7109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="0.42578125" style="23" hidden="1" customWidth="1"/>
-    <col min="9" max="21" width="16.7109375" style="23" customWidth="1"/>
-    <col min="22" max="23" width="16.7109375" style="23" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="16.7109375" style="23" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="23" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="23" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="16.7109375" style="23" customWidth="1"/>
-    <col min="37" max="38" width="16.7109375" style="23" hidden="1" customWidth="1"/>
-    <col min="39" max="16384" width="12.7109375" style="23"/>
+    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="23"/>
+    <col min="4" max="6" width="16.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="0.44140625" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="21" width="16.6640625" style="23" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="16.6640625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" style="23" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="29" max="36" width="16.6640625" style="23" customWidth="1"/>
+    <col min="37" max="38" width="16.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="39" max="16384" width="12.6640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="155" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="293" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="287"/>
-      <c r="AA1" s="287"/>
-      <c r="AB1" s="287"/>
-      <c r="AC1" s="287"/>
-      <c r="AD1" s="287"/>
-      <c r="AE1" s="287"/>
-      <c r="AF1" s="287"/>
-      <c r="AG1" s="287"/>
-      <c r="AH1" s="287"/>
-      <c r="AI1" s="287"/>
-      <c r="AJ1" s="287"/>
-      <c r="AK1" s="287"/>
-      <c r="AL1" s="287"/>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-    </row>
-    <row r="2" spans="1:44" s="155" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="280" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="S2" s="280"/>
-      <c r="T2" s="280"/>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="280"/>
-      <c r="AA2" s="280"/>
-      <c r="AB2" s="280"/>
-      <c r="AC2" s="280"/>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="280"/>
-      <c r="AG2" s="280"/>
-      <c r="AH2" s="280"/>
-      <c r="AI2" s="280"/>
-      <c r="AJ2" s="280"/>
-      <c r="AK2" s="280"/>
-      <c r="AL2" s="280"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-    </row>
-    <row r="3" spans="1:44" ht="18" customHeight="1">
-      <c r="Y3" s="288" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="288"/>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="288"/>
-    </row>
-    <row r="4" spans="1:44" ht="18" customHeight="1">
-      <c r="A4" s="281" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="281" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="281" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="281" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="281"/>
-      <c r="Z4" s="281"/>
-      <c r="AA4" s="281"/>
-      <c r="AB4" s="281"/>
-      <c r="AC4" s="289" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="290"/>
-      <c r="AE4" s="289" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF4" s="290"/>
-      <c r="AG4" s="289" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH4" s="290"/>
-      <c r="AI4" s="289" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ4" s="290"/>
-      <c r="AK4" s="289" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="290"/>
-    </row>
-    <row r="5" spans="1:44" ht="18" customHeight="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="281" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="281" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="281"/>
-      <c r="R5" s="281"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="281"/>
-      <c r="W5" s="281"/>
-      <c r="X5" s="281"/>
-      <c r="Y5" s="281"/>
-      <c r="Z5" s="281"/>
-      <c r="AA5" s="281"/>
-      <c r="AB5" s="281"/>
-      <c r="AC5" s="291"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="291"/>
-      <c r="AF5" s="292"/>
-      <c r="AG5" s="291"/>
-      <c r="AH5" s="292"/>
-      <c r="AI5" s="291"/>
-      <c r="AJ5" s="292"/>
-      <c r="AK5" s="291"/>
-      <c r="AL5" s="292"/>
-    </row>
-    <row r="6" spans="1:44" ht="18" customHeight="1">
-      <c r="A6" s="281"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="281" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="281" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="282" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="281" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="281" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="281"/>
-      <c r="P6" s="281" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="281"/>
-      <c r="R6" s="281" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="281"/>
-      <c r="T6" s="284" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="285"/>
-      <c r="V6" s="286" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="281"/>
-      <c r="X6" s="281" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="281" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="281" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="282" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="281" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC6" s="281" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="281" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE6" s="281" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="281" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG6" s="281" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH6" s="281" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI6" s="281" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="281" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK6" s="281" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="281" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="24" customHeight="1">
-      <c r="A7" s="281"/>
-      <c r="B7" s="281"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="283"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-    </row>
-    <row r="8" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="9" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="10" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="11" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="12" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="13" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="14" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="15" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="16" spans="1:44" ht="22.5" customHeight="1"/>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="22.5" customHeight="1"/>
-    <row r="20" ht="22.5" customHeight="1"/>
-    <row r="21" ht="22.5" customHeight="1"/>
-    <row r="22" ht="22.5" customHeight="1"/>
-    <row r="23" ht="22.5" customHeight="1"/>
-    <row r="24" ht="22.5" customHeight="1"/>
-    <row r="25" ht="22.5" customHeight="1"/>
-    <row r="26" ht="22.5" customHeight="1"/>
-    <row r="27" ht="22.5" customHeight="1"/>
-    <row r="28" ht="22.5" customHeight="1"/>
-    <row r="29" ht="22.5" customHeight="1"/>
-    <row r="30" ht="22.5" customHeight="1"/>
-    <row r="31" ht="22.5" customHeight="1"/>
-    <row r="32" ht="22.5" customHeight="1"/>
-    <row r="33" ht="22.5" customHeight="1"/>
-    <row r="34" ht="22.5" customHeight="1"/>
-    <row r="35" ht="22.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="N4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="AG4:AH5"/>
-    <mergeCell ref="AI4:AJ5"/>
-    <mergeCell ref="AK4:AL5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="AH6:AH7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C4A2F-FEFF-4285-A50E-C1999272D349}">
-  <dimension ref="A1:AV7"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="35" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="24" customWidth="1"/>
-    <col min="5" max="7" width="16.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11" style="24" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="20" style="24" customWidth="1"/>
-    <col min="14" max="24" width="16.7109375" style="24" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="24" customWidth="1"/>
-    <col min="26" max="27" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="28" max="31" width="16.7109375" style="24" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" style="24" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="34" max="40" width="16.7109375" style="24" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" style="24" customWidth="1"/>
-    <col min="42" max="43" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:48" s="157" customFormat="1" ht="16.5">
-      <c r="A1" s="293" t="s">
-        <v>25</v>
       </c>
       <c r="B1" s="293"/>
       <c r="C1" s="293"/>
@@ -9202,53 +8672,541 @@
       <c r="AI1" s="293"/>
       <c r="AJ1" s="293"/>
       <c r="AK1" s="293"/>
+      <c r="AL1" s="293"/>
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+    </row>
+    <row r="2" spans="1:44" s="155" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A2" s="304" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="304"/>
+      <c r="AE2" s="304"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="304"/>
+      <c r="AH2" s="304"/>
+      <c r="AI2" s="304"/>
+      <c r="AJ2" s="304"/>
+      <c r="AK2" s="304"/>
+      <c r="AL2" s="304"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+    </row>
+    <row r="3" spans="1:44" ht="18" customHeight="1">
+      <c r="Y3" s="294" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="294"/>
+      <c r="AB3" s="294"/>
+    </row>
+    <row r="4" spans="1:44" ht="18" customHeight="1">
+      <c r="A4" s="292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="292" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="292"/>
+      <c r="N4" s="292" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="292"/>
+      <c r="P4" s="292"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
+      <c r="AC4" s="295" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="296"/>
+      <c r="AE4" s="295" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="296"/>
+      <c r="AG4" s="295" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="296"/>
+      <c r="AI4" s="295" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ4" s="296"/>
+      <c r="AK4" s="295" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL4" s="296"/>
+    </row>
+    <row r="5" spans="1:44" ht="18" customHeight="1">
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="292" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="292" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="292"/>
+      <c r="M5" s="292"/>
+      <c r="N5" s="292"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="292"/>
+      <c r="Q5" s="292"/>
+      <c r="R5" s="292"/>
+      <c r="S5" s="292"/>
+      <c r="T5" s="292"/>
+      <c r="U5" s="292"/>
+      <c r="V5" s="292"/>
+      <c r="W5" s="292"/>
+      <c r="X5" s="292"/>
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="292"/>
+      <c r="AA5" s="292"/>
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="297"/>
+      <c r="AD5" s="298"/>
+      <c r="AE5" s="297"/>
+      <c r="AF5" s="298"/>
+      <c r="AG5" s="297"/>
+      <c r="AH5" s="298"/>
+      <c r="AI5" s="297"/>
+      <c r="AJ5" s="298"/>
+      <c r="AK5" s="297"/>
+      <c r="AL5" s="298"/>
+    </row>
+    <row r="6" spans="1:44" ht="18" customHeight="1">
+      <c r="A6" s="292"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="292" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="302" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="292" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="292" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="292"/>
+      <c r="P6" s="292" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="292"/>
+      <c r="R6" s="292" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="292"/>
+      <c r="T6" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="300"/>
+      <c r="V6" s="301" t="s">
+        <v>24</v>
+      </c>
+      <c r="W6" s="292"/>
+      <c r="X6" s="292" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="292" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="292" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="302" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="292" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="292" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="292" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="292" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI6" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="292" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK6" s="292" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="24" customHeight="1">
+      <c r="A7" s="292"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="292"/>
+      <c r="Y7" s="292"/>
+      <c r="Z7" s="292"/>
+      <c r="AA7" s="303"/>
+      <c r="AB7" s="292"/>
+      <c r="AC7" s="292"/>
+      <c r="AD7" s="292"/>
+      <c r="AE7" s="292"/>
+      <c r="AF7" s="292"/>
+      <c r="AG7" s="292"/>
+      <c r="AH7" s="292"/>
+      <c r="AI7" s="292"/>
+      <c r="AJ7" s="292"/>
+      <c r="AK7" s="292"/>
+      <c r="AL7" s="292"/>
+    </row>
+    <row r="8" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="9" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="10" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="11" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="12" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="13" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="14" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="15" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="16" spans="1:44" ht="22.5" customHeight="1"/>
+    <row r="17" ht="22.5" customHeight="1"/>
+    <row r="18" ht="22.5" customHeight="1"/>
+    <row r="19" ht="22.5" customHeight="1"/>
+    <row r="20" ht="22.5" customHeight="1"/>
+    <row r="21" ht="22.5" customHeight="1"/>
+    <row r="22" ht="22.5" customHeight="1"/>
+    <row r="23" ht="22.5" customHeight="1"/>
+    <row r="24" ht="22.5" customHeight="1"/>
+    <row r="25" ht="22.5" customHeight="1"/>
+    <row r="26" ht="22.5" customHeight="1"/>
+    <row r="27" ht="22.5" customHeight="1"/>
+    <row r="28" ht="22.5" customHeight="1"/>
+    <row r="29" ht="22.5" customHeight="1"/>
+    <row r="30" ht="22.5" customHeight="1"/>
+    <row r="31" ht="22.5" customHeight="1"/>
+    <row r="32" ht="22.5" customHeight="1"/>
+    <row r="33" ht="22.5" customHeight="1"/>
+    <row r="34" ht="22.5" customHeight="1"/>
+    <row r="35" ht="22.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="N4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="AI4:AJ5"/>
+    <mergeCell ref="AK4:AL5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C4A2F-FEFF-4285-A50E-C1999272D349}">
+  <dimension ref="A1:AV7"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="24"/>
+    <col min="2" max="2" width="35" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="24" customWidth="1"/>
+    <col min="5" max="7" width="16.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11" style="24" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="16.6640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="20" style="24" customWidth="1"/>
+    <col min="14" max="24" width="16.6640625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" style="24" customWidth="1"/>
+    <col min="26" max="27" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="16.6640625" style="24" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" style="24" customWidth="1"/>
+    <col min="33" max="33" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="34" max="40" width="16.6640625" style="24" customWidth="1"/>
+    <col min="41" max="41" width="16.5546875" style="24" customWidth="1"/>
+    <col min="42" max="43" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.109375" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="332" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="332"/>
+      <c r="Y1" s="332"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="332"/>
+      <c r="AB1" s="332"/>
+      <c r="AC1" s="332"/>
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+      <c r="AH1" s="332"/>
+      <c r="AI1" s="332"/>
+      <c r="AJ1" s="332"/>
+      <c r="AK1" s="332"/>
       <c r="AL1" s="156"/>
       <c r="AM1" s="156"/>
       <c r="AN1" s="156"/>
       <c r="AU1" s="158"/>
       <c r="AV1" s="158"/>
     </row>
-    <row r="2" spans="1:48" s="157" customFormat="1" ht="16.5">
-      <c r="A2" s="294" t="str">
+    <row r="2" spans="1:48" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A2" s="333" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="294"/>
-      <c r="AA2" s="294"/>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="294"/>
-      <c r="AD2" s="294"/>
-      <c r="AE2" s="294"/>
-      <c r="AF2" s="294"/>
-      <c r="AG2" s="294"/>
-      <c r="AH2" s="294"/>
-      <c r="AI2" s="294"/>
-      <c r="AJ2" s="294"/>
-      <c r="AK2" s="294"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="333"/>
+      <c r="AE2" s="333"/>
+      <c r="AF2" s="333"/>
+      <c r="AG2" s="333"/>
+      <c r="AH2" s="333"/>
+      <c r="AI2" s="333"/>
+      <c r="AJ2" s="333"/>
+      <c r="AK2" s="333"/>
       <c r="AL2" s="159"/>
       <c r="AM2" s="159"/>
       <c r="AN2" s="159"/>
@@ -9285,10 +9243,10 @@
       <c r="AA3" s="26"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
-      <c r="AD3" s="321"/>
-      <c r="AE3" s="321"/>
-      <c r="AF3" s="321"/>
-      <c r="AG3" s="321"/>
+      <c r="AD3" s="309"/>
+      <c r="AE3" s="309"/>
+      <c r="AF3" s="309"/>
+      <c r="AG3" s="309"/>
       <c r="AH3" s="26"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
@@ -9301,246 +9259,246 @@
       <c r="AQ3" s="28"/>
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="311" t="s">
+      <c r="D4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="295" t="s">
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="296"/>
-      <c r="L4" s="296"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="311" t="s">
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="307" t="s">
+      <c r="O4" s="306" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="295" t="s">
+      <c r="P4" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="301" t="s">
+      <c r="Q4" s="322"/>
+      <c r="R4" s="336" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="302"/>
-      <c r="T4" s="302"/>
-      <c r="U4" s="302"/>
-      <c r="V4" s="302"/>
-      <c r="W4" s="302"/>
-      <c r="X4" s="302"/>
-      <c r="Y4" s="302"/>
-      <c r="Z4" s="302"/>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="311" t="s">
+      <c r="S4" s="337"/>
+      <c r="T4" s="337"/>
+      <c r="U4" s="337"/>
+      <c r="V4" s="337"/>
+      <c r="W4" s="337"/>
+      <c r="X4" s="337"/>
+      <c r="Y4" s="337"/>
+      <c r="Z4" s="337"/>
+      <c r="AA4" s="338"/>
+      <c r="AB4" s="310" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="312" t="s">
+      <c r="AC4" s="327" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="312"/>
-      <c r="AE4" s="312"/>
-      <c r="AF4" s="312"/>
-      <c r="AG4" s="313"/>
-      <c r="AH4" s="322"/>
-      <c r="AI4" s="322"/>
-      <c r="AJ4" s="322"/>
-      <c r="AK4" s="322"/>
-      <c r="AL4" s="322"/>
-      <c r="AM4" s="322"/>
-      <c r="AN4" s="322"/>
-      <c r="AO4" s="322"/>
-      <c r="AP4" s="322"/>
-      <c r="AQ4" s="322"/>
+      <c r="AD4" s="327"/>
+      <c r="AE4" s="327"/>
+      <c r="AF4" s="327"/>
+      <c r="AG4" s="328"/>
+      <c r="AH4" s="331"/>
+      <c r="AI4" s="331"/>
+      <c r="AJ4" s="331"/>
+      <c r="AK4" s="331"/>
+      <c r="AL4" s="331"/>
+      <c r="AM4" s="331"/>
+      <c r="AN4" s="331"/>
+      <c r="AO4" s="331"/>
+      <c r="AP4" s="331"/>
+      <c r="AQ4" s="331"/>
     </row>
     <row r="5" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="281"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="311"/>
-      <c r="G5" s="311"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="311"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="309"/>
-      <c r="Q5" s="310"/>
-      <c r="R5" s="317" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="310"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="310"/>
+      <c r="O5" s="307"/>
+      <c r="P5" s="323"/>
+      <c r="Q5" s="324"/>
+      <c r="R5" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="318"/>
-      <c r="T5" s="317" t="s">
+      <c r="S5" s="312"/>
+      <c r="T5" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="318"/>
-      <c r="V5" s="317" t="s">
+      <c r="U5" s="312"/>
+      <c r="V5" s="311" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="318"/>
-      <c r="X5" s="323" t="s">
+      <c r="W5" s="312"/>
+      <c r="X5" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="324"/>
-      <c r="Z5" s="317" t="s">
+      <c r="Y5" s="316"/>
+      <c r="Z5" s="311" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="318"/>
-      <c r="AB5" s="311"/>
-      <c r="AC5" s="314"/>
-      <c r="AD5" s="314"/>
-      <c r="AE5" s="314"/>
-      <c r="AF5" s="314"/>
-      <c r="AG5" s="315"/>
-      <c r="AH5" s="316" t="s">
+      <c r="AA5" s="312"/>
+      <c r="AB5" s="310"/>
+      <c r="AC5" s="329"/>
+      <c r="AD5" s="329"/>
+      <c r="AE5" s="329"/>
+      <c r="AF5" s="329"/>
+      <c r="AG5" s="330"/>
+      <c r="AH5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="316"/>
-      <c r="AJ5" s="316" t="s">
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="316"/>
-      <c r="AL5" s="316" t="s">
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="316"/>
-      <c r="AN5" s="305" t="s">
+      <c r="AM5" s="305"/>
+      <c r="AN5" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="306"/>
-      <c r="AP5" s="327" t="s">
+      <c r="AO5" s="320"/>
+      <c r="AP5" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="AQ5" s="316"/>
+      <c r="AQ5" s="305"/>
     </row>
     <row r="6" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A6" s="281"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="281" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="310"/>
+      <c r="E6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="281" t="s">
+      <c r="F6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="282" t="s">
+      <c r="H6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="281" t="s">
+      <c r="I6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="307" t="s">
+      <c r="J6" s="306" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="307" t="s">
+      <c r="K6" s="306" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="307" t="s">
+      <c r="L6" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="307" t="s">
+      <c r="M6" s="306" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="311"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="319"/>
-      <c r="S6" s="320"/>
-      <c r="T6" s="319"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="319"/>
-      <c r="W6" s="320"/>
-      <c r="X6" s="325"/>
-      <c r="Y6" s="326"/>
-      <c r="Z6" s="319"/>
-      <c r="AA6" s="320"/>
-      <c r="AB6" s="311"/>
-      <c r="AC6" s="281" t="s">
+      <c r="N6" s="310"/>
+      <c r="O6" s="307"/>
+      <c r="P6" s="325"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="314"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="314"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="314"/>
+      <c r="X6" s="317"/>
+      <c r="Y6" s="318"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="314"/>
+      <c r="AB6" s="310"/>
+      <c r="AC6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="281" t="s">
+      <c r="AD6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="281" t="s">
+      <c r="AE6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="282" t="s">
+      <c r="AF6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="AG6" s="281" t="s">
+      <c r="AG6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="311" t="s">
+      <c r="AH6" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="311" t="s">
+      <c r="AI6" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="311" t="s">
+      <c r="AJ6" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="311" t="s">
+      <c r="AK6" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="311" t="s">
+      <c r="AL6" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="311" t="s">
+      <c r="AM6" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="307" t="s">
+      <c r="AN6" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="307" t="s">
+      <c r="AO6" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="311" t="s">
+      <c r="AP6" s="310" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="311" t="s">
+      <c r="AQ6" s="310" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A7" s="282"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="304"/>
-      <c r="I7" s="282"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="307"/>
-      <c r="O7" s="308"/>
+      <c r="A7" s="302"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="339"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="307"/>
+      <c r="K7" s="307"/>
+      <c r="L7" s="307"/>
+      <c r="M7" s="307"/>
+      <c r="N7" s="306"/>
+      <c r="O7" s="307"/>
       <c r="P7" s="29" t="s">
         <v>13</v>
       </c>
@@ -9577,46 +9535,38 @@
       <c r="AA7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="282"/>
-      <c r="AE7" s="282"/>
-      <c r="AF7" s="304"/>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="307"/>
-      <c r="AI7" s="307"/>
-      <c r="AJ7" s="307"/>
-      <c r="AK7" s="307"/>
-      <c r="AL7" s="307"/>
-      <c r="AM7" s="307"/>
-      <c r="AN7" s="308"/>
-      <c r="AO7" s="308"/>
-      <c r="AP7" s="307"/>
-      <c r="AQ7" s="307"/>
+      <c r="AB7" s="306"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="302"/>
+      <c r="AE7" s="302"/>
+      <c r="AF7" s="339"/>
+      <c r="AG7" s="302"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="306"/>
+      <c r="AJ7" s="306"/>
+      <c r="AK7" s="306"/>
+      <c r="AL7" s="306"/>
+      <c r="AM7" s="306"/>
+      <c r="AN7" s="307"/>
+      <c r="AO7" s="307"/>
+      <c r="AP7" s="306"/>
+      <c r="AQ7" s="306"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="AN5:AO5"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AO6:AO7"/>
@@ -9633,19 +9583,27 @@
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AH4:AQ4"/>
     <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AP6:AP7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9662,61 +9620,61 @@
       <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="24" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="22" width="16.7109375" style="24" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="25" max="28" width="16.7109375" style="24" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="24" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="31" max="37" width="16.7109375" style="24" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" style="24" customWidth="1"/>
-    <col min="39" max="40" width="16.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="5.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="24" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="22" width="16.6640625" style="24" customWidth="1"/>
+    <col min="23" max="24" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="16.6640625" style="24" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" style="24" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="31" max="37" width="16.6640625" style="24" customWidth="1"/>
+    <col min="38" max="38" width="16.44140625" style="24" customWidth="1"/>
+    <col min="39" max="40" width="16.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="157" customFormat="1" ht="16.5">
-      <c r="A1" s="293" t="s">
+    <row r="1" spans="1:44" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="332" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="293"/>
-      <c r="T1" s="293"/>
-      <c r="U1" s="293"/>
-      <c r="V1" s="293"/>
-      <c r="W1" s="293"/>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="332"/>
+      <c r="Y1" s="332"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="332"/>
+      <c r="AB1" s="332"/>
+      <c r="AC1" s="332"/>
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+      <c r="AH1" s="332"/>
       <c r="AI1" s="156"/>
       <c r="AJ1" s="156"/>
       <c r="AN1" s="160"/>
@@ -9725,44 +9683,44 @@
       <c r="AQ1" s="160"/>
       <c r="AR1" s="160"/>
     </row>
-    <row r="2" spans="1:44" s="157" customFormat="1" ht="16.5">
-      <c r="A2" s="294" t="str">
+    <row r="2" spans="1:44" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A2" s="333" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="294"/>
-      <c r="AA2" s="294"/>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="294"/>
-      <c r="AD2" s="294"/>
-      <c r="AE2" s="294"/>
-      <c r="AF2" s="294"/>
-      <c r="AG2" s="294"/>
-      <c r="AH2" s="294"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="333"/>
+      <c r="AE2" s="333"/>
+      <c r="AF2" s="333"/>
+      <c r="AG2" s="333"/>
+      <c r="AH2" s="333"/>
       <c r="AI2" s="159"/>
       <c r="AJ2" s="159"/>
       <c r="AN2" s="160"/>
@@ -9796,11 +9754,11 @@
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
       <c r="X3" s="32"/>
-      <c r="Y3" s="329" t="s">
+      <c r="Y3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="329"/>
-      <c r="AA3" s="329"/>
+      <c r="Z3" s="350"/>
+      <c r="AA3" s="350"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
       <c r="AD3" s="23"/>
@@ -9811,232 +9769,232 @@
       <c r="AI3" s="23"/>
     </row>
     <row r="4" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="346" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="334" t="s">
+      <c r="D4" s="327"/>
+      <c r="E4" s="327"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="335"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="337" t="s">
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="343"/>
+      <c r="L4" s="344" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="330" t="s">
+      <c r="M4" s="346" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="313"/>
-      <c r="O4" s="328" t="s">
+      <c r="N4" s="328"/>
+      <c r="O4" s="340" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="328"/>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="328"/>
-      <c r="S4" s="328"/>
-      <c r="T4" s="328"/>
-      <c r="U4" s="328"/>
-      <c r="V4" s="328"/>
-      <c r="W4" s="328"/>
-      <c r="X4" s="328"/>
-      <c r="Y4" s="322" t="s">
+      <c r="P4" s="340"/>
+      <c r="Q4" s="340"/>
+      <c r="R4" s="340"/>
+      <c r="S4" s="340"/>
+      <c r="T4" s="340"/>
+      <c r="U4" s="340"/>
+      <c r="V4" s="340"/>
+      <c r="W4" s="340"/>
+      <c r="X4" s="340"/>
+      <c r="Y4" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="328" t="s">
+      <c r="Z4" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="328"/>
-      <c r="AB4" s="328"/>
-      <c r="AC4" s="328"/>
-      <c r="AD4" s="328"/>
-      <c r="AE4" s="328" t="s">
+      <c r="AA4" s="340"/>
+      <c r="AB4" s="340"/>
+      <c r="AC4" s="340"/>
+      <c r="AD4" s="340"/>
+      <c r="AE4" s="340" t="s">
         <v>91</v>
       </c>
-      <c r="AF4" s="328"/>
-      <c r="AG4" s="328"/>
-      <c r="AH4" s="328"/>
-      <c r="AI4" s="328"/>
-      <c r="AJ4" s="328"/>
-      <c r="AK4" s="328"/>
-      <c r="AL4" s="328"/>
-      <c r="AM4" s="328"/>
-      <c r="AN4" s="328"/>
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
+      <c r="AH4" s="340"/>
+      <c r="AI4" s="340"/>
+      <c r="AJ4" s="340"/>
+      <c r="AK4" s="340"/>
+      <c r="AL4" s="340"/>
+      <c r="AM4" s="340"/>
+      <c r="AN4" s="340"/>
     </row>
     <row r="5" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="328" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="328" t="s">
+      <c r="I5" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="328" t="s">
+      <c r="K5" s="340" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="338"/>
-      <c r="M5" s="332"/>
-      <c r="N5" s="333"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="328"/>
-      <c r="Q5" s="328"/>
-      <c r="R5" s="328"/>
-      <c r="S5" s="328"/>
-      <c r="T5" s="328"/>
-      <c r="U5" s="328"/>
-      <c r="V5" s="328"/>
-      <c r="W5" s="328"/>
-      <c r="X5" s="328"/>
-      <c r="Y5" s="322"/>
-      <c r="Z5" s="328"/>
-      <c r="AA5" s="328"/>
-      <c r="AB5" s="328"/>
-      <c r="AC5" s="328"/>
-      <c r="AD5" s="328"/>
-      <c r="AE5" s="316" t="s">
+      <c r="L5" s="345"/>
+      <c r="M5" s="348"/>
+      <c r="N5" s="349"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="340"/>
+      <c r="S5" s="340"/>
+      <c r="T5" s="340"/>
+      <c r="U5" s="340"/>
+      <c r="V5" s="340"/>
+      <c r="W5" s="340"/>
+      <c r="X5" s="340"/>
+      <c r="Y5" s="331"/>
+      <c r="Z5" s="340"/>
+      <c r="AA5" s="340"/>
+      <c r="AB5" s="340"/>
+      <c r="AC5" s="340"/>
+      <c r="AD5" s="340"/>
+      <c r="AE5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="316"/>
-      <c r="AG5" s="316" t="s">
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="316"/>
-      <c r="AI5" s="316" t="s">
+      <c r="AH5" s="305"/>
+      <c r="AI5" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="316"/>
-      <c r="AK5" s="305" t="s">
+      <c r="AJ5" s="305"/>
+      <c r="AK5" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="306"/>
-      <c r="AM5" s="327" t="s">
+      <c r="AL5" s="320"/>
+      <c r="AM5" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="316"/>
+      <c r="AN5" s="305"/>
     </row>
     <row r="6" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A6" s="281"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="338"/>
-      <c r="M6" s="331"/>
-      <c r="N6" s="315"/>
-      <c r="O6" s="316" t="s">
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="340"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="347"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="316" t="s">
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="316"/>
-      <c r="S6" s="316" t="s">
+      <c r="R6" s="305"/>
+      <c r="S6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="316"/>
-      <c r="U6" s="305" t="s">
+      <c r="T6" s="305"/>
+      <c r="U6" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="306"/>
-      <c r="W6" s="327" t="s">
+      <c r="V6" s="320"/>
+      <c r="W6" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="316"/>
-      <c r="Y6" s="322"/>
-      <c r="Z6" s="281" t="s">
+      <c r="X6" s="305"/>
+      <c r="Y6" s="331"/>
+      <c r="Z6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="281" t="s">
+      <c r="AA6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="281" t="s">
+      <c r="AB6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="282" t="s">
+      <c r="AC6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="281" t="s">
+      <c r="AD6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="281" t="s">
+      <c r="AE6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="281" t="s">
+      <c r="AF6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="281" t="s">
+      <c r="AG6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="281" t="s">
+      <c r="AH6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="281" t="s">
+      <c r="AI6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="281" t="s">
+      <c r="AJ6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="281" t="s">
+      <c r="AK6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="281" t="s">
+      <c r="AL6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="281" t="s">
+      <c r="AM6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="281" t="s">
+      <c r="AN6" s="292" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="27" customHeight="1">
-      <c r="A7" s="281"/>
-      <c r="B7" s="281"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="328"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="328"/>
-      <c r="L7" s="338"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="340"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="340"/>
+      <c r="K7" s="340"/>
+      <c r="L7" s="345"/>
       <c r="M7" s="33" t="s">
         <v>13</v>
       </c>
@@ -10073,33 +10031,48 @@
       <c r="X7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="322"/>
-      <c r="Z7" s="282"/>
-      <c r="AA7" s="282"/>
-      <c r="AB7" s="282"/>
-      <c r="AC7" s="304"/>
-      <c r="AD7" s="282"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
-      <c r="AN7" s="281"/>
+      <c r="Y7" s="331"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="302"/>
+      <c r="AC7" s="339"/>
+      <c r="AD7" s="302"/>
+      <c r="AE7" s="292"/>
+      <c r="AF7" s="292"/>
+      <c r="AG7" s="292"/>
+      <c r="AH7" s="292"/>
+      <c r="AI7" s="292"/>
+      <c r="AJ7" s="292"/>
+      <c r="AK7" s="292"/>
+      <c r="AL7" s="292"/>
+      <c r="AM7" s="292"/>
+      <c r="AN7" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="O4:X5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -10116,29 +10089,14 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="M4:N6"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="O4:X5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AE5:AF5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10155,99 +10113,99 @@
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="38" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="8" max="20" width="16.7109375" style="39" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="39" customWidth="1"/>
-    <col min="22" max="23" width="16.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="16.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" style="39" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="30" max="36" width="16.7109375" style="39" customWidth="1"/>
-    <col min="37" max="37" width="16.140625" style="39" customWidth="1"/>
-    <col min="38" max="39" width="16.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="24"/>
+    <col min="2" max="2" width="35.5546875" style="38" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="8" max="20" width="16.6640625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" style="39" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="16.6640625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" style="39" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="30" max="36" width="16.6640625" style="39" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" style="39" customWidth="1"/>
+    <col min="38" max="39" width="16.6640625" style="39" hidden="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="157" customFormat="1" ht="16.5">
-      <c r="A1" s="293" t="s">
+    <row r="1" spans="1:39" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A1" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="293"/>
-      <c r="T1" s="293"/>
-      <c r="U1" s="293"/>
-      <c r="V1" s="293"/>
-      <c r="W1" s="293"/>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-    </row>
-    <row r="2" spans="1:39" s="157" customFormat="1" ht="16.5">
-      <c r="A2" s="294" t="str">
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="332"/>
+      <c r="P1" s="332"/>
+      <c r="Q1" s="332"/>
+      <c r="R1" s="332"/>
+      <c r="S1" s="332"/>
+      <c r="T1" s="332"/>
+      <c r="U1" s="332"/>
+      <c r="V1" s="332"/>
+      <c r="W1" s="332"/>
+      <c r="X1" s="332"/>
+      <c r="Y1" s="332"/>
+      <c r="Z1" s="332"/>
+      <c r="AA1" s="332"/>
+      <c r="AB1" s="332"/>
+      <c r="AC1" s="332"/>
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+    </row>
+    <row r="2" spans="1:39" s="157" customFormat="1" ht="17.399999999999999">
+      <c r="A2" s="333" t="str">
         <f>[1]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="294"/>
-      <c r="Q2" s="294"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="294"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="294"/>
-      <c r="AA2" s="294"/>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="294"/>
-      <c r="AD2" s="294"/>
-      <c r="AE2" s="294"/>
-      <c r="AF2" s="294"/>
-      <c r="AG2" s="294"/>
+      <c r="B2" s="333"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
+      <c r="Q2" s="333"/>
+      <c r="R2" s="333"/>
+      <c r="S2" s="333"/>
+      <c r="T2" s="333"/>
+      <c r="U2" s="333"/>
+      <c r="V2" s="333"/>
+      <c r="W2" s="333"/>
+      <c r="X2" s="333"/>
+      <c r="Y2" s="333"/>
+      <c r="Z2" s="333"/>
+      <c r="AA2" s="333"/>
+      <c r="AB2" s="333"/>
+      <c r="AC2" s="333"/>
+      <c r="AD2" s="333"/>
+      <c r="AE2" s="333"/>
+      <c r="AF2" s="333"/>
+      <c r="AG2" s="333"/>
     </row>
     <row r="3" spans="1:39" ht="20.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -10275,12 +10233,12 @@
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="339" t="s">
+      <c r="Z3" s="351" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="339"/>
-      <c r="AB3" s="339"/>
-      <c r="AC3" s="339"/>
+      <c r="AA3" s="351"/>
+      <c r="AB3" s="351"/>
+      <c r="AC3" s="351"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="17"/>
@@ -10293,226 +10251,226 @@
       <c r="AM3" s="17"/>
     </row>
     <row r="4" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="346" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="328" t="s">
+      <c r="D4" s="327"/>
+      <c r="E4" s="327"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="330" t="s">
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="346" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="313"/>
-      <c r="N4" s="328" t="s">
+      <c r="M4" s="328"/>
+      <c r="N4" s="340" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="328"/>
-      <c r="P4" s="328"/>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="328"/>
-      <c r="S4" s="328"/>
-      <c r="T4" s="328"/>
-      <c r="U4" s="328"/>
-      <c r="V4" s="328"/>
-      <c r="W4" s="328"/>
-      <c r="X4" s="322" t="s">
+      <c r="O4" s="340"/>
+      <c r="P4" s="340"/>
+      <c r="Q4" s="340"/>
+      <c r="R4" s="340"/>
+      <c r="S4" s="340"/>
+      <c r="T4" s="340"/>
+      <c r="U4" s="340"/>
+      <c r="V4" s="340"/>
+      <c r="W4" s="340"/>
+      <c r="X4" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="Y4" s="328" t="s">
+      <c r="Y4" s="340" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="328"/>
-      <c r="AA4" s="328"/>
-      <c r="AB4" s="328"/>
-      <c r="AC4" s="328"/>
-      <c r="AD4" s="328" t="s">
+      <c r="Z4" s="340"/>
+      <c r="AA4" s="340"/>
+      <c r="AB4" s="340"/>
+      <c r="AC4" s="340"/>
+      <c r="AD4" s="340" t="s">
         <v>91</v>
       </c>
-      <c r="AE4" s="328"/>
-      <c r="AF4" s="328"/>
-      <c r="AG4" s="328"/>
-      <c r="AH4" s="328"/>
-      <c r="AI4" s="328"/>
-      <c r="AJ4" s="328"/>
-      <c r="AK4" s="328"/>
-      <c r="AL4" s="328"/>
-      <c r="AM4" s="328"/>
+      <c r="AE4" s="340"/>
+      <c r="AF4" s="340"/>
+      <c r="AG4" s="340"/>
+      <c r="AH4" s="340"/>
+      <c r="AI4" s="340"/>
+      <c r="AJ4" s="340"/>
+      <c r="AK4" s="340"/>
+      <c r="AL4" s="340"/>
+      <c r="AM4" s="340"/>
     </row>
     <row r="5" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="328" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="328" t="s">
+      <c r="I5" s="340" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="340" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="328" t="s">
+      <c r="K5" s="340" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="332"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="328"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="328"/>
-      <c r="Q5" s="328"/>
-      <c r="R5" s="328"/>
-      <c r="S5" s="328"/>
-      <c r="T5" s="328"/>
-      <c r="U5" s="328"/>
-      <c r="V5" s="328"/>
-      <c r="W5" s="328"/>
-      <c r="X5" s="322"/>
-      <c r="Y5" s="328"/>
-      <c r="Z5" s="328"/>
-      <c r="AA5" s="328"/>
-      <c r="AB5" s="328"/>
-      <c r="AC5" s="328"/>
-      <c r="AD5" s="316" t="s">
+      <c r="L5" s="348"/>
+      <c r="M5" s="349"/>
+      <c r="N5" s="340"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="340"/>
+      <c r="S5" s="340"/>
+      <c r="T5" s="340"/>
+      <c r="U5" s="340"/>
+      <c r="V5" s="340"/>
+      <c r="W5" s="340"/>
+      <c r="X5" s="331"/>
+      <c r="Y5" s="340"/>
+      <c r="Z5" s="340"/>
+      <c r="AA5" s="340"/>
+      <c r="AB5" s="340"/>
+      <c r="AC5" s="340"/>
+      <c r="AD5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="316"/>
-      <c r="AF5" s="316" t="s">
+      <c r="AE5" s="305"/>
+      <c r="AF5" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="316"/>
-      <c r="AH5" s="316" t="s">
+      <c r="AG5" s="305"/>
+      <c r="AH5" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="316"/>
-      <c r="AJ5" s="305" t="s">
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="306"/>
-      <c r="AL5" s="327" t="s">
+      <c r="AK5" s="320"/>
+      <c r="AL5" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="316"/>
+      <c r="AM5" s="305"/>
     </row>
     <row r="6" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A6" s="281"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281" t="s">
+      <c r="A6" s="292"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="282" t="s">
+      <c r="F6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="328"/>
-      <c r="L6" s="331"/>
-      <c r="M6" s="315"/>
-      <c r="N6" s="316" t="s">
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="340"/>
+      <c r="L6" s="347"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="316"/>
-      <c r="P6" s="316" t="s">
+      <c r="O6" s="305"/>
+      <c r="P6" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="316"/>
-      <c r="R6" s="316" t="s">
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="316"/>
-      <c r="T6" s="305" t="s">
+      <c r="S6" s="305"/>
+      <c r="T6" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="306"/>
-      <c r="V6" s="327" t="s">
+      <c r="U6" s="320"/>
+      <c r="V6" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="316"/>
-      <c r="X6" s="322"/>
-      <c r="Y6" s="281" t="s">
+      <c r="W6" s="305"/>
+      <c r="X6" s="331"/>
+      <c r="Y6" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="281" t="s">
+      <c r="Z6" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="281" t="s">
+      <c r="AA6" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="282" t="s">
+      <c r="AB6" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="281" t="s">
+      <c r="AC6" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="281" t="s">
+      <c r="AD6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="281" t="s">
+      <c r="AE6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="281" t="s">
+      <c r="AF6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="281" t="s">
+      <c r="AG6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="281" t="s">
+      <c r="AH6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="281" t="s">
+      <c r="AI6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="281" t="s">
+      <c r="AJ6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="281" t="s">
+      <c r="AK6" s="292" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="281" t="s">
+      <c r="AL6" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="281" t="s">
+      <c r="AM6" s="292" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A7" s="281"/>
-      <c r="B7" s="281"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="328"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="328"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="339"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="340"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="340"/>
+      <c r="K7" s="340"/>
       <c r="L7" s="33" t="s">
         <v>13</v>
       </c>
@@ -10549,25 +10507,55 @@
       <c r="W7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="322"/>
-      <c r="Y7" s="282"/>
-      <c r="Z7" s="282"/>
-      <c r="AA7" s="282"/>
-      <c r="AB7" s="304"/>
-      <c r="AC7" s="282"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="281"/>
-      <c r="AJ7" s="281"/>
-      <c r="AK7" s="281"/>
-      <c r="AL7" s="281"/>
-      <c r="AM7" s="281"/>
+      <c r="X7" s="331"/>
+      <c r="Y7" s="302"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="339"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="292"/>
+      <c r="AE7" s="292"/>
+      <c r="AF7" s="292"/>
+      <c r="AG7" s="292"/>
+      <c r="AH7" s="292"/>
+      <c r="AI7" s="292"/>
+      <c r="AJ7" s="292"/>
+      <c r="AK7" s="292"/>
+      <c r="AL7" s="292"/>
+      <c r="AM7" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Y4:AC5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AD4:AM4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -10582,38 +10570,8 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="AD4:AM4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Y4:AC5"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AC6:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10630,345 +10588,345 @@
       <selection pane="bottomRight" activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="39"/>
-    <col min="9" max="9" width="14.28515625" style="39" customWidth="1"/>
-    <col min="10" max="23" width="16.7109375" style="39" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="39"/>
+    <col min="9" max="9" width="14.33203125" style="39" customWidth="1"/>
+    <col min="10" max="23" width="16.6640625" style="39" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="352" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
-      <c r="R1" s="343"/>
-      <c r="S1" s="343"/>
-      <c r="T1" s="343"/>
-      <c r="U1" s="343"/>
-      <c r="V1" s="343"/>
-      <c r="W1" s="343"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
+      <c r="P1" s="352"/>
+      <c r="Q1" s="352"/>
+      <c r="R1" s="352"/>
+      <c r="S1" s="352"/>
+      <c r="T1" s="352"/>
+      <c r="U1" s="352"/>
+      <c r="V1" s="352"/>
+      <c r="W1" s="352"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="353" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="344"/>
-      <c r="R2" s="344"/>
-      <c r="S2" s="344"/>
-      <c r="T2" s="344"/>
-      <c r="U2" s="344"/>
-      <c r="V2" s="344"/>
-      <c r="W2" s="344"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="353"/>
+      <c r="Q2" s="353"/>
+      <c r="R2" s="353"/>
+      <c r="S2" s="353"/>
+      <c r="T2" s="353"/>
+      <c r="U2" s="353"/>
+      <c r="V2" s="353"/>
+      <c r="W2" s="353"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="354" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="345"/>
-      <c r="T3" s="345"/>
-      <c r="U3" s="345"/>
-      <c r="V3" s="345"/>
-      <c r="W3" s="345"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="354"/>
+      <c r="L3" s="354"/>
+      <c r="M3" s="354"/>
+      <c r="N3" s="354"/>
+      <c r="O3" s="354"/>
+      <c r="P3" s="354"/>
+      <c r="Q3" s="354"/>
+      <c r="R3" s="354"/>
+      <c r="S3" s="354"/>
+      <c r="T3" s="354"/>
+      <c r="U3" s="354"/>
+      <c r="V3" s="354"/>
+      <c r="W3" s="354"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="346" t="str">
+      <c r="A4" s="355" t="str">
         <f>[2]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="346"/>
-      <c r="R4" s="346"/>
-      <c r="S4" s="346"/>
-      <c r="T4" s="346"/>
-      <c r="U4" s="346"/>
-      <c r="V4" s="346"/>
-      <c r="W4" s="346"/>
+      <c r="B4" s="355"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
+      <c r="G4" s="355"/>
+      <c r="H4" s="355"/>
+      <c r="I4" s="355"/>
+      <c r="J4" s="355"/>
+      <c r="K4" s="355"/>
+      <c r="L4" s="355"/>
+      <c r="M4" s="355"/>
+      <c r="N4" s="355"/>
+      <c r="O4" s="355"/>
+      <c r="P4" s="355"/>
+      <c r="Q4" s="355"/>
+      <c r="R4" s="355"/>
+      <c r="S4" s="355"/>
+      <c r="T4" s="355"/>
+      <c r="U4" s="355"/>
+      <c r="V4" s="355"/>
+      <c r="W4" s="355"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="346" t="s">
+      <c r="A5" s="355" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
-      <c r="I5" s="346"/>
-      <c r="J5" s="346"/>
-      <c r="K5" s="346"/>
-      <c r="L5" s="346"/>
-      <c r="M5" s="346"/>
-      <c r="N5" s="346"/>
-      <c r="O5" s="346"/>
-      <c r="P5" s="346"/>
-      <c r="Q5" s="346"/>
-      <c r="R5" s="346"/>
-      <c r="S5" s="346"/>
-      <c r="T5" s="346"/>
-      <c r="U5" s="346"/>
-      <c r="V5" s="346"/>
-      <c r="W5" s="346"/>
+      <c r="B5" s="355"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="355"/>
+      <c r="I5" s="355"/>
+      <c r="J5" s="355"/>
+      <c r="K5" s="355"/>
+      <c r="L5" s="355"/>
+      <c r="M5" s="355"/>
+      <c r="N5" s="355"/>
+      <c r="O5" s="355"/>
+      <c r="P5" s="355"/>
+      <c r="Q5" s="355"/>
+      <c r="R5" s="355"/>
+      <c r="S5" s="355"/>
+      <c r="T5" s="355"/>
+      <c r="U5" s="355"/>
+      <c r="V5" s="355"/>
+      <c r="W5" s="355"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="A6" s="347" t="s">
+      <c r="A6" s="356" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="356" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="347" t="s">
+      <c r="C6" s="356" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="347" t="s">
+      <c r="D6" s="356" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="281" t="s">
+      <c r="F6" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="292" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="281" t="s">
+      <c r="H6" s="292" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="281" t="s">
+      <c r="I6" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="350" t="s">
+      <c r="J6" s="359" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="350"/>
-      <c r="L6" s="311" t="s">
+      <c r="K6" s="359"/>
+      <c r="L6" s="310" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="311"/>
-      <c r="N6" s="311"/>
-      <c r="O6" s="311"/>
-      <c r="P6" s="311" t="s">
+      <c r="M6" s="310"/>
+      <c r="N6" s="310"/>
+      <c r="O6" s="310"/>
+      <c r="P6" s="310" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="311" t="s">
+      <c r="Q6" s="310"/>
+      <c r="R6" s="310" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="311"/>
-      <c r="T6" s="311" t="s">
+      <c r="S6" s="310"/>
+      <c r="T6" s="310" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="311"/>
-      <c r="V6" s="311" t="s">
+      <c r="U6" s="310"/>
+      <c r="V6" s="310" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="311"/>
+      <c r="W6" s="310"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="A7" s="347"/>
-      <c r="B7" s="347"/>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="311"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="311"/>
-      <c r="Q7" s="311"/>
-      <c r="R7" s="311"/>
-      <c r="S7" s="311"/>
-      <c r="T7" s="311"/>
-      <c r="U7" s="311"/>
-      <c r="V7" s="311"/>
-      <c r="W7" s="311"/>
+      <c r="A7" s="356"/>
+      <c r="B7" s="356"/>
+      <c r="C7" s="356"/>
+      <c r="D7" s="356"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="359"/>
+      <c r="K7" s="359"/>
+      <c r="L7" s="310"/>
+      <c r="M7" s="310"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="310"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="310"/>
+      <c r="S7" s="310"/>
+      <c r="T7" s="310"/>
+      <c r="U7" s="310"/>
+      <c r="V7" s="310"/>
+      <c r="W7" s="310"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="A8" s="347"/>
-      <c r="B8" s="347"/>
-      <c r="C8" s="347"/>
-      <c r="D8" s="347"/>
-      <c r="E8" s="281"/>
-      <c r="F8" s="281"/>
-      <c r="G8" s="281"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="342" t="s">
+      <c r="A8" s="356"/>
+      <c r="B8" s="356"/>
+      <c r="C8" s="356"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="348" t="s">
+      <c r="K8" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="311" t="s">
+      <c r="L8" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="311" t="s">
+      <c r="M8" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="311" t="s">
+      <c r="N8" s="310" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="311" t="s">
+      <c r="O8" s="310" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="342" t="s">
+      <c r="P8" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="342" t="s">
+      <c r="Q8" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="342" t="s">
+      <c r="R8" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="342" t="s">
+      <c r="S8" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="342" t="s">
+      <c r="T8" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="342" t="s">
+      <c r="U8" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="349" t="s">
+      <c r="V8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="322" t="s">
+      <c r="W8" s="331" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1">
-      <c r="A9" s="347"/>
-      <c r="B9" s="347"/>
-      <c r="C9" s="347"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="342"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-      <c r="N9" s="311"/>
-      <c r="O9" s="311"/>
-      <c r="P9" s="342"/>
-      <c r="Q9" s="342"/>
-      <c r="R9" s="342"/>
-      <c r="S9" s="342"/>
-      <c r="T9" s="342"/>
-      <c r="U9" s="342"/>
-      <c r="V9" s="349"/>
-      <c r="W9" s="322"/>
+      <c r="A9" s="356"/>
+      <c r="B9" s="356"/>
+      <c r="C9" s="356"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="358"/>
+      <c r="L9" s="310"/>
+      <c r="M9" s="310"/>
+      <c r="N9" s="310"/>
+      <c r="O9" s="310"/>
+      <c r="P9" s="357"/>
+      <c r="Q9" s="357"/>
+      <c r="R9" s="357"/>
+      <c r="S9" s="357"/>
+      <c r="T9" s="357"/>
+      <c r="U9" s="357"/>
+      <c r="V9" s="362"/>
+      <c r="W9" s="331"/>
     </row>
     <row r="305" spans="1:41" s="167" customFormat="1" ht="24" customHeight="1">
-      <c r="A305" s="340" t="s">
+      <c r="A305" s="360" t="s">
         <v>183</v>
       </c>
-      <c r="B305" s="340"/>
-      <c r="C305" s="340"/>
-      <c r="D305" s="340"/>
-      <c r="E305" s="341" t="s">
+      <c r="B305" s="360"/>
+      <c r="C305" s="360"/>
+      <c r="D305" s="360"/>
+      <c r="E305" s="361" t="s">
         <v>149</v>
       </c>
-      <c r="F305" s="341"/>
-      <c r="G305" s="341"/>
-      <c r="H305" s="341"/>
-      <c r="I305" s="341"/>
-      <c r="J305" s="341"/>
-      <c r="K305" s="341"/>
-      <c r="L305" s="341"/>
-      <c r="M305" s="341"/>
-      <c r="N305" s="341"/>
-      <c r="O305" s="341"/>
-      <c r="P305" s="341"/>
-      <c r="Q305" s="341"/>
-      <c r="R305" s="341"/>
-      <c r="S305" s="341"/>
-      <c r="T305" s="341"/>
-      <c r="U305" s="341"/>
-      <c r="V305" s="341"/>
-      <c r="W305" s="341"/>
-      <c r="X305" s="341"/>
-      <c r="Y305" s="341"/>
+      <c r="F305" s="361"/>
+      <c r="G305" s="361"/>
+      <c r="H305" s="361"/>
+      <c r="I305" s="361"/>
+      <c r="J305" s="361"/>
+      <c r="K305" s="361"/>
+      <c r="L305" s="361"/>
+      <c r="M305" s="361"/>
+      <c r="N305" s="361"/>
+      <c r="O305" s="361"/>
+      <c r="P305" s="361"/>
+      <c r="Q305" s="361"/>
+      <c r="R305" s="361"/>
+      <c r="S305" s="361"/>
+      <c r="T305" s="361"/>
+      <c r="U305" s="361"/>
+      <c r="V305" s="361"/>
+      <c r="W305" s="361"/>
+      <c r="X305" s="361"/>
+      <c r="Y305" s="361"/>
       <c r="Z305" s="161"/>
       <c r="AA305" s="162"/>
       <c r="AB305" s="162"/>
@@ -10986,33 +10944,33 @@
       <c r="AN305" s="166"/>
       <c r="AO305" s="166"/>
     </row>
-    <row r="306" spans="1:41" s="167" customFormat="1" ht="16.5">
+    <row r="306" spans="1:41" s="167" customFormat="1" ht="16.8">
       <c r="A306" s="168"/>
       <c r="B306" s="168"/>
       <c r="C306" s="169"/>
-      <c r="E306" s="341" t="s">
+      <c r="E306" s="361" t="s">
         <v>150</v>
       </c>
-      <c r="F306" s="341"/>
-      <c r="G306" s="341"/>
-      <c r="H306" s="341"/>
-      <c r="I306" s="341"/>
-      <c r="J306" s="341"/>
-      <c r="K306" s="341"/>
-      <c r="L306" s="341"/>
-      <c r="M306" s="341"/>
-      <c r="N306" s="341"/>
-      <c r="O306" s="341"/>
-      <c r="P306" s="341"/>
-      <c r="Q306" s="341"/>
-      <c r="R306" s="341"/>
-      <c r="S306" s="341"/>
-      <c r="T306" s="341"/>
-      <c r="U306" s="341"/>
-      <c r="V306" s="341"/>
-      <c r="W306" s="341"/>
-      <c r="X306" s="341"/>
-      <c r="Y306" s="341"/>
+      <c r="F306" s="361"/>
+      <c r="G306" s="361"/>
+      <c r="H306" s="361"/>
+      <c r="I306" s="361"/>
+      <c r="J306" s="361"/>
+      <c r="K306" s="361"/>
+      <c r="L306" s="361"/>
+      <c r="M306" s="361"/>
+      <c r="N306" s="361"/>
+      <c r="O306" s="361"/>
+      <c r="P306" s="361"/>
+      <c r="Q306" s="361"/>
+      <c r="R306" s="361"/>
+      <c r="S306" s="361"/>
+      <c r="T306" s="361"/>
+      <c r="U306" s="361"/>
+      <c r="V306" s="361"/>
+      <c r="W306" s="361"/>
+      <c r="X306" s="361"/>
+      <c r="Y306" s="361"/>
       <c r="Z306" s="161"/>
       <c r="AA306" s="162"/>
       <c r="AB306" s="162"/>
@@ -11030,7 +10988,7 @@
       <c r="AN306" s="166"/>
       <c r="AO306" s="166"/>
     </row>
-    <row r="307" spans="1:41" s="167" customFormat="1" ht="16.5">
+    <row r="307" spans="1:41" s="167" customFormat="1" ht="16.8">
       <c r="A307" s="168"/>
       <c r="B307" s="168"/>
       <c r="C307" s="168"/>
@@ -11072,7 +11030,7 @@
       <c r="AN307" s="166"/>
       <c r="AO307" s="166"/>
     </row>
-    <row r="308" spans="1:41" s="167" customFormat="1" ht="16.5">
+    <row r="308" spans="1:41" s="167" customFormat="1" ht="16.8">
       <c r="A308" s="168"/>
       <c r="B308" s="168"/>
       <c r="C308" s="168"/>
@@ -11114,7 +11072,7 @@
       <c r="AN308" s="166"/>
       <c r="AO308" s="166"/>
     </row>
-    <row r="309" spans="1:41" s="167" customFormat="1" ht="16.5">
+    <row r="309" spans="1:41" s="167" customFormat="1" ht="16.8">
       <c r="A309" s="168"/>
       <c r="B309" s="168"/>
       <c r="C309" s="168"/>
@@ -11156,7 +11114,7 @@
       <c r="AN309" s="166"/>
       <c r="AO309" s="166"/>
     </row>
-    <row r="310" spans="1:41" s="167" customFormat="1" ht="16.5">
+    <row r="310" spans="1:41" s="167" customFormat="1" ht="16.8">
       <c r="A310" s="168"/>
       <c r="B310" s="168"/>
       <c r="C310" s="168"/>
@@ -11202,29 +11160,29 @@
       <c r="A311" s="168"/>
       <c r="B311" s="168"/>
       <c r="C311" s="168"/>
-      <c r="E311" s="341" t="s">
+      <c r="E311" s="361" t="s">
         <v>184</v>
       </c>
-      <c r="F311" s="341"/>
-      <c r="G311" s="341"/>
-      <c r="H311" s="341"/>
-      <c r="I311" s="341"/>
-      <c r="J311" s="341"/>
-      <c r="K311" s="341"/>
-      <c r="L311" s="341"/>
-      <c r="M311" s="341"/>
-      <c r="N311" s="341"/>
-      <c r="O311" s="341"/>
-      <c r="P311" s="341"/>
-      <c r="Q311" s="341"/>
-      <c r="R311" s="341"/>
-      <c r="S311" s="341"/>
-      <c r="T311" s="341"/>
-      <c r="U311" s="341"/>
-      <c r="V311" s="341"/>
-      <c r="W311" s="341"/>
-      <c r="X311" s="341"/>
-      <c r="Y311" s="341"/>
+      <c r="F311" s="361"/>
+      <c r="G311" s="361"/>
+      <c r="H311" s="361"/>
+      <c r="I311" s="361"/>
+      <c r="J311" s="361"/>
+      <c r="K311" s="361"/>
+      <c r="L311" s="361"/>
+      <c r="M311" s="361"/>
+      <c r="N311" s="361"/>
+      <c r="O311" s="361"/>
+      <c r="P311" s="361"/>
+      <c r="Q311" s="361"/>
+      <c r="R311" s="361"/>
+      <c r="S311" s="361"/>
+      <c r="T311" s="361"/>
+      <c r="U311" s="361"/>
+      <c r="V311" s="361"/>
+      <c r="W311" s="361"/>
+      <c r="X311" s="361"/>
+      <c r="Y311" s="361"/>
       <c r="Z311" s="161"/>
       <c r="AA311" s="162"/>
       <c r="AB311" s="162"/>
@@ -11244,6 +11202,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="E305:Y305"/>
+    <mergeCell ref="E306:Y306"/>
+    <mergeCell ref="E311:Y311"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:O7"/>
     <mergeCell ref="R6:S7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:W1"/>
@@ -11260,28 +11240,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:O7"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="E305:Y305"/>
-    <mergeCell ref="E306:Y306"/>
-    <mergeCell ref="E311:Y311"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11295,59 +11253,59 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="24" customWidth="1"/>
     <col min="4" max="4" width="14" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="24"/>
-    <col min="13" max="14" width="17.28515625" style="24" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="24"/>
+    <col min="8" max="8" width="17.5546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="24"/>
+    <col min="13" max="14" width="17.33203125" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="368" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="369" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="354"/>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354"/>
-      <c r="K2" s="354"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="354"/>
-      <c r="N2" s="354"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
+      <c r="J2" s="369"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="41"/>
@@ -11366,59 +11324,59 @@
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="355" t="s">
+      <c r="A4" s="370" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="355"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355"/>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
+      <c r="D4" s="370"/>
+      <c r="E4" s="370"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+      <c r="J4" s="370"/>
+      <c r="K4" s="370"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="370"/>
+      <c r="N4" s="370"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="356" t="str">
+      <c r="A5" s="371" t="str">
         <f>[2]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B5" s="356"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="356"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
+      <c r="J5" s="371"/>
+      <c r="K5" s="371"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="371"/>
+      <c r="N5" s="371"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="356" t="s">
+      <c r="A6" s="371" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="356"/>
-      <c r="C6" s="356"/>
-      <c r="D6" s="356"/>
-      <c r="E6" s="356"/>
-      <c r="F6" s="356"/>
-      <c r="G6" s="356"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="356"/>
-      <c r="J6" s="356"/>
-      <c r="K6" s="356"/>
-      <c r="L6" s="356"/>
-      <c r="M6" s="356"/>
-      <c r="N6" s="356"/>
+      <c r="B6" s="371"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="371"/>
+      <c r="K6" s="371"/>
+      <c r="L6" s="371"/>
+      <c r="M6" s="371"/>
+      <c r="N6" s="371"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="50"/>
@@ -11437,117 +11395,105 @@
       <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="363" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="363" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="358" t="s">
+      <c r="C8" s="364" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="357" t="s">
+      <c r="D8" s="363" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="281"/>
-      <c r="G8" s="281" t="s">
+      <c r="F8" s="292"/>
+      <c r="G8" s="292" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="281"/>
-      <c r="I8" s="281"/>
-      <c r="J8" s="281"/>
-      <c r="K8" s="281" t="s">
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="281" t="s">
+      <c r="L8" s="292" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="351" t="s">
+      <c r="M8" s="372" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="351"/>
+      <c r="N8" s="372"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="357"/>
-      <c r="B9" s="357"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="357"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="281"/>
-      <c r="L9" s="281"/>
-      <c r="M9" s="351"/>
-      <c r="N9" s="351"/>
+      <c r="A9" s="363"/>
+      <c r="B9" s="363"/>
+      <c r="C9" s="365"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
+      <c r="M9" s="372"/>
+      <c r="N9" s="372"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="357"/>
-      <c r="B10" s="357"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="357"/>
-      <c r="E10" s="361" t="s">
+      <c r="A10" s="363"/>
+      <c r="B10" s="363"/>
+      <c r="C10" s="365"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="367" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="361" t="s">
+      <c r="F10" s="367" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="281" t="s">
+      <c r="G10" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="281" t="s">
+      <c r="H10" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="281" t="s">
+      <c r="I10" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="281" t="s">
+      <c r="J10" s="292" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="281"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="352" t="s">
+      <c r="K10" s="292"/>
+      <c r="L10" s="292"/>
+      <c r="M10" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="352" t="s">
+      <c r="N10" s="373" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="357"/>
-      <c r="B11" s="357"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="357"/>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="352"/>
-      <c r="N11" s="352"/>
+      <c r="A11" s="363"/>
+      <c r="B11" s="363"/>
+      <c r="C11" s="366"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="367"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="292"/>
+      <c r="I11" s="292"/>
+      <c r="J11" s="292"/>
+      <c r="K11" s="292"/>
+      <c r="L11" s="292"/>
+      <c r="M11" s="373"/>
+      <c r="N11" s="373"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -11558,6 +11504,18 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11574,87 +11532,87 @@
       <selection pane="bottomRight" activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="362" t="s">
+      <c r="A1" s="374" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="363" t="s">
+      <c r="A2" s="375" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="363"/>
-      <c r="F2" s="363"/>
-      <c r="G2" s="363"/>
+      <c r="B2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="364" t="str">
+      <c r="A3" s="376" t="str">
         <f>[2]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A4" s="365" t="s">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A4" s="377" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="365"/>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1"/>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="38.450000000000003" customHeight="1">
-      <c r="A6" s="367" t="s">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A6" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="367" t="s">
+      <c r="B6" s="379" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="366" t="s">
+      <c r="C6" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A7" s="367"/>
-      <c r="B7" s="367"/>
+      <c r="A7" s="379"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -11673,8 +11631,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="367"/>
-      <c r="B8" s="367"/>
+      <c r="A8" s="379"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="10" t="s">
         <v>42</v>
       </c>
@@ -11711,79 +11669,79 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A1" s="362" t="s">
+    <row r="1" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A1" s="374" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-    </row>
-    <row r="2" spans="1:7" ht="40.15" customHeight="1">
-      <c r="A2" s="363" t="s">
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.200000000000003" customHeight="1">
+      <c r="A2" s="375" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="363"/>
-      <c r="F2" s="363"/>
-      <c r="G2" s="363"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A3" s="364" t="str">
+      <c r="B2" s="375"/>
+      <c r="C2" s="375"/>
+      <c r="D2" s="375"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="375"/>
+      <c r="G2" s="375"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A3" s="376" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A4" s="368" t="s">
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A4" s="380" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="368"/>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="368"/>
-      <c r="F4" s="368"/>
-      <c r="G4" s="368"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A5" s="369" t="s">
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A5" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="369" t="s">
+      <c r="B5" s="381" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="370" t="s">
+      <c r="C5" s="382" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="370"/>
-      <c r="E5" s="370"/>
-      <c r="F5" s="370"/>
-      <c r="G5" s="370"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="382"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="369"/>
-      <c r="B6" s="369"/>
+      <c r="A6" s="381"/>
+      <c r="B6" s="381"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -11800,9 +11758,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A7" s="369"/>
-      <c r="B7" s="369"/>
+    <row r="7" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A7" s="381"/>
+      <c r="B7" s="381"/>
       <c r="C7" s="13" t="s">
         <v>42</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\New folder (2)\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49746830-B6B6-4408-8E85-8004BB461E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760DBD6-0D2A-4B83-BA21-D978A20C19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="659" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" tabRatio="659" activeTab="7" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="184">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Giá niêm yết</t>
   </si>
   <si>
-    <t>Giá bán lẻ trên vùng tăng không vượt quá mức 2% V1</t>
-  </si>
-  <si>
     <t>GIÁ BÁN LẺ             
 (Bằng giá bán lẻ vùng 2 TĐ công bố)</t>
   </si>
@@ -634,24 +631,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="18">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#\ ##0_);\(#\ ##0\)"/>
-    <numFmt numFmtId="168" formatCode="#\ ##0_);\(#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="0.00_)"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="\+0;\-0;0"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="179" formatCode="[$-1000000]h:mm:ss;@"/>
-    <numFmt numFmtId="180" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="#\ ##0"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0_);\(#\ ##0\)"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0_);\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£ &quot;* #,##0_-;\-&quot;£ &quot;* #,##0_-;_-&quot;£ &quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.00_)"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-1000000]h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="70">
     <font>
@@ -1067,7 +1064,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1149,12 +1146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,15 +1419,15 @@
   </borders>
   <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1497,14 +1488,14 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="15" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1518,9 +1509,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="27" fillId="14" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -1580,15 +1571,15 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1657,14 +1648,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1716,7 +1707,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1724,21 +1715,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="43" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1752,14 +1743,14 @@
     <xf numFmtId="49" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1767,11 +1758,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
@@ -1781,21 +1772,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="52" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1810,23 +1801,23 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1834,38 +1825,38 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="57" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1873,7 +1864,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1888,18 +1879,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="51" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="51" fillId="2" borderId="0" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="51" fillId="2" borderId="0" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1907,34 +1898,34 @@
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="55" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="177" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1945,31 +1936,31 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="50" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1983,13 +1974,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2004,16 +1995,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="61" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="51" fillId="2" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2027,13 +2018,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="66" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2051,28 +2042,29 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="66" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="66" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="175" fontId="59" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="59" fillId="15" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="59" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,28 +2073,28 @@
     <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,11 +2142,11 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2167,17 +2159,17 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2186,49 +2178,46 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="15" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2244,63 +2233,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="56" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2336,27 +2325,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2381,99 +2370,91 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2512,85 +2493,76 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2599,20 +2571,29 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2668,15 +2649,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="37" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2685,7 +2666,7 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2716,10 +2697,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2770,7 +2751,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
@@ -3412,33 +3392,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
   <dimension ref="A1:AD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="52" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5:V5"/>
+    <sheetView topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="18" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="18" width="13.5703125" customWidth="1"/>
     <col min="21" max="21" width="37" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" customWidth="1"/>
-    <col min="24" max="24" width="21.33203125" customWidth="1"/>
-    <col min="25" max="25" width="12.44140625" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24.75" customHeight="1">
@@ -3472,13 +3452,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="54"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
@@ -3501,29 +3481,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="54"/>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190"/>
-      <c r="E3" s="194" t="s">
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="194" t="s">
+      <c r="F3" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="194" t="s">
+      <c r="G3" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="196" t="s">
+      <c r="H3" s="197" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="197"/>
-      <c r="J3" s="198" t="s">
+      <c r="I3" s="198"/>
+      <c r="J3" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="199"/>
-      <c r="L3" s="194" t="s">
+      <c r="K3" s="200"/>
+      <c r="L3" s="195" t="s">
         <v>115</v>
       </c>
       <c r="M3" s="54"/>
@@ -3535,13 +3515,13 @@
       <c r="S3" s="102"/>
       <c r="T3" s="68"/>
       <c r="U3" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="V3" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="178" t="s">
+      <c r="W3" s="104" t="s">
         <v>153</v>
-      </c>
-      <c r="W3" s="104" t="s">
-        <v>154</v>
       </c>
       <c r="X3" s="71"/>
       <c r="Y3" s="69"/>
@@ -3550,21 +3530,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="54"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="55" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="200"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="195"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="196"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
@@ -3576,7 +3556,7 @@
       <c r="U4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="179"/>
+      <c r="V4" s="180"/>
       <c r="W4" s="104" t="s">
         <v>105</v>
       </c>
@@ -3587,19 +3567,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="54"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="57"/>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="205" t="s">
-        <v>118</v>
-      </c>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="206"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
@@ -3608,10 +3586,10 @@
       <c r="R5" s="54"/>
       <c r="S5" s="67"/>
       <c r="T5" s="74"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="176"/>
       <c r="W5" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X5" s="75"/>
       <c r="Y5" s="64"/>
@@ -3620,17 +3598,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="54"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="57"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="206"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="207"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -3649,17 +3627,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="57"/>
       <c r="H7" s="58"/>
       <c r="I7" s="58"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="206"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="207"/>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="54"/>
@@ -3678,17 +3656,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="57"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="207"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="208"/>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
       <c r="O8" s="54"/>
@@ -3726,23 +3704,23 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="151"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
       <c r="Y9" s="64"/>
       <c r="Z9" s="64"/>
       <c r="AA9" s="64"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
@@ -3755,29 +3733,29 @@
       <c r="R10" s="54"/>
       <c r="S10" s="54"/>
       <c r="T10" s="151"/>
-      <c r="U10" s="184" t="s">
+      <c r="U10" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="W10" s="181"/>
-      <c r="X10" s="182"/>
+      <c r="V10" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="W10" s="182"/>
+      <c r="X10" s="183"/>
       <c r="Y10" s="106"/>
       <c r="Z10" s="106"/>
       <c r="AA10" s="106"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="54"/>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="213"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="214"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
@@ -3792,15 +3770,15 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
       <c r="T11" s="151"/>
-      <c r="U11" s="185"/>
+      <c r="U11" s="186"/>
       <c r="V11" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="W11" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="82" t="s">
-        <v>167</v>
-      </c>
       <c r="X11" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y11" s="142"/>
       <c r="Z11" s="142"/>
@@ -3808,11 +3786,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
@@ -3828,7 +3806,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="152"/>
       <c r="U12" s="145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
@@ -3839,11 +3817,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
@@ -3868,11 +3846,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
@@ -3897,11 +3875,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="209"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -3956,7 +3934,7 @@
     <row r="17" spans="1:27" ht="28.5" customHeight="1">
       <c r="A17" s="54"/>
       <c r="B17" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
@@ -3977,7 +3955,7 @@
       <c r="S17" s="54"/>
       <c r="T17" s="112"/>
       <c r="U17" s="148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V17" s="149"/>
       <c r="W17" s="149"/>
@@ -3989,7 +3967,7 @@
     <row r="18" spans="1:27" ht="28.5" customHeight="1">
       <c r="A18" s="54"/>
       <c r="B18" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="54"/>
@@ -4020,7 +3998,7 @@
     <row r="19" spans="1:27" ht="28.5" customHeight="1">
       <c r="A19" s="63"/>
       <c r="B19" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -4051,7 +4029,7 @@
     <row r="20" spans="1:27" ht="28.5" customHeight="1">
       <c r="A20" s="63"/>
       <c r="B20" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
@@ -4187,10 +4165,10 @@
       <c r="R24" s="65"/>
       <c r="S24" s="65"/>
       <c r="T24" s="112"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="177"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
       <c r="Y24" s="117"/>
       <c r="Z24" s="117"/>
       <c r="AA24" s="118"/>
@@ -4216,14 +4194,14 @@
       <c r="R25" s="65"/>
       <c r="S25" s="65"/>
       <c r="T25" s="65"/>
-      <c r="U25" s="183" t="s">
+      <c r="U25" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="183" t="s">
-        <v>171</v>
-      </c>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
+      <c r="V25" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="W25" s="184"/>
+      <c r="X25" s="184"/>
       <c r="Y25" s="69"/>
       <c r="Z25" s="69"/>
       <c r="AA25" s="69"/>
@@ -4249,15 +4227,15 @@
       <c r="R26" s="65"/>
       <c r="S26" s="65"/>
       <c r="T26" s="96"/>
-      <c r="U26" s="183"/>
+      <c r="U26" s="184"/>
       <c r="V26" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="W26" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="W26" s="82" t="s">
-        <v>173</v>
-      </c>
       <c r="X26" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y26" s="97"/>
       <c r="Z26" s="97"/>
@@ -4399,12 +4377,12 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
       <c r="S31" s="65"/>
-      <c r="T31" s="390"/>
-      <c r="U31" s="390"/>
-      <c r="V31" s="390"/>
-      <c r="W31" s="390"/>
-      <c r="X31" s="390"/>
-      <c r="Y31" s="390"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
       <c r="AA31" s="64"/>
     </row>
     <row r="32" spans="1:27" ht="24.75" customHeight="1">
@@ -4437,26 +4415,26 @@
       <c r="AA32" s="64"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="209" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
+      <c r="A33" s="210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
       <c r="E33" s="67"/>
       <c r="F33" s="68"/>
       <c r="G33" s="68"/>
       <c r="H33" s="68"/>
       <c r="I33" s="67"/>
-      <c r="J33" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
-      <c r="M33" s="210"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
+      <c r="J33" s="211" t="s">
+        <v>124</v>
+      </c>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="211"/>
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
       <c r="S33" s="65"/>
@@ -4471,7 +4449,7 @@
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
       <c r="A34" s="224" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="224"/>
       <c r="C34" s="224"/>
@@ -4482,7 +4460,7 @@
       <c r="H34" s="70"/>
       <c r="I34" s="67"/>
       <c r="J34" s="225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="225"/>
       <c r="L34" s="225"/>
@@ -4533,7 +4511,7 @@
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
       <c r="A36" s="226" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="226"/>
       <c r="C36" s="226"/>
@@ -4625,30 +4603,30 @@
         <v>2</v>
       </c>
       <c r="B39" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="228" t="s">
+      <c r="D39" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="231" t="s">
+      <c r="E39" s="234" t="s">
         <v>131</v>
-      </c>
-      <c r="E39" s="234" t="s">
-        <v>132</v>
       </c>
       <c r="F39" s="235"/>
       <c r="G39" s="236"/>
       <c r="H39" s="231" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="234" t="s">
         <v>133</v>
-      </c>
-      <c r="I39" s="234" t="s">
-        <v>134</v>
       </c>
       <c r="J39" s="235"/>
       <c r="K39" s="235"/>
       <c r="L39" s="236"/>
       <c r="M39" s="234" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N39" s="235"/>
       <c r="O39" s="235"/>
@@ -4657,7 +4635,7 @@
       <c r="R39" s="80"/>
       <c r="S39" s="80"/>
       <c r="T39" s="80"/>
-      <c r="U39" s="214" t="s">
+      <c r="U39" s="215" t="s">
         <v>57</v>
       </c>
       <c r="V39" s="215"/>
@@ -4688,7 +4666,7 @@
       <c r="R40" s="80"/>
       <c r="S40" s="80"/>
       <c r="T40" s="80"/>
-      <c r="U40" s="214"/>
+      <c r="U40" s="215"/>
       <c r="V40" s="215"/>
       <c r="W40" s="215"/>
       <c r="X40" s="215"/>
@@ -4702,53 +4680,53 @@
       <c r="C41" s="230"/>
       <c r="D41" s="233"/>
       <c r="E41" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="G41" s="81" t="s">
         <v>137</v>
-      </c>
-      <c r="G41" s="81" t="s">
-        <v>138</v>
       </c>
       <c r="H41" s="233"/>
       <c r="I41" s="222" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J41" s="223"/>
       <c r="K41" s="222" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" s="223"/>
       <c r="M41" s="222" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="223"/>
       <c r="O41" s="222" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P41" s="223"/>
       <c r="Q41" s="80"/>
       <c r="R41" s="80"/>
       <c r="S41" s="80"/>
       <c r="T41" s="80"/>
-      <c r="U41" s="214"/>
+      <c r="U41" s="215"/>
       <c r="V41" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="W41" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="W41" s="82" t="s">
+      <c r="X41" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="X41" s="82" t="s">
-        <v>144</v>
-      </c>
       <c r="Y41" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z41" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="Z41" s="82" t="s">
+      <c r="AA41" s="82" t="s">
         <v>143</v>
-      </c>
-      <c r="AA41" s="82" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="27.75" customHeight="1">
@@ -4921,7 +4899,7 @@
         <v>57</v>
       </c>
       <c r="V47" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W47" s="247"/>
       <c r="X47" s="248"/>
@@ -4931,23 +4909,21 @@
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
       <c r="A48" s="252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="252"/>
       <c r="C48" s="253" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="253"/>
       <c r="E48" s="253"/>
       <c r="F48" s="253"/>
       <c r="G48" s="254" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H48" s="254"/>
       <c r="I48" s="254"/>
-      <c r="J48" s="254" t="s">
-        <v>149</v>
-      </c>
+      <c r="J48" s="254"/>
       <c r="K48" s="254"/>
       <c r="L48" s="254"/>
       <c r="M48" s="254"/>
@@ -4976,9 +4952,7 @@
       <c r="G49" s="98"/>
       <c r="H49" s="98"/>
       <c r="I49" s="98"/>
-      <c r="J49" s="254" t="s">
-        <v>150</v>
-      </c>
+      <c r="J49" s="254"/>
       <c r="K49" s="254"/>
       <c r="L49" s="254"/>
       <c r="M49" s="254"/>
@@ -4991,13 +4965,13 @@
       <c r="T49" s="98"/>
       <c r="U49" s="245"/>
       <c r="V49" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="W49" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="W49" s="82" t="s">
+      <c r="X49" s="154" t="s">
         <v>143</v>
-      </c>
-      <c r="X49" s="154" t="s">
-        <v>144</v>
       </c>
       <c r="Y49" s="97"/>
       <c r="Z49" s="97"/>
@@ -5129,15 +5103,15 @@
       <c r="G54" s="101"/>
       <c r="H54" s="101"/>
       <c r="I54" s="101"/>
-      <c r="J54" s="176" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
-      <c r="N54" s="176"/>
-      <c r="O54" s="176"/>
-      <c r="P54" s="176"/>
+      <c r="J54" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="177"/>
+      <c r="L54" s="177"/>
+      <c r="M54" s="177"/>
+      <c r="N54" s="177"/>
+      <c r="O54" s="177"/>
+      <c r="P54" s="177"/>
       <c r="Q54" s="101"/>
       <c r="R54" s="101"/>
       <c r="S54" s="101"/>
@@ -5621,26 +5595,26 @@
       <c r="AD70" s="65"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="209" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="209"/>
-      <c r="C71" s="209"/>
-      <c r="D71" s="209"/>
+      <c r="A71" s="210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="210"/>
+      <c r="C71" s="210"/>
+      <c r="D71" s="210"/>
       <c r="E71" s="67"/>
       <c r="F71" s="68"/>
       <c r="G71" s="68"/>
       <c r="H71" s="68"/>
       <c r="I71" s="67"/>
-      <c r="J71" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="K71" s="210"/>
-      <c r="L71" s="210"/>
-      <c r="M71" s="210"/>
-      <c r="N71" s="210"/>
-      <c r="O71" s="210"/>
-      <c r="P71" s="210"/>
+      <c r="J71" s="211" t="s">
+        <v>124</v>
+      </c>
+      <c r="K71" s="211"/>
+      <c r="L71" s="211"/>
+      <c r="M71" s="211"/>
+      <c r="N71" s="211"/>
+      <c r="O71" s="211"/>
+      <c r="P71" s="211"/>
       <c r="Q71" s="67"/>
       <c r="R71" s="67"/>
       <c r="S71" s="67"/>
@@ -5658,7 +5632,7 @@
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
       <c r="A72" s="224" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="224"/>
       <c r="C72" s="224"/>
@@ -5669,7 +5643,7 @@
       <c r="H72" s="70"/>
       <c r="I72" s="67"/>
       <c r="J72" s="225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K72" s="225"/>
       <c r="L72" s="225"/>
@@ -5712,15 +5686,15 @@
       <c r="Q73" s="65"/>
       <c r="R73" s="65"/>
       <c r="S73" s="65"/>
-      <c r="T73" s="176" t="s">
-        <v>151</v>
-      </c>
-      <c r="U73" s="176"/>
-      <c r="V73" s="176"/>
-      <c r="W73" s="176"/>
-      <c r="X73" s="176"/>
-      <c r="Y73" s="176"/>
-      <c r="Z73" s="176"/>
+      <c r="T73" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="U73" s="177"/>
+      <c r="V73" s="177"/>
+      <c r="W73" s="177"/>
+      <c r="X73" s="177"/>
+      <c r="Y73" s="177"/>
+      <c r="Z73" s="177"/>
       <c r="AA73" s="101"/>
       <c r="AB73" s="101"/>
       <c r="AC73" s="101"/>
@@ -5728,7 +5702,7 @@
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
       <c r="A74" s="226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="226"/>
       <c r="C74" s="226"/>
@@ -5831,43 +5805,43 @@
         <v>2</v>
       </c>
       <c r="B77" s="228" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="228" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="228" t="s">
+      <c r="D77" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="231" t="s">
+      <c r="E77" s="234" t="s">
         <v>131</v>
-      </c>
-      <c r="E77" s="234" t="s">
-        <v>132</v>
       </c>
       <c r="F77" s="235"/>
       <c r="G77" s="236"/>
       <c r="H77" s="234" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I77" s="236"/>
       <c r="J77" s="234" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K77" s="236"/>
       <c r="L77" s="234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M77" s="236"/>
       <c r="N77" s="234" t="s">
+        <v>159</v>
+      </c>
+      <c r="O77" s="236"/>
+      <c r="P77" s="255" t="s">
         <v>160</v>
       </c>
-      <c r="O77" s="236"/>
-      <c r="P77" s="257" t="s">
+      <c r="Q77" s="255" t="s">
         <v>161</v>
       </c>
-      <c r="Q77" s="257" t="s">
+      <c r="R77" s="255" t="s">
         <v>162</v>
-      </c>
-      <c r="R77" s="257" t="s">
-        <v>163</v>
       </c>
       <c r="S77" s="105"/>
       <c r="T77" s="102"/>
@@ -5898,9 +5872,9 @@
       <c r="M78" s="239"/>
       <c r="N78" s="237"/>
       <c r="O78" s="239"/>
-      <c r="P78" s="258"/>
-      <c r="Q78" s="258"/>
-      <c r="R78" s="258"/>
+      <c r="P78" s="256"/>
+      <c r="Q78" s="256"/>
+      <c r="R78" s="256"/>
       <c r="S78" s="64"/>
       <c r="T78" s="102"/>
       <c r="U78" s="102"/>
@@ -5919,42 +5893,42 @@
       <c r="B79" s="229"/>
       <c r="C79" s="229"/>
       <c r="D79" s="232"/>
-      <c r="E79" s="255" t="s">
+      <c r="E79" s="258" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="255" t="s">
+      <c r="G79" s="258" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="255" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="255" t="s">
-        <v>164</v>
-      </c>
-      <c r="I79" s="255" t="s">
+      <c r="H79" s="258" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" s="258" t="s">
+        <v>139</v>
+      </c>
+      <c r="J79" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="J79" s="255" t="s">
-        <v>141</v>
-      </c>
-      <c r="K79" s="255" t="s">
+      <c r="K79" s="258" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" s="258" t="s">
+        <v>135</v>
+      </c>
+      <c r="M79" s="258" t="s">
+        <v>137</v>
+      </c>
+      <c r="N79" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="L79" s="255" t="s">
-        <v>136</v>
-      </c>
-      <c r="M79" s="255" t="s">
-        <v>138</v>
-      </c>
-      <c r="N79" s="255" t="s">
-        <v>141</v>
-      </c>
-      <c r="O79" s="255" t="s">
-        <v>140</v>
-      </c>
-      <c r="P79" s="258"/>
-      <c r="Q79" s="258"/>
-      <c r="R79" s="258"/>
+      <c r="O79" s="258" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" s="256"/>
+      <c r="Q79" s="256"/>
+      <c r="R79" s="256"/>
       <c r="S79" s="64"/>
       <c r="T79" s="102"/>
       <c r="U79" s="102"/>
@@ -5973,20 +5947,20 @@
       <c r="B80" s="230"/>
       <c r="C80" s="230"/>
       <c r="D80" s="233"/>
-      <c r="E80" s="256"/>
-      <c r="F80" s="256"/>
-      <c r="G80" s="256"/>
-      <c r="H80" s="256"/>
-      <c r="I80" s="256"/>
-      <c r="J80" s="256"/>
-      <c r="K80" s="256"/>
-      <c r="L80" s="256"/>
-      <c r="M80" s="256"/>
-      <c r="N80" s="256"/>
-      <c r="O80" s="256"/>
-      <c r="P80" s="259"/>
-      <c r="Q80" s="259"/>
-      <c r="R80" s="259"/>
+      <c r="E80" s="259"/>
+      <c r="F80" s="259"/>
+      <c r="G80" s="259"/>
+      <c r="H80" s="259"/>
+      <c r="I80" s="259"/>
+      <c r="J80" s="259"/>
+      <c r="K80" s="259"/>
+      <c r="L80" s="259"/>
+      <c r="M80" s="259"/>
+      <c r="N80" s="259"/>
+      <c r="O80" s="259"/>
+      <c r="P80" s="257"/>
+      <c r="Q80" s="257"/>
+      <c r="R80" s="257"/>
       <c r="S80" s="107"/>
       <c r="T80" s="102"/>
       <c r="U80" s="102"/>
@@ -6002,27 +5976,27 @@
     </row>
     <row r="81" spans="1:30" ht="30" customHeight="1">
       <c r="A81" s="144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="279"/>
-      <c r="D81" s="280"/>
-      <c r="E81" s="280"/>
-      <c r="F81" s="280"/>
-      <c r="G81" s="280"/>
-      <c r="H81" s="280"/>
-      <c r="I81" s="280"/>
-      <c r="J81" s="280"/>
-      <c r="K81" s="280"/>
-      <c r="L81" s="280"/>
-      <c r="M81" s="280"/>
-      <c r="N81" s="280"/>
-      <c r="O81" s="280"/>
-      <c r="P81" s="280"/>
-      <c r="Q81" s="280"/>
-      <c r="R81" s="281"/>
+        <v>167</v>
+      </c>
+      <c r="C81" s="278"/>
+      <c r="D81" s="279"/>
+      <c r="E81" s="279"/>
+      <c r="F81" s="279"/>
+      <c r="G81" s="279"/>
+      <c r="H81" s="279"/>
+      <c r="I81" s="279"/>
+      <c r="J81" s="279"/>
+      <c r="K81" s="279"/>
+      <c r="L81" s="279"/>
+      <c r="M81" s="279"/>
+      <c r="N81" s="279"/>
+      <c r="O81" s="279"/>
+      <c r="P81" s="279"/>
+      <c r="Q81" s="279"/>
+      <c r="R81" s="280"/>
       <c r="S81" s="108"/>
       <c r="T81" s="102"/>
       <c r="U81" s="102"/>
@@ -6166,27 +6140,27 @@
     </row>
     <row r="86" spans="1:30" ht="30" customHeight="1">
       <c r="A86" s="144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="143" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="279"/>
-      <c r="D86" s="280"/>
-      <c r="E86" s="280"/>
-      <c r="F86" s="280"/>
-      <c r="G86" s="280"/>
-      <c r="H86" s="280"/>
-      <c r="I86" s="280"/>
-      <c r="J86" s="280"/>
-      <c r="K86" s="280"/>
-      <c r="L86" s="280"/>
-      <c r="M86" s="280"/>
-      <c r="N86" s="280"/>
-      <c r="O86" s="280"/>
-      <c r="P86" s="280"/>
-      <c r="Q86" s="280"/>
-      <c r="R86" s="281"/>
+        <v>169</v>
+      </c>
+      <c r="C86" s="278"/>
+      <c r="D86" s="279"/>
+      <c r="E86" s="279"/>
+      <c r="F86" s="279"/>
+      <c r="G86" s="279"/>
+      <c r="H86" s="279"/>
+      <c r="I86" s="279"/>
+      <c r="J86" s="279"/>
+      <c r="K86" s="279"/>
+      <c r="L86" s="279"/>
+      <c r="M86" s="279"/>
+      <c r="N86" s="279"/>
+      <c r="O86" s="279"/>
+      <c r="P86" s="279"/>
+      <c r="Q86" s="279"/>
+      <c r="R86" s="280"/>
       <c r="S86" s="111"/>
       <c r="T86" s="102"/>
       <c r="U86" s="102"/>
@@ -6381,24 +6355,21 @@
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
       <c r="A93" s="252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="252"/>
       <c r="C93" s="253" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="253"/>
       <c r="E93" s="253"/>
       <c r="F93" s="253"/>
       <c r="G93" s="254" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H93" s="254"/>
       <c r="I93" s="254"/>
-      <c r="J93" s="254" t="str">
-        <f>J48</f>
-        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
-      </c>
+      <c r="J93" s="254"/>
       <c r="K93" s="254"/>
       <c r="L93" s="254"/>
       <c r="M93" s="254"/>
@@ -6427,9 +6398,7 @@
       <c r="G94" s="98"/>
       <c r="H94" s="98"/>
       <c r="I94" s="98"/>
-      <c r="J94" s="254" t="s">
-        <v>150</v>
-      </c>
+      <c r="J94" s="254"/>
       <c r="K94" s="254"/>
       <c r="L94" s="254"/>
       <c r="M94" s="254"/>
@@ -6574,16 +6543,16 @@
       <c r="G99" s="101"/>
       <c r="H99" s="101"/>
       <c r="I99" s="101"/>
-      <c r="J99" s="176" t="str">
+      <c r="J99" s="177" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="176"/>
-      <c r="L99" s="176"/>
-      <c r="M99" s="176"/>
-      <c r="N99" s="176"/>
-      <c r="O99" s="176"/>
-      <c r="P99" s="176"/>
+      <c r="K99" s="177"/>
+      <c r="L99" s="177"/>
+      <c r="M99" s="177"/>
+      <c r="N99" s="177"/>
+      <c r="O99" s="177"/>
+      <c r="P99" s="177"/>
       <c r="Q99" s="101"/>
       <c r="R99" s="101"/>
       <c r="S99" s="65"/>
@@ -6800,26 +6769,26 @@
       <c r="AA106" s="65"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="209" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" s="209"/>
-      <c r="C107" s="209"/>
-      <c r="D107" s="209"/>
+      <c r="A107" s="210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="210"/>
+      <c r="C107" s="210"/>
+      <c r="D107" s="210"/>
       <c r="E107" s="67"/>
       <c r="F107" s="68"/>
       <c r="G107" s="68"/>
       <c r="H107" s="68"/>
       <c r="I107" s="67"/>
-      <c r="J107" s="210" t="s">
-        <v>125</v>
-      </c>
-      <c r="K107" s="210"/>
-      <c r="L107" s="210"/>
-      <c r="M107" s="210"/>
-      <c r="N107" s="210"/>
-      <c r="O107" s="210"/>
-      <c r="P107" s="210"/>
+      <c r="J107" s="211" t="s">
+        <v>124</v>
+      </c>
+      <c r="K107" s="211"/>
+      <c r="L107" s="211"/>
+      <c r="M107" s="211"/>
+      <c r="N107" s="211"/>
+      <c r="O107" s="211"/>
+      <c r="P107" s="211"/>
       <c r="Q107" s="67"/>
       <c r="R107" s="67"/>
       <c r="S107" s="65"/>
@@ -6834,7 +6803,7 @@
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
       <c r="A108" s="224" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="224"/>
       <c r="C108" s="224"/>
@@ -6845,7 +6814,7 @@
       <c r="H108" s="70"/>
       <c r="I108" s="67"/>
       <c r="J108" s="225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K108" s="225"/>
       <c r="L108" s="225"/>
@@ -6856,15 +6825,15 @@
       <c r="Q108" s="68"/>
       <c r="R108" s="68"/>
       <c r="S108" s="65"/>
-      <c r="T108" s="176" t="s">
-        <v>151</v>
-      </c>
-      <c r="U108" s="176"/>
-      <c r="V108" s="176"/>
-      <c r="W108" s="176"/>
-      <c r="X108" s="176"/>
-      <c r="Y108" s="176"/>
-      <c r="Z108" s="176"/>
+      <c r="T108" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="U108" s="177"/>
+      <c r="V108" s="177"/>
+      <c r="W108" s="177"/>
+      <c r="X108" s="177"/>
+      <c r="Y108" s="177"/>
+      <c r="Z108" s="177"/>
       <c r="AA108" s="101"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6898,7 +6867,7 @@
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
       <c r="A110" s="226" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B110" s="226"/>
       <c r="C110" s="226"/>
@@ -6928,25 +6897,25 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="278">
+      <c r="A111" s="227">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="278"/>
-      <c r="C111" s="278"/>
-      <c r="D111" s="278"/>
-      <c r="E111" s="278"/>
-      <c r="F111" s="278"/>
-      <c r="G111" s="278"/>
-      <c r="H111" s="278"/>
-      <c r="I111" s="278"/>
-      <c r="J111" s="278"/>
-      <c r="K111" s="278"/>
-      <c r="L111" s="278"/>
-      <c r="M111" s="278"/>
-      <c r="N111" s="278"/>
-      <c r="O111" s="278"/>
-      <c r="P111" s="278"/>
+      <c r="B111" s="227"/>
+      <c r="C111" s="227"/>
+      <c r="D111" s="227"/>
+      <c r="E111" s="227"/>
+      <c r="F111" s="227"/>
+      <c r="G111" s="227"/>
+      <c r="H111" s="227"/>
+      <c r="I111" s="227"/>
+      <c r="J111" s="227"/>
+      <c r="K111" s="227"/>
+      <c r="L111" s="227"/>
+      <c r="M111" s="227"/>
+      <c r="N111" s="227"/>
+      <c r="O111" s="227"/>
+      <c r="P111" s="227"/>
       <c r="Q111" s="77"/>
       <c r="R111" s="77"/>
       <c r="S111" s="68"/>
@@ -6993,26 +6962,26 @@
         <v>2</v>
       </c>
       <c r="B113" s="260" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" s="261"/>
       <c r="D113" s="234" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E113" s="236"/>
       <c r="F113" s="234" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G113" s="235"/>
       <c r="H113" s="236"/>
       <c r="I113" s="234" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" s="235"/>
       <c r="K113" s="235"/>
       <c r="L113" s="236"/>
       <c r="M113" s="269" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N113" s="270"/>
       <c r="O113" s="270"/>
@@ -7068,11 +7037,11 @@
       <c r="G115" s="238"/>
       <c r="H115" s="239"/>
       <c r="I115" s="222" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J115" s="223"/>
       <c r="K115" s="222" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L115" s="223"/>
       <c r="M115" s="275"/>
@@ -7095,21 +7064,21 @@
       <c r="A116" s="83">
         <v>1</v>
       </c>
-      <c r="B116" s="288"/>
-      <c r="C116" s="289"/>
-      <c r="D116" s="288"/>
-      <c r="E116" s="289"/>
-      <c r="F116" s="282"/>
-      <c r="G116" s="283"/>
-      <c r="H116" s="284"/>
-      <c r="I116" s="285"/>
-      <c r="J116" s="286"/>
-      <c r="K116" s="285"/>
-      <c r="L116" s="286"/>
-      <c r="M116" s="285"/>
-      <c r="N116" s="287"/>
-      <c r="O116" s="287"/>
-      <c r="P116" s="286"/>
+      <c r="B116" s="284"/>
+      <c r="C116" s="285"/>
+      <c r="D116" s="284"/>
+      <c r="E116" s="285"/>
+      <c r="F116" s="286"/>
+      <c r="G116" s="287"/>
+      <c r="H116" s="288"/>
+      <c r="I116" s="281"/>
+      <c r="J116" s="282"/>
+      <c r="K116" s="281"/>
+      <c r="L116" s="282"/>
+      <c r="M116" s="281"/>
+      <c r="N116" s="283"/>
+      <c r="O116" s="283"/>
+      <c r="P116" s="282"/>
       <c r="Q116" s="126"/>
       <c r="R116" s="126"/>
       <c r="S116" s="124"/>
@@ -7126,21 +7095,21 @@
       <c r="A117" s="83">
         <v>2</v>
       </c>
-      <c r="B117" s="288"/>
-      <c r="C117" s="289"/>
-      <c r="D117" s="288"/>
-      <c r="E117" s="289"/>
-      <c r="F117" s="282"/>
-      <c r="G117" s="283"/>
-      <c r="H117" s="284"/>
-      <c r="I117" s="285"/>
-      <c r="J117" s="286"/>
-      <c r="K117" s="285"/>
-      <c r="L117" s="286"/>
-      <c r="M117" s="285"/>
-      <c r="N117" s="287"/>
-      <c r="O117" s="287"/>
-      <c r="P117" s="286"/>
+      <c r="B117" s="284"/>
+      <c r="C117" s="285"/>
+      <c r="D117" s="284"/>
+      <c r="E117" s="285"/>
+      <c r="F117" s="286"/>
+      <c r="G117" s="287"/>
+      <c r="H117" s="288"/>
+      <c r="I117" s="281"/>
+      <c r="J117" s="282"/>
+      <c r="K117" s="281"/>
+      <c r="L117" s="282"/>
+      <c r="M117" s="281"/>
+      <c r="N117" s="283"/>
+      <c r="O117" s="283"/>
+      <c r="P117" s="282"/>
       <c r="Q117" s="126"/>
       <c r="R117" s="126"/>
       <c r="S117" s="125"/>
@@ -7157,21 +7126,21 @@
       <c r="A118" s="83">
         <v>3</v>
       </c>
-      <c r="B118" s="288"/>
-      <c r="C118" s="289"/>
-      <c r="D118" s="288"/>
-      <c r="E118" s="289"/>
-      <c r="F118" s="282"/>
-      <c r="G118" s="283"/>
-      <c r="H118" s="284"/>
-      <c r="I118" s="285"/>
-      <c r="J118" s="286"/>
-      <c r="K118" s="285"/>
-      <c r="L118" s="286"/>
-      <c r="M118" s="285"/>
-      <c r="N118" s="287"/>
-      <c r="O118" s="287"/>
-      <c r="P118" s="286"/>
+      <c r="B118" s="284"/>
+      <c r="C118" s="285"/>
+      <c r="D118" s="284"/>
+      <c r="E118" s="285"/>
+      <c r="F118" s="286"/>
+      <c r="G118" s="287"/>
+      <c r="H118" s="288"/>
+      <c r="I118" s="281"/>
+      <c r="J118" s="282"/>
+      <c r="K118" s="281"/>
+      <c r="L118" s="282"/>
+      <c r="M118" s="281"/>
+      <c r="N118" s="283"/>
+      <c r="O118" s="283"/>
+      <c r="P118" s="282"/>
       <c r="Q118" s="126"/>
       <c r="R118" s="126"/>
       <c r="S118" s="126"/>
@@ -7188,21 +7157,21 @@
       <c r="A119" s="83">
         <v>4</v>
       </c>
-      <c r="B119" s="288"/>
-      <c r="C119" s="289"/>
-      <c r="D119" s="288"/>
-      <c r="E119" s="289"/>
-      <c r="F119" s="282"/>
-      <c r="G119" s="283"/>
-      <c r="H119" s="284"/>
-      <c r="I119" s="285"/>
-      <c r="J119" s="286"/>
-      <c r="K119" s="285"/>
-      <c r="L119" s="286"/>
-      <c r="M119" s="285"/>
-      <c r="N119" s="287"/>
-      <c r="O119" s="287"/>
-      <c r="P119" s="286"/>
+      <c r="B119" s="284"/>
+      <c r="C119" s="285"/>
+      <c r="D119" s="284"/>
+      <c r="E119" s="285"/>
+      <c r="F119" s="286"/>
+      <c r="G119" s="287"/>
+      <c r="H119" s="288"/>
+      <c r="I119" s="281"/>
+      <c r="J119" s="282"/>
+      <c r="K119" s="281"/>
+      <c r="L119" s="282"/>
+      <c r="M119" s="281"/>
+      <c r="N119" s="283"/>
+      <c r="O119" s="283"/>
+      <c r="P119" s="282"/>
       <c r="Q119" s="126"/>
       <c r="R119" s="126"/>
       <c r="S119" s="126"/>
@@ -7247,7 +7216,7 @@
     <row r="121" spans="1:27" ht="24.75" customHeight="1">
       <c r="A121" s="127"/>
       <c r="B121" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C121" s="128"/>
       <c r="D121" s="129"/>
@@ -7278,7 +7247,7 @@
     <row r="122" spans="1:27" ht="24.75" customHeight="1">
       <c r="A122" s="127"/>
       <c r="B122" s="128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C122" s="128"/>
       <c r="D122" s="129"/>
@@ -7316,16 +7285,13 @@
       <c r="G123" s="65"/>
       <c r="H123" s="65"/>
       <c r="I123" s="65"/>
-      <c r="J123" s="291">
-        <f>J92</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="291"/>
-      <c r="L123" s="291"/>
-      <c r="M123" s="291"/>
-      <c r="N123" s="291"/>
-      <c r="O123" s="291"/>
-      <c r="P123" s="291"/>
+      <c r="J123" s="242"/>
+      <c r="K123" s="242"/>
+      <c r="L123" s="242"/>
+      <c r="M123" s="242"/>
+      <c r="N123" s="242"/>
+      <c r="O123" s="242"/>
+      <c r="P123" s="242"/>
       <c r="Q123" s="96"/>
       <c r="R123" s="96"/>
       <c r="S123" s="65"/>
@@ -7340,24 +7306,21 @@
     </row>
     <row r="124" spans="1:27" ht="24.75" customHeight="1">
       <c r="A124" s="252" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="252"/>
       <c r="C124" s="253" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D124" s="253"/>
       <c r="E124" s="253"/>
       <c r="F124" s="253"/>
       <c r="G124" s="254" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H124" s="254"/>
       <c r="I124" s="254"/>
-      <c r="J124" s="254" t="str">
-        <f>J48</f>
-        <v>KT.CHỦ TỊCH KIÊM GIÁM ĐỐC</v>
-      </c>
+      <c r="J124" s="254"/>
       <c r="K124" s="254"/>
       <c r="L124" s="254"/>
       <c r="M124" s="254"/>
@@ -7386,9 +7349,7 @@
       <c r="G125" s="98"/>
       <c r="H125" s="98"/>
       <c r="I125" s="98"/>
-      <c r="J125" s="254" t="s">
-        <v>150</v>
-      </c>
+      <c r="J125" s="254"/>
       <c r="K125" s="254"/>
       <c r="L125" s="254"/>
       <c r="M125" s="254"/>
@@ -7533,16 +7494,16 @@
       <c r="G130" s="137"/>
       <c r="H130" s="137"/>
       <c r="I130" s="137"/>
-      <c r="J130" s="290" t="str">
+      <c r="J130" s="289" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K130" s="290"/>
-      <c r="L130" s="290"/>
-      <c r="M130" s="290"/>
-      <c r="N130" s="290"/>
-      <c r="O130" s="290"/>
-      <c r="P130" s="290"/>
+      <c r="K130" s="289"/>
+      <c r="L130" s="289"/>
+      <c r="M130" s="289"/>
+      <c r="N130" s="289"/>
+      <c r="O130" s="289"/>
+      <c r="P130" s="289"/>
       <c r="Q130" s="137"/>
       <c r="R130" s="137"/>
       <c r="S130" s="134"/>
@@ -7652,6 +7613,18 @@
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:P117"/>
     <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
     <mergeCell ref="R77:R80"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="A113:A115"/>
@@ -7676,18 +7649,6 @@
     <mergeCell ref="J93:P93"/>
     <mergeCell ref="J94:P94"/>
     <mergeCell ref="J99:P99"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
     <mergeCell ref="A75:P75"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B77:B80"/>
@@ -7803,82 +7764,82 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="374" t="s">
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="372" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.95" customHeight="1">
-      <c r="A2" s="383" t="s">
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.9" customHeight="1">
+      <c r="A2" s="381" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="376" t="str">
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A3" s="374" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="380" t="s">
+      <c r="B3" s="374"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.45" customHeight="1">
+      <c r="A4" s="378" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="384" t="s">
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="382" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="384" t="s">
+      <c r="B5" s="382" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="387" t="s">
+      <c r="C5" s="385" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
-      <c r="G5" s="389"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="385"/>
-      <c r="B6" s="385"/>
+      <c r="D5" s="386"/>
+      <c r="E5" s="386"/>
+      <c r="F5" s="386"/>
+      <c r="G5" s="387"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5">
+      <c r="A6" s="383"/>
+      <c r="B6" s="383"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -7895,9 +7856,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
-      <c r="A7" s="386"/>
-      <c r="B7" s="386"/>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="384"/>
+      <c r="B7" s="384"/>
       <c r="C7" s="15" t="s">
         <v>42</v>
       </c>
@@ -7936,91 +7897,91 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="374" t="s">
+    <row r="1" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A1" s="372" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="383" t="s">
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A2" s="381" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A3" s="383" t="s">
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A3" s="381" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="383"/>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="376" t="str">
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A4" s="374" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="376"/>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="376"/>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="380" t="s">
+      <c r="B4" s="374"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="374"/>
+      <c r="G4" s="374"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A5" s="378" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="380"/>
-      <c r="C5" s="380"/>
-      <c r="D5" s="380"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="380"/>
-      <c r="G5" s="380"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A6" s="381" t="s">
+      <c r="B5" s="378"/>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="378"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A6" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="381" t="s">
+      <c r="B6" s="379" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="382" t="s">
+      <c r="C6" s="380" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="382"/>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A7" s="381"/>
-      <c r="B7" s="381"/>
+      <c r="D6" s="380"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A7" s="379"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -8037,9 +7998,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A8" s="381"/>
-      <c r="B8" s="381"/>
+    <row r="8" spans="1:7" ht="20.45" customHeight="1">
+      <c r="A8" s="379"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="16" t="s">
         <v>42</v>
       </c>
@@ -8082,29 +8043,29 @@
       <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="20" customWidth="1"/>
-    <col min="2" max="3" width="42.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="20"/>
-    <col min="6" max="6" width="10.5546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="20" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="20" customWidth="1"/>
-    <col min="15" max="16" width="9.109375" style="20"/>
-    <col min="17" max="17" width="15.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="20" customWidth="1"/>
+    <col min="2" max="3" width="42.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="10.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="20"/>
+    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="20" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="20"/>
+    <col min="17" max="17" width="15.5703125" style="20" customWidth="1"/>
     <col min="18" max="18" width="14" style="20" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="20"/>
+    <col min="19" max="19" width="16.28515625" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="39.9" customHeight="1">
+    <row r="2" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8173,28 +8134,28 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="10" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="20" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="20"/>
-    <col min="11" max="11" width="12.5546875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="20" customWidth="1"/>
-    <col min="13" max="16" width="9.109375" style="20"/>
-    <col min="17" max="17" width="15.6640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="20"/>
-    <col min="19" max="19" width="17.88671875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="20"/>
+    <col min="7" max="7" width="11.140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="20" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="12.5703125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="20" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="20"/>
+    <col min="17" max="17" width="15.7109375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="20"/>
+    <col min="19" max="19" width="17.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="22" customFormat="1" ht="39.9" customHeight="1">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -8232,10 +8193,10 @@
         <v>103</v>
       </c>
       <c r="M2" s="21"/>
-      <c r="N2" s="292" t="s">
+      <c r="N2" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="292"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21" t="s">
         <v>104</v>
@@ -8266,27 +8227,27 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="20" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="20"/>
-    <col min="13" max="13" width="6.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="20" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="20"/>
+    <col min="6" max="6" width="13.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="20" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="20"/>
+    <col min="13" max="13" width="6.7109375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="39.9" customHeight="1">
+    <row r="3" spans="1:18" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -8346,29 +8307,29 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="20" customWidth="1"/>
     <col min="2" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="20"/>
-    <col min="10" max="10" width="13.88671875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="20" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="20"/>
-    <col min="14" max="14" width="6.33203125" style="20" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="20"/>
-    <col min="18" max="18" width="20.6640625" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="20"/>
+    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="13.85546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="20" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="20"/>
+    <col min="14" max="14" width="6.28515625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="20"/>
+    <col min="18" max="18" width="20.7109375" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="39.9" customHeight="1">
+    <row r="3" spans="1:20" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -8434,25 +8395,25 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="20"/>
-    <col min="6" max="6" width="21.88671875" style="20" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="20"/>
-    <col min="9" max="9" width="15.88671875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" style="20" customWidth="1"/>
-    <col min="11" max="14" width="9.109375" style="20"/>
-    <col min="15" max="15" width="19.109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="21.85546875" style="20" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="20"/>
+    <col min="9" max="9" width="15.85546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="20" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="20"/>
+    <col min="15" max="15" width="19.140625" style="20" customWidth="1"/>
     <col min="16" max="16" width="11" style="20" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="20" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="20"/>
+    <col min="17" max="17" width="19.140625" style="20" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="39.9" customHeight="1">
+    <row r="2" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8510,7 +8471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8527,27 +8488,27 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="20" customWidth="1"/>
-    <col min="2" max="3" width="39.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="20"/>
-    <col min="6" max="6" width="11.33203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="20" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="11.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="20" customWidth="1"/>
     <col min="8" max="8" width="18" style="20" customWidth="1"/>
     <col min="9" max="9" width="17" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="20"/>
-    <col min="11" max="11" width="11.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="11.28515625" style="20" customWidth="1"/>
     <col min="12" max="12" width="14" style="20" customWidth="1"/>
-    <col min="13" max="16" width="9.109375" style="20"/>
-    <col min="17" max="17" width="20.109375" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" style="20" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="20"/>
+    <col min="13" max="16" width="9.140625" style="20"/>
+    <col min="17" max="17" width="20.140625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="19" customFormat="1" ht="39.9" customHeight="1">
+    <row r="2" spans="1:19" s="19" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -8614,65 +8575,65 @@
       <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="23"/>
-    <col min="4" max="6" width="16.6640625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="0.44140625" style="23" hidden="1" customWidth="1"/>
-    <col min="9" max="21" width="16.6640625" style="23" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" style="23" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="16.6640625" style="23" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" style="23" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" style="23" hidden="1" customWidth="1"/>
-    <col min="29" max="36" width="16.6640625" style="23" customWidth="1"/>
-    <col min="37" max="38" width="16.6640625" style="23" hidden="1" customWidth="1"/>
-    <col min="39" max="16384" width="12.6640625" style="23"/>
+    <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="23"/>
+    <col min="4" max="6" width="16.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="0.42578125" style="23" hidden="1" customWidth="1"/>
+    <col min="9" max="21" width="16.7109375" style="23" customWidth="1"/>
+    <col min="22" max="23" width="16.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="24" max="26" width="16.7109375" style="23" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="23" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="29" max="36" width="16.7109375" style="23" customWidth="1"/>
+    <col min="37" max="38" width="16.7109375" style="23" hidden="1" customWidth="1"/>
+    <col min="39" max="16384" width="12.7109375" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="155" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
-      <c r="M1" s="293"/>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="293"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="293"/>
-      <c r="T1" s="293"/>
-      <c r="U1" s="293"/>
-      <c r="V1" s="293"/>
-      <c r="W1" s="293"/>
-      <c r="X1" s="293"/>
-      <c r="Y1" s="293"/>
-      <c r="Z1" s="293"/>
-      <c r="AA1" s="293"/>
-      <c r="AB1" s="293"/>
-      <c r="AC1" s="293"/>
-      <c r="AD1" s="293"/>
-      <c r="AE1" s="293"/>
-      <c r="AF1" s="293"/>
-      <c r="AG1" s="293"/>
-      <c r="AH1" s="293"/>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="293"/>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="293"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="291"/>
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="291"/>
+      <c r="AA1" s="291"/>
+      <c r="AB1" s="291"/>
+      <c r="AC1" s="291"/>
+      <c r="AD1" s="291"/>
+      <c r="AE1" s="291"/>
+      <c r="AF1" s="291"/>
+      <c r="AG1" s="291"/>
+      <c r="AH1" s="291"/>
+      <c r="AI1" s="291"/>
+      <c r="AJ1" s="291"/>
+      <c r="AK1" s="291"/>
+      <c r="AL1" s="291"/>
       <c r="AM1" s="139"/>
       <c r="AN1" s="139"/>
       <c r="AO1" s="139"/>
@@ -8681,46 +8642,46 @@
       <c r="AR1" s="139"/>
     </row>
     <row r="2" spans="1:44" s="155" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="304" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="304"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="304"/>
-      <c r="AE2" s="304"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="304"/>
-      <c r="AH2" s="304"/>
-      <c r="AI2" s="304"/>
-      <c r="AJ2" s="304"/>
-      <c r="AK2" s="304"/>
-      <c r="AL2" s="304"/>
+      <c r="A2" s="302" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="302"/>
+      <c r="C2" s="302"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="302"/>
+      <c r="Y2" s="302"/>
+      <c r="Z2" s="302"/>
+      <c r="AA2" s="302"/>
+      <c r="AB2" s="302"/>
+      <c r="AC2" s="302"/>
+      <c r="AD2" s="302"/>
+      <c r="AE2" s="302"/>
+      <c r="AF2" s="302"/>
+      <c r="AG2" s="302"/>
+      <c r="AH2" s="302"/>
+      <c r="AI2" s="302"/>
+      <c r="AJ2" s="302"/>
+      <c r="AK2" s="302"/>
+      <c r="AL2" s="302"/>
       <c r="AM2" s="139"/>
       <c r="AN2" s="139"/>
       <c r="AO2" s="139"/>
@@ -8729,231 +8690,231 @@
       <c r="AR2" s="139"/>
     </row>
     <row r="3" spans="1:44" ht="18" customHeight="1">
-      <c r="Y3" s="294" t="s">
+      <c r="Y3" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="294"/>
-      <c r="AA3" s="294"/>
-      <c r="AB3" s="294"/>
+      <c r="Z3" s="292"/>
+      <c r="AA3" s="292"/>
+      <c r="AB3" s="292"/>
     </row>
     <row r="4" spans="1:44" ht="18" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="292" t="s">
+      <c r="C4" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="292" t="s">
+      <c r="D4" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292" t="s">
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292" t="s">
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="292"/>
-      <c r="N4" s="292" t="s">
+      <c r="M4" s="290"/>
+      <c r="N4" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="292"/>
-      <c r="P4" s="292"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
-      <c r="U4" s="292"/>
-      <c r="V4" s="292"/>
-      <c r="W4" s="292"/>
-      <c r="X4" s="292" t="s">
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="290"/>
+      <c r="S4" s="290"/>
+      <c r="T4" s="290"/>
+      <c r="U4" s="290"/>
+      <c r="V4" s="290"/>
+      <c r="W4" s="290"/>
+      <c r="X4" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="292"/>
-      <c r="Z4" s="292"/>
-      <c r="AA4" s="292"/>
-      <c r="AB4" s="292"/>
-      <c r="AC4" s="295" t="s">
+      <c r="Y4" s="290"/>
+      <c r="Z4" s="290"/>
+      <c r="AA4" s="290"/>
+      <c r="AB4" s="290"/>
+      <c r="AC4" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="296"/>
-      <c r="AE4" s="295" t="s">
+      <c r="AD4" s="294"/>
+      <c r="AE4" s="293" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="296"/>
-      <c r="AG4" s="295" t="s">
+      <c r="AF4" s="294"/>
+      <c r="AG4" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="296"/>
-      <c r="AI4" s="295" t="s">
+      <c r="AH4" s="294"/>
+      <c r="AI4" s="293" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="296"/>
-      <c r="AK4" s="295" t="s">
+      <c r="AJ4" s="294"/>
+      <c r="AK4" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="296"/>
+      <c r="AL4" s="294"/>
     </row>
     <row r="5" spans="1:44" ht="18" customHeight="1">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292" t="s">
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="292" t="s">
+      <c r="J5" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="292" t="s">
+      <c r="K5" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="292"/>
-      <c r="M5" s="292"/>
-      <c r="N5" s="292"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="292"/>
-      <c r="Q5" s="292"/>
-      <c r="R5" s="292"/>
-      <c r="S5" s="292"/>
-      <c r="T5" s="292"/>
-      <c r="U5" s="292"/>
-      <c r="V5" s="292"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="297"/>
-      <c r="AD5" s="298"/>
-      <c r="AE5" s="297"/>
-      <c r="AF5" s="298"/>
-      <c r="AG5" s="297"/>
-      <c r="AH5" s="298"/>
-      <c r="AI5" s="297"/>
-      <c r="AJ5" s="298"/>
-      <c r="AK5" s="297"/>
-      <c r="AL5" s="298"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="290"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="290"/>
+      <c r="T5" s="290"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="290"/>
+      <c r="W5" s="290"/>
+      <c r="X5" s="290"/>
+      <c r="Y5" s="290"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="290"/>
+      <c r="AB5" s="290"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="296"/>
+      <c r="AE5" s="295"/>
+      <c r="AF5" s="296"/>
+      <c r="AG5" s="295"/>
+      <c r="AH5" s="296"/>
+      <c r="AI5" s="295"/>
+      <c r="AJ5" s="296"/>
+      <c r="AK5" s="295"/>
+      <c r="AL5" s="296"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1">
-      <c r="A6" s="292"/>
-      <c r="B6" s="292"/>
-      <c r="C6" s="292"/>
-      <c r="D6" s="292" t="s">
+      <c r="A6" s="290"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="302" t="s">
+      <c r="G6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="292" t="s">
+      <c r="H6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="290"/>
       <c r="L6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="292" t="s">
+      <c r="N6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="292"/>
-      <c r="P6" s="292" t="s">
+      <c r="O6" s="290"/>
+      <c r="P6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="292"/>
-      <c r="R6" s="292" t="s">
+      <c r="Q6" s="290"/>
+      <c r="R6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="292"/>
-      <c r="T6" s="299" t="s">
+      <c r="S6" s="290"/>
+      <c r="T6" s="297" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="300"/>
-      <c r="V6" s="301" t="s">
+      <c r="U6" s="298"/>
+      <c r="V6" s="299" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="292"/>
-      <c r="X6" s="292" t="s">
+      <c r="W6" s="290"/>
+      <c r="X6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="292" t="s">
+      <c r="Y6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="292" t="s">
+      <c r="Z6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="302" t="s">
+      <c r="AA6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="292" t="s">
+      <c r="AB6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="292" t="s">
+      <c r="AC6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="292" t="s">
+      <c r="AD6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="292" t="s">
+      <c r="AE6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="292" t="s">
+      <c r="AF6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="292" t="s">
+      <c r="AG6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="292" t="s">
+      <c r="AH6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="292" t="s">
+      <c r="AI6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="292" t="s">
+      <c r="AJ6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="292" t="s">
+      <c r="AK6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="292" t="s">
+      <c r="AL6" s="290" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="24" customHeight="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="292"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
       <c r="L7" s="21" t="s">
         <v>17</v>
       </c>
@@ -8990,21 +8951,21 @@
       <c r="W7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="292"/>
-      <c r="Y7" s="292"/>
-      <c r="Z7" s="292"/>
-      <c r="AA7" s="303"/>
-      <c r="AB7" s="292"/>
-      <c r="AC7" s="292"/>
-      <c r="AD7" s="292"/>
-      <c r="AE7" s="292"/>
-      <c r="AF7" s="292"/>
-      <c r="AG7" s="292"/>
-      <c r="AH7" s="292"/>
-      <c r="AI7" s="292"/>
-      <c r="AJ7" s="292"/>
-      <c r="AK7" s="292"/>
-      <c r="AL7" s="292"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
     </row>
     <row r="8" spans="1:44" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:44" ht="22.5" customHeight="1"/>
@@ -9097,116 +9058,116 @@
       <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="24"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
     <col min="2" max="2" width="35" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="24" customWidth="1"/>
-    <col min="5" max="7" width="16.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="24" customWidth="1"/>
+    <col min="5" max="7" width="16.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="24" customWidth="1"/>
     <col min="9" max="9" width="11" style="24" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="16.6640625" style="24" customWidth="1"/>
+    <col min="10" max="12" width="16.7109375" style="24" customWidth="1"/>
     <col min="13" max="13" width="20" style="24" customWidth="1"/>
-    <col min="14" max="24" width="16.6640625" style="24" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="24" customWidth="1"/>
-    <col min="26" max="27" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="28" max="31" width="16.6640625" style="24" customWidth="1"/>
-    <col min="32" max="32" width="16.33203125" style="24" customWidth="1"/>
-    <col min="33" max="33" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="34" max="40" width="16.6640625" style="24" customWidth="1"/>
-    <col min="41" max="41" width="16.5546875" style="24" customWidth="1"/>
-    <col min="42" max="43" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.109375" style="24"/>
+    <col min="14" max="24" width="16.7109375" style="24" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="24" customWidth="1"/>
+    <col min="26" max="27" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="16.7109375" style="24" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" style="24" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="34" max="40" width="16.7109375" style="24" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" style="24" customWidth="1"/>
+    <col min="42" max="43" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="332" t="s">
+    <row r="1" spans="1:48" s="157" customFormat="1" ht="16.5">
+      <c r="A1" s="327" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="332"/>
-      <c r="R1" s="332"/>
-      <c r="S1" s="332"/>
-      <c r="T1" s="332"/>
-      <c r="U1" s="332"/>
-      <c r="V1" s="332"/>
-      <c r="W1" s="332"/>
-      <c r="X1" s="332"/>
-      <c r="Y1" s="332"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="332"/>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
-      <c r="AI1" s="332"/>
-      <c r="AJ1" s="332"/>
-      <c r="AK1" s="332"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327"/>
+      <c r="U1" s="327"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
+      <c r="Z1" s="327"/>
+      <c r="AA1" s="327"/>
+      <c r="AB1" s="327"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="327"/>
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="327"/>
+      <c r="AJ1" s="327"/>
+      <c r="AK1" s="327"/>
       <c r="AL1" s="156"/>
       <c r="AM1" s="156"/>
       <c r="AN1" s="156"/>
       <c r="AU1" s="158"/>
       <c r="AV1" s="158"/>
     </row>
-    <row r="2" spans="1:48" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="333" t="str">
+    <row r="2" spans="1:48" s="157" customFormat="1" ht="16.5">
+      <c r="A2" s="328" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="333"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="333"/>
-      <c r="R2" s="333"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="333"/>
-      <c r="U2" s="333"/>
-      <c r="V2" s="333"/>
-      <c r="W2" s="333"/>
-      <c r="X2" s="333"/>
-      <c r="Y2" s="333"/>
-      <c r="Z2" s="333"/>
-      <c r="AA2" s="333"/>
-      <c r="AB2" s="333"/>
-      <c r="AC2" s="333"/>
-      <c r="AD2" s="333"/>
-      <c r="AE2" s="333"/>
-      <c r="AF2" s="333"/>
-      <c r="AG2" s="333"/>
-      <c r="AH2" s="333"/>
-      <c r="AI2" s="333"/>
-      <c r="AJ2" s="333"/>
-      <c r="AK2" s="333"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="328"/>
+      <c r="W2" s="328"/>
+      <c r="X2" s="328"/>
+      <c r="Y2" s="328"/>
+      <c r="Z2" s="328"/>
+      <c r="AA2" s="328"/>
+      <c r="AB2" s="328"/>
+      <c r="AC2" s="328"/>
+      <c r="AD2" s="328"/>
+      <c r="AE2" s="328"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="328"/>
+      <c r="AH2" s="328"/>
+      <c r="AI2" s="328"/>
+      <c r="AJ2" s="328"/>
+      <c r="AK2" s="328"/>
       <c r="AL2" s="159"/>
       <c r="AM2" s="159"/>
       <c r="AN2" s="159"/>
@@ -9243,10 +9204,10 @@
       <c r="AA3" s="26"/>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
-      <c r="AD3" s="309"/>
-      <c r="AE3" s="309"/>
-      <c r="AF3" s="309"/>
-      <c r="AG3" s="309"/>
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="303"/>
+      <c r="AG3" s="303"/>
       <c r="AH3" s="26"/>
       <c r="AI3" s="28"/>
       <c r="AJ3" s="28"/>
@@ -9259,246 +9220,246 @@
       <c r="AQ3" s="28"/>
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="292" t="s">
+      <c r="C4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="310" t="s">
+      <c r="D4" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="321" t="s">
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="315" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="310" t="s">
+      <c r="K4" s="329"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="316"/>
+      <c r="N4" s="304" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="306" t="s">
+      <c r="O4" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="315" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="336" t="s">
+      <c r="Q4" s="316"/>
+      <c r="R4" s="331" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="337"/>
-      <c r="T4" s="337"/>
-      <c r="U4" s="337"/>
-      <c r="V4" s="337"/>
-      <c r="W4" s="337"/>
-      <c r="X4" s="337"/>
-      <c r="Y4" s="337"/>
-      <c r="Z4" s="337"/>
-      <c r="AA4" s="338"/>
-      <c r="AB4" s="310" t="s">
+      <c r="S4" s="332"/>
+      <c r="T4" s="332"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="332"/>
+      <c r="W4" s="332"/>
+      <c r="X4" s="332"/>
+      <c r="Y4" s="332"/>
+      <c r="Z4" s="332"/>
+      <c r="AA4" s="333"/>
+      <c r="AB4" s="304" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="327" t="s">
+      <c r="AC4" s="321" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="327"/>
-      <c r="AE4" s="327"/>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="328"/>
-      <c r="AH4" s="331"/>
-      <c r="AI4" s="331"/>
-      <c r="AJ4" s="331"/>
-      <c r="AK4" s="331"/>
-      <c r="AL4" s="331"/>
-      <c r="AM4" s="331"/>
-      <c r="AN4" s="331"/>
-      <c r="AO4" s="331"/>
-      <c r="AP4" s="331"/>
-      <c r="AQ4" s="331"/>
+      <c r="AD4" s="321"/>
+      <c r="AE4" s="321"/>
+      <c r="AF4" s="321"/>
+      <c r="AG4" s="322"/>
+      <c r="AH4" s="326"/>
+      <c r="AI4" s="326"/>
+      <c r="AJ4" s="326"/>
+      <c r="AK4" s="326"/>
+      <c r="AL4" s="326"/>
+      <c r="AM4" s="326"/>
+      <c r="AN4" s="326"/>
+      <c r="AO4" s="326"/>
+      <c r="AP4" s="326"/>
+      <c r="AQ4" s="326"/>
     </row>
     <row r="5" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="335"/>
-      <c r="L5" s="335"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="307"/>
-      <c r="P5" s="323"/>
-      <c r="Q5" s="324"/>
-      <c r="R5" s="311" t="s">
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="306" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="312"/>
-      <c r="T5" s="311" t="s">
+      <c r="S5" s="307"/>
+      <c r="T5" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="312"/>
-      <c r="V5" s="311" t="s">
+      <c r="U5" s="307"/>
+      <c r="V5" s="306" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="312"/>
-      <c r="X5" s="315" t="s">
+      <c r="W5" s="307"/>
+      <c r="X5" s="310" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="316"/>
-      <c r="Z5" s="311" t="s">
+      <c r="Y5" s="311"/>
+      <c r="Z5" s="306" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="312"/>
-      <c r="AB5" s="310"/>
-      <c r="AC5" s="329"/>
-      <c r="AD5" s="329"/>
-      <c r="AE5" s="329"/>
-      <c r="AF5" s="329"/>
-      <c r="AG5" s="330"/>
-      <c r="AH5" s="305" t="s">
+      <c r="AA5" s="307"/>
+      <c r="AB5" s="304"/>
+      <c r="AC5" s="323"/>
+      <c r="AD5" s="323"/>
+      <c r="AE5" s="323"/>
+      <c r="AF5" s="323"/>
+      <c r="AG5" s="324"/>
+      <c r="AH5" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="305" t="s">
+      <c r="AI5" s="325"/>
+      <c r="AJ5" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="305"/>
-      <c r="AL5" s="305" t="s">
+      <c r="AK5" s="325"/>
+      <c r="AL5" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="305"/>
-      <c r="AN5" s="319" t="s">
+      <c r="AM5" s="325"/>
+      <c r="AN5" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="320"/>
-      <c r="AP5" s="308" t="s">
+      <c r="AO5" s="336"/>
+      <c r="AP5" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="AQ5" s="305"/>
+      <c r="AQ5" s="325"/>
     </row>
     <row r="6" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A6" s="292"/>
-      <c r="B6" s="292"/>
-      <c r="C6" s="292"/>
-      <c r="D6" s="310"/>
-      <c r="E6" s="292" t="s">
+      <c r="A6" s="290"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="292" t="s">
+      <c r="G6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="302" t="s">
+      <c r="H6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="292" t="s">
+      <c r="I6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="306" t="s">
+      <c r="J6" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="306" t="s">
+      <c r="K6" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="306" t="s">
+      <c r="L6" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="306" t="s">
+      <c r="M6" s="305" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="310"/>
-      <c r="O6" s="307"/>
-      <c r="P6" s="325"/>
-      <c r="Q6" s="326"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="314"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="314"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="314"/>
-      <c r="X6" s="317"/>
-      <c r="Y6" s="318"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="314"/>
-      <c r="AB6" s="310"/>
-      <c r="AC6" s="292" t="s">
+      <c r="N6" s="304"/>
+      <c r="O6" s="314"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="320"/>
+      <c r="R6" s="308"/>
+      <c r="S6" s="309"/>
+      <c r="T6" s="308"/>
+      <c r="U6" s="309"/>
+      <c r="V6" s="308"/>
+      <c r="W6" s="309"/>
+      <c r="X6" s="312"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="308"/>
+      <c r="AA6" s="309"/>
+      <c r="AB6" s="304"/>
+      <c r="AC6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="292" t="s">
+      <c r="AD6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="292" t="s">
+      <c r="AE6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="302" t="s">
+      <c r="AF6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AG6" s="292" t="s">
+      <c r="AG6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="310" t="s">
+      <c r="AH6" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="310" t="s">
+      <c r="AI6" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="310" t="s">
+      <c r="AJ6" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="310" t="s">
+      <c r="AK6" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="310" t="s">
+      <c r="AL6" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="310" t="s">
+      <c r="AM6" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="306" t="s">
+      <c r="AN6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="306" t="s">
+      <c r="AO6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="310" t="s">
+      <c r="AP6" s="304" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="310" t="s">
+      <c r="AQ6" s="304" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A7" s="302"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="339"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="307"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="307"/>
+      <c r="A7" s="300"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="314"/>
       <c r="P7" s="29" t="s">
         <v>13</v>
       </c>
@@ -9535,39 +9496,46 @@
       <c r="AA7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="306"/>
-      <c r="AC7" s="302"/>
-      <c r="AD7" s="302"/>
-      <c r="AE7" s="302"/>
-      <c r="AF7" s="339"/>
-      <c r="AG7" s="302"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="306"/>
-      <c r="AJ7" s="306"/>
-      <c r="AK7" s="306"/>
-      <c r="AL7" s="306"/>
-      <c r="AM7" s="306"/>
-      <c r="AN7" s="307"/>
-      <c r="AO7" s="307"/>
-      <c r="AP7" s="306"/>
-      <c r="AQ7" s="306"/>
+      <c r="AB7" s="305"/>
+      <c r="AC7" s="300"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="337"/>
+      <c r="AG7" s="300"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="305"/>
+      <c r="AJ7" s="305"/>
+      <c r="AK7" s="305"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="305"/>
+      <c r="AN7" s="314"/>
+      <c r="AO7" s="314"/>
+      <c r="AP7" s="305"/>
+      <c r="AQ7" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="P4:Q6"/>
@@ -9577,21 +9545,10 @@
     <mergeCell ref="Z5:AA6"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AH4:AQ4"/>
     <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="O4:O7"/>
     <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AN5:AO5"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="N4:N7"/>
     <mergeCell ref="V5:W6"/>
@@ -9604,6 +9561,10 @@
     <mergeCell ref="AL6:AL7"/>
     <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AC6:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9614,67 +9575,67 @@
   <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="U56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="24" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="24" hidden="1" customWidth="1"/>
-    <col min="8" max="22" width="16.6640625" style="24" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="25" max="28" width="16.6640625" style="24" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="24" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="31" max="37" width="16.6640625" style="24" customWidth="1"/>
-    <col min="38" max="38" width="16.44140625" style="24" customWidth="1"/>
-    <col min="39" max="40" width="16.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="5.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="24" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="8" max="22" width="16.7109375" style="24" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="25" max="28" width="16.7109375" style="24" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="24" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="31" max="37" width="16.7109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" style="24" customWidth="1"/>
+    <col min="39" max="40" width="16.7109375" style="24" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="332" t="s">
+    <row r="1" spans="1:44" s="157" customFormat="1" ht="16.5">
+      <c r="A1" s="327" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="332"/>
-      <c r="R1" s="332"/>
-      <c r="S1" s="332"/>
-      <c r="T1" s="332"/>
-      <c r="U1" s="332"/>
-      <c r="V1" s="332"/>
-      <c r="W1" s="332"/>
-      <c r="X1" s="332"/>
-      <c r="Y1" s="332"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="332"/>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327"/>
+      <c r="U1" s="327"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
+      <c r="Z1" s="327"/>
+      <c r="AA1" s="327"/>
+      <c r="AB1" s="327"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="327"/>
+      <c r="AH1" s="327"/>
       <c r="AI1" s="156"/>
       <c r="AJ1" s="156"/>
       <c r="AN1" s="160"/>
@@ -9683,44 +9644,44 @@
       <c r="AQ1" s="160"/>
       <c r="AR1" s="160"/>
     </row>
-    <row r="2" spans="1:44" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="333" t="str">
+    <row r="2" spans="1:44" s="157" customFormat="1" ht="16.5">
+      <c r="A2" s="328" t="str">
         <f>[1]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="333"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="333"/>
-      <c r="R2" s="333"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="333"/>
-      <c r="U2" s="333"/>
-      <c r="V2" s="333"/>
-      <c r="W2" s="333"/>
-      <c r="X2" s="333"/>
-      <c r="Y2" s="333"/>
-      <c r="Z2" s="333"/>
-      <c r="AA2" s="333"/>
-      <c r="AB2" s="333"/>
-      <c r="AC2" s="333"/>
-      <c r="AD2" s="333"/>
-      <c r="AE2" s="333"/>
-      <c r="AF2" s="333"/>
-      <c r="AG2" s="333"/>
-      <c r="AH2" s="333"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="328"/>
+      <c r="W2" s="328"/>
+      <c r="X2" s="328"/>
+      <c r="Y2" s="328"/>
+      <c r="Z2" s="328"/>
+      <c r="AA2" s="328"/>
+      <c r="AB2" s="328"/>
+      <c r="AC2" s="328"/>
+      <c r="AD2" s="328"/>
+      <c r="AE2" s="328"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="328"/>
+      <c r="AH2" s="328"/>
       <c r="AI2" s="159"/>
       <c r="AJ2" s="159"/>
       <c r="AN2" s="160"/>
@@ -9754,11 +9715,11 @@
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
       <c r="X3" s="32"/>
-      <c r="Y3" s="350" t="s">
+      <c r="Y3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="350"/>
-      <c r="AA3" s="350"/>
+      <c r="Z3" s="348"/>
+      <c r="AA3" s="348"/>
       <c r="AB3" s="23"/>
       <c r="AC3" s="23"/>
       <c r="AD3" s="23"/>
@@ -9769,232 +9730,232 @@
       <c r="AI3" s="23"/>
     </row>
     <row r="4" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="344" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="341" t="s">
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="339" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="343"/>
-      <c r="L4" s="344" t="s">
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="342" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="346" t="s">
+      <c r="M4" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="328"/>
-      <c r="O4" s="340" t="s">
+      <c r="N4" s="322"/>
+      <c r="O4" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="340"/>
-      <c r="Q4" s="340"/>
-      <c r="R4" s="340"/>
-      <c r="S4" s="340"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="340"/>
-      <c r="V4" s="340"/>
-      <c r="W4" s="340"/>
-      <c r="X4" s="340"/>
-      <c r="Y4" s="331" t="s">
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
+      <c r="V4" s="338"/>
+      <c r="W4" s="338"/>
+      <c r="X4" s="338"/>
+      <c r="Y4" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="340" t="s">
+      <c r="Z4" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="340"/>
-      <c r="AB4" s="340"/>
-      <c r="AC4" s="340"/>
-      <c r="AD4" s="340"/>
-      <c r="AE4" s="340" t="s">
+      <c r="AA4" s="338"/>
+      <c r="AB4" s="338"/>
+      <c r="AC4" s="338"/>
+      <c r="AD4" s="338"/>
+      <c r="AE4" s="338" t="s">
         <v>91</v>
       </c>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="340"/>
-      <c r="AH4" s="340"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="340"/>
-      <c r="AK4" s="340"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="340"/>
-      <c r="AN4" s="340"/>
+      <c r="AF4" s="338"/>
+      <c r="AG4" s="338"/>
+      <c r="AH4" s="338"/>
+      <c r="AI4" s="338"/>
+      <c r="AJ4" s="338"/>
+      <c r="AK4" s="338"/>
+      <c r="AL4" s="338"/>
+      <c r="AM4" s="338"/>
+      <c r="AN4" s="338"/>
     </row>
     <row r="5" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="340" t="s">
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="340" t="s">
+      <c r="I5" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="340" t="s">
+      <c r="J5" s="338" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="340" t="s">
+      <c r="K5" s="338" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="345"/>
-      <c r="M5" s="348"/>
-      <c r="N5" s="349"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="340"/>
-      <c r="Q5" s="340"/>
-      <c r="R5" s="340"/>
-      <c r="S5" s="340"/>
-      <c r="T5" s="340"/>
-      <c r="U5" s="340"/>
-      <c r="V5" s="340"/>
-      <c r="W5" s="340"/>
-      <c r="X5" s="340"/>
-      <c r="Y5" s="331"/>
-      <c r="Z5" s="340"/>
-      <c r="AA5" s="340"/>
-      <c r="AB5" s="340"/>
-      <c r="AC5" s="340"/>
-      <c r="AD5" s="340"/>
-      <c r="AE5" s="305" t="s">
+      <c r="L5" s="343"/>
+      <c r="M5" s="346"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="338"/>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="338"/>
+      <c r="R5" s="338"/>
+      <c r="S5" s="338"/>
+      <c r="T5" s="338"/>
+      <c r="U5" s="338"/>
+      <c r="V5" s="338"/>
+      <c r="W5" s="338"/>
+      <c r="X5" s="338"/>
+      <c r="Y5" s="326"/>
+      <c r="Z5" s="338"/>
+      <c r="AA5" s="338"/>
+      <c r="AB5" s="338"/>
+      <c r="AC5" s="338"/>
+      <c r="AD5" s="338"/>
+      <c r="AE5" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="305"/>
-      <c r="AG5" s="305" t="s">
+      <c r="AF5" s="325"/>
+      <c r="AG5" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="305"/>
-      <c r="AI5" s="305" t="s">
+      <c r="AH5" s="325"/>
+      <c r="AI5" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="305"/>
-      <c r="AK5" s="319" t="s">
+      <c r="AJ5" s="325"/>
+      <c r="AK5" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="320"/>
-      <c r="AM5" s="308" t="s">
+      <c r="AL5" s="336"/>
+      <c r="AM5" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="305"/>
+      <c r="AN5" s="325"/>
     </row>
     <row r="6" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A6" s="292"/>
-      <c r="B6" s="292"/>
-      <c r="C6" s="292" t="s">
+      <c r="A6" s="290"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="292" t="s">
+      <c r="D6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="302" t="s">
+      <c r="F6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="292" t="s">
+      <c r="G6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="340"/>
-      <c r="I6" s="340"/>
-      <c r="J6" s="340"/>
-      <c r="K6" s="340"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="347"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="305" t="s">
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="338"/>
+      <c r="K6" s="338"/>
+      <c r="L6" s="343"/>
+      <c r="M6" s="345"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="305"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="325"/>
+      <c r="Q6" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305" t="s">
+      <c r="R6" s="325"/>
+      <c r="S6" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="319" t="s">
+      <c r="T6" s="325"/>
+      <c r="U6" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="320"/>
-      <c r="W6" s="308" t="s">
+      <c r="V6" s="336"/>
+      <c r="W6" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="331"/>
-      <c r="Z6" s="292" t="s">
+      <c r="X6" s="325"/>
+      <c r="Y6" s="326"/>
+      <c r="Z6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="292" t="s">
+      <c r="AA6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="292" t="s">
+      <c r="AB6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="302" t="s">
+      <c r="AC6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="292" t="s">
+      <c r="AD6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="292" t="s">
+      <c r="AE6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="292" t="s">
+      <c r="AF6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="292" t="s">
+      <c r="AG6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="292" t="s">
+      <c r="AH6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="292" t="s">
+      <c r="AI6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="292" t="s">
+      <c r="AJ6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="292" t="s">
+      <c r="AK6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="292" t="s">
+      <c r="AL6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="292" t="s">
+      <c r="AM6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="292" t="s">
+      <c r="AN6" s="290" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="27" customHeight="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="340"/>
-      <c r="K7" s="340"/>
-      <c r="L7" s="345"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="343"/>
       <c r="M7" s="33" t="s">
         <v>13</v>
       </c>
@@ -10031,22 +9992,22 @@
       <c r="X7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="331"/>
-      <c r="Z7" s="302"/>
-      <c r="AA7" s="302"/>
-      <c r="AB7" s="302"/>
-      <c r="AC7" s="339"/>
-      <c r="AD7" s="302"/>
-      <c r="AE7" s="292"/>
-      <c r="AF7" s="292"/>
-      <c r="AG7" s="292"/>
-      <c r="AH7" s="292"/>
-      <c r="AI7" s="292"/>
-      <c r="AJ7" s="292"/>
-      <c r="AK7" s="292"/>
-      <c r="AL7" s="292"/>
-      <c r="AM7" s="292"/>
-      <c r="AN7" s="292"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="337"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -10065,6 +10026,7 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="O4:X5"/>
     <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AE6:AE7"/>
@@ -10089,7 +10051,6 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="M4:N6"/>
-    <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="Y4:Y7"/>
@@ -10107,105 +10068,105 @@
   <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="38" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="8" max="20" width="16.6640625" style="39" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" style="39" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="24" max="27" width="16.6640625" style="39" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" style="39" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="30" max="36" width="16.6640625" style="39" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" style="39" customWidth="1"/>
-    <col min="38" max="39" width="16.6640625" style="39" hidden="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.109375" style="24"/>
+    <col min="2" max="2" width="35.5703125" style="38" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="39" hidden="1" customWidth="1"/>
+    <col min="8" max="20" width="16.7109375" style="39" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="39" customWidth="1"/>
+    <col min="22" max="23" width="16.7109375" style="39" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="16.7109375" style="39" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" style="39" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="39" hidden="1" customWidth="1"/>
+    <col min="30" max="36" width="16.7109375" style="39" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" style="39" customWidth="1"/>
+    <col min="38" max="39" width="16.7109375" style="39" hidden="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A1" s="332" t="s">
+    <row r="1" spans="1:39" s="157" customFormat="1" ht="16.5">
+      <c r="A1" s="327" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="332"/>
-      <c r="R1" s="332"/>
-      <c r="S1" s="332"/>
-      <c r="T1" s="332"/>
-      <c r="U1" s="332"/>
-      <c r="V1" s="332"/>
-      <c r="W1" s="332"/>
-      <c r="X1" s="332"/>
-      <c r="Y1" s="332"/>
-      <c r="Z1" s="332"/>
-      <c r="AA1" s="332"/>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-    </row>
-    <row r="2" spans="1:39" s="157" customFormat="1" ht="17.399999999999999">
-      <c r="A2" s="333" t="str">
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327"/>
+      <c r="U1" s="327"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
+      <c r="X1" s="327"/>
+      <c r="Y1" s="327"/>
+      <c r="Z1" s="327"/>
+      <c r="AA1" s="327"/>
+      <c r="AB1" s="327"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="327"/>
+    </row>
+    <row r="2" spans="1:39" s="157" customFormat="1" ht="16.5">
+      <c r="A2" s="328" t="str">
         <f>[1]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="333"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="333"/>
-      <c r="R2" s="333"/>
-      <c r="S2" s="333"/>
-      <c r="T2" s="333"/>
-      <c r="U2" s="333"/>
-      <c r="V2" s="333"/>
-      <c r="W2" s="333"/>
-      <c r="X2" s="333"/>
-      <c r="Y2" s="333"/>
-      <c r="Z2" s="333"/>
-      <c r="AA2" s="333"/>
-      <c r="AB2" s="333"/>
-      <c r="AC2" s="333"/>
-      <c r="AD2" s="333"/>
-      <c r="AE2" s="333"/>
-      <c r="AF2" s="333"/>
-      <c r="AG2" s="333"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="328"/>
+      <c r="W2" s="328"/>
+      <c r="X2" s="328"/>
+      <c r="Y2" s="328"/>
+      <c r="Z2" s="328"/>
+      <c r="AA2" s="328"/>
+      <c r="AB2" s="328"/>
+      <c r="AC2" s="328"/>
+      <c r="AD2" s="328"/>
+      <c r="AE2" s="328"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="328"/>
     </row>
     <row r="3" spans="1:39" ht="20.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -10233,12 +10194,12 @@
       <c r="W3" s="37"/>
       <c r="X3" s="37"/>
       <c r="Y3" s="37"/>
-      <c r="Z3" s="351" t="s">
+      <c r="Z3" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="351"/>
-      <c r="AB3" s="351"/>
-      <c r="AC3" s="351"/>
+      <c r="AA3" s="349"/>
+      <c r="AB3" s="349"/>
+      <c r="AC3" s="349"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="17"/>
@@ -10251,226 +10212,226 @@
       <c r="AM3" s="17"/>
     </row>
     <row r="4" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="292" t="s">
+      <c r="B4" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="344" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="340" t="s">
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="346" t="s">
+      <c r="I4" s="338"/>
+      <c r="J4" s="338"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="328"/>
-      <c r="N4" s="340" t="s">
+      <c r="M4" s="322"/>
+      <c r="N4" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="340"/>
-      <c r="P4" s="340"/>
-      <c r="Q4" s="340"/>
-      <c r="R4" s="340"/>
-      <c r="S4" s="340"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="340"/>
-      <c r="V4" s="340"/>
-      <c r="W4" s="340"/>
-      <c r="X4" s="331" t="s">
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
+      <c r="V4" s="338"/>
+      <c r="W4" s="338"/>
+      <c r="X4" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="Y4" s="340" t="s">
+      <c r="Y4" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="340"/>
-      <c r="AA4" s="340"/>
-      <c r="AB4" s="340"/>
-      <c r="AC4" s="340"/>
-      <c r="AD4" s="340" t="s">
+      <c r="Z4" s="338"/>
+      <c r="AA4" s="338"/>
+      <c r="AB4" s="338"/>
+      <c r="AC4" s="338"/>
+      <c r="AD4" s="338" t="s">
         <v>91</v>
       </c>
-      <c r="AE4" s="340"/>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="340"/>
-      <c r="AH4" s="340"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="340"/>
-      <c r="AK4" s="340"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="340"/>
+      <c r="AE4" s="338"/>
+      <c r="AF4" s="338"/>
+      <c r="AG4" s="338"/>
+      <c r="AH4" s="338"/>
+      <c r="AI4" s="338"/>
+      <c r="AJ4" s="338"/>
+      <c r="AK4" s="338"/>
+      <c r="AL4" s="338"/>
+      <c r="AM4" s="338"/>
     </row>
     <row r="5" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A5" s="292"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="340" t="s">
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="340" t="s">
+      <c r="I5" s="338" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="340" t="s">
+      <c r="J5" s="338" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="340" t="s">
+      <c r="K5" s="338" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="348"/>
-      <c r="M5" s="349"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="340"/>
-      <c r="Q5" s="340"/>
-      <c r="R5" s="340"/>
-      <c r="S5" s="340"/>
-      <c r="T5" s="340"/>
-      <c r="U5" s="340"/>
-      <c r="V5" s="340"/>
-      <c r="W5" s="340"/>
-      <c r="X5" s="331"/>
-      <c r="Y5" s="340"/>
-      <c r="Z5" s="340"/>
-      <c r="AA5" s="340"/>
-      <c r="AB5" s="340"/>
-      <c r="AC5" s="340"/>
-      <c r="AD5" s="305" t="s">
+      <c r="L5" s="346"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="338"/>
+      <c r="O5" s="338"/>
+      <c r="P5" s="338"/>
+      <c r="Q5" s="338"/>
+      <c r="R5" s="338"/>
+      <c r="S5" s="338"/>
+      <c r="T5" s="338"/>
+      <c r="U5" s="338"/>
+      <c r="V5" s="338"/>
+      <c r="W5" s="338"/>
+      <c r="X5" s="326"/>
+      <c r="Y5" s="338"/>
+      <c r="Z5" s="338"/>
+      <c r="AA5" s="338"/>
+      <c r="AB5" s="338"/>
+      <c r="AC5" s="338"/>
+      <c r="AD5" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="305"/>
-      <c r="AF5" s="305" t="s">
+      <c r="AE5" s="325"/>
+      <c r="AF5" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="305"/>
-      <c r="AH5" s="305" t="s">
+      <c r="AG5" s="325"/>
+      <c r="AH5" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="319" t="s">
+      <c r="AI5" s="325"/>
+      <c r="AJ5" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="320"/>
-      <c r="AL5" s="308" t="s">
+      <c r="AK5" s="336"/>
+      <c r="AL5" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="305"/>
+      <c r="AM5" s="325"/>
     </row>
     <row r="6" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A6" s="292"/>
-      <c r="B6" s="292"/>
-      <c r="C6" s="292" t="s">
+      <c r="A6" s="290"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="292" t="s">
+      <c r="D6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="302" t="s">
+      <c r="F6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="292" t="s">
+      <c r="G6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="340"/>
-      <c r="I6" s="340"/>
-      <c r="J6" s="340"/>
-      <c r="K6" s="340"/>
-      <c r="L6" s="347"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="305" t="s">
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="338"/>
+      <c r="K6" s="338"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="305"/>
-      <c r="P6" s="305" t="s">
+      <c r="O6" s="325"/>
+      <c r="P6" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305" t="s">
+      <c r="Q6" s="325"/>
+      <c r="R6" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="305"/>
-      <c r="T6" s="319" t="s">
+      <c r="S6" s="325"/>
+      <c r="T6" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="320"/>
-      <c r="V6" s="308" t="s">
+      <c r="U6" s="336"/>
+      <c r="V6" s="334" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="305"/>
-      <c r="X6" s="331"/>
-      <c r="Y6" s="292" t="s">
+      <c r="W6" s="325"/>
+      <c r="X6" s="326"/>
+      <c r="Y6" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="292" t="s">
+      <c r="Z6" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="292" t="s">
+      <c r="AA6" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="302" t="s">
+      <c r="AB6" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="292" t="s">
+      <c r="AC6" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="292" t="s">
+      <c r="AD6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="292" t="s">
+      <c r="AE6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="292" t="s">
+      <c r="AF6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="292" t="s">
+      <c r="AG6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="292" t="s">
+      <c r="AH6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="292" t="s">
+      <c r="AI6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="292" t="s">
+      <c r="AJ6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="292" t="s">
+      <c r="AK6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="292" t="s">
+      <c r="AL6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="292" t="s">
+      <c r="AM6" s="290" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="20.25" customHeight="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="340"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="340"/>
-      <c r="K7" s="340"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
       <c r="L7" s="33" t="s">
         <v>13</v>
       </c>
@@ -10507,22 +10468,22 @@
       <c r="W7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="331"/>
-      <c r="Y7" s="302"/>
-      <c r="Z7" s="302"/>
-      <c r="AA7" s="302"/>
-      <c r="AB7" s="339"/>
-      <c r="AC7" s="302"/>
-      <c r="AD7" s="292"/>
-      <c r="AE7" s="292"/>
-      <c r="AF7" s="292"/>
-      <c r="AG7" s="292"/>
-      <c r="AH7" s="292"/>
-      <c r="AI7" s="292"/>
-      <c r="AJ7" s="292"/>
-      <c r="AK7" s="292"/>
-      <c r="AL7" s="292"/>
-      <c r="AM7" s="292"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="337"/>
+      <c r="AC7" s="300"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -10588,345 +10549,345 @@
       <selection pane="bottomRight" activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="39"/>
-    <col min="9" max="9" width="14.33203125" style="39" customWidth="1"/>
-    <col min="10" max="23" width="16.6640625" style="39" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="8.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="39"/>
+    <col min="9" max="9" width="14.28515625" style="39" customWidth="1"/>
+    <col min="10" max="23" width="16.7109375" style="39" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1">
-      <c r="A1" s="352" t="s">
+      <c r="A1" s="350" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="352"/>
-      <c r="C1" s="352"/>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
-      <c r="N1" s="352"/>
-      <c r="O1" s="352"/>
-      <c r="P1" s="352"/>
-      <c r="Q1" s="352"/>
-      <c r="R1" s="352"/>
-      <c r="S1" s="352"/>
-      <c r="T1" s="352"/>
-      <c r="U1" s="352"/>
-      <c r="V1" s="352"/>
-      <c r="W1" s="352"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="350"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="350"/>
+      <c r="V1" s="350"/>
+      <c r="W1" s="350"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="351" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="353"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="353"/>
-      <c r="P2" s="353"/>
-      <c r="Q2" s="353"/>
-      <c r="R2" s="353"/>
-      <c r="S2" s="353"/>
-      <c r="T2" s="353"/>
-      <c r="U2" s="353"/>
-      <c r="V2" s="353"/>
-      <c r="W2" s="353"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="351"/>
+      <c r="S2" s="351"/>
+      <c r="T2" s="351"/>
+      <c r="U2" s="351"/>
+      <c r="V2" s="351"/>
+      <c r="W2" s="351"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="352" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="354"/>
-      <c r="M3" s="354"/>
-      <c r="N3" s="354"/>
-      <c r="O3" s="354"/>
-      <c r="P3" s="354"/>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="354"/>
-      <c r="S3" s="354"/>
-      <c r="T3" s="354"/>
-      <c r="U3" s="354"/>
-      <c r="V3" s="354"/>
-      <c r="W3" s="354"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
+      <c r="V3" s="352"/>
+      <c r="W3" s="352"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="355" t="str">
+      <c r="A4" s="353" t="str">
         <f>[2]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B4" s="355"/>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355"/>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355"/>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355"/>
-      <c r="I4" s="355"/>
-      <c r="J4" s="355"/>
-      <c r="K4" s="355"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="355"/>
-      <c r="S4" s="355"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="355"/>
-      <c r="V4" s="355"/>
-      <c r="W4" s="355"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="353"/>
+      <c r="J4" s="353"/>
+      <c r="K4" s="353"/>
+      <c r="L4" s="353"/>
+      <c r="M4" s="353"/>
+      <c r="N4" s="353"/>
+      <c r="O4" s="353"/>
+      <c r="P4" s="353"/>
+      <c r="Q4" s="353"/>
+      <c r="R4" s="353"/>
+      <c r="S4" s="353"/>
+      <c r="T4" s="353"/>
+      <c r="U4" s="353"/>
+      <c r="V4" s="353"/>
+      <c r="W4" s="353"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="353" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="355"/>
-      <c r="C5" s="355"/>
-      <c r="D5" s="355"/>
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
-      <c r="G5" s="355"/>
-      <c r="H5" s="355"/>
-      <c r="I5" s="355"/>
-      <c r="J5" s="355"/>
-      <c r="K5" s="355"/>
-      <c r="L5" s="355"/>
-      <c r="M5" s="355"/>
-      <c r="N5" s="355"/>
-      <c r="O5" s="355"/>
-      <c r="P5" s="355"/>
-      <c r="Q5" s="355"/>
-      <c r="R5" s="355"/>
-      <c r="S5" s="355"/>
-      <c r="T5" s="355"/>
-      <c r="U5" s="355"/>
-      <c r="V5" s="355"/>
-      <c r="W5" s="355"/>
+      <c r="B5" s="353"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="353"/>
+      <c r="K5" s="353"/>
+      <c r="L5" s="353"/>
+      <c r="M5" s="353"/>
+      <c r="N5" s="353"/>
+      <c r="O5" s="353"/>
+      <c r="P5" s="353"/>
+      <c r="Q5" s="353"/>
+      <c r="R5" s="353"/>
+      <c r="S5" s="353"/>
+      <c r="T5" s="353"/>
+      <c r="U5" s="353"/>
+      <c r="V5" s="353"/>
+      <c r="W5" s="353"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="A6" s="356" t="s">
+      <c r="A6" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="356" t="s">
+      <c r="B6" s="354" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="356" t="s">
+      <c r="C6" s="354" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="356" t="s">
+      <c r="D6" s="354" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="292" t="s">
+      <c r="F6" s="290" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="292" t="s">
+      <c r="G6" s="290" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="292" t="s">
+      <c r="H6" s="290" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="292" t="s">
+      <c r="I6" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="359" t="s">
+      <c r="J6" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="359"/>
-      <c r="L6" s="310" t="s">
+      <c r="K6" s="357"/>
+      <c r="L6" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="310"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310" t="s">
+      <c r="M6" s="304"/>
+      <c r="N6" s="304"/>
+      <c r="O6" s="304"/>
+      <c r="P6" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="310" t="s">
+      <c r="Q6" s="304"/>
+      <c r="R6" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="310"/>
-      <c r="T6" s="310" t="s">
+      <c r="S6" s="304"/>
+      <c r="T6" s="304" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="310"/>
-      <c r="V6" s="310" t="s">
+      <c r="U6" s="304"/>
+      <c r="V6" s="304" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="310"/>
+      <c r="W6" s="304"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="A7" s="356"/>
-      <c r="B7" s="356"/>
-      <c r="C7" s="356"/>
-      <c r="D7" s="356"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="359"/>
-      <c r="K7" s="359"/>
-      <c r="L7" s="310"/>
-      <c r="M7" s="310"/>
-      <c r="N7" s="310"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="310"/>
-      <c r="Q7" s="310"/>
-      <c r="R7" s="310"/>
-      <c r="S7" s="310"/>
-      <c r="T7" s="310"/>
-      <c r="U7" s="310"/>
-      <c r="V7" s="310"/>
-      <c r="W7" s="310"/>
+      <c r="A7" s="354"/>
+      <c r="B7" s="354"/>
+      <c r="C7" s="354"/>
+      <c r="D7" s="354"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="357"/>
+      <c r="L7" s="304"/>
+      <c r="M7" s="304"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="304"/>
+      <c r="P7" s="304"/>
+      <c r="Q7" s="304"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="304"/>
+      <c r="T7" s="304"/>
+      <c r="U7" s="304"/>
+      <c r="V7" s="304"/>
+      <c r="W7" s="304"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="A8" s="356"/>
-      <c r="B8" s="356"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="357" t="s">
+      <c r="A8" s="354"/>
+      <c r="B8" s="354"/>
+      <c r="C8" s="354"/>
+      <c r="D8" s="354"/>
+      <c r="E8" s="290"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="358" t="s">
+      <c r="K8" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="310" t="s">
+      <c r="L8" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="310" t="s">
+      <c r="M8" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="310" t="s">
+      <c r="N8" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="310" t="s">
+      <c r="O8" s="304" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="357" t="s">
+      <c r="P8" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="357" t="s">
+      <c r="Q8" s="355" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="357" t="s">
+      <c r="R8" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="357" t="s">
+      <c r="S8" s="355" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="357" t="s">
+      <c r="T8" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="U8" s="357" t="s">
+      <c r="U8" s="355" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="362" t="s">
+      <c r="V8" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="331" t="s">
+      <c r="W8" s="326" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1">
-      <c r="A9" s="356"/>
-      <c r="B9" s="356"/>
-      <c r="C9" s="356"/>
-      <c r="D9" s="356"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="357"/>
-      <c r="K9" s="358"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
-      <c r="P9" s="357"/>
-      <c r="Q9" s="357"/>
-      <c r="R9" s="357"/>
-      <c r="S9" s="357"/>
-      <c r="T9" s="357"/>
-      <c r="U9" s="357"/>
-      <c r="V9" s="362"/>
-      <c r="W9" s="331"/>
+      <c r="A9" s="354"/>
+      <c r="B9" s="354"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="355"/>
+      <c r="K9" s="356"/>
+      <c r="L9" s="304"/>
+      <c r="M9" s="304"/>
+      <c r="N9" s="304"/>
+      <c r="O9" s="304"/>
+      <c r="P9" s="355"/>
+      <c r="Q9" s="355"/>
+      <c r="R9" s="355"/>
+      <c r="S9" s="355"/>
+      <c r="T9" s="355"/>
+      <c r="U9" s="355"/>
+      <c r="V9" s="360"/>
+      <c r="W9" s="326"/>
     </row>
     <row r="305" spans="1:41" s="167" customFormat="1" ht="24" customHeight="1">
-      <c r="A305" s="360" t="s">
-        <v>183</v>
-      </c>
-      <c r="B305" s="360"/>
-      <c r="C305" s="360"/>
-      <c r="D305" s="360"/>
-      <c r="E305" s="361" t="s">
-        <v>149</v>
-      </c>
-      <c r="F305" s="361"/>
-      <c r="G305" s="361"/>
-      <c r="H305" s="361"/>
-      <c r="I305" s="361"/>
-      <c r="J305" s="361"/>
-      <c r="K305" s="361"/>
-      <c r="L305" s="361"/>
-      <c r="M305" s="361"/>
-      <c r="N305" s="361"/>
-      <c r="O305" s="361"/>
-      <c r="P305" s="361"/>
-      <c r="Q305" s="361"/>
-      <c r="R305" s="361"/>
-      <c r="S305" s="361"/>
-      <c r="T305" s="361"/>
-      <c r="U305" s="361"/>
-      <c r="V305" s="361"/>
-      <c r="W305" s="361"/>
-      <c r="X305" s="361"/>
-      <c r="Y305" s="361"/>
+      <c r="A305" s="358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" s="358"/>
+      <c r="C305" s="358"/>
+      <c r="D305" s="358"/>
+      <c r="E305" s="359" t="s">
+        <v>148</v>
+      </c>
+      <c r="F305" s="359"/>
+      <c r="G305" s="359"/>
+      <c r="H305" s="359"/>
+      <c r="I305" s="359"/>
+      <c r="J305" s="359"/>
+      <c r="K305" s="359"/>
+      <c r="L305" s="359"/>
+      <c r="M305" s="359"/>
+      <c r="N305" s="359"/>
+      <c r="O305" s="359"/>
+      <c r="P305" s="359"/>
+      <c r="Q305" s="359"/>
+      <c r="R305" s="359"/>
+      <c r="S305" s="359"/>
+      <c r="T305" s="359"/>
+      <c r="U305" s="359"/>
+      <c r="V305" s="359"/>
+      <c r="W305" s="359"/>
+      <c r="X305" s="359"/>
+      <c r="Y305" s="359"/>
       <c r="Z305" s="161"/>
       <c r="AA305" s="162"/>
       <c r="AB305" s="162"/>
@@ -10944,33 +10905,33 @@
       <c r="AN305" s="166"/>
       <c r="AO305" s="166"/>
     </row>
-    <row r="306" spans="1:41" s="167" customFormat="1" ht="16.8">
+    <row r="306" spans="1:41" s="167" customFormat="1" ht="16.5">
       <c r="A306" s="168"/>
       <c r="B306" s="168"/>
       <c r="C306" s="169"/>
-      <c r="E306" s="361" t="s">
-        <v>150</v>
-      </c>
-      <c r="F306" s="361"/>
-      <c r="G306" s="361"/>
-      <c r="H306" s="361"/>
-      <c r="I306" s="361"/>
-      <c r="J306" s="361"/>
-      <c r="K306" s="361"/>
-      <c r="L306" s="361"/>
-      <c r="M306" s="361"/>
-      <c r="N306" s="361"/>
-      <c r="O306" s="361"/>
-      <c r="P306" s="361"/>
-      <c r="Q306" s="361"/>
-      <c r="R306" s="361"/>
-      <c r="S306" s="361"/>
-      <c r="T306" s="361"/>
-      <c r="U306" s="361"/>
-      <c r="V306" s="361"/>
-      <c r="W306" s="361"/>
-      <c r="X306" s="361"/>
-      <c r="Y306" s="361"/>
+      <c r="E306" s="359" t="s">
+        <v>149</v>
+      </c>
+      <c r="F306" s="359"/>
+      <c r="G306" s="359"/>
+      <c r="H306" s="359"/>
+      <c r="I306" s="359"/>
+      <c r="J306" s="359"/>
+      <c r="K306" s="359"/>
+      <c r="L306" s="359"/>
+      <c r="M306" s="359"/>
+      <c r="N306" s="359"/>
+      <c r="O306" s="359"/>
+      <c r="P306" s="359"/>
+      <c r="Q306" s="359"/>
+      <c r="R306" s="359"/>
+      <c r="S306" s="359"/>
+      <c r="T306" s="359"/>
+      <c r="U306" s="359"/>
+      <c r="V306" s="359"/>
+      <c r="W306" s="359"/>
+      <c r="X306" s="359"/>
+      <c r="Y306" s="359"/>
       <c r="Z306" s="161"/>
       <c r="AA306" s="162"/>
       <c r="AB306" s="162"/>
@@ -10988,7 +10949,7 @@
       <c r="AN306" s="166"/>
       <c r="AO306" s="166"/>
     </row>
-    <row r="307" spans="1:41" s="167" customFormat="1" ht="16.8">
+    <row r="307" spans="1:41" s="167" customFormat="1" ht="16.5">
       <c r="A307" s="168"/>
       <c r="B307" s="168"/>
       <c r="C307" s="168"/>
@@ -11030,7 +10991,7 @@
       <c r="AN307" s="166"/>
       <c r="AO307" s="166"/>
     </row>
-    <row r="308" spans="1:41" s="167" customFormat="1" ht="16.8">
+    <row r="308" spans="1:41" s="167" customFormat="1" ht="16.5">
       <c r="A308" s="168"/>
       <c r="B308" s="168"/>
       <c r="C308" s="168"/>
@@ -11072,7 +11033,7 @@
       <c r="AN308" s="166"/>
       <c r="AO308" s="166"/>
     </row>
-    <row r="309" spans="1:41" s="167" customFormat="1" ht="16.8">
+    <row r="309" spans="1:41" s="167" customFormat="1" ht="16.5">
       <c r="A309" s="168"/>
       <c r="B309" s="168"/>
       <c r="C309" s="168"/>
@@ -11114,7 +11075,7 @@
       <c r="AN309" s="166"/>
       <c r="AO309" s="166"/>
     </row>
-    <row r="310" spans="1:41" s="167" customFormat="1" ht="16.8">
+    <row r="310" spans="1:41" s="167" customFormat="1" ht="16.5">
       <c r="A310" s="168"/>
       <c r="B310" s="168"/>
       <c r="C310" s="168"/>
@@ -11160,29 +11121,29 @@
       <c r="A311" s="168"/>
       <c r="B311" s="168"/>
       <c r="C311" s="168"/>
-      <c r="E311" s="361" t="s">
-        <v>184</v>
-      </c>
-      <c r="F311" s="361"/>
-      <c r="G311" s="361"/>
-      <c r="H311" s="361"/>
-      <c r="I311" s="361"/>
-      <c r="J311" s="361"/>
-      <c r="K311" s="361"/>
-      <c r="L311" s="361"/>
-      <c r="M311" s="361"/>
-      <c r="N311" s="361"/>
-      <c r="O311" s="361"/>
-      <c r="P311" s="361"/>
-      <c r="Q311" s="361"/>
-      <c r="R311" s="361"/>
-      <c r="S311" s="361"/>
-      <c r="T311" s="361"/>
-      <c r="U311" s="361"/>
-      <c r="V311" s="361"/>
-      <c r="W311" s="361"/>
-      <c r="X311" s="361"/>
-      <c r="Y311" s="361"/>
+      <c r="E311" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="F311" s="359"/>
+      <c r="G311" s="359"/>
+      <c r="H311" s="359"/>
+      <c r="I311" s="359"/>
+      <c r="J311" s="359"/>
+      <c r="K311" s="359"/>
+      <c r="L311" s="359"/>
+      <c r="M311" s="359"/>
+      <c r="N311" s="359"/>
+      <c r="O311" s="359"/>
+      <c r="P311" s="359"/>
+      <c r="Q311" s="359"/>
+      <c r="R311" s="359"/>
+      <c r="S311" s="359"/>
+      <c r="T311" s="359"/>
+      <c r="U311" s="359"/>
+      <c r="V311" s="359"/>
+      <c r="W311" s="359"/>
+      <c r="X311" s="359"/>
+      <c r="Y311" s="359"/>
       <c r="Z311" s="161"/>
       <c r="AA311" s="162"/>
       <c r="AB311" s="162"/>
@@ -11253,59 +11214,59 @@
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="24" customWidth="1"/>
     <col min="4" max="4" width="14" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="24"/>
-    <col min="13" max="14" width="17.33203125" style="24" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="24"/>
+    <col min="8" max="8" width="17.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="24"/>
+    <col min="13" max="14" width="17.28515625" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="366"/>
+      <c r="I1" s="366"/>
+      <c r="J1" s="366"/>
+      <c r="K1" s="366"/>
+      <c r="L1" s="366"/>
+      <c r="M1" s="366"/>
+      <c r="N1" s="366"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="367" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
+      <c r="N2" s="367"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="41"/>
@@ -11324,59 +11285,59 @@
       <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="370"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="370"/>
-      <c r="N4" s="370"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="368"/>
+      <c r="J4" s="368"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="368"/>
+      <c r="M4" s="368"/>
+      <c r="N4" s="368"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="371" t="str">
+      <c r="A5" s="369" t="str">
         <f>[2]PT!A2:X2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B5" s="371"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
-      <c r="G5" s="371"/>
-      <c r="H5" s="371"/>
-      <c r="I5" s="371"/>
-      <c r="J5" s="371"/>
-      <c r="K5" s="371"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="371"/>
-      <c r="N5" s="371"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="371" t="s">
+      <c r="A6" s="369" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
+      <c r="B6" s="369"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="369"/>
+      <c r="M6" s="369"/>
+      <c r="N6" s="369"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="50"/>
@@ -11395,102 +11356,102 @@
       <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="363" t="s">
+      <c r="A8" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="363" t="s">
+      <c r="B8" s="361" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="364" t="s">
+      <c r="C8" s="362" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="363" t="s">
+      <c r="D8" s="361" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="292" t="s">
+      <c r="E8" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292" t="s">
+      <c r="F8" s="290"/>
+      <c r="G8" s="290" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292" t="s">
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="292" t="s">
+      <c r="L8" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="372" t="s">
+      <c r="M8" s="370" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="372"/>
+      <c r="N8" s="370"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="363"/>
-      <c r="B9" s="363"/>
-      <c r="C9" s="365"/>
-      <c r="D9" s="363"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="372"/>
-      <c r="N9" s="372"/>
+      <c r="A9" s="361"/>
+      <c r="B9" s="361"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="290"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="370"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="363"/>
-      <c r="B10" s="363"/>
-      <c r="C10" s="365"/>
-      <c r="D10" s="363"/>
-      <c r="E10" s="367" t="s">
+      <c r="A10" s="361"/>
+      <c r="B10" s="361"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="367" t="s">
+      <c r="F10" s="365" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="292" t="s">
+      <c r="G10" s="290" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="292" t="s">
+      <c r="H10" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="290" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="292" t="s">
+      <c r="J10" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="292"/>
-      <c r="L10" s="292"/>
-      <c r="M10" s="373" t="s">
+      <c r="K10" s="290"/>
+      <c r="L10" s="290"/>
+      <c r="M10" s="371" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="373" t="s">
+      <c r="N10" s="371" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="363"/>
-      <c r="B11" s="363"/>
-      <c r="C11" s="366"/>
-      <c r="D11" s="363"/>
-      <c r="E11" s="367"/>
-      <c r="F11" s="367"/>
-      <c r="G11" s="292"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="292"/>
-      <c r="J11" s="292"/>
-      <c r="K11" s="292"/>
-      <c r="L11" s="292"/>
-      <c r="M11" s="373"/>
-      <c r="N11" s="373"/>
+      <c r="A11" s="361"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="364"/>
+      <c r="D11" s="361"/>
+      <c r="E11" s="365"/>
+      <c r="F11" s="365"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -11525,94 +11486,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFC47B7-0CF8-4A7C-BEBE-696602751C34}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C213" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D218" sqref="D218"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="372" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="375" t="s">
+      <c r="A2" s="373" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="376" t="str">
+      <c r="A3" s="374" t="str">
         <f>[2]PT!A2</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
+      <c r="B3" s="374"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A4" s="377" t="s">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A4" s="375" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="377"/>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="375"/>
+      <c r="D4" s="375"/>
+      <c r="E4" s="375"/>
+      <c r="F4" s="375"/>
+      <c r="G4" s="375"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1"/>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A6" s="379" t="s">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="38.450000000000003" customHeight="1">
+      <c r="A6" s="377" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="379" t="s">
+      <c r="B6" s="377" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="378" t="s">
+      <c r="C6" s="376" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
+      <c r="D6" s="376"/>
+      <c r="E6" s="376"/>
+      <c r="F6" s="376"/>
+      <c r="G6" s="376"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="42.6" customHeight="1">
-      <c r="A7" s="379"/>
-      <c r="B7" s="379"/>
+      <c r="A7" s="377"/>
+      <c r="B7" s="377"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -11631,8 +11592,8 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="379"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="377"/>
+      <c r="B8" s="377"/>
       <c r="C8" s="10" t="s">
         <v>42</v>
       </c>
@@ -11669,79 +11630,79 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A1" s="374" t="s">
+    <row r="1" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A1" s="372" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-    </row>
-    <row r="2" spans="1:7" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="375" t="s">
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.15" customHeight="1">
+      <c r="A2" s="373" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A3" s="376" t="str">
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A3" s="374" t="str">
         <f>[2]PL1!A3:G3</f>
         <v>Thực hiện: từ 15h00 ngày 01/08/2024</v>
       </c>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A4" s="380" t="s">
+      <c r="B3" s="374"/>
+      <c r="C3" s="374"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="374"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A4" s="378" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A5" s="381" t="s">
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A5" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="381" t="s">
+      <c r="B5" s="379" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="382" t="s">
+      <c r="C5" s="380" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="381"/>
-      <c r="B6" s="381"/>
+      <c r="A6" s="379"/>
+      <c r="B6" s="379"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -11758,9 +11719,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A7" s="381"/>
-      <c r="B7" s="381"/>
+    <row r="7" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A7" s="379"/>
+      <c r="B7" s="379"/>
       <c r="C7" s="13" t="s">
         <v>42</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\TMS\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A55344-B074-45E9-92A9-AB4261949A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC1DAD6-463E-4C69-BE30-77B584D39015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="802" activeTab="2" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="802" activeTab="13" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="190">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -1599,7 +1599,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2205,59 +2205,11 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2265,82 +2217,176 @@
     <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="50" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2350,6 +2396,12 @@
     <xf numFmtId="167" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2365,17 +2417,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2387,42 +2442,6 @@
     </xf>
     <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="56" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2461,154 +2480,156 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="53" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="55" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="55" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2627,35 +2648,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2681,22 +2735,10 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,46 +2753,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,72 +2789,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2862,6 +2825,64 @@
     <xf numFmtId="167" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2877,24 +2898,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,13 +3484,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="38"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
@@ -3510,29 +3513,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="38"/>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="319" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="238" t="s">
+      <c r="C3" s="320"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="222" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="238" t="s">
+      <c r="F3" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="238" t="s">
+      <c r="G3" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="240" t="s">
+      <c r="H3" s="325" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="241"/>
-      <c r="J3" s="242" t="s">
+      <c r="I3" s="326"/>
+      <c r="J3" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="243"/>
-      <c r="L3" s="238" t="s">
+      <c r="K3" s="328"/>
+      <c r="L3" s="222" t="s">
         <v>110</v>
       </c>
       <c r="M3" s="38"/>
@@ -3546,7 +3549,7 @@
       <c r="U3" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="V3" s="222" t="s">
+      <c r="V3" s="310" t="s">
         <v>145</v>
       </c>
       <c r="W3" s="77" t="s">
@@ -3559,21 +3562,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
+      <c r="B4" s="322"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
       <c r="H4" s="39" t="s">
         <v>111</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="244"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="239"/>
+      <c r="J4" s="329"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="223"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
       <c r="O4" s="38"/>
@@ -3585,7 +3588,7 @@
       <c r="U4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="223"/>
+      <c r="V4" s="311"/>
       <c r="W4" s="77" t="s">
         <v>100</v>
       </c>
@@ -3596,17 +3599,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="38"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
       <c r="E5" s="195"/>
       <c r="F5" s="195"/>
       <c r="G5" s="196"/>
       <c r="H5" s="195"/>
       <c r="I5" s="195"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="249"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="333"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
@@ -3627,17 +3630,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="38"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
       <c r="E6" s="195"/>
       <c r="F6" s="195"/>
       <c r="G6" s="196"/>
       <c r="H6" s="195"/>
       <c r="I6" s="195"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="248"/>
-      <c r="L6" s="250"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="334"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
@@ -3656,17 +3659,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="38"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
       <c r="E7" s="195"/>
       <c r="F7" s="195"/>
       <c r="G7" s="196"/>
       <c r="H7" s="195"/>
       <c r="I7" s="195"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="248"/>
-      <c r="L7" s="250"/>
+      <c r="J7" s="331"/>
+      <c r="K7" s="332"/>
+      <c r="L7" s="334"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -3685,17 +3688,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="38"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
       <c r="E8" s="195"/>
       <c r="F8" s="195"/>
       <c r="G8" s="196"/>
       <c r="H8" s="195"/>
       <c r="I8" s="195"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="251"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="335"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
@@ -3733,23 +3736,23 @@
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="121"/>
-      <c r="U9" s="230"/>
-      <c r="V9" s="230"/>
-      <c r="W9" s="230"/>
-      <c r="X9" s="230"/>
+      <c r="U9" s="318"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="318"/>
+      <c r="X9" s="318"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="38"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="255"/>
-      <c r="H10" s="255"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
@@ -3762,29 +3765,29 @@
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="121"/>
-      <c r="U10" s="228" t="s">
+      <c r="U10" s="316" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="224" t="s">
+      <c r="V10" s="312" t="s">
         <v>157</v>
       </c>
-      <c r="W10" s="225"/>
-      <c r="X10" s="226"/>
+      <c r="W10" s="313"/>
+      <c r="X10" s="314"/>
       <c r="Y10" s="79"/>
       <c r="Z10" s="79"/>
       <c r="AA10" s="79"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="307" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257" t="s">
+      <c r="C11" s="307"/>
+      <c r="D11" s="307"/>
+      <c r="E11" s="308" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="257"/>
+      <c r="F11" s="308"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -3799,7 +3802,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="121"/>
-      <c r="U11" s="229"/>
+      <c r="U11" s="317"/>
       <c r="V11" s="63" t="s">
         <v>158</v>
       </c>
@@ -3815,11 +3818,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="304"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -3846,11 +3849,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="38"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -3875,11 +3878,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="304"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -3904,11 +3907,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="38"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="304"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -4194,10 +4197,10 @@
       <c r="R24" s="46"/>
       <c r="S24" s="46"/>
       <c r="T24" s="84"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
+      <c r="U24" s="309"/>
+      <c r="V24" s="309"/>
+      <c r="W24" s="309"/>
+      <c r="X24" s="309"/>
       <c r="Y24" s="89"/>
       <c r="Z24" s="89"/>
       <c r="AA24" s="90"/>
@@ -4223,14 +4226,14 @@
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
-      <c r="U25" s="227" t="s">
+      <c r="U25" s="315" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="227" t="s">
+      <c r="V25" s="315" t="s">
         <v>163</v>
       </c>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
+      <c r="W25" s="315"/>
+      <c r="X25" s="315"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
@@ -4256,7 +4259,7 @@
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
       <c r="T26" s="69"/>
-      <c r="U26" s="227"/>
+      <c r="U26" s="315"/>
       <c r="V26" s="63" t="s">
         <v>164</v>
       </c>
@@ -4444,26 +4447,26 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="253" t="s">
+      <c r="A33" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="253"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
       <c r="E33" s="48"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
       <c r="I33" s="48"/>
-      <c r="J33" s="254" t="s">
+      <c r="J33" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="K33" s="254"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="254"/>
-      <c r="N33" s="254"/>
-      <c r="O33" s="254"/>
-      <c r="P33" s="254"/>
+      <c r="K33" s="273"/>
+      <c r="L33" s="273"/>
+      <c r="M33" s="273"/>
+      <c r="N33" s="273"/>
+      <c r="O33" s="273"/>
+      <c r="P33" s="273"/>
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
       <c r="S33" s="46"/>
@@ -4477,26 +4480,26 @@
       <c r="AA33" s="50"/>
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A34" s="267" t="s">
+      <c r="A34" s="274" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="267"/>
-      <c r="C34" s="267"/>
-      <c r="D34" s="267"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274"/>
       <c r="E34" s="48"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
       <c r="I34" s="48"/>
-      <c r="J34" s="268" t="s">
+      <c r="J34" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="268"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="268"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="268"/>
-      <c r="P34" s="268"/>
+      <c r="K34" s="275"/>
+      <c r="L34" s="275"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="275"/>
+      <c r="O34" s="275"/>
+      <c r="P34" s="275"/>
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
       <c r="S34" s="46"/>
@@ -4539,24 +4542,24 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A36" s="269" t="s">
+      <c r="A36" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="269"/>
-      <c r="C36" s="269"/>
-      <c r="D36" s="269"/>
-      <c r="E36" s="269"/>
-      <c r="F36" s="269"/>
-      <c r="G36" s="269"/>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269"/>
-      <c r="J36" s="269"/>
-      <c r="K36" s="269"/>
-      <c r="L36" s="269"/>
-      <c r="M36" s="269"/>
-      <c r="N36" s="269"/>
-      <c r="O36" s="269"/>
-      <c r="P36" s="269"/>
+      <c r="B36" s="276"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="276"/>
+      <c r="F36" s="276"/>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
+      <c r="I36" s="276"/>
+      <c r="J36" s="276"/>
+      <c r="K36" s="276"/>
+      <c r="L36" s="276"/>
+      <c r="M36" s="276"/>
+      <c r="N36" s="276"/>
+      <c r="O36" s="276"/>
+      <c r="P36" s="276"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="55"/>
@@ -4570,22 +4573,22 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A37" s="270"/>
-      <c r="B37" s="270"/>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
-      <c r="K37" s="270"/>
-      <c r="L37" s="270"/>
-      <c r="M37" s="270"/>
-      <c r="N37" s="270"/>
-      <c r="O37" s="270"/>
-      <c r="P37" s="270"/>
+      <c r="A37" s="277"/>
+      <c r="B37" s="277"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="277"/>
+      <c r="E37" s="277"/>
+      <c r="F37" s="277"/>
+      <c r="G37" s="277"/>
+      <c r="H37" s="277"/>
+      <c r="I37" s="277"/>
+      <c r="J37" s="277"/>
+      <c r="K37" s="277"/>
+      <c r="L37" s="277"/>
+      <c r="M37" s="277"/>
+      <c r="N37" s="277"/>
+      <c r="O37" s="277"/>
+      <c r="P37" s="277"/>
       <c r="Q37" s="58"/>
       <c r="R37" s="58"/>
       <c r="S37" s="58"/>
@@ -4628,86 +4631,86 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A39" s="271" t="s">
+      <c r="A39" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="271" t="s">
+      <c r="B39" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="271" t="s">
+      <c r="C39" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="274" t="s">
+      <c r="D39" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="277" t="s">
+      <c r="E39" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="278"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="274" t="s">
+      <c r="F39" s="258"/>
+      <c r="G39" s="253"/>
+      <c r="H39" s="282" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="277" t="s">
+      <c r="I39" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="278"/>
-      <c r="K39" s="278"/>
-      <c r="L39" s="279"/>
-      <c r="M39" s="277" t="s">
+      <c r="J39" s="258"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="252" t="s">
         <v>129</v>
       </c>
-      <c r="N39" s="278"/>
-      <c r="O39" s="278"/>
-      <c r="P39" s="279"/>
+      <c r="N39" s="258"/>
+      <c r="O39" s="258"/>
+      <c r="P39" s="253"/>
       <c r="Q39" s="61"/>
       <c r="R39" s="61"/>
       <c r="S39" s="61"/>
       <c r="T39" s="61"/>
-      <c r="U39" s="258" t="s">
+      <c r="U39" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="V39" s="258"/>
-      <c r="W39" s="258"/>
-      <c r="X39" s="258"/>
-      <c r="Y39" s="259"/>
-      <c r="Z39" s="260"/>
-      <c r="AA39" s="261"/>
+      <c r="V39" s="296"/>
+      <c r="W39" s="296"/>
+      <c r="X39" s="296"/>
+      <c r="Y39" s="297"/>
+      <c r="Z39" s="298"/>
+      <c r="AA39" s="299"/>
     </row>
     <row r="40" spans="1:27" ht="9.75" customHeight="1">
-      <c r="A40" s="272"/>
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="275"/>
-      <c r="E40" s="280"/>
-      <c r="F40" s="281"/>
-      <c r="G40" s="282"/>
-      <c r="H40" s="275"/>
-      <c r="I40" s="280"/>
-      <c r="J40" s="281"/>
-      <c r="K40" s="281"/>
-      <c r="L40" s="282"/>
-      <c r="M40" s="280"/>
-      <c r="N40" s="281"/>
-      <c r="O40" s="281"/>
-      <c r="P40" s="282"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="244"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="283"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="260"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="283"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="260"/>
+      <c r="L40" s="257"/>
+      <c r="M40" s="256"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="260"/>
+      <c r="P40" s="257"/>
       <c r="Q40" s="61"/>
       <c r="R40" s="61"/>
       <c r="S40" s="61"/>
       <c r="T40" s="61"/>
-      <c r="U40" s="258"/>
-      <c r="V40" s="258"/>
-      <c r="W40" s="258"/>
-      <c r="X40" s="258"/>
-      <c r="Y40" s="262"/>
-      <c r="Z40" s="263"/>
-      <c r="AA40" s="264"/>
+      <c r="U40" s="296"/>
+      <c r="V40" s="296"/>
+      <c r="W40" s="296"/>
+      <c r="X40" s="296"/>
+      <c r="Y40" s="300"/>
+      <c r="Z40" s="301"/>
+      <c r="AA40" s="302"/>
     </row>
     <row r="41" spans="1:27" ht="45" customHeight="1">
-      <c r="A41" s="273"/>
-      <c r="B41" s="273"/>
-      <c r="C41" s="273"/>
-      <c r="D41" s="276"/>
+      <c r="A41" s="245"/>
+      <c r="B41" s="245"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="284"/>
       <c r="E41" s="62" t="s">
         <v>130</v>
       </c>
@@ -4717,28 +4720,28 @@
       <c r="G41" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="276"/>
-      <c r="I41" s="265" t="s">
+      <c r="H41" s="284"/>
+      <c r="I41" s="270" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="266"/>
-      <c r="K41" s="265" t="s">
+      <c r="J41" s="271"/>
+      <c r="K41" s="270" t="s">
         <v>134</v>
       </c>
-      <c r="L41" s="266"/>
-      <c r="M41" s="265" t="s">
+      <c r="L41" s="271"/>
+      <c r="M41" s="270" t="s">
         <v>135</v>
       </c>
-      <c r="N41" s="266"/>
-      <c r="O41" s="265" t="s">
+      <c r="N41" s="271"/>
+      <c r="O41" s="270" t="s">
         <v>134</v>
       </c>
-      <c r="P41" s="266"/>
+      <c r="P41" s="271"/>
       <c r="Q41" s="61"/>
       <c r="R41" s="61"/>
       <c r="S41" s="61"/>
       <c r="T41" s="61"/>
-      <c r="U41" s="258"/>
+      <c r="U41" s="296"/>
       <c r="V41" s="63" t="s">
         <v>136</v>
       </c>
@@ -4767,14 +4770,14 @@
       <c r="F42" s="193"/>
       <c r="G42" s="193"/>
       <c r="H42" s="194"/>
-      <c r="I42" s="283"/>
-      <c r="J42" s="284"/>
-      <c r="K42" s="283"/>
-      <c r="L42" s="284"/>
-      <c r="M42" s="283"/>
-      <c r="N42" s="284"/>
-      <c r="O42" s="283"/>
-      <c r="P42" s="284"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="295"/>
+      <c r="K42" s="294"/>
+      <c r="L42" s="295"/>
+      <c r="M42" s="294"/>
+      <c r="N42" s="295"/>
+      <c r="O42" s="294"/>
+      <c r="P42" s="295"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="65"/>
       <c r="S42" s="65"/>
@@ -4796,14 +4799,14 @@
       <c r="F43" s="193"/>
       <c r="G43" s="193"/>
       <c r="H43" s="194"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="284"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="284"/>
-      <c r="M43" s="283"/>
-      <c r="N43" s="284"/>
-      <c r="O43" s="283"/>
-      <c r="P43" s="284"/>
+      <c r="I43" s="294"/>
+      <c r="J43" s="295"/>
+      <c r="K43" s="294"/>
+      <c r="L43" s="295"/>
+      <c r="M43" s="294"/>
+      <c r="N43" s="295"/>
+      <c r="O43" s="294"/>
+      <c r="P43" s="295"/>
       <c r="Q43" s="65"/>
       <c r="R43" s="65"/>
       <c r="S43" s="65"/>
@@ -4825,14 +4828,14 @@
       <c r="F44" s="193"/>
       <c r="G44" s="193"/>
       <c r="H44" s="194"/>
-      <c r="I44" s="283"/>
-      <c r="J44" s="284"/>
-      <c r="K44" s="283"/>
-      <c r="L44" s="284"/>
-      <c r="M44" s="283"/>
-      <c r="N44" s="284"/>
-      <c r="O44" s="283"/>
-      <c r="P44" s="284"/>
+      <c r="I44" s="294"/>
+      <c r="J44" s="295"/>
+      <c r="K44" s="294"/>
+      <c r="L44" s="295"/>
+      <c r="M44" s="294"/>
+      <c r="N44" s="295"/>
+      <c r="O44" s="294"/>
+      <c r="P44" s="295"/>
       <c r="Q44" s="65"/>
       <c r="R44" s="65"/>
       <c r="S44" s="65"/>
@@ -4854,14 +4857,14 @@
       <c r="F45" s="193"/>
       <c r="G45" s="193"/>
       <c r="H45" s="194"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="284"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="284"/>
-      <c r="M45" s="283"/>
-      <c r="N45" s="284"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="284"/>
+      <c r="I45" s="294"/>
+      <c r="J45" s="295"/>
+      <c r="K45" s="294"/>
+      <c r="L45" s="295"/>
+      <c r="M45" s="294"/>
+      <c r="N45" s="295"/>
+      <c r="O45" s="294"/>
+      <c r="P45" s="295"/>
       <c r="Q45" s="65"/>
       <c r="R45" s="65"/>
       <c r="S45" s="65"/>
@@ -4913,60 +4916,60 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
       <c r="I47" s="46"/>
-      <c r="J47" s="285"/>
-      <c r="K47" s="285"/>
-      <c r="L47" s="285"/>
-      <c r="M47" s="285"/>
-      <c r="N47" s="285"/>
-      <c r="O47" s="285"/>
-      <c r="P47" s="285"/>
+      <c r="J47" s="224"/>
+      <c r="K47" s="224"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="224"/>
+      <c r="N47" s="224"/>
+      <c r="O47" s="224"/>
+      <c r="P47" s="224"/>
       <c r="Q47" s="69"/>
       <c r="R47" s="69"/>
       <c r="S47" s="69"/>
       <c r="T47" s="69"/>
-      <c r="U47" s="286" t="s">
+      <c r="U47" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="289" t="s">
+      <c r="V47" s="288" t="s">
         <v>139</v>
       </c>
-      <c r="W47" s="290"/>
-      <c r="X47" s="291"/>
+      <c r="W47" s="289"/>
+      <c r="X47" s="290"/>
       <c r="Y47" s="70"/>
       <c r="Z47" s="70"/>
       <c r="AA47" s="70"/>
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A48" s="295" t="s">
+      <c r="A48" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="295"/>
-      <c r="C48" s="296" t="s">
+      <c r="B48" s="225"/>
+      <c r="C48" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="296"/>
-      <c r="E48" s="296"/>
-      <c r="F48" s="296"/>
-      <c r="G48" s="297" t="s">
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="297"/>
-      <c r="I48" s="297"/>
-      <c r="J48" s="297"/>
-      <c r="K48" s="297"/>
-      <c r="L48" s="297"/>
-      <c r="M48" s="297"/>
-      <c r="N48" s="297"/>
-      <c r="O48" s="297"/>
-      <c r="P48" s="297"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="227"/>
+      <c r="K48" s="227"/>
+      <c r="L48" s="227"/>
+      <c r="M48" s="227"/>
+      <c r="N48" s="227"/>
+      <c r="O48" s="227"/>
+      <c r="P48" s="227"/>
       <c r="Q48" s="71"/>
       <c r="R48" s="71"/>
       <c r="S48" s="71"/>
       <c r="T48" s="71"/>
-      <c r="U48" s="287"/>
-      <c r="V48" s="292"/>
-      <c r="W48" s="293"/>
-      <c r="X48" s="294"/>
+      <c r="U48" s="286"/>
+      <c r="V48" s="291"/>
+      <c r="W48" s="292"/>
+      <c r="X48" s="293"/>
       <c r="Y48" s="70"/>
       <c r="Z48" s="70"/>
       <c r="AA48" s="70"/>
@@ -4981,18 +4984,18 @@
       <c r="G49" s="71"/>
       <c r="H49" s="71"/>
       <c r="I49" s="71"/>
-      <c r="J49" s="297"/>
-      <c r="K49" s="297"/>
-      <c r="L49" s="297"/>
-      <c r="M49" s="297"/>
-      <c r="N49" s="297"/>
-      <c r="O49" s="297"/>
-      <c r="P49" s="297"/>
+      <c r="J49" s="227"/>
+      <c r="K49" s="227"/>
+      <c r="L49" s="227"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
+      <c r="P49" s="227"/>
       <c r="Q49" s="71"/>
       <c r="R49" s="71"/>
       <c r="S49" s="71"/>
       <c r="T49" s="71"/>
-      <c r="U49" s="288"/>
+      <c r="U49" s="287"/>
       <c r="V49" s="63" t="s">
         <v>136</v>
       </c>
@@ -5132,15 +5135,15 @@
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
-      <c r="J54" s="220" t="s">
+      <c r="J54" s="281" t="s">
         <v>143</v>
       </c>
-      <c r="K54" s="220"/>
-      <c r="L54" s="220"/>
-      <c r="M54" s="220"/>
-      <c r="N54" s="220"/>
-      <c r="O54" s="220"/>
-      <c r="P54" s="220"/>
+      <c r="K54" s="281"/>
+      <c r="L54" s="281"/>
+      <c r="M54" s="281"/>
+      <c r="N54" s="281"/>
+      <c r="O54" s="281"/>
+      <c r="P54" s="281"/>
       <c r="Q54" s="74"/>
       <c r="R54" s="74"/>
       <c r="S54" s="74"/>
@@ -5624,26 +5627,26 @@
       <c r="AD70" s="46"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="253" t="s">
+      <c r="A71" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="253"/>
-      <c r="C71" s="253"/>
-      <c r="D71" s="253"/>
+      <c r="B71" s="272"/>
+      <c r="C71" s="272"/>
+      <c r="D71" s="272"/>
       <c r="E71" s="48"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
       <c r="H71" s="49"/>
       <c r="I71" s="48"/>
-      <c r="J71" s="254" t="s">
+      <c r="J71" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="K71" s="254"/>
-      <c r="L71" s="254"/>
-      <c r="M71" s="254"/>
-      <c r="N71" s="254"/>
-      <c r="O71" s="254"/>
-      <c r="P71" s="254"/>
+      <c r="K71" s="273"/>
+      <c r="L71" s="273"/>
+      <c r="M71" s="273"/>
+      <c r="N71" s="273"/>
+      <c r="O71" s="273"/>
+      <c r="P71" s="273"/>
       <c r="Q71" s="48"/>
       <c r="R71" s="48"/>
       <c r="S71" s="48"/>
@@ -5660,26 +5663,26 @@
       <c r="AD71" s="46"/>
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A72" s="267" t="s">
+      <c r="A72" s="274" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="267"/>
-      <c r="C72" s="267"/>
-      <c r="D72" s="267"/>
+      <c r="B72" s="274"/>
+      <c r="C72" s="274"/>
+      <c r="D72" s="274"/>
       <c r="E72" s="48"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
       <c r="I72" s="48"/>
-      <c r="J72" s="268" t="s">
+      <c r="J72" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="K72" s="268"/>
-      <c r="L72" s="268"/>
-      <c r="M72" s="268"/>
-      <c r="N72" s="268"/>
-      <c r="O72" s="268"/>
-      <c r="P72" s="268"/>
+      <c r="K72" s="275"/>
+      <c r="L72" s="275"/>
+      <c r="M72" s="275"/>
+      <c r="N72" s="275"/>
+      <c r="O72" s="275"/>
+      <c r="P72" s="275"/>
       <c r="Q72" s="49"/>
       <c r="R72" s="49"/>
       <c r="S72" s="49"/>
@@ -5715,39 +5718,39 @@
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
       <c r="S73" s="46"/>
-      <c r="T73" s="220" t="s">
+      <c r="T73" s="281" t="s">
         <v>143</v>
       </c>
-      <c r="U73" s="220"/>
-      <c r="V73" s="220"/>
-      <c r="W73" s="220"/>
-      <c r="X73" s="220"/>
-      <c r="Y73" s="220"/>
-      <c r="Z73" s="220"/>
+      <c r="U73" s="281"/>
+      <c r="V73" s="281"/>
+      <c r="W73" s="281"/>
+      <c r="X73" s="281"/>
+      <c r="Y73" s="281"/>
+      <c r="Z73" s="281"/>
       <c r="AA73" s="74"/>
       <c r="AB73" s="74"/>
       <c r="AC73" s="74"/>
       <c r="AD73" s="74"/>
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A74" s="269" t="s">
+      <c r="A74" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="269"/>
-      <c r="C74" s="269"/>
-      <c r="D74" s="269"/>
-      <c r="E74" s="269"/>
-      <c r="F74" s="269"/>
-      <c r="G74" s="269"/>
-      <c r="H74" s="269"/>
-      <c r="I74" s="269"/>
-      <c r="J74" s="269"/>
-      <c r="K74" s="269"/>
-      <c r="L74" s="269"/>
-      <c r="M74" s="269"/>
-      <c r="N74" s="269"/>
-      <c r="O74" s="269"/>
-      <c r="P74" s="269"/>
+      <c r="B74" s="276"/>
+      <c r="C74" s="276"/>
+      <c r="D74" s="276"/>
+      <c r="E74" s="276"/>
+      <c r="F74" s="276"/>
+      <c r="G74" s="276"/>
+      <c r="H74" s="276"/>
+      <c r="I74" s="276"/>
+      <c r="J74" s="276"/>
+      <c r="K74" s="276"/>
+      <c r="L74" s="276"/>
+      <c r="M74" s="276"/>
+      <c r="N74" s="276"/>
+      <c r="O74" s="276"/>
+      <c r="P74" s="276"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="55"/>
       <c r="S74" s="55"/>
@@ -5764,22 +5767,22 @@
       <c r="AD74" s="75"/>
     </row>
     <row r="75" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A75" s="270"/>
-      <c r="B75" s="270"/>
-      <c r="C75" s="270"/>
-      <c r="D75" s="270"/>
-      <c r="E75" s="270"/>
-      <c r="F75" s="270"/>
-      <c r="G75" s="270"/>
-      <c r="H75" s="270"/>
-      <c r="I75" s="270"/>
-      <c r="J75" s="270"/>
-      <c r="K75" s="270"/>
-      <c r="L75" s="270"/>
-      <c r="M75" s="270"/>
-      <c r="N75" s="270"/>
-      <c r="O75" s="270"/>
-      <c r="P75" s="270"/>
+      <c r="A75" s="277"/>
+      <c r="B75" s="277"/>
+      <c r="C75" s="277"/>
+      <c r="D75" s="277"/>
+      <c r="E75" s="277"/>
+      <c r="F75" s="277"/>
+      <c r="G75" s="277"/>
+      <c r="H75" s="277"/>
+      <c r="I75" s="277"/>
+      <c r="J75" s="277"/>
+      <c r="K75" s="277"/>
+      <c r="L75" s="277"/>
+      <c r="M75" s="277"/>
+      <c r="N75" s="277"/>
+      <c r="O75" s="277"/>
+      <c r="P75" s="277"/>
       <c r="Q75" s="58"/>
       <c r="R75" s="58"/>
       <c r="S75" s="58"/>
@@ -5830,46 +5833,46 @@
       <c r="AD76" s="75"/>
     </row>
     <row r="77" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A77" s="271" t="s">
+      <c r="A77" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="271" t="s">
+      <c r="B77" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="271" t="s">
+      <c r="C77" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="274" t="s">
+      <c r="D77" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="277" t="s">
+      <c r="E77" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="278"/>
-      <c r="G77" s="279"/>
-      <c r="H77" s="277" t="s">
+      <c r="F77" s="258"/>
+      <c r="G77" s="253"/>
+      <c r="H77" s="252" t="s">
         <v>149</v>
       </c>
-      <c r="I77" s="279"/>
-      <c r="J77" s="277" t="s">
+      <c r="I77" s="253"/>
+      <c r="J77" s="252" t="s">
         <v>150</v>
       </c>
-      <c r="K77" s="279"/>
-      <c r="L77" s="277" t="s">
+      <c r="K77" s="253"/>
+      <c r="L77" s="252" t="s">
         <v>151</v>
       </c>
-      <c r="M77" s="279"/>
-      <c r="N77" s="277" t="s">
+      <c r="M77" s="253"/>
+      <c r="N77" s="252" t="s">
         <v>152</v>
       </c>
-      <c r="O77" s="279"/>
-      <c r="P77" s="298" t="s">
+      <c r="O77" s="253"/>
+      <c r="P77" s="238" t="s">
         <v>153</v>
       </c>
-      <c r="Q77" s="298" t="s">
+      <c r="Q77" s="238" t="s">
         <v>154</v>
       </c>
-      <c r="R77" s="298" t="s">
+      <c r="R77" s="238" t="s">
         <v>155</v>
       </c>
       <c r="S77" s="78"/>
@@ -5886,24 +5889,24 @@
       <c r="AD77" s="75"/>
     </row>
     <row r="78" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A78" s="272"/>
-      <c r="B78" s="272"/>
-      <c r="C78" s="272"/>
-      <c r="D78" s="275"/>
-      <c r="E78" s="280"/>
-      <c r="F78" s="281"/>
-      <c r="G78" s="282"/>
-      <c r="H78" s="280"/>
-      <c r="I78" s="282"/>
-      <c r="J78" s="280"/>
-      <c r="K78" s="282"/>
-      <c r="L78" s="280"/>
-      <c r="M78" s="282"/>
-      <c r="N78" s="280"/>
-      <c r="O78" s="282"/>
-      <c r="P78" s="299"/>
-      <c r="Q78" s="299"/>
-      <c r="R78" s="299"/>
+      <c r="A78" s="244"/>
+      <c r="B78" s="244"/>
+      <c r="C78" s="244"/>
+      <c r="D78" s="283"/>
+      <c r="E78" s="256"/>
+      <c r="F78" s="260"/>
+      <c r="G78" s="257"/>
+      <c r="H78" s="256"/>
+      <c r="I78" s="257"/>
+      <c r="J78" s="256"/>
+      <c r="K78" s="257"/>
+      <c r="L78" s="256"/>
+      <c r="M78" s="257"/>
+      <c r="N78" s="256"/>
+      <c r="O78" s="257"/>
+      <c r="P78" s="239"/>
+      <c r="Q78" s="239"/>
+      <c r="R78" s="239"/>
       <c r="S78" s="45"/>
       <c r="T78" s="75"/>
       <c r="U78" s="75"/>
@@ -5918,46 +5921,46 @@
       <c r="AD78" s="75"/>
     </row>
     <row r="79" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A79" s="272"/>
-      <c r="B79" s="272"/>
-      <c r="C79" s="272"/>
-      <c r="D79" s="275"/>
-      <c r="E79" s="301" t="s">
+      <c r="A79" s="244"/>
+      <c r="B79" s="244"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="283"/>
+      <c r="E79" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="F79" s="301" t="s">
+      <c r="F79" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="G79" s="301" t="s">
+      <c r="G79" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="301" t="s">
+      <c r="H79" s="241" t="s">
         <v>156</v>
       </c>
-      <c r="I79" s="301" t="s">
+      <c r="I79" s="241" t="s">
         <v>134</v>
       </c>
-      <c r="J79" s="301" t="s">
+      <c r="J79" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="K79" s="301" t="s">
+      <c r="K79" s="241" t="s">
         <v>134</v>
       </c>
-      <c r="L79" s="301" t="s">
+      <c r="L79" s="241" t="s">
         <v>130</v>
       </c>
-      <c r="M79" s="301" t="s">
+      <c r="M79" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="N79" s="301" t="s">
+      <c r="N79" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="O79" s="301" t="s">
+      <c r="O79" s="241" t="s">
         <v>134</v>
       </c>
-      <c r="P79" s="299"/>
-      <c r="Q79" s="299"/>
-      <c r="R79" s="299"/>
+      <c r="P79" s="239"/>
+      <c r="Q79" s="239"/>
+      <c r="R79" s="239"/>
       <c r="S79" s="45"/>
       <c r="T79" s="75"/>
       <c r="U79" s="75"/>
@@ -5972,24 +5975,24 @@
       <c r="AD79" s="75"/>
     </row>
     <row r="80" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A80" s="273"/>
-      <c r="B80" s="273"/>
-      <c r="C80" s="273"/>
-      <c r="D80" s="276"/>
-      <c r="E80" s="302"/>
-      <c r="F80" s="302"/>
-      <c r="G80" s="302"/>
-      <c r="H80" s="302"/>
-      <c r="I80" s="302"/>
-      <c r="J80" s="302"/>
-      <c r="K80" s="302"/>
-      <c r="L80" s="302"/>
-      <c r="M80" s="302"/>
-      <c r="N80" s="302"/>
-      <c r="O80" s="302"/>
-      <c r="P80" s="300"/>
-      <c r="Q80" s="300"/>
-      <c r="R80" s="300"/>
+      <c r="A80" s="245"/>
+      <c r="B80" s="245"/>
+      <c r="C80" s="245"/>
+      <c r="D80" s="284"/>
+      <c r="E80" s="242"/>
+      <c r="F80" s="242"/>
+      <c r="G80" s="242"/>
+      <c r="H80" s="242"/>
+      <c r="I80" s="242"/>
+      <c r="J80" s="242"/>
+      <c r="K80" s="242"/>
+      <c r="L80" s="242"/>
+      <c r="M80" s="242"/>
+      <c r="N80" s="242"/>
+      <c r="O80" s="242"/>
+      <c r="P80" s="240"/>
+      <c r="Q80" s="240"/>
+      <c r="R80" s="240"/>
       <c r="S80" s="80"/>
       <c r="T80" s="75"/>
       <c r="U80" s="75"/>
@@ -6010,22 +6013,22 @@
       <c r="B81" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="321"/>
-      <c r="D81" s="322"/>
-      <c r="E81" s="322"/>
-      <c r="F81" s="322"/>
-      <c r="G81" s="322"/>
-      <c r="H81" s="322"/>
-      <c r="I81" s="322"/>
-      <c r="J81" s="322"/>
-      <c r="K81" s="322"/>
-      <c r="L81" s="322"/>
-      <c r="M81" s="322"/>
-      <c r="N81" s="322"/>
-      <c r="O81" s="322"/>
-      <c r="P81" s="322"/>
-      <c r="Q81" s="322"/>
-      <c r="R81" s="323"/>
+      <c r="C81" s="278"/>
+      <c r="D81" s="279"/>
+      <c r="E81" s="279"/>
+      <c r="F81" s="279"/>
+      <c r="G81" s="279"/>
+      <c r="H81" s="279"/>
+      <c r="I81" s="279"/>
+      <c r="J81" s="279"/>
+      <c r="K81" s="279"/>
+      <c r="L81" s="279"/>
+      <c r="M81" s="279"/>
+      <c r="N81" s="279"/>
+      <c r="O81" s="279"/>
+      <c r="P81" s="279"/>
+      <c r="Q81" s="279"/>
+      <c r="R81" s="280"/>
       <c r="S81" s="81"/>
       <c r="T81" s="75"/>
       <c r="U81" s="75"/>
@@ -6174,22 +6177,22 @@
       <c r="B86" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="321"/>
-      <c r="D86" s="322"/>
-      <c r="E86" s="322"/>
-      <c r="F86" s="322"/>
-      <c r="G86" s="322"/>
-      <c r="H86" s="322"/>
-      <c r="I86" s="322"/>
-      <c r="J86" s="322"/>
-      <c r="K86" s="322"/>
-      <c r="L86" s="322"/>
-      <c r="M86" s="322"/>
-      <c r="N86" s="322"/>
-      <c r="O86" s="322"/>
-      <c r="P86" s="322"/>
-      <c r="Q86" s="322"/>
-      <c r="R86" s="323"/>
+      <c r="C86" s="278"/>
+      <c r="D86" s="279"/>
+      <c r="E86" s="279"/>
+      <c r="F86" s="279"/>
+      <c r="G86" s="279"/>
+      <c r="H86" s="279"/>
+      <c r="I86" s="279"/>
+      <c r="J86" s="279"/>
+      <c r="K86" s="279"/>
+      <c r="L86" s="279"/>
+      <c r="M86" s="279"/>
+      <c r="N86" s="279"/>
+      <c r="O86" s="279"/>
+      <c r="P86" s="279"/>
+      <c r="Q86" s="279"/>
+      <c r="R86" s="280"/>
       <c r="S86" s="83"/>
       <c r="T86" s="75"/>
       <c r="U86" s="75"/>
@@ -6363,13 +6366,13 @@
       <c r="G92" s="46"/>
       <c r="H92" s="46"/>
       <c r="I92" s="46"/>
-      <c r="J92" s="285"/>
-      <c r="K92" s="285"/>
-      <c r="L92" s="285"/>
-      <c r="M92" s="285"/>
-      <c r="N92" s="285"/>
-      <c r="O92" s="285"/>
-      <c r="P92" s="285"/>
+      <c r="J92" s="224"/>
+      <c r="K92" s="224"/>
+      <c r="L92" s="224"/>
+      <c r="M92" s="224"/>
+      <c r="N92" s="224"/>
+      <c r="O92" s="224"/>
+      <c r="P92" s="224"/>
       <c r="Q92" s="69"/>
       <c r="R92" s="69"/>
       <c r="S92" s="83"/>
@@ -6383,28 +6386,28 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A93" s="295" t="s">
+      <c r="A93" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="295"/>
-      <c r="C93" s="296" t="s">
+      <c r="B93" s="225"/>
+      <c r="C93" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="296"/>
-      <c r="E93" s="296"/>
-      <c r="F93" s="296"/>
-      <c r="G93" s="297" t="s">
+      <c r="D93" s="226"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="226"/>
+      <c r="G93" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="H93" s="297"/>
-      <c r="I93" s="297"/>
-      <c r="J93" s="297"/>
-      <c r="K93" s="297"/>
-      <c r="L93" s="297"/>
-      <c r="M93" s="297"/>
-      <c r="N93" s="297"/>
-      <c r="O93" s="297"/>
-      <c r="P93" s="297"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="227"/>
+      <c r="J93" s="227"/>
+      <c r="K93" s="227"/>
+      <c r="L93" s="227"/>
+      <c r="M93" s="227"/>
+      <c r="N93" s="227"/>
+      <c r="O93" s="227"/>
+      <c r="P93" s="227"/>
       <c r="Q93" s="92"/>
       <c r="R93" s="92"/>
       <c r="S93" s="83"/>
@@ -6427,13 +6430,13 @@
       <c r="G94" s="71"/>
       <c r="H94" s="71"/>
       <c r="I94" s="71"/>
-      <c r="J94" s="297"/>
-      <c r="K94" s="297"/>
-      <c r="L94" s="297"/>
-      <c r="M94" s="297"/>
-      <c r="N94" s="297"/>
-      <c r="O94" s="297"/>
-      <c r="P94" s="297"/>
+      <c r="J94" s="227"/>
+      <c r="K94" s="227"/>
+      <c r="L94" s="227"/>
+      <c r="M94" s="227"/>
+      <c r="N94" s="227"/>
+      <c r="O94" s="227"/>
+      <c r="P94" s="227"/>
       <c r="Q94" s="92"/>
       <c r="R94" s="92"/>
       <c r="S94" s="46"/>
@@ -6572,16 +6575,16 @@
       <c r="G99" s="74"/>
       <c r="H99" s="74"/>
       <c r="I99" s="74"/>
-      <c r="J99" s="220" t="str">
+      <c r="J99" s="281" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="220"/>
-      <c r="L99" s="220"/>
-      <c r="M99" s="220"/>
-      <c r="N99" s="220"/>
-      <c r="O99" s="220"/>
-      <c r="P99" s="220"/>
+      <c r="K99" s="281"/>
+      <c r="L99" s="281"/>
+      <c r="M99" s="281"/>
+      <c r="N99" s="281"/>
+      <c r="O99" s="281"/>
+      <c r="P99" s="281"/>
       <c r="Q99" s="74"/>
       <c r="R99" s="74"/>
       <c r="S99" s="46"/>
@@ -6798,26 +6801,26 @@
       <c r="AA106" s="46"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="253" t="s">
+      <c r="A107" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="253"/>
-      <c r="C107" s="253"/>
-      <c r="D107" s="253"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="272"/>
+      <c r="D107" s="272"/>
       <c r="E107" s="48"/>
       <c r="F107" s="49"/>
       <c r="G107" s="49"/>
       <c r="H107" s="49"/>
       <c r="I107" s="48"/>
-      <c r="J107" s="254" t="s">
+      <c r="J107" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="K107" s="254"/>
-      <c r="L107" s="254"/>
-      <c r="M107" s="254"/>
-      <c r="N107" s="254"/>
-      <c r="O107" s="254"/>
-      <c r="P107" s="254"/>
+      <c r="K107" s="273"/>
+      <c r="L107" s="273"/>
+      <c r="M107" s="273"/>
+      <c r="N107" s="273"/>
+      <c r="O107" s="273"/>
+      <c r="P107" s="273"/>
       <c r="Q107" s="48"/>
       <c r="R107" s="48"/>
       <c r="S107" s="46"/>
@@ -6831,38 +6834,38 @@
       <c r="AA107" s="46"/>
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A108" s="267" t="s">
+      <c r="A108" s="274" t="s">
         <v>120</v>
       </c>
-      <c r="B108" s="267"/>
-      <c r="C108" s="267"/>
-      <c r="D108" s="267"/>
+      <c r="B108" s="274"/>
+      <c r="C108" s="274"/>
+      <c r="D108" s="274"/>
       <c r="E108" s="48"/>
       <c r="F108" s="51"/>
       <c r="G108" s="51"/>
       <c r="H108" s="51"/>
       <c r="I108" s="48"/>
-      <c r="J108" s="268" t="s">
+      <c r="J108" s="275" t="s">
         <v>121</v>
       </c>
-      <c r="K108" s="268"/>
-      <c r="L108" s="268"/>
-      <c r="M108" s="268"/>
-      <c r="N108" s="268"/>
-      <c r="O108" s="268"/>
-      <c r="P108" s="268"/>
+      <c r="K108" s="275"/>
+      <c r="L108" s="275"/>
+      <c r="M108" s="275"/>
+      <c r="N108" s="275"/>
+      <c r="O108" s="275"/>
+      <c r="P108" s="275"/>
       <c r="Q108" s="49"/>
       <c r="R108" s="49"/>
       <c r="S108" s="46"/>
-      <c r="T108" s="220" t="s">
+      <c r="T108" s="281" t="s">
         <v>143</v>
       </c>
-      <c r="U108" s="220"/>
-      <c r="V108" s="220"/>
-      <c r="W108" s="220"/>
-      <c r="X108" s="220"/>
-      <c r="Y108" s="220"/>
-      <c r="Z108" s="220"/>
+      <c r="U108" s="281"/>
+      <c r="V108" s="281"/>
+      <c r="W108" s="281"/>
+      <c r="X108" s="281"/>
+      <c r="Y108" s="281"/>
+      <c r="Z108" s="281"/>
       <c r="AA108" s="74"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6895,24 +6898,24 @@
       <c r="AA109" s="75"/>
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A110" s="269" t="s">
+      <c r="A110" s="276" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="269"/>
-      <c r="C110" s="269"/>
-      <c r="D110" s="269"/>
-      <c r="E110" s="269"/>
-      <c r="F110" s="269"/>
-      <c r="G110" s="269"/>
-      <c r="H110" s="269"/>
-      <c r="I110" s="269"/>
-      <c r="J110" s="269"/>
-      <c r="K110" s="269"/>
-      <c r="L110" s="269"/>
-      <c r="M110" s="269"/>
-      <c r="N110" s="269"/>
-      <c r="O110" s="269"/>
-      <c r="P110" s="269"/>
+      <c r="B110" s="276"/>
+      <c r="C110" s="276"/>
+      <c r="D110" s="276"/>
+      <c r="E110" s="276"/>
+      <c r="F110" s="276"/>
+      <c r="G110" s="276"/>
+      <c r="H110" s="276"/>
+      <c r="I110" s="276"/>
+      <c r="J110" s="276"/>
+      <c r="K110" s="276"/>
+      <c r="L110" s="276"/>
+      <c r="M110" s="276"/>
+      <c r="N110" s="276"/>
+      <c r="O110" s="276"/>
+      <c r="P110" s="276"/>
       <c r="Q110" s="55"/>
       <c r="R110" s="55"/>
       <c r="S110" s="48"/>
@@ -6926,25 +6929,25 @@
       <c r="AA110" s="75"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="270">
+      <c r="A111" s="277">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="270"/>
-      <c r="C111" s="270"/>
-      <c r="D111" s="270"/>
-      <c r="E111" s="270"/>
-      <c r="F111" s="270"/>
-      <c r="G111" s="270"/>
-      <c r="H111" s="270"/>
-      <c r="I111" s="270"/>
-      <c r="J111" s="270"/>
-      <c r="K111" s="270"/>
-      <c r="L111" s="270"/>
-      <c r="M111" s="270"/>
-      <c r="N111" s="270"/>
-      <c r="O111" s="270"/>
-      <c r="P111" s="270"/>
+      <c r="B111" s="277"/>
+      <c r="C111" s="277"/>
+      <c r="D111" s="277"/>
+      <c r="E111" s="277"/>
+      <c r="F111" s="277"/>
+      <c r="G111" s="277"/>
+      <c r="H111" s="277"/>
+      <c r="I111" s="277"/>
+      <c r="J111" s="277"/>
+      <c r="K111" s="277"/>
+      <c r="L111" s="277"/>
+      <c r="M111" s="277"/>
+      <c r="N111" s="277"/>
+      <c r="O111" s="277"/>
+      <c r="P111" s="277"/>
       <c r="Q111" s="58"/>
       <c r="R111" s="58"/>
       <c r="S111" s="49"/>
@@ -6987,34 +6990,34 @@
       <c r="AA112" s="75"/>
     </row>
     <row r="113" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A113" s="271" t="s">
+      <c r="A113" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="303" t="s">
+      <c r="B113" s="246" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="304"/>
-      <c r="D113" s="277" t="s">
+      <c r="C113" s="247"/>
+      <c r="D113" s="252" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="279"/>
-      <c r="F113" s="277" t="s">
+      <c r="E113" s="253"/>
+      <c r="F113" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="G113" s="278"/>
-      <c r="H113" s="279"/>
-      <c r="I113" s="277" t="s">
+      <c r="G113" s="258"/>
+      <c r="H113" s="253"/>
+      <c r="I113" s="252" t="s">
         <v>167</v>
       </c>
-      <c r="J113" s="278"/>
-      <c r="K113" s="278"/>
-      <c r="L113" s="279"/>
-      <c r="M113" s="312" t="s">
+      <c r="J113" s="258"/>
+      <c r="K113" s="258"/>
+      <c r="L113" s="253"/>
+      <c r="M113" s="261" t="s">
         <v>168</v>
       </c>
-      <c r="N113" s="313"/>
-      <c r="O113" s="313"/>
-      <c r="P113" s="314"/>
+      <c r="N113" s="262"/>
+      <c r="O113" s="262"/>
+      <c r="P113" s="263"/>
       <c r="Q113" s="95"/>
       <c r="R113" s="95"/>
       <c r="S113" s="55"/>
@@ -7028,22 +7031,22 @@
       <c r="AA113" s="75"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="272"/>
-      <c r="B114" s="305"/>
-      <c r="C114" s="306"/>
-      <c r="D114" s="309"/>
-      <c r="E114" s="310"/>
-      <c r="F114" s="309"/>
-      <c r="G114" s="311"/>
-      <c r="H114" s="310"/>
-      <c r="I114" s="280"/>
-      <c r="J114" s="281"/>
-      <c r="K114" s="281"/>
-      <c r="L114" s="282"/>
-      <c r="M114" s="315"/>
-      <c r="N114" s="316"/>
-      <c r="O114" s="316"/>
-      <c r="P114" s="317"/>
+      <c r="A114" s="244"/>
+      <c r="B114" s="248"/>
+      <c r="C114" s="249"/>
+      <c r="D114" s="254"/>
+      <c r="E114" s="255"/>
+      <c r="F114" s="254"/>
+      <c r="G114" s="259"/>
+      <c r="H114" s="255"/>
+      <c r="I114" s="256"/>
+      <c r="J114" s="260"/>
+      <c r="K114" s="260"/>
+      <c r="L114" s="257"/>
+      <c r="M114" s="264"/>
+      <c r="N114" s="265"/>
+      <c r="O114" s="265"/>
+      <c r="P114" s="266"/>
       <c r="Q114" s="95"/>
       <c r="R114" s="95"/>
       <c r="S114" s="58"/>
@@ -7057,26 +7060,26 @@
       <c r="AA114" s="75"/>
     </row>
     <row r="115" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A115" s="273"/>
-      <c r="B115" s="307"/>
-      <c r="C115" s="308"/>
-      <c r="D115" s="280"/>
-      <c r="E115" s="282"/>
-      <c r="F115" s="280"/>
-      <c r="G115" s="281"/>
-      <c r="H115" s="282"/>
-      <c r="I115" s="265" t="s">
+      <c r="A115" s="245"/>
+      <c r="B115" s="250"/>
+      <c r="C115" s="251"/>
+      <c r="D115" s="256"/>
+      <c r="E115" s="257"/>
+      <c r="F115" s="256"/>
+      <c r="G115" s="260"/>
+      <c r="H115" s="257"/>
+      <c r="I115" s="270" t="s">
         <v>169</v>
       </c>
-      <c r="J115" s="266"/>
-      <c r="K115" s="265" t="s">
+      <c r="J115" s="271"/>
+      <c r="K115" s="270" t="s">
         <v>170</v>
       </c>
-      <c r="L115" s="266"/>
-      <c r="M115" s="318"/>
-      <c r="N115" s="319"/>
-      <c r="O115" s="319"/>
-      <c r="P115" s="320"/>
+      <c r="L115" s="271"/>
+      <c r="M115" s="267"/>
+      <c r="N115" s="268"/>
+      <c r="O115" s="268"/>
+      <c r="P115" s="269"/>
       <c r="Q115" s="95"/>
       <c r="R115" s="95"/>
       <c r="S115" s="46"/>
@@ -7093,21 +7096,21 @@
       <c r="A116" s="64">
         <v>1</v>
       </c>
-      <c r="B116" s="327"/>
-      <c r="C116" s="328"/>
-      <c r="D116" s="329"/>
-      <c r="E116" s="330"/>
-      <c r="F116" s="331"/>
-      <c r="G116" s="332"/>
-      <c r="H116" s="333"/>
-      <c r="I116" s="324"/>
-      <c r="J116" s="325"/>
-      <c r="K116" s="324"/>
-      <c r="L116" s="325"/>
-      <c r="M116" s="324"/>
-      <c r="N116" s="326"/>
-      <c r="O116" s="326"/>
-      <c r="P116" s="325"/>
+      <c r="B116" s="228"/>
+      <c r="C116" s="229"/>
+      <c r="D116" s="230"/>
+      <c r="E116" s="231"/>
+      <c r="F116" s="232"/>
+      <c r="G116" s="233"/>
+      <c r="H116" s="234"/>
+      <c r="I116" s="235"/>
+      <c r="J116" s="236"/>
+      <c r="K116" s="235"/>
+      <c r="L116" s="236"/>
+      <c r="M116" s="235"/>
+      <c r="N116" s="237"/>
+      <c r="O116" s="237"/>
+      <c r="P116" s="236"/>
       <c r="Q116" s="97"/>
       <c r="R116" s="97"/>
       <c r="S116" s="95"/>
@@ -7124,21 +7127,21 @@
       <c r="A117" s="64">
         <v>2</v>
       </c>
-      <c r="B117" s="327"/>
-      <c r="C117" s="328"/>
-      <c r="D117" s="329"/>
-      <c r="E117" s="330"/>
-      <c r="F117" s="331"/>
-      <c r="G117" s="332"/>
-      <c r="H117" s="333"/>
-      <c r="I117" s="324"/>
-      <c r="J117" s="325"/>
-      <c r="K117" s="324"/>
-      <c r="L117" s="325"/>
-      <c r="M117" s="324"/>
-      <c r="N117" s="326"/>
-      <c r="O117" s="326"/>
-      <c r="P117" s="325"/>
+      <c r="B117" s="228"/>
+      <c r="C117" s="229"/>
+      <c r="D117" s="230"/>
+      <c r="E117" s="231"/>
+      <c r="F117" s="232"/>
+      <c r="G117" s="233"/>
+      <c r="H117" s="234"/>
+      <c r="I117" s="235"/>
+      <c r="J117" s="236"/>
+      <c r="K117" s="235"/>
+      <c r="L117" s="236"/>
+      <c r="M117" s="235"/>
+      <c r="N117" s="237"/>
+      <c r="O117" s="237"/>
+      <c r="P117" s="236"/>
       <c r="Q117" s="97"/>
       <c r="R117" s="97"/>
       <c r="S117" s="96"/>
@@ -7155,21 +7158,21 @@
       <c r="A118" s="64">
         <v>3</v>
       </c>
-      <c r="B118" s="327"/>
-      <c r="C118" s="328"/>
-      <c r="D118" s="329"/>
-      <c r="E118" s="330"/>
-      <c r="F118" s="331"/>
-      <c r="G118" s="332"/>
-      <c r="H118" s="333"/>
-      <c r="I118" s="324"/>
-      <c r="J118" s="325"/>
-      <c r="K118" s="324"/>
-      <c r="L118" s="325"/>
-      <c r="M118" s="324"/>
-      <c r="N118" s="326"/>
-      <c r="O118" s="326"/>
-      <c r="P118" s="325"/>
+      <c r="B118" s="228"/>
+      <c r="C118" s="229"/>
+      <c r="D118" s="230"/>
+      <c r="E118" s="231"/>
+      <c r="F118" s="232"/>
+      <c r="G118" s="233"/>
+      <c r="H118" s="234"/>
+      <c r="I118" s="235"/>
+      <c r="J118" s="236"/>
+      <c r="K118" s="235"/>
+      <c r="L118" s="236"/>
+      <c r="M118" s="235"/>
+      <c r="N118" s="237"/>
+      <c r="O118" s="237"/>
+      <c r="P118" s="236"/>
       <c r="Q118" s="97"/>
       <c r="R118" s="97"/>
       <c r="S118" s="97"/>
@@ -7186,21 +7189,21 @@
       <c r="A119" s="64">
         <v>4</v>
       </c>
-      <c r="B119" s="327"/>
-      <c r="C119" s="328"/>
-      <c r="D119" s="329"/>
-      <c r="E119" s="330"/>
-      <c r="F119" s="331"/>
-      <c r="G119" s="332"/>
-      <c r="H119" s="333"/>
-      <c r="I119" s="324"/>
-      <c r="J119" s="325"/>
-      <c r="K119" s="324"/>
-      <c r="L119" s="325"/>
-      <c r="M119" s="324"/>
-      <c r="N119" s="326"/>
-      <c r="O119" s="326"/>
-      <c r="P119" s="325"/>
+      <c r="B119" s="228"/>
+      <c r="C119" s="229"/>
+      <c r="D119" s="230"/>
+      <c r="E119" s="231"/>
+      <c r="F119" s="232"/>
+      <c r="G119" s="233"/>
+      <c r="H119" s="234"/>
+      <c r="I119" s="235"/>
+      <c r="J119" s="236"/>
+      <c r="K119" s="235"/>
+      <c r="L119" s="236"/>
+      <c r="M119" s="235"/>
+      <c r="N119" s="237"/>
+      <c r="O119" s="237"/>
+      <c r="P119" s="236"/>
       <c r="Q119" s="97"/>
       <c r="R119" s="97"/>
       <c r="S119" s="97"/>
@@ -7314,13 +7317,13 @@
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
       <c r="I123" s="46"/>
-      <c r="J123" s="285"/>
-      <c r="K123" s="285"/>
-      <c r="L123" s="285"/>
-      <c r="M123" s="285"/>
-      <c r="N123" s="285"/>
-      <c r="O123" s="285"/>
-      <c r="P123" s="285"/>
+      <c r="J123" s="224"/>
+      <c r="K123" s="224"/>
+      <c r="L123" s="224"/>
+      <c r="M123" s="224"/>
+      <c r="N123" s="224"/>
+      <c r="O123" s="224"/>
+      <c r="P123" s="224"/>
       <c r="Q123" s="69"/>
       <c r="R123" s="69"/>
       <c r="S123" s="46"/>
@@ -7334,28 +7337,28 @@
       <c r="AA123" s="45"/>
     </row>
     <row r="124" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A124" s="295" t="s">
+      <c r="A124" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="295"/>
-      <c r="C124" s="296" t="s">
+      <c r="B124" s="225"/>
+      <c r="C124" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="296"/>
-      <c r="E124" s="296"/>
-      <c r="F124" s="296"/>
-      <c r="G124" s="297" t="s">
+      <c r="D124" s="226"/>
+      <c r="E124" s="226"/>
+      <c r="F124" s="226"/>
+      <c r="G124" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="H124" s="297"/>
-      <c r="I124" s="297"/>
-      <c r="J124" s="297"/>
-      <c r="K124" s="297"/>
-      <c r="L124" s="297"/>
-      <c r="M124" s="297"/>
-      <c r="N124" s="297"/>
-      <c r="O124" s="297"/>
-      <c r="P124" s="297"/>
+      <c r="H124" s="227"/>
+      <c r="I124" s="227"/>
+      <c r="J124" s="227"/>
+      <c r="K124" s="227"/>
+      <c r="L124" s="227"/>
+      <c r="M124" s="227"/>
+      <c r="N124" s="227"/>
+      <c r="O124" s="227"/>
+      <c r="P124" s="227"/>
       <c r="Q124" s="71"/>
       <c r="R124" s="71"/>
       <c r="S124" s="102"/>
@@ -7378,13 +7381,13 @@
       <c r="G125" s="71"/>
       <c r="H125" s="71"/>
       <c r="I125" s="71"/>
-      <c r="J125" s="297"/>
-      <c r="K125" s="297"/>
-      <c r="L125" s="297"/>
-      <c r="M125" s="297"/>
-      <c r="N125" s="297"/>
-      <c r="O125" s="297"/>
-      <c r="P125" s="297"/>
+      <c r="J125" s="227"/>
+      <c r="K125" s="227"/>
+      <c r="L125" s="227"/>
+      <c r="M125" s="227"/>
+      <c r="N125" s="227"/>
+      <c r="O125" s="227"/>
+      <c r="P125" s="227"/>
       <c r="Q125" s="71"/>
       <c r="R125" s="71"/>
       <c r="S125" s="102"/>
@@ -7523,16 +7526,16 @@
       <c r="G130" s="108"/>
       <c r="H130" s="108"/>
       <c r="I130" s="108"/>
-      <c r="J130" s="334" t="str">
+      <c r="J130" s="221" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K130" s="334"/>
-      <c r="L130" s="334"/>
-      <c r="M130" s="334"/>
-      <c r="N130" s="334"/>
-      <c r="O130" s="334"/>
-      <c r="P130" s="334"/>
+      <c r="K130" s="221"/>
+      <c r="L130" s="221"/>
+      <c r="M130" s="221"/>
+      <c r="N130" s="221"/>
+      <c r="O130" s="221"/>
+      <c r="P130" s="221"/>
       <c r="Q130" s="108"/>
       <c r="R130" s="108"/>
       <c r="S130" s="105"/>
@@ -7609,6 +7612,148 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="T108:Z108"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:X48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:C115"/>
+    <mergeCell ref="D113:E115"/>
+    <mergeCell ref="F113:H115"/>
+    <mergeCell ref="I113:L114"/>
+    <mergeCell ref="M113:P115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="C81:R81"/>
+    <mergeCell ref="C86:R86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
     <mergeCell ref="J130:P130"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J123:P123"/>
@@ -7633,148 +7778,6 @@
     <mergeCell ref="M116:P116"/>
     <mergeCell ref="F118:H118"/>
     <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:C115"/>
-    <mergeCell ref="D113:E115"/>
-    <mergeCell ref="F113:H115"/>
-    <mergeCell ref="I113:L114"/>
-    <mergeCell ref="M113:P115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="J107:P107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="C81:R81"/>
-    <mergeCell ref="C86:R86"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:X48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="M39:P40"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="Y39:AA40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="T108:Z108"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9 B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -7807,65 +7810,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="431" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A2" s="439" t="s">
+      <c r="A2" s="440" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="439"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
+      <c r="B2" s="440"/>
+      <c r="C2" s="440"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A3" s="432"/>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
+      <c r="A3" s="433"/>
+      <c r="B3" s="433"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A4" s="436" t="s">
+      <c r="A4" s="437" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
+      <c r="B4" s="437"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="437"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="438" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="438" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="438" t="s">
+      <c r="C5" s="439" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="438"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="439"/>
     </row>
     <row r="6" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A6" s="437"/>
-      <c r="B6" s="437"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="438"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -7883,8 +7886,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A7" s="437"/>
-      <c r="B7" s="437"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="438"/>
       <c r="C7" s="146" t="s">
         <v>42</v>
       </c>
@@ -7939,72 +7942,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.7" customHeight="1">
       <c r="B1" s="184"/>
-      <c r="C1" s="430" t="s">
+      <c r="C1" s="431" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
     </row>
     <row r="2" spans="1:8" ht="20.7" customHeight="1">
       <c r="B2" s="185"/>
-      <c r="C2" s="439" t="s">
+      <c r="C2" s="440" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
     </row>
     <row r="3" spans="1:8" ht="20.7" customHeight="1">
       <c r="B3" s="185"/>
-      <c r="C3" s="439" t="s">
+      <c r="C3" s="440" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="439"/>
-      <c r="E3" s="439"/>
-      <c r="F3" s="439"/>
-      <c r="G3" s="439"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
     </row>
     <row r="4" spans="1:8" ht="20.7" customHeight="1">
       <c r="A4" s="175"/>
       <c r="B4" s="186"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
     </row>
     <row r="5" spans="1:8" ht="20.7" customHeight="1">
       <c r="B5" s="187"/>
-      <c r="C5" s="436" t="s">
+      <c r="C5" s="437" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="436"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="436"/>
-      <c r="G5" s="436"/>
+      <c r="D5" s="437"/>
+      <c r="E5" s="437"/>
+      <c r="F5" s="437"/>
+      <c r="G5" s="437"/>
     </row>
     <row r="6" spans="1:8" ht="20.7" customHeight="1">
-      <c r="A6" s="437" t="s">
+      <c r="A6" s="438" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="438" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="438" t="s">
+      <c r="C6" s="439" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="438"/>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438"/>
-      <c r="G6" s="438"/>
+      <c r="D6" s="439"/>
+      <c r="E6" s="439"/>
+      <c r="F6" s="439"/>
+      <c r="G6" s="439"/>
       <c r="H6" s="215"/>
     </row>
     <row r="7" spans="1:8" ht="20.7" customHeight="1">
-      <c r="A7" s="437"/>
-      <c r="B7" s="437"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="438"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -8022,8 +8025,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.7" customHeight="1">
-      <c r="A8" s="437"/>
-      <c r="B8" s="437"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="438"/>
       <c r="C8" s="188" t="s">
         <v>42</v>
       </c>
@@ -8060,10 +8063,10 @@
   <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="27.75" customHeight="1"/>
@@ -8082,7 +8085,7 @@
     <col min="12" max="12" width="15.5546875" style="166" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="167" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" style="166" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="166"/>
+    <col min="15" max="15" width="7.109375" style="166" customWidth="1"/>
     <col min="16" max="16" width="17.109375" style="167" customWidth="1"/>
     <col min="17" max="17" width="15.5546875" style="167" customWidth="1"/>
     <col min="18" max="18" width="16.6640625" style="167" customWidth="1"/>
@@ -8100,38 +8103,36 @@
       <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="155" t="s">
-        <v>90</v>
+      <c r="D2" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
         <v>99</v>
       </c>
@@ -8152,10 +8153,10 @@
   <dimension ref="A2:U2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="26.25" customHeight="1"/>
@@ -8220,10 +8221,10 @@
         <v>98</v>
       </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="335" t="s">
+      <c r="N2" s="220"/>
+      <c r="O2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="335"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
         <v>99</v>
@@ -8236,40 +8237,37 @@
       <c r="U2" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N2:O2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B781F7-9248-4E3E-949E-2748ABA6A834}">
-  <dimension ref="A3:T3"/>
+  <dimension ref="A3:R3"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="167" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="167" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="167" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="167" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" style="166" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="167" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="167" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="167" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="166"/>
     <col min="13" max="13" width="8.33203125" style="167" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="166" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" style="166" customWidth="1"/>
     <col min="15" max="15" width="8.33203125" style="166" customWidth="1"/>
     <col min="16" max="16" width="22.44140625" style="167" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" style="167" customWidth="1"/>
@@ -8277,7 +8275,7 @@
     <col min="19" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="40.200000000000003" customHeight="1">
+    <row r="3" spans="1:18" ht="40.200000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -8311,17 +8309,15 @@
         <v>96</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="152"/>
+      <c r="N3" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38606,46 +38602,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="125" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="343" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
-      <c r="S1" s="336"/>
-      <c r="T1" s="336"/>
-      <c r="U1" s="336"/>
-      <c r="V1" s="336"/>
-      <c r="W1" s="336"/>
-      <c r="X1" s="336"/>
-      <c r="Y1" s="336"/>
-      <c r="Z1" s="336"/>
-      <c r="AA1" s="336"/>
-      <c r="AB1" s="336"/>
-      <c r="AC1" s="336"/>
-      <c r="AD1" s="336"/>
-      <c r="AE1" s="336"/>
-      <c r="AF1" s="336"/>
-      <c r="AG1" s="336"/>
-      <c r="AH1" s="336"/>
-      <c r="AI1" s="336"/>
-      <c r="AJ1" s="336"/>
-      <c r="AK1" s="336"/>
-      <c r="AL1" s="336"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
+      <c r="Q1" s="343"/>
+      <c r="R1" s="343"/>
+      <c r="S1" s="343"/>
+      <c r="T1" s="343"/>
+      <c r="U1" s="343"/>
+      <c r="V1" s="343"/>
+      <c r="W1" s="343"/>
+      <c r="X1" s="343"/>
+      <c r="Y1" s="343"/>
+      <c r="Z1" s="343"/>
+      <c r="AA1" s="343"/>
+      <c r="AB1" s="343"/>
+      <c r="AC1" s="343"/>
+      <c r="AD1" s="343"/>
+      <c r="AE1" s="343"/>
+      <c r="AF1" s="343"/>
+      <c r="AG1" s="343"/>
+      <c r="AH1" s="343"/>
+      <c r="AI1" s="343"/>
+      <c r="AJ1" s="343"/>
+      <c r="AK1" s="343"/>
+      <c r="AL1" s="343"/>
       <c r="AM1" s="110"/>
       <c r="AN1" s="110"/>
       <c r="AO1" s="110"/>
@@ -38654,44 +38650,44 @@
       <c r="AR1" s="110"/>
     </row>
     <row r="2" spans="1:44" s="125" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="347"/>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
-      <c r="R2" s="347"/>
-      <c r="S2" s="347"/>
-      <c r="T2" s="347"/>
-      <c r="U2" s="347"/>
-      <c r="V2" s="347"/>
-      <c r="W2" s="347"/>
-      <c r="X2" s="347"/>
-      <c r="Y2" s="347"/>
-      <c r="Z2" s="347"/>
-      <c r="AA2" s="347"/>
-      <c r="AB2" s="347"/>
-      <c r="AC2" s="347"/>
-      <c r="AD2" s="347"/>
-      <c r="AE2" s="347"/>
-      <c r="AF2" s="347"/>
-      <c r="AG2" s="347"/>
-      <c r="AH2" s="347"/>
-      <c r="AI2" s="347"/>
-      <c r="AJ2" s="347"/>
-      <c r="AK2" s="347"/>
-      <c r="AL2" s="347"/>
+      <c r="A2" s="336"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336"/>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="336"/>
+      <c r="AH2" s="336"/>
+      <c r="AI2" s="336"/>
+      <c r="AJ2" s="336"/>
+      <c r="AK2" s="336"/>
+      <c r="AL2" s="336"/>
       <c r="AM2" s="110"/>
       <c r="AN2" s="110"/>
       <c r="AO2" s="110"/>
@@ -38700,231 +38696,231 @@
       <c r="AR2" s="110"/>
     </row>
     <row r="3" spans="1:44" ht="18" customHeight="1">
-      <c r="Y3" s="337" t="s">
+      <c r="Y3" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="337"/>
-      <c r="AA3" s="337"/>
-      <c r="AB3" s="337"/>
+      <c r="Z3" s="344"/>
+      <c r="AA3" s="344"/>
+      <c r="AB3" s="344"/>
     </row>
     <row r="4" spans="1:44" ht="18" customHeight="1">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="335" t="s">
+      <c r="D4" s="337" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
-      <c r="H4" s="335"/>
-      <c r="I4" s="335" t="s">
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="335"/>
-      <c r="K4" s="335"/>
-      <c r="L4" s="335" t="s">
+      <c r="J4" s="337"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="335"/>
-      <c r="N4" s="335" t="s">
+      <c r="M4" s="337"/>
+      <c r="N4" s="337" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="335"/>
-      <c r="P4" s="335"/>
-      <c r="Q4" s="335"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="335"/>
-      <c r="T4" s="335"/>
-      <c r="U4" s="335"/>
-      <c r="V4" s="335"/>
-      <c r="W4" s="335"/>
-      <c r="X4" s="335" t="s">
+      <c r="O4" s="337"/>
+      <c r="P4" s="337"/>
+      <c r="Q4" s="337"/>
+      <c r="R4" s="337"/>
+      <c r="S4" s="337"/>
+      <c r="T4" s="337"/>
+      <c r="U4" s="337"/>
+      <c r="V4" s="337"/>
+      <c r="W4" s="337"/>
+      <c r="X4" s="337" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="335"/>
-      <c r="Z4" s="335"/>
-      <c r="AA4" s="335"/>
-      <c r="AB4" s="335"/>
-      <c r="AC4" s="338" t="s">
+      <c r="Y4" s="337"/>
+      <c r="Z4" s="337"/>
+      <c r="AA4" s="337"/>
+      <c r="AB4" s="337"/>
+      <c r="AC4" s="345" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="339"/>
-      <c r="AE4" s="338" t="s">
+      <c r="AD4" s="346"/>
+      <c r="AE4" s="345" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="339"/>
-      <c r="AG4" s="338" t="s">
+      <c r="AF4" s="346"/>
+      <c r="AG4" s="345" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="339"/>
-      <c r="AI4" s="338" t="s">
+      <c r="AH4" s="346"/>
+      <c r="AI4" s="345" t="s">
         <v>23</v>
       </c>
-      <c r="AJ4" s="339"/>
-      <c r="AK4" s="338" t="s">
+      <c r="AJ4" s="346"/>
+      <c r="AK4" s="345" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="339"/>
+      <c r="AL4" s="346"/>
     </row>
     <row r="5" spans="1:44" ht="18" customHeight="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335" t="s">
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="335" t="s">
+      <c r="J5" s="337" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="335" t="s">
+      <c r="K5" s="337" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="335"/>
-      <c r="M5" s="335"/>
-      <c r="N5" s="335"/>
-      <c r="O5" s="335"/>
-      <c r="P5" s="335"/>
-      <c r="Q5" s="335"/>
-      <c r="R5" s="335"/>
-      <c r="S5" s="335"/>
-      <c r="T5" s="335"/>
-      <c r="U5" s="335"/>
-      <c r="V5" s="335"/>
-      <c r="W5" s="335"/>
-      <c r="X5" s="335"/>
-      <c r="Y5" s="335"/>
-      <c r="Z5" s="335"/>
-      <c r="AA5" s="335"/>
-      <c r="AB5" s="335"/>
-      <c r="AC5" s="340"/>
-      <c r="AD5" s="341"/>
-      <c r="AE5" s="340"/>
-      <c r="AF5" s="341"/>
-      <c r="AG5" s="340"/>
-      <c r="AH5" s="341"/>
-      <c r="AI5" s="340"/>
-      <c r="AJ5" s="341"/>
-      <c r="AK5" s="340"/>
-      <c r="AL5" s="341"/>
+      <c r="L5" s="337"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="337"/>
+      <c r="P5" s="337"/>
+      <c r="Q5" s="337"/>
+      <c r="R5" s="337"/>
+      <c r="S5" s="337"/>
+      <c r="T5" s="337"/>
+      <c r="U5" s="337"/>
+      <c r="V5" s="337"/>
+      <c r="W5" s="337"/>
+      <c r="X5" s="337"/>
+      <c r="Y5" s="337"/>
+      <c r="Z5" s="337"/>
+      <c r="AA5" s="337"/>
+      <c r="AB5" s="337"/>
+      <c r="AC5" s="347"/>
+      <c r="AD5" s="348"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="348"/>
+      <c r="AG5" s="347"/>
+      <c r="AH5" s="348"/>
+      <c r="AI5" s="347"/>
+      <c r="AJ5" s="348"/>
+      <c r="AK5" s="347"/>
+      <c r="AL5" s="348"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1">
-      <c r="A6" s="335"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="335"/>
-      <c r="D6" s="335" t="s">
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="335" t="s">
+      <c r="F6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="345" t="s">
+      <c r="G6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="335" t="s">
+      <c r="H6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="335"/>
-      <c r="J6" s="335"/>
-      <c r="K6" s="335"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="335" t="s">
+      <c r="N6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="335"/>
-      <c r="P6" s="335" t="s">
+      <c r="O6" s="337"/>
+      <c r="P6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="335" t="s">
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="335"/>
-      <c r="T6" s="342" t="s">
+      <c r="S6" s="337"/>
+      <c r="T6" s="340" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="343"/>
-      <c r="V6" s="344" t="s">
+      <c r="U6" s="341"/>
+      <c r="V6" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="335"/>
-      <c r="X6" s="335" t="s">
+      <c r="W6" s="337"/>
+      <c r="X6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="335" t="s">
+      <c r="Y6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="335" t="s">
+      <c r="Z6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="345" t="s">
+      <c r="AA6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="AB6" s="335" t="s">
+      <c r="AB6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="335" t="s">
+      <c r="AC6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="335" t="s">
+      <c r="AD6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="335" t="s">
+      <c r="AE6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="335" t="s">
+      <c r="AF6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="335" t="s">
+      <c r="AG6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="335" t="s">
+      <c r="AH6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="335" t="s">
+      <c r="AI6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="335" t="s">
+      <c r="AJ6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="335" t="s">
+      <c r="AK6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="335" t="s">
+      <c r="AL6" s="337" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="24" customHeight="1">
-      <c r="A7" s="335"/>
-      <c r="B7" s="335"/>
-      <c r="C7" s="335"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="335"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="335"/>
-      <c r="I7" s="335"/>
-      <c r="J7" s="335"/>
-      <c r="K7" s="335"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="339"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="337"/>
       <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
@@ -38961,21 +38957,21 @@
       <c r="W7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="335"/>
-      <c r="Y7" s="335"/>
-      <c r="Z7" s="335"/>
-      <c r="AA7" s="346"/>
-      <c r="AB7" s="335"/>
-      <c r="AC7" s="335"/>
-      <c r="AD7" s="335"/>
-      <c r="AE7" s="335"/>
-      <c r="AF7" s="335"/>
-      <c r="AG7" s="335"/>
-      <c r="AH7" s="335"/>
-      <c r="AI7" s="335"/>
-      <c r="AJ7" s="335"/>
-      <c r="AK7" s="335"/>
-      <c r="AL7" s="335"/>
+      <c r="X7" s="337"/>
+      <c r="Y7" s="337"/>
+      <c r="Z7" s="337"/>
+      <c r="AA7" s="339"/>
+      <c r="AB7" s="337"/>
+      <c r="AC7" s="337"/>
+      <c r="AD7" s="337"/>
+      <c r="AE7" s="337"/>
+      <c r="AF7" s="337"/>
+      <c r="AG7" s="337"/>
+      <c r="AH7" s="337"/>
+      <c r="AI7" s="337"/>
+      <c r="AJ7" s="337"/>
+      <c r="AK7" s="337"/>
+      <c r="AL7" s="337"/>
     </row>
     <row r="8" spans="1:44" ht="22.5" customHeight="1">
       <c r="B8" s="211"/>
@@ -54186,6 +54182,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="N4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="AG4:AH5"/>
+    <mergeCell ref="AI4:AJ5"/>
+    <mergeCell ref="AK4:AL5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="A2:AL2"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="K5:K7"/>
@@ -54202,34 +54226,6 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="N4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="AG4:AH5"/>
-    <mergeCell ref="AI4:AJ5"/>
-    <mergeCell ref="AK4:AL5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54240,8 +54236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C4A2F-FEFF-4285-A50E-C1999272D349}">
   <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AN8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="AL8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" sqref="A1:AO1"/>
@@ -54271,94 +54267,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="126" customFormat="1" ht="16.8">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
-      <c r="O1" s="376"/>
-      <c r="P1" s="376"/>
-      <c r="Q1" s="376"/>
-      <c r="R1" s="376"/>
-      <c r="S1" s="376"/>
-      <c r="T1" s="376"/>
-      <c r="U1" s="376"/>
-      <c r="V1" s="376"/>
-      <c r="W1" s="376"/>
-      <c r="X1" s="376"/>
-      <c r="Y1" s="376"/>
-      <c r="Z1" s="376"/>
-      <c r="AA1" s="376"/>
-      <c r="AB1" s="376"/>
-      <c r="AC1" s="376"/>
-      <c r="AD1" s="376"/>
-      <c r="AE1" s="376"/>
-      <c r="AF1" s="376"/>
-      <c r="AG1" s="376"/>
-      <c r="AH1" s="376"/>
-      <c r="AI1" s="376"/>
-      <c r="AJ1" s="376"/>
-      <c r="AK1" s="376"/>
-      <c r="AL1" s="376"/>
-      <c r="AM1" s="376"/>
-      <c r="AN1" s="376"/>
-      <c r="AO1" s="376"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="349"/>
+      <c r="P1" s="349"/>
+      <c r="Q1" s="349"/>
+      <c r="R1" s="349"/>
+      <c r="S1" s="349"/>
+      <c r="T1" s="349"/>
+      <c r="U1" s="349"/>
+      <c r="V1" s="349"/>
+      <c r="W1" s="349"/>
+      <c r="X1" s="349"/>
+      <c r="Y1" s="349"/>
+      <c r="Z1" s="349"/>
+      <c r="AA1" s="349"/>
+      <c r="AB1" s="349"/>
+      <c r="AC1" s="349"/>
+      <c r="AD1" s="349"/>
+      <c r="AE1" s="349"/>
+      <c r="AF1" s="349"/>
+      <c r="AG1" s="349"/>
+      <c r="AH1" s="349"/>
+      <c r="AI1" s="349"/>
+      <c r="AJ1" s="349"/>
+      <c r="AK1" s="349"/>
+      <c r="AL1" s="349"/>
+      <c r="AM1" s="349"/>
+      <c r="AN1" s="349"/>
+      <c r="AO1" s="349"/>
       <c r="AU1" s="127"/>
       <c r="AV1" s="127"/>
     </row>
     <row r="2" spans="1:48" s="126" customFormat="1" ht="16.8">
-      <c r="A2" s="348"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="348"/>
-      <c r="O2" s="348"/>
-      <c r="P2" s="348"/>
-      <c r="Q2" s="348"/>
-      <c r="R2" s="348"/>
-      <c r="S2" s="348"/>
-      <c r="T2" s="348"/>
-      <c r="U2" s="348"/>
-      <c r="V2" s="348"/>
-      <c r="W2" s="348"/>
-      <c r="X2" s="348"/>
-      <c r="Y2" s="348"/>
-      <c r="Z2" s="348"/>
-      <c r="AA2" s="348"/>
-      <c r="AB2" s="348"/>
-      <c r="AC2" s="348"/>
-      <c r="AD2" s="348"/>
-      <c r="AE2" s="348"/>
-      <c r="AF2" s="348"/>
-      <c r="AG2" s="348"/>
-      <c r="AH2" s="348"/>
-      <c r="AI2" s="348"/>
-      <c r="AJ2" s="348"/>
-      <c r="AK2" s="348"/>
-      <c r="AL2" s="348"/>
-      <c r="AM2" s="348"/>
-      <c r="AN2" s="348"/>
-      <c r="AO2" s="348"/>
+      <c r="A2" s="368"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="368"/>
+      <c r="T2" s="368"/>
+      <c r="U2" s="368"/>
+      <c r="V2" s="368"/>
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="368"/>
+      <c r="AA2" s="368"/>
+      <c r="AB2" s="368"/>
+      <c r="AC2" s="368"/>
+      <c r="AD2" s="368"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="368"/>
+      <c r="AG2" s="368"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="368"/>
+      <c r="AJ2" s="368"/>
+      <c r="AK2" s="368"/>
+      <c r="AL2" s="368"/>
+      <c r="AM2" s="368"/>
+      <c r="AN2" s="368"/>
+      <c r="AO2" s="368"/>
       <c r="AU2" s="127"/>
       <c r="AV2" s="127"/>
     </row>
@@ -54392,10 +54388,10 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
-      <c r="AD3" s="349"/>
-      <c r="AE3" s="349"/>
-      <c r="AF3" s="349"/>
-      <c r="AG3" s="349"/>
+      <c r="AD3" s="369"/>
+      <c r="AE3" s="369"/>
+      <c r="AF3" s="369"/>
+      <c r="AG3" s="369"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
@@ -54408,247 +54404,247 @@
       <c r="AQ3" s="12"/>
     </row>
     <row r="4" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="367" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
-      <c r="H4" s="350"/>
-      <c r="I4" s="350"/>
-      <c r="J4" s="360" t="s">
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="358" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="377"/>
-      <c r="L4" s="377"/>
-      <c r="M4" s="361"/>
-      <c r="N4" s="350" t="s">
+      <c r="K4" s="359"/>
+      <c r="L4" s="359"/>
+      <c r="M4" s="360"/>
+      <c r="N4" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="351" t="s">
+      <c r="O4" s="350" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="360" t="s">
+      <c r="P4" s="358" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="361"/>
-      <c r="R4" s="379" t="s">
+      <c r="Q4" s="360"/>
+      <c r="R4" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="380"/>
-      <c r="T4" s="380"/>
-      <c r="U4" s="380"/>
-      <c r="V4" s="380"/>
-      <c r="W4" s="380"/>
-      <c r="X4" s="380"/>
-      <c r="Y4" s="380"/>
-      <c r="Z4" s="380"/>
-      <c r="AA4" s="381"/>
-      <c r="AB4" s="350" t="s">
+      <c r="S4" s="365"/>
+      <c r="T4" s="365"/>
+      <c r="U4" s="365"/>
+      <c r="V4" s="365"/>
+      <c r="W4" s="365"/>
+      <c r="X4" s="365"/>
+      <c r="Y4" s="365"/>
+      <c r="Z4" s="365"/>
+      <c r="AA4" s="366"/>
+      <c r="AB4" s="367" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="366" t="s">
+      <c r="AC4" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="366"/>
-      <c r="AE4" s="366"/>
-      <c r="AF4" s="366"/>
-      <c r="AG4" s="367"/>
-      <c r="AH4" s="372"/>
-      <c r="AI4" s="372"/>
-      <c r="AJ4" s="372"/>
-      <c r="AK4" s="372"/>
-      <c r="AL4" s="372"/>
-      <c r="AM4" s="372"/>
-      <c r="AN4" s="372"/>
-      <c r="AO4" s="372"/>
-      <c r="AP4" s="372"/>
-      <c r="AQ4" s="372"/>
+      <c r="AD4" s="380"/>
+      <c r="AE4" s="380"/>
+      <c r="AF4" s="380"/>
+      <c r="AG4" s="381"/>
+      <c r="AH4" s="353"/>
+      <c r="AI4" s="353"/>
+      <c r="AJ4" s="353"/>
+      <c r="AK4" s="353"/>
+      <c r="AL4" s="353"/>
+      <c r="AM4" s="353"/>
+      <c r="AN4" s="353"/>
+      <c r="AO4" s="353"/>
+      <c r="AP4" s="353"/>
+      <c r="AQ4" s="353"/>
       <c r="AR4" s="213"/>
     </row>
     <row r="5" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="350"/>
-      <c r="F5" s="350"/>
-      <c r="G5" s="350"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="350"/>
-      <c r="J5" s="364"/>
-      <c r="K5" s="378"/>
-      <c r="L5" s="378"/>
-      <c r="M5" s="365"/>
-      <c r="N5" s="350"/>
-      <c r="O5" s="371"/>
-      <c r="P5" s="362"/>
-      <c r="Q5" s="363"/>
-      <c r="R5" s="352" t="s">
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="361"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="363"/>
+      <c r="N5" s="367"/>
+      <c r="O5" s="351"/>
+      <c r="P5" s="378"/>
+      <c r="Q5" s="379"/>
+      <c r="R5" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="353"/>
-      <c r="T5" s="352" t="s">
+      <c r="S5" s="371"/>
+      <c r="T5" s="370" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="353"/>
-      <c r="V5" s="352" t="s">
+      <c r="U5" s="371"/>
+      <c r="V5" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="353"/>
-      <c r="X5" s="356" t="s">
+      <c r="W5" s="371"/>
+      <c r="X5" s="374" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="357"/>
-      <c r="Z5" s="352" t="s">
+      <c r="Y5" s="375"/>
+      <c r="Z5" s="370" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="353"/>
-      <c r="AB5" s="350"/>
-      <c r="AC5" s="368"/>
-      <c r="AD5" s="368"/>
-      <c r="AE5" s="368"/>
-      <c r="AF5" s="368"/>
-      <c r="AG5" s="369"/>
-      <c r="AH5" s="370" t="s">
+      <c r="AA5" s="371"/>
+      <c r="AB5" s="367"/>
+      <c r="AC5" s="382"/>
+      <c r="AD5" s="382"/>
+      <c r="AE5" s="382"/>
+      <c r="AF5" s="382"/>
+      <c r="AG5" s="383"/>
+      <c r="AH5" s="354" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="370"/>
-      <c r="AJ5" s="370" t="s">
+      <c r="AI5" s="354"/>
+      <c r="AJ5" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="370"/>
-      <c r="AL5" s="370" t="s">
+      <c r="AK5" s="354"/>
+      <c r="AL5" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="AM5" s="370"/>
-      <c r="AN5" s="374" t="s">
+      <c r="AM5" s="354"/>
+      <c r="AN5" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="375"/>
-      <c r="AP5" s="373" t="s">
+      <c r="AO5" s="357"/>
+      <c r="AP5" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="AQ5" s="370"/>
+      <c r="AQ5" s="354"/>
     </row>
     <row r="6" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A6" s="335"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="335"/>
-      <c r="D6" s="350"/>
-      <c r="E6" s="335" t="s">
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="367"/>
+      <c r="E6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="335" t="s">
+      <c r="F6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="345" t="s">
+      <c r="H6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="335" t="s">
+      <c r="I6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="351" t="s">
+      <c r="J6" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="351" t="s">
+      <c r="K6" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="351" t="s">
+      <c r="L6" s="350" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="350" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="350"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="364"/>
-      <c r="Q6" s="365"/>
-      <c r="R6" s="354"/>
-      <c r="S6" s="355"/>
-      <c r="T6" s="354"/>
-      <c r="U6" s="355"/>
-      <c r="V6" s="354"/>
-      <c r="W6" s="355"/>
-      <c r="X6" s="358"/>
-      <c r="Y6" s="359"/>
-      <c r="Z6" s="354"/>
-      <c r="AA6" s="355"/>
-      <c r="AB6" s="350"/>
-      <c r="AC6" s="335" t="s">
+      <c r="N6" s="367"/>
+      <c r="O6" s="351"/>
+      <c r="P6" s="361"/>
+      <c r="Q6" s="363"/>
+      <c r="R6" s="372"/>
+      <c r="S6" s="373"/>
+      <c r="T6" s="372"/>
+      <c r="U6" s="373"/>
+      <c r="V6" s="372"/>
+      <c r="W6" s="373"/>
+      <c r="X6" s="376"/>
+      <c r="Y6" s="377"/>
+      <c r="Z6" s="372"/>
+      <c r="AA6" s="373"/>
+      <c r="AB6" s="367"/>
+      <c r="AC6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="335" t="s">
+      <c r="AD6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="335" t="s">
+      <c r="AE6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="345" t="s">
+      <c r="AF6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="AG6" s="335" t="s">
+      <c r="AG6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="350" t="s">
+      <c r="AH6" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="350" t="s">
+      <c r="AI6" s="367" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="350" t="s">
+      <c r="AJ6" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="350" t="s">
+      <c r="AK6" s="367" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="350" t="s">
+      <c r="AL6" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="350" t="s">
+      <c r="AM6" s="367" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="351" t="s">
+      <c r="AN6" s="350" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="351" t="s">
+      <c r="AO6" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="350" t="s">
+      <c r="AP6" s="367" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="350" t="s">
+      <c r="AQ6" s="367" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="17.25" customHeight="1">
-      <c r="A7" s="345"/>
-      <c r="B7" s="345"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="345"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="371"/>
-      <c r="N7" s="351"/>
-      <c r="O7" s="371"/>
+      <c r="A7" s="338"/>
+      <c r="B7" s="338"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="351"/>
+      <c r="K7" s="351"/>
+      <c r="L7" s="351"/>
+      <c r="M7" s="351"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="351"/>
       <c r="P7" s="13" t="s">
         <v>13</v>
       </c>
@@ -54685,25 +54681,59 @@
       <c r="AA7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="351"/>
-      <c r="AC7" s="345"/>
-      <c r="AD7" s="345"/>
-      <c r="AE7" s="345"/>
-      <c r="AF7" s="382"/>
-      <c r="AG7" s="345"/>
-      <c r="AH7" s="351"/>
-      <c r="AI7" s="351"/>
-      <c r="AJ7" s="351"/>
-      <c r="AK7" s="351"/>
-      <c r="AL7" s="351"/>
-      <c r="AM7" s="351"/>
-      <c r="AN7" s="371"/>
-      <c r="AO7" s="371"/>
-      <c r="AP7" s="351"/>
-      <c r="AQ7" s="351"/>
+      <c r="AB7" s="350"/>
+      <c r="AC7" s="338"/>
+      <c r="AD7" s="338"/>
+      <c r="AE7" s="338"/>
+      <c r="AF7" s="352"/>
+      <c r="AG7" s="338"/>
+      <c r="AH7" s="350"/>
+      <c r="AI7" s="350"/>
+      <c r="AJ7" s="350"/>
+      <c r="AK7" s="350"/>
+      <c r="AL7" s="350"/>
+      <c r="AM7" s="350"/>
+      <c r="AN7" s="351"/>
+      <c r="AO7" s="351"/>
+      <c r="AP7" s="350"/>
+      <c r="AQ7" s="350"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A2:AO2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AF6:AF7"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
@@ -54720,40 +54750,6 @@
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="R4:AA4"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="A2:AO2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54789,46 +54785,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="126" customFormat="1" ht="16.8">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
-      <c r="O1" s="376"/>
-      <c r="P1" s="376"/>
-      <c r="Q1" s="376"/>
-      <c r="R1" s="376"/>
-      <c r="S1" s="376"/>
-      <c r="T1" s="376"/>
-      <c r="U1" s="376"/>
-      <c r="V1" s="376"/>
-      <c r="W1" s="376"/>
-      <c r="X1" s="376"/>
-      <c r="Y1" s="376"/>
-      <c r="Z1" s="376"/>
-      <c r="AA1" s="376"/>
-      <c r="AB1" s="376"/>
-      <c r="AC1" s="376"/>
-      <c r="AD1" s="376"/>
-      <c r="AE1" s="376"/>
-      <c r="AF1" s="376"/>
-      <c r="AG1" s="376"/>
-      <c r="AH1" s="376"/>
-      <c r="AI1" s="376"/>
-      <c r="AJ1" s="376"/>
-      <c r="AK1" s="376"/>
-      <c r="AL1" s="376"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
+      <c r="J1" s="349"/>
+      <c r="K1" s="349"/>
+      <c r="L1" s="349"/>
+      <c r="M1" s="349"/>
+      <c r="N1" s="349"/>
+      <c r="O1" s="349"/>
+      <c r="P1" s="349"/>
+      <c r="Q1" s="349"/>
+      <c r="R1" s="349"/>
+      <c r="S1" s="349"/>
+      <c r="T1" s="349"/>
+      <c r="U1" s="349"/>
+      <c r="V1" s="349"/>
+      <c r="W1" s="349"/>
+      <c r="X1" s="349"/>
+      <c r="Y1" s="349"/>
+      <c r="Z1" s="349"/>
+      <c r="AA1" s="349"/>
+      <c r="AB1" s="349"/>
+      <c r="AC1" s="349"/>
+      <c r="AD1" s="349"/>
+      <c r="AE1" s="349"/>
+      <c r="AF1" s="349"/>
+      <c r="AG1" s="349"/>
+      <c r="AH1" s="349"/>
+      <c r="AI1" s="349"/>
+      <c r="AJ1" s="349"/>
+      <c r="AK1" s="349"/>
+      <c r="AL1" s="349"/>
       <c r="AN1" s="128"/>
       <c r="AO1" s="128"/>
       <c r="AP1" s="128"/>
@@ -54836,44 +54832,44 @@
       <c r="AR1" s="128"/>
     </row>
     <row r="2" spans="1:44" s="126" customFormat="1" ht="16.8">
-      <c r="A2" s="348"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="348"/>
-      <c r="L2" s="348"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="348"/>
-      <c r="O2" s="348"/>
-      <c r="P2" s="348"/>
-      <c r="Q2" s="348"/>
-      <c r="R2" s="348"/>
-      <c r="S2" s="348"/>
-      <c r="T2" s="348"/>
-      <c r="U2" s="348"/>
-      <c r="V2" s="348"/>
-      <c r="W2" s="348"/>
-      <c r="X2" s="348"/>
-      <c r="Y2" s="348"/>
-      <c r="Z2" s="348"/>
-      <c r="AA2" s="348"/>
-      <c r="AB2" s="348"/>
-      <c r="AC2" s="348"/>
-      <c r="AD2" s="348"/>
-      <c r="AE2" s="348"/>
-      <c r="AF2" s="348"/>
-      <c r="AG2" s="348"/>
-      <c r="AH2" s="348"/>
-      <c r="AI2" s="348"/>
-      <c r="AJ2" s="348"/>
-      <c r="AK2" s="348"/>
-      <c r="AL2" s="348"/>
+      <c r="A2" s="368"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="368"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="368"/>
+      <c r="T2" s="368"/>
+      <c r="U2" s="368"/>
+      <c r="V2" s="368"/>
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="368"/>
+      <c r="AA2" s="368"/>
+      <c r="AB2" s="368"/>
+      <c r="AC2" s="368"/>
+      <c r="AD2" s="368"/>
+      <c r="AE2" s="368"/>
+      <c r="AF2" s="368"/>
+      <c r="AG2" s="368"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="368"/>
+      <c r="AJ2" s="368"/>
+      <c r="AK2" s="368"/>
+      <c r="AL2" s="368"/>
       <c r="AN2" s="128"/>
       <c r="AO2" s="128"/>
       <c r="AP2" s="128"/>
@@ -54905,11 +54901,11 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="394" t="s">
+      <c r="Y3" s="384" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="394"/>
-      <c r="AA3" s="394"/>
+      <c r="Z3" s="384"/>
+      <c r="AA3" s="384"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
@@ -54920,233 +54916,233 @@
       <c r="AI3" s="7"/>
     </row>
     <row r="4" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="387" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="384" t="s">
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="381"/>
+      <c r="H4" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="385"/>
-      <c r="J4" s="385"/>
-      <c r="K4" s="386"/>
-      <c r="L4" s="387" t="s">
+      <c r="I4" s="392"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="393"/>
+      <c r="L4" s="394" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="390" t="s">
+      <c r="M4" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="367"/>
-      <c r="O4" s="383" t="s">
+      <c r="N4" s="381"/>
+      <c r="O4" s="385" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="383"/>
-      <c r="R4" s="383"/>
-      <c r="S4" s="383"/>
-      <c r="T4" s="383"/>
-      <c r="U4" s="383"/>
-      <c r="V4" s="383"/>
-      <c r="W4" s="383"/>
-      <c r="X4" s="383"/>
-      <c r="Y4" s="372" t="s">
+      <c r="P4" s="385"/>
+      <c r="Q4" s="385"/>
+      <c r="R4" s="385"/>
+      <c r="S4" s="385"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="385"/>
+      <c r="V4" s="385"/>
+      <c r="W4" s="385"/>
+      <c r="X4" s="385"/>
+      <c r="Y4" s="353" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="383" t="s">
+      <c r="Z4" s="385" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="383"/>
-      <c r="AB4" s="383"/>
-      <c r="AC4" s="383"/>
-      <c r="AD4" s="383"/>
-      <c r="AE4" s="383" t="s">
+      <c r="AA4" s="385"/>
+      <c r="AB4" s="385"/>
+      <c r="AC4" s="385"/>
+      <c r="AD4" s="385"/>
+      <c r="AE4" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="AF4" s="383"/>
-      <c r="AG4" s="383"/>
-      <c r="AH4" s="383"/>
-      <c r="AI4" s="383"/>
-      <c r="AJ4" s="383"/>
-      <c r="AK4" s="383"/>
-      <c r="AL4" s="383"/>
-      <c r="AM4" s="383"/>
-      <c r="AN4" s="389"/>
+      <c r="AF4" s="385"/>
+      <c r="AG4" s="385"/>
+      <c r="AH4" s="385"/>
+      <c r="AI4" s="385"/>
+      <c r="AJ4" s="385"/>
+      <c r="AK4" s="385"/>
+      <c r="AL4" s="385"/>
+      <c r="AM4" s="385"/>
+      <c r="AN4" s="386"/>
       <c r="AO4" s="213"/>
     </row>
     <row r="5" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="391"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="383" t="s">
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="383" t="s">
+      <c r="I5" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="383" t="s">
+      <c r="J5" s="385" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="383" t="s">
+      <c r="K5" s="385" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="388"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="393"/>
-      <c r="O5" s="383"/>
-      <c r="P5" s="383"/>
-      <c r="Q5" s="383"/>
-      <c r="R5" s="383"/>
-      <c r="S5" s="383"/>
-      <c r="T5" s="383"/>
-      <c r="U5" s="383"/>
-      <c r="V5" s="383"/>
-      <c r="W5" s="383"/>
-      <c r="X5" s="383"/>
-      <c r="Y5" s="372"/>
-      <c r="Z5" s="383"/>
-      <c r="AA5" s="383"/>
-      <c r="AB5" s="383"/>
-      <c r="AC5" s="383"/>
-      <c r="AD5" s="383"/>
-      <c r="AE5" s="370" t="s">
+      <c r="L5" s="395"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="390"/>
+      <c r="O5" s="385"/>
+      <c r="P5" s="385"/>
+      <c r="Q5" s="385"/>
+      <c r="R5" s="385"/>
+      <c r="S5" s="385"/>
+      <c r="T5" s="385"/>
+      <c r="U5" s="385"/>
+      <c r="V5" s="385"/>
+      <c r="W5" s="385"/>
+      <c r="X5" s="385"/>
+      <c r="Y5" s="353"/>
+      <c r="Z5" s="385"/>
+      <c r="AA5" s="385"/>
+      <c r="AB5" s="385"/>
+      <c r="AC5" s="385"/>
+      <c r="AD5" s="385"/>
+      <c r="AE5" s="354" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="370"/>
-      <c r="AG5" s="370" t="s">
+      <c r="AF5" s="354"/>
+      <c r="AG5" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="370"/>
-      <c r="AI5" s="370" t="s">
+      <c r="AH5" s="354"/>
+      <c r="AI5" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="370"/>
-      <c r="AK5" s="374" t="s">
+      <c r="AJ5" s="354"/>
+      <c r="AK5" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" s="375"/>
-      <c r="AM5" s="373" t="s">
+      <c r="AL5" s="357"/>
+      <c r="AM5" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="370"/>
+      <c r="AN5" s="354"/>
     </row>
     <row r="6" spans="1:44" ht="17.25" customHeight="1">
-      <c r="A6" s="335"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="335" t="s">
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="345" t="s">
+      <c r="F6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="383"/>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="388"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="369"/>
-      <c r="O6" s="370" t="s">
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="385"/>
+      <c r="K6" s="385"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="388"/>
+      <c r="N6" s="383"/>
+      <c r="O6" s="354" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="370"/>
-      <c r="Q6" s="370" t="s">
+      <c r="P6" s="354"/>
+      <c r="Q6" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="370"/>
-      <c r="S6" s="370" t="s">
+      <c r="R6" s="354"/>
+      <c r="S6" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="370"/>
-      <c r="U6" s="374" t="s">
+      <c r="T6" s="354"/>
+      <c r="U6" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="375"/>
-      <c r="W6" s="373" t="s">
+      <c r="V6" s="357"/>
+      <c r="W6" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="370"/>
-      <c r="Y6" s="372"/>
-      <c r="Z6" s="335" t="s">
+      <c r="X6" s="354"/>
+      <c r="Y6" s="353"/>
+      <c r="Z6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="335" t="s">
+      <c r="AA6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="335" t="s">
+      <c r="AB6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="345" t="s">
+      <c r="AC6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="335" t="s">
+      <c r="AD6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="335" t="s">
+      <c r="AE6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="335" t="s">
+      <c r="AF6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="335" t="s">
+      <c r="AG6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="335" t="s">
+      <c r="AH6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="335" t="s">
+      <c r="AI6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="335" t="s">
+      <c r="AJ6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="335" t="s">
+      <c r="AK6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="335" t="s">
+      <c r="AL6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="335" t="s">
+      <c r="AM6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="335" t="s">
+      <c r="AN6" s="337" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="27" customHeight="1">
-      <c r="A7" s="335"/>
-      <c r="B7" s="335"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
-      <c r="L7" s="388"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="385"/>
+      <c r="I7" s="385"/>
+      <c r="J7" s="385"/>
+      <c r="K7" s="385"/>
+      <c r="L7" s="395"/>
       <c r="M7" s="17" t="s">
         <v>13</v>
       </c>
@@ -55183,25 +55179,56 @@
       <c r="X7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="372"/>
-      <c r="Z7" s="345"/>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="345"/>
-      <c r="AC7" s="382"/>
-      <c r="AD7" s="345"/>
-      <c r="AE7" s="335"/>
-      <c r="AF7" s="335"/>
-      <c r="AG7" s="335"/>
-      <c r="AH7" s="335"/>
-      <c r="AI7" s="335"/>
-      <c r="AJ7" s="335"/>
-      <c r="AK7" s="335"/>
-      <c r="AL7" s="335"/>
-      <c r="AM7" s="335"/>
-      <c r="AN7" s="335"/>
+      <c r="Y7" s="353"/>
+      <c r="Z7" s="338"/>
+      <c r="AA7" s="338"/>
+      <c r="AB7" s="338"/>
+      <c r="AC7" s="352"/>
+      <c r="AD7" s="338"/>
+      <c r="AE7" s="337"/>
+      <c r="AF7" s="337"/>
+      <c r="AG7" s="337"/>
+      <c r="AH7" s="337"/>
+      <c r="AI7" s="337"/>
+      <c r="AJ7" s="337"/>
+      <c r="AK7" s="337"/>
+      <c r="AL7" s="337"/>
+      <c r="AM7" s="337"/>
+      <c r="AN7" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="Z4:AD5"/>
+    <mergeCell ref="AE4:AN4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="M4:N6"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="W6:X6"/>
@@ -55218,37 +55245,6 @@
     <mergeCell ref="AL6:AL7"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z4:AD5"/>
-    <mergeCell ref="AE4:AN4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AE5:AF5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55390,12 +55386,12 @@
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="395" t="s">
+      <c r="Z3" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="395"/>
-      <c r="AB3" s="395"/>
-      <c r="AC3" s="395"/>
+      <c r="AA3" s="398"/>
+      <c r="AB3" s="398"/>
+      <c r="AC3" s="398"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
@@ -55408,227 +55404,227 @@
       <c r="AM3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="20.25" customHeight="1">
-      <c r="A4" s="335" t="s">
+      <c r="A4" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="387" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="383" t="s">
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="381"/>
+      <c r="H4" s="385" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="383"/>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383"/>
-      <c r="L4" s="390" t="s">
+      <c r="I4" s="385"/>
+      <c r="J4" s="385"/>
+      <c r="K4" s="385"/>
+      <c r="L4" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="367"/>
-      <c r="N4" s="383" t="s">
+      <c r="M4" s="381"/>
+      <c r="N4" s="385" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="383"/>
-      <c r="P4" s="383"/>
-      <c r="Q4" s="383"/>
-      <c r="R4" s="383"/>
-      <c r="S4" s="383"/>
-      <c r="T4" s="383"/>
-      <c r="U4" s="383"/>
-      <c r="V4" s="383"/>
-      <c r="W4" s="383"/>
-      <c r="X4" s="372" t="s">
+      <c r="O4" s="385"/>
+      <c r="P4" s="385"/>
+      <c r="Q4" s="385"/>
+      <c r="R4" s="385"/>
+      <c r="S4" s="385"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="385"/>
+      <c r="V4" s="385"/>
+      <c r="W4" s="385"/>
+      <c r="X4" s="353" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="383" t="s">
+      <c r="Y4" s="385" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="383"/>
-      <c r="AA4" s="383"/>
-      <c r="AB4" s="383"/>
-      <c r="AC4" s="383"/>
-      <c r="AD4" s="383" t="s">
+      <c r="Z4" s="385"/>
+      <c r="AA4" s="385"/>
+      <c r="AB4" s="385"/>
+      <c r="AC4" s="385"/>
+      <c r="AD4" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" s="383"/>
-      <c r="AF4" s="383"/>
-      <c r="AG4" s="383"/>
-      <c r="AH4" s="383"/>
-      <c r="AI4" s="383"/>
-      <c r="AJ4" s="383"/>
-      <c r="AK4" s="383"/>
-      <c r="AL4" s="383"/>
-      <c r="AM4" s="383"/>
+      <c r="AE4" s="385"/>
+      <c r="AF4" s="385"/>
+      <c r="AG4" s="385"/>
+      <c r="AH4" s="385"/>
+      <c r="AI4" s="385"/>
+      <c r="AJ4" s="385"/>
+      <c r="AK4" s="385"/>
+      <c r="AL4" s="385"/>
+      <c r="AM4" s="385"/>
       <c r="AN4" s="213"/>
     </row>
     <row r="5" spans="1:40" ht="20.25" customHeight="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="391"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="383" t="s">
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="382"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="383" t="s">
+      <c r="I5" s="385" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="383" t="s">
+      <c r="J5" s="385" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="383" t="s">
+      <c r="K5" s="385" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="392"/>
-      <c r="M5" s="393"/>
-      <c r="N5" s="383"/>
-      <c r="O5" s="383"/>
-      <c r="P5" s="383"/>
-      <c r="Q5" s="383"/>
-      <c r="R5" s="383"/>
-      <c r="S5" s="383"/>
-      <c r="T5" s="383"/>
-      <c r="U5" s="383"/>
-      <c r="V5" s="383"/>
-      <c r="W5" s="383"/>
-      <c r="X5" s="372"/>
-      <c r="Y5" s="383"/>
-      <c r="Z5" s="383"/>
-      <c r="AA5" s="383"/>
-      <c r="AB5" s="383"/>
-      <c r="AC5" s="383"/>
-      <c r="AD5" s="370" t="s">
+      <c r="L5" s="389"/>
+      <c r="M5" s="390"/>
+      <c r="N5" s="385"/>
+      <c r="O5" s="385"/>
+      <c r="P5" s="385"/>
+      <c r="Q5" s="385"/>
+      <c r="R5" s="385"/>
+      <c r="S5" s="385"/>
+      <c r="T5" s="385"/>
+      <c r="U5" s="385"/>
+      <c r="V5" s="385"/>
+      <c r="W5" s="385"/>
+      <c r="X5" s="353"/>
+      <c r="Y5" s="385"/>
+      <c r="Z5" s="385"/>
+      <c r="AA5" s="385"/>
+      <c r="AB5" s="385"/>
+      <c r="AC5" s="385"/>
+      <c r="AD5" s="354" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="370"/>
-      <c r="AF5" s="370" t="s">
+      <c r="AE5" s="354"/>
+      <c r="AF5" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="370"/>
-      <c r="AH5" s="370" t="s">
+      <c r="AG5" s="354"/>
+      <c r="AH5" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="370"/>
-      <c r="AJ5" s="374" t="s">
+      <c r="AI5" s="354"/>
+      <c r="AJ5" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="375"/>
-      <c r="AL5" s="373" t="s">
+      <c r="AK5" s="357"/>
+      <c r="AL5" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="370"/>
+      <c r="AM5" s="354"/>
     </row>
     <row r="6" spans="1:40" ht="20.25" customHeight="1">
-      <c r="A6" s="335"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="335" t="s">
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="345" t="s">
+      <c r="F6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="335" t="s">
+      <c r="G6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="383"/>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="369"/>
-      <c r="N6" s="370" t="s">
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="385"/>
+      <c r="K6" s="385"/>
+      <c r="L6" s="388"/>
+      <c r="M6" s="383"/>
+      <c r="N6" s="354" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="370"/>
-      <c r="P6" s="370" t="s">
+      <c r="O6" s="354"/>
+      <c r="P6" s="354" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="370"/>
-      <c r="R6" s="370" t="s">
+      <c r="Q6" s="354"/>
+      <c r="R6" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="370"/>
-      <c r="T6" s="374" t="s">
+      <c r="S6" s="354"/>
+      <c r="T6" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="375"/>
-      <c r="V6" s="373" t="s">
+      <c r="U6" s="357"/>
+      <c r="V6" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="370"/>
-      <c r="X6" s="372"/>
-      <c r="Y6" s="335" t="s">
+      <c r="W6" s="354"/>
+      <c r="X6" s="353"/>
+      <c r="Y6" s="337" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="335" t="s">
+      <c r="Z6" s="337" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="335" t="s">
+      <c r="AA6" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="345" t="s">
+      <c r="AB6" s="338" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="335" t="s">
+      <c r="AC6" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="335" t="s">
+      <c r="AD6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="335" t="s">
+      <c r="AE6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="335" t="s">
+      <c r="AF6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="335" t="s">
+      <c r="AG6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="335" t="s">
+      <c r="AH6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="335" t="s">
+      <c r="AI6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="335" t="s">
+      <c r="AJ6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="335" t="s">
+      <c r="AK6" s="337" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="335" t="s">
+      <c r="AL6" s="337" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="335" t="s">
+      <c r="AM6" s="337" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="20.25" customHeight="1">
-      <c r="A7" s="335"/>
-      <c r="B7" s="335"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="385"/>
+      <c r="I7" s="385"/>
+      <c r="J7" s="385"/>
+      <c r="K7" s="385"/>
       <c r="L7" s="17" t="s">
         <v>13</v>
       </c>
@@ -55665,22 +55661,22 @@
       <c r="W7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="372"/>
-      <c r="Y7" s="345"/>
-      <c r="Z7" s="345"/>
-      <c r="AA7" s="345"/>
-      <c r="AB7" s="382"/>
-      <c r="AC7" s="345"/>
-      <c r="AD7" s="335"/>
-      <c r="AE7" s="335"/>
-      <c r="AF7" s="335"/>
-      <c r="AG7" s="335"/>
-      <c r="AH7" s="335"/>
-      <c r="AI7" s="335"/>
-      <c r="AJ7" s="335"/>
-      <c r="AK7" s="335"/>
-      <c r="AL7" s="335"/>
-      <c r="AM7" s="335"/>
+      <c r="X7" s="353"/>
+      <c r="Y7" s="338"/>
+      <c r="Z7" s="338"/>
+      <c r="AA7" s="338"/>
+      <c r="AB7" s="352"/>
+      <c r="AC7" s="338"/>
+      <c r="AD7" s="337"/>
+      <c r="AE7" s="337"/>
+      <c r="AF7" s="337"/>
+      <c r="AG7" s="337"/>
+      <c r="AH7" s="337"/>
+      <c r="AI7" s="337"/>
+      <c r="AJ7" s="337"/>
+      <c r="AK7" s="337"/>
+      <c r="AL7" s="337"/>
+      <c r="AM7" s="337"/>
     </row>
     <row r="8" spans="1:40" ht="20.25" customHeight="1">
       <c r="B8" s="216"/>
@@ -57888,6 +57884,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="N4:W5"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="Y4:AC5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AD4:AM4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A2:AK2"/>
     <mergeCell ref="F6:F7"/>
@@ -57904,36 +57930,6 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Y4:AC5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AD4:AM4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="N4:W5"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57966,12 +57962,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="399" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
       <c r="E1" s="202"/>
       <c r="F1" s="19"/>
       <c r="G1" s="202"/>
@@ -57985,22 +57981,22 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
-      <c r="R1" s="410" t="s">
+      <c r="R1" s="399" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="410"/>
-      <c r="T1" s="410"/>
-      <c r="U1" s="410"/>
-      <c r="V1" s="410"/>
-      <c r="W1" s="410"/>
+      <c r="S1" s="399"/>
+      <c r="T1" s="399"/>
+      <c r="U1" s="399"/>
+      <c r="V1" s="399"/>
+      <c r="W1" s="399"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="400" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
       <c r="E2" s="203"/>
       <c r="F2" s="147"/>
       <c r="G2" s="203"/>
@@ -58014,249 +58010,249 @@
       <c r="O2" s="147"/>
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
-      <c r="R2" s="411" t="s">
+      <c r="R2" s="400" t="s">
         <v>176</v>
       </c>
-      <c r="S2" s="411"/>
-      <c r="T2" s="411"/>
-      <c r="U2" s="411"/>
-      <c r="V2" s="411"/>
-      <c r="W2" s="411"/>
+      <c r="S2" s="400"/>
+      <c r="T2" s="400"/>
+      <c r="U2" s="400"/>
+      <c r="V2" s="400"/>
+      <c r="W2" s="400"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="412" t="s">
+      <c r="A3" s="401" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="412"/>
-      <c r="P3" s="412"/>
-      <c r="Q3" s="412"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="412"/>
-      <c r="T3" s="412"/>
-      <c r="U3" s="412"/>
-      <c r="V3" s="412"/>
-      <c r="W3" s="412"/>
+      <c r="B3" s="401"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="401"/>
+      <c r="E3" s="401"/>
+      <c r="F3" s="401"/>
+      <c r="G3" s="401"/>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="401"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="401"/>
+      <c r="R3" s="401"/>
+      <c r="S3" s="401"/>
+      <c r="T3" s="401"/>
+      <c r="U3" s="401"/>
+      <c r="V3" s="401"/>
+      <c r="W3" s="401"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="413"/>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="413"/>
-      <c r="K4" s="413"/>
-      <c r="L4" s="413"/>
-      <c r="M4" s="413"/>
-      <c r="N4" s="413"/>
-      <c r="O4" s="413"/>
-      <c r="P4" s="413"/>
-      <c r="Q4" s="413"/>
-      <c r="R4" s="413"/>
-      <c r="S4" s="413"/>
-      <c r="T4" s="413"/>
-      <c r="U4" s="413"/>
-      <c r="V4" s="413"/>
-      <c r="W4" s="413"/>
+      <c r="A4" s="402"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="402"/>
+      <c r="J4" s="402"/>
+      <c r="K4" s="402"/>
+      <c r="L4" s="402"/>
+      <c r="M4" s="402"/>
+      <c r="N4" s="402"/>
+      <c r="O4" s="402"/>
+      <c r="P4" s="402"/>
+      <c r="Q4" s="402"/>
+      <c r="R4" s="402"/>
+      <c r="S4" s="402"/>
+      <c r="T4" s="402"/>
+      <c r="U4" s="402"/>
+      <c r="V4" s="402"/>
+      <c r="W4" s="402"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="414"/>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="414"/>
-      <c r="E5" s="414"/>
-      <c r="F5" s="414"/>
-      <c r="G5" s="414"/>
-      <c r="H5" s="414"/>
-      <c r="I5" s="414"/>
-      <c r="J5" s="414"/>
-      <c r="K5" s="414"/>
-      <c r="L5" s="414"/>
-      <c r="M5" s="414"/>
-      <c r="N5" s="414"/>
-      <c r="O5" s="414"/>
-      <c r="P5" s="414"/>
-      <c r="Q5" s="414"/>
-      <c r="R5" s="414"/>
-      <c r="S5" s="414"/>
-      <c r="T5" s="414"/>
-      <c r="U5" s="414"/>
-      <c r="V5" s="414"/>
-      <c r="W5" s="414"/>
+      <c r="A5" s="403"/>
+      <c r="B5" s="403"/>
+      <c r="C5" s="403"/>
+      <c r="D5" s="403"/>
+      <c r="E5" s="403"/>
+      <c r="F5" s="403"/>
+      <c r="G5" s="403"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="403"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="403"/>
+      <c r="O5" s="403"/>
+      <c r="P5" s="403"/>
+      <c r="Q5" s="403"/>
+      <c r="R5" s="403"/>
+      <c r="S5" s="403"/>
+      <c r="T5" s="403"/>
+      <c r="U5" s="403"/>
+      <c r="V5" s="403"/>
+      <c r="W5" s="403"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="417" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="404" t="s">
+      <c r="B6" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="404" t="s">
+      <c r="C6" s="417" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="417" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="345" t="s">
+      <c r="E6" s="338" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="345" t="s">
+      <c r="F6" s="338" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="345" t="s">
+      <c r="G6" s="338" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="345" t="s">
+      <c r="H6" s="338" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="345" t="s">
+      <c r="I6" s="338" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="415" t="s">
+      <c r="J6" s="404" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="416"/>
-      <c r="L6" s="360" t="s">
+      <c r="K6" s="405"/>
+      <c r="L6" s="358" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="377"/>
-      <c r="N6" s="377"/>
-      <c r="O6" s="361"/>
-      <c r="P6" s="360" t="s">
+      <c r="M6" s="359"/>
+      <c r="N6" s="359"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="358" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="361"/>
-      <c r="R6" s="360" t="s">
+      <c r="Q6" s="360"/>
+      <c r="R6" s="358" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="361"/>
-      <c r="T6" s="360" t="s">
+      <c r="S6" s="360"/>
+      <c r="T6" s="358" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="361"/>
-      <c r="V6" s="360" t="s">
+      <c r="U6" s="360"/>
+      <c r="V6" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="361"/>
+      <c r="W6" s="360"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="A7" s="405"/>
-      <c r="B7" s="405"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="405"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="382"/>
-      <c r="H7" s="382"/>
-      <c r="I7" s="382"/>
-      <c r="J7" s="417"/>
-      <c r="K7" s="418"/>
-      <c r="L7" s="364"/>
-      <c r="M7" s="378"/>
-      <c r="N7" s="378"/>
-      <c r="O7" s="365"/>
-      <c r="P7" s="364"/>
-      <c r="Q7" s="365"/>
-      <c r="R7" s="364"/>
-      <c r="S7" s="365"/>
-      <c r="T7" s="364"/>
-      <c r="U7" s="365"/>
-      <c r="V7" s="364"/>
-      <c r="W7" s="365"/>
+      <c r="A7" s="418"/>
+      <c r="B7" s="418"/>
+      <c r="C7" s="418"/>
+      <c r="D7" s="418"/>
+      <c r="E7" s="352"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="352"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="352"/>
+      <c r="J7" s="406"/>
+      <c r="K7" s="407"/>
+      <c r="L7" s="361"/>
+      <c r="M7" s="362"/>
+      <c r="N7" s="362"/>
+      <c r="O7" s="363"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="363"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="363"/>
+      <c r="T7" s="361"/>
+      <c r="U7" s="363"/>
+      <c r="V7" s="361"/>
+      <c r="W7" s="363"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="A8" s="405"/>
-      <c r="B8" s="405"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="405"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="402" t="s">
+      <c r="A8" s="418"/>
+      <c r="B8" s="418"/>
+      <c r="C8" s="418"/>
+      <c r="D8" s="418"/>
+      <c r="E8" s="352"/>
+      <c r="F8" s="352"/>
+      <c r="G8" s="352"/>
+      <c r="H8" s="352"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="411" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="408" t="s">
+      <c r="K8" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="351" t="s">
+      <c r="L8" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="351" t="s">
+      <c r="M8" s="350" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="351" t="s">
+      <c r="N8" s="350" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="351" t="s">
+      <c r="O8" s="350" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="402" t="s">
+      <c r="P8" s="411" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="402" t="s">
+      <c r="Q8" s="411" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="402" t="s">
+      <c r="R8" s="411" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="402" t="s">
+      <c r="S8" s="411" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="402" t="s">
+      <c r="T8" s="411" t="s">
         <v>78</v>
       </c>
-      <c r="U8" s="402" t="s">
+      <c r="U8" s="411" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="400" t="s">
+      <c r="V8" s="415" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="398" t="s">
+      <c r="W8" s="413" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1">
-      <c r="A9" s="406"/>
-      <c r="B9" s="406"/>
-      <c r="C9" s="406"/>
-      <c r="D9" s="406"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="346"/>
-      <c r="G9" s="346"/>
-      <c r="H9" s="346"/>
-      <c r="I9" s="346"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="409"/>
-      <c r="L9" s="407"/>
-      <c r="M9" s="407"/>
-      <c r="N9" s="407"/>
-      <c r="O9" s="407"/>
-      <c r="P9" s="403"/>
-      <c r="Q9" s="403"/>
-      <c r="R9" s="403"/>
-      <c r="S9" s="403"/>
-      <c r="T9" s="403"/>
-      <c r="U9" s="403"/>
-      <c r="V9" s="401"/>
-      <c r="W9" s="399"/>
+      <c r="A9" s="419"/>
+      <c r="B9" s="419"/>
+      <c r="C9" s="419"/>
+      <c r="D9" s="419"/>
+      <c r="E9" s="339"/>
+      <c r="F9" s="339"/>
+      <c r="G9" s="339"/>
+      <c r="H9" s="339"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="412"/>
+      <c r="K9" s="410"/>
+      <c r="L9" s="408"/>
+      <c r="M9" s="408"/>
+      <c r="N9" s="408"/>
+      <c r="O9" s="408"/>
+      <c r="P9" s="412"/>
+      <c r="Q9" s="412"/>
+      <c r="R9" s="412"/>
+      <c r="S9" s="412"/>
+      <c r="T9" s="412"/>
+      <c r="U9" s="412"/>
+      <c r="V9" s="416"/>
+      <c r="W9" s="414"/>
     </row>
     <row r="305" spans="1:41" s="135" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="219"/>
@@ -58555,6 +58551,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:D1"/>
@@ -58571,26 +58587,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I6:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58626,40 +58622,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="422" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
-      <c r="F1" s="424"/>
-      <c r="G1" s="424"/>
-      <c r="H1" s="424"/>
-      <c r="I1" s="424"/>
-      <c r="J1" s="424"/>
-      <c r="K1" s="424"/>
-      <c r="L1" s="424"/>
-      <c r="M1" s="424"/>
-      <c r="N1" s="424"/>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="I1" s="422"/>
+      <c r="J1" s="422"/>
+      <c r="K1" s="422"/>
+      <c r="L1" s="422"/>
+      <c r="M1" s="422"/>
+      <c r="N1" s="422"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="425" t="s">
+      <c r="A2" s="423" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="425"/>
-      <c r="C2" s="425"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="425"/>
-      <c r="J2" s="425"/>
-      <c r="K2" s="425"/>
-      <c r="L2" s="425"/>
-      <c r="M2" s="425"/>
-      <c r="N2" s="425"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="D2" s="423"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="423"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="423"/>
+      <c r="I2" s="423"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+      <c r="L2" s="423"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="25"/>
@@ -58678,54 +58674,54 @@
       <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="424" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-      <c r="I4" s="426"/>
-      <c r="J4" s="426"/>
-      <c r="K4" s="426"/>
-      <c r="L4" s="426"/>
-      <c r="M4" s="426"/>
-      <c r="N4" s="426"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="424"/>
+      <c r="L4" s="424"/>
+      <c r="M4" s="424"/>
+      <c r="N4" s="424"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="427"/>
-      <c r="B5" s="427"/>
-      <c r="C5" s="427"/>
-      <c r="D5" s="427"/>
-      <c r="E5" s="427"/>
-      <c r="F5" s="427"/>
-      <c r="G5" s="427"/>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
-      <c r="M5" s="427"/>
-      <c r="N5" s="427"/>
+      <c r="A5" s="425"/>
+      <c r="B5" s="425"/>
+      <c r="C5" s="425"/>
+      <c r="D5" s="425"/>
+      <c r="E5" s="425"/>
+      <c r="F5" s="425"/>
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
+      <c r="I5" s="425"/>
+      <c r="J5" s="425"/>
+      <c r="K5" s="425"/>
+      <c r="L5" s="425"/>
+      <c r="M5" s="425"/>
+      <c r="N5" s="425"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="427"/>
-      <c r="B6" s="427"/>
-      <c r="C6" s="427"/>
-      <c r="D6" s="427"/>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427"/>
-      <c r="G6" s="427"/>
-      <c r="H6" s="427"/>
-      <c r="I6" s="427"/>
-      <c r="J6" s="427"/>
-      <c r="K6" s="427"/>
-      <c r="L6" s="427"/>
-      <c r="M6" s="427"/>
-      <c r="N6" s="427"/>
+      <c r="A6" s="425"/>
+      <c r="B6" s="425"/>
+      <c r="C6" s="425"/>
+      <c r="D6" s="425"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="425"/>
+      <c r="H6" s="425"/>
+      <c r="I6" s="425"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="425"/>
+      <c r="L6" s="425"/>
+      <c r="M6" s="425"/>
+      <c r="N6" s="425"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="34"/>
@@ -58744,105 +58740,117 @@
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="419" t="s">
+      <c r="A8" s="426" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="419" t="s">
+      <c r="B8" s="426" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="420" t="s">
+      <c r="C8" s="427" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="419" t="s">
+      <c r="D8" s="426" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="335" t="s">
+      <c r="E8" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335" t="s">
+      <c r="F8" s="337"/>
+      <c r="G8" s="337" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="335"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335" t="s">
+      <c r="H8" s="337"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="337" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="335" t="s">
+      <c r="L8" s="337" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="428" t="s">
+      <c r="M8" s="420" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="428"/>
+      <c r="N8" s="420"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="419"/>
-      <c r="B9" s="419"/>
-      <c r="C9" s="421"/>
-      <c r="D9" s="419"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="335"/>
-      <c r="K9" s="335"/>
-      <c r="L9" s="335"/>
-      <c r="M9" s="428"/>
-      <c r="N9" s="428"/>
+      <c r="A9" s="426"/>
+      <c r="B9" s="426"/>
+      <c r="C9" s="428"/>
+      <c r="D9" s="426"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="420"/>
+      <c r="N9" s="420"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="419"/>
-      <c r="B10" s="419"/>
-      <c r="C10" s="421"/>
-      <c r="D10" s="419"/>
-      <c r="E10" s="423" t="s">
+      <c r="A10" s="426"/>
+      <c r="B10" s="426"/>
+      <c r="C10" s="428"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="430" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="423" t="s">
+      <c r="F10" s="430" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="335" t="s">
+      <c r="G10" s="337" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="335" t="s">
+      <c r="H10" s="337" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="335" t="s">
+      <c r="I10" s="337" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="335" t="s">
+      <c r="J10" s="337" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="335"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="429" t="s">
+      <c r="K10" s="337"/>
+      <c r="L10" s="337"/>
+      <c r="M10" s="421" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="429" t="s">
+      <c r="N10" s="421" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="419"/>
-      <c r="B11" s="419"/>
-      <c r="C11" s="422"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="423"/>
-      <c r="F11" s="423"/>
-      <c r="G11" s="335"/>
-      <c r="H11" s="335"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="335"/>
-      <c r="K11" s="335"/>
-      <c r="L11" s="335"/>
-      <c r="M11" s="429"/>
-      <c r="N11" s="429"/>
+      <c r="A11" s="426"/>
+      <c r="B11" s="426"/>
+      <c r="C11" s="429"/>
+      <c r="D11" s="426"/>
+      <c r="E11" s="430"/>
+      <c r="F11" s="430"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="337"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="421"/>
+      <c r="N11" s="421"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -58853,18 +58861,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58893,50 +58889,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="173" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="431" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
       <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:9" s="173" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="431" t="s">
+      <c r="A2" s="432" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
       <c r="H2" s="174"/>
       <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" s="173" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="432"/>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
+      <c r="A3" s="433"/>
+      <c r="B3" s="433"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
       <c r="H3" s="175"/>
     </row>
     <row r="4" spans="1:9" s="177" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="434" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="433"/>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="433"/>
-      <c r="G4" s="433"/>
+      <c r="B4" s="434"/>
+      <c r="C4" s="434"/>
+      <c r="D4" s="434"/>
+      <c r="E4" s="434"/>
+      <c r="F4" s="434"/>
+      <c r="G4" s="434"/>
       <c r="H4" s="176"/>
     </row>
     <row r="5" spans="1:9" s="177" customFormat="1" ht="22.5" customHeight="1">
@@ -58947,24 +58943,24 @@
       <c r="F5" s="179"/>
     </row>
     <row r="6" spans="1:9" s="180" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="435" t="s">
+      <c r="A6" s="436" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="435" t="s">
+      <c r="B6" s="436" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="434" t="s">
+      <c r="C6" s="435" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="434"/>
-      <c r="E6" s="434"/>
-      <c r="F6" s="434"/>
-      <c r="G6" s="434"/>
+      <c r="D6" s="435"/>
+      <c r="E6" s="435"/>
+      <c r="F6" s="435"/>
+      <c r="G6" s="435"/>
       <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:9" s="177" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="435"/>
-      <c r="B7" s="435"/>
+      <c r="A7" s="436"/>
+      <c r="B7" s="436"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -58983,8 +58979,8 @@
       <c r="H7" s="181"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A8" s="435"/>
-      <c r="B8" s="435"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="436"/>
       <c r="C8" s="158" t="s">
         <v>42</v>
       </c>
@@ -59035,66 +59031,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A1" s="430" t="s">
+      <c r="A1" s="431" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="430"/>
-      <c r="C1" s="430"/>
-      <c r="D1" s="430"/>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="430"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A2" s="431" t="s">
+      <c r="A2" s="432" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="431"/>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="432"/>
-      <c r="B3" s="432"/>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
+      <c r="A3" s="433"/>
+      <c r="B3" s="433"/>
+      <c r="C3" s="433"/>
+      <c r="D3" s="433"/>
+      <c r="E3" s="433"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="436" t="s">
+      <c r="A4" s="437" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="436"/>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
+      <c r="B4" s="437"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="437"/>
+      <c r="E4" s="437"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="437"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="438" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="438" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="438" t="s">
+      <c r="C5" s="439" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="438"/>
+      <c r="D5" s="439"/>
+      <c r="E5" s="439"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="439"/>
       <c r="H5" s="215"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="437"/>
-      <c r="B6" s="437"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="438"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
@@ -59112,8 +59108,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="437"/>
-      <c r="B7" s="437"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="438"/>
       <c r="C7" s="160" t="s">
         <v>42</v>
       </c>
